--- a/RSilva.xlsx
+++ b/RSilva.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Paulo\Desktop\AnaliseDebitos\Comerciais\Comercias_streamlit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E4B9F148-DE1A-4C78-B2AD-08E24005C426}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99255BF3-FF99-4BC7-BD03-C2D70B7D5DFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{625309C2-95EA-4B09-BB51-191061F91C1F}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="865" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="718" uniqueCount="65">
   <si>
     <t>Tipo Conta</t>
   </si>
@@ -113,9 +113,6 @@
     <t>6A30</t>
   </si>
   <si>
-    <t>Mini Mercado Marco De Simães, Lda</t>
-  </si>
-  <si>
     <t>Talho Cruz Das Bouças Unip., Lda</t>
   </si>
   <si>
@@ -128,9 +125,6 @@
     <t>31A60</t>
   </si>
   <si>
-    <t>Dupla Famosa - Unipessoal,Lda</t>
-  </si>
-  <si>
     <t>RPR</t>
   </si>
   <si>
@@ -140,9 +134,6 @@
     <t>1A5</t>
   </si>
   <si>
-    <t>Talho Albino Amor - Unipessoal,Lda</t>
-  </si>
-  <si>
     <t>CCR</t>
   </si>
   <si>
@@ -155,30 +146,12 @@
     <t>91A120</t>
   </si>
   <si>
-    <t>Jaime António Gonç.Alves Carvalho</t>
-  </si>
-  <si>
     <t>FAC</t>
   </si>
   <si>
-    <t>33-0263210</t>
-  </si>
-  <si>
     <t>M120</t>
   </si>
   <si>
-    <t>33-0263671</t>
-  </si>
-  <si>
-    <t>33-0264170</t>
-  </si>
-  <si>
-    <t>33-0264687</t>
-  </si>
-  <si>
-    <t>Carlos M. Rebelo Ribeiro Unip.,Lda</t>
-  </si>
-  <si>
     <t>61A90</t>
   </si>
   <si>
@@ -204,9 +177,6 @@
   </si>
   <si>
     <t>Traço Salgado Carnes Unipessoal,Lda</t>
-  </si>
-  <si>
-    <t>Paulo Jorge P. Nogueira, Unip.,Lda</t>
   </si>
   <si>
     <t>Manuel Ferreira Monteiro</t>
@@ -635,10 +605,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD349965-A8B5-4EE0-821C-041F97E8ED57}">
-  <dimension ref="A1:M142"/>
+  <dimension ref="A1:M119"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q21" sqref="Q21"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -715,7 +685,7 @@
         <v>45846.542997685181</v>
       </c>
       <c r="I2" s="2">
-        <v>-14.542743055550091</v>
+        <v>-12.542743055550091</v>
       </c>
       <c r="J2" s="3">
         <v>342.38</v>
@@ -756,7 +726,7 @@
         <v>45834.507268518515</v>
       </c>
       <c r="I3" s="2">
-        <v>-2.5068981481454102</v>
+        <v>-0.50689814814541023</v>
       </c>
       <c r="J3" s="3">
         <v>100.2</v>
@@ -797,7 +767,7 @@
         <v>45855.560266203705</v>
       </c>
       <c r="I4" s="2">
-        <v>-23.559814814812853</v>
+        <v>-21.559814814812853</v>
       </c>
       <c r="J4" s="3">
         <v>63.9</v>
@@ -838,7 +808,7 @@
         <v>45855.554108796292</v>
       </c>
       <c r="I5" s="2">
-        <v>-23.552534722221026</v>
+        <v>-21.552534722221026</v>
       </c>
       <c r="J5" s="3">
         <v>195.99</v>
@@ -855,10 +825,10 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>211110629</v>
+        <v>211110545</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C6" t="s">
         <v>14</v>
@@ -867,25 +837,25 @@
         <v>15</v>
       </c>
       <c r="E6">
-        <v>10639</v>
+        <v>11019</v>
       </c>
       <c r="F6" t="s">
         <v>16</v>
       </c>
       <c r="G6" s="1">
-        <v>45884.469178240739</v>
+        <v>45893.454085648147</v>
       </c>
       <c r="H6" s="1">
-        <v>45854.469178240739</v>
+        <v>45863.454097222224</v>
       </c>
       <c r="I6" s="2">
-        <v>-22.469178240738984</v>
+        <v>-29.454085648147156</v>
       </c>
       <c r="J6" s="3">
-        <v>120.76</v>
+        <v>145.12</v>
       </c>
       <c r="K6" s="3">
-        <v>120.76</v>
+        <v>145.12</v>
       </c>
       <c r="L6" t="s">
         <v>17</v>
@@ -896,10 +866,10 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>211111219</v>
+        <v>211110629</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C7" t="s">
         <v>14</v>
@@ -908,25 +878,25 @@
         <v>15</v>
       </c>
       <c r="E7">
-        <v>10289</v>
+        <v>10639</v>
       </c>
       <c r="F7" t="s">
         <v>16</v>
       </c>
       <c r="G7" s="1">
-        <v>45876.546064814815</v>
+        <v>45884.469178240739</v>
       </c>
       <c r="H7" s="1">
-        <v>45846.5465162037</v>
+        <v>45854.469178240739</v>
       </c>
       <c r="I7" s="2">
-        <v>-14.546064814814599</v>
+        <v>-20.469178240738984</v>
       </c>
       <c r="J7" s="3">
-        <v>157.82</v>
+        <v>120.76</v>
       </c>
       <c r="K7" s="3">
-        <v>157.82</v>
+        <v>120.76</v>
       </c>
       <c r="L7" t="s">
         <v>17</v>
@@ -949,25 +919,25 @@
         <v>15</v>
       </c>
       <c r="E8">
-        <v>10721</v>
+        <v>10289</v>
       </c>
       <c r="F8" t="s">
         <v>16</v>
       </c>
       <c r="G8" s="1">
-        <v>45885.593645833331</v>
+        <v>45876.546064814815</v>
       </c>
       <c r="H8" s="1">
-        <v>45855.593657407408</v>
+        <v>45846.5465162037</v>
       </c>
       <c r="I8" s="2">
-        <v>-23.593645833330811</v>
+        <v>-12.546064814814599</v>
       </c>
       <c r="J8" s="3">
-        <v>177.07</v>
+        <v>157.82</v>
       </c>
       <c r="K8" s="3">
-        <v>177.07</v>
+        <v>157.82</v>
       </c>
       <c r="L8" t="s">
         <v>17</v>
@@ -978,10 +948,10 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>211111233</v>
+        <v>211111219</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C9" t="s">
         <v>14</v>
@@ -990,31 +960,31 @@
         <v>15</v>
       </c>
       <c r="E9">
-        <v>8740</v>
+        <v>10721</v>
       </c>
       <c r="F9" t="s">
         <v>16</v>
       </c>
       <c r="G9" s="1">
-        <v>45855.442199074074</v>
+        <v>45885.593645833331</v>
       </c>
       <c r="H9" s="1">
-        <v>45810.442384259259</v>
+        <v>45855.593657407408</v>
       </c>
       <c r="I9" s="2">
-        <v>6.5578009259261307</v>
+        <v>-21.593645833330811</v>
       </c>
       <c r="J9" s="3">
-        <v>68.78</v>
+        <v>177.07</v>
       </c>
       <c r="K9" s="3">
-        <v>68.78</v>
+        <v>177.07</v>
       </c>
       <c r="L9" t="s">
         <v>17</v>
       </c>
       <c r="M9" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
@@ -1031,31 +1001,31 @@
         <v>15</v>
       </c>
       <c r="E10">
-        <v>9007</v>
+        <v>8740</v>
       </c>
       <c r="F10" t="s">
         <v>16</v>
       </c>
       <c r="G10" s="1">
-        <v>45862.469953703701</v>
+        <v>45855.442199074074</v>
       </c>
       <c r="H10" s="1">
-        <v>45817.470231481479</v>
+        <v>45810.442384259259</v>
       </c>
       <c r="I10" s="2">
-        <v>-0.4699537037013215</v>
+        <v>8.5578009259261307</v>
       </c>
       <c r="J10" s="3">
-        <v>127.65</v>
+        <v>68.78</v>
       </c>
       <c r="K10" s="3">
-        <v>127.65</v>
+        <v>68.78</v>
       </c>
       <c r="L10" t="s">
         <v>17</v>
       </c>
       <c r="M10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
@@ -1072,31 +1042,31 @@
         <v>15</v>
       </c>
       <c r="E11">
-        <v>9306</v>
+        <v>9007</v>
       </c>
       <c r="F11" t="s">
         <v>16</v>
       </c>
       <c r="G11" s="1">
-        <v>45869.470729166664</v>
+        <v>45862.469953703701</v>
       </c>
       <c r="H11" s="1">
-        <v>45824.473055555551</v>
+        <v>45817.470231481479</v>
       </c>
       <c r="I11" s="2">
-        <v>-7.4707291666636593</v>
+        <v>1.5300462962986785</v>
       </c>
       <c r="J11" s="3">
-        <v>129.6</v>
+        <v>127.65</v>
       </c>
       <c r="K11" s="3">
-        <v>129.6</v>
+        <v>127.65</v>
       </c>
       <c r="L11" t="s">
         <v>17</v>
       </c>
       <c r="M11" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
@@ -1113,25 +1083,25 @@
         <v>15</v>
       </c>
       <c r="E12">
-        <v>9585</v>
+        <v>9306</v>
       </c>
       <c r="F12" t="s">
         <v>16</v>
       </c>
       <c r="G12" s="1">
-        <v>45876.426076388889</v>
+        <v>45869.470729166664</v>
       </c>
       <c r="H12" s="1">
-        <v>45831.428472222222</v>
+        <v>45824.473055555551</v>
       </c>
       <c r="I12" s="2">
-        <v>-14.42607638888876</v>
+        <v>-5.4707291666636593</v>
       </c>
       <c r="J12" s="3">
-        <v>140.36000000000001</v>
+        <v>129.6</v>
       </c>
       <c r="K12" s="3">
-        <v>140.36000000000001</v>
+        <v>129.6</v>
       </c>
       <c r="L12" t="s">
         <v>17</v>
@@ -1154,25 +1124,25 @@
         <v>15</v>
       </c>
       <c r="E13">
-        <v>10087</v>
+        <v>9585</v>
       </c>
       <c r="F13" t="s">
         <v>16</v>
       </c>
       <c r="G13" s="1">
-        <v>45886.740532407406</v>
+        <v>45876.426076388889</v>
       </c>
       <c r="H13" s="1">
-        <v>45841.741412037038</v>
+        <v>45831.428472222222</v>
       </c>
       <c r="I13" s="2">
-        <v>-24.740532407406135</v>
+        <v>-12.42607638888876</v>
       </c>
       <c r="J13" s="3">
-        <v>286.95999999999998</v>
+        <v>140.36000000000001</v>
       </c>
       <c r="K13" s="3">
-        <v>286.95999999999998</v>
+        <v>140.36000000000001</v>
       </c>
       <c r="L13" t="s">
         <v>17</v>
@@ -1195,25 +1165,25 @@
         <v>15</v>
       </c>
       <c r="E14">
-        <v>10198</v>
+        <v>10087</v>
       </c>
       <c r="F14" t="s">
         <v>16</v>
       </c>
       <c r="G14" s="1">
-        <v>45890.461192129631</v>
+        <v>45886.740532407406</v>
       </c>
       <c r="H14" s="1">
-        <v>45845.4612037037</v>
+        <v>45841.741412037038</v>
       </c>
       <c r="I14" s="2">
-        <v>-28.461192129630945</v>
+        <v>-22.740532407406135</v>
       </c>
       <c r="J14" s="3">
-        <v>317.5</v>
+        <v>286.95999999999998</v>
       </c>
       <c r="K14" s="3">
-        <v>317.5</v>
+        <v>286.95999999999998</v>
       </c>
       <c r="L14" t="s">
         <v>17</v>
@@ -1236,25 +1206,25 @@
         <v>15</v>
       </c>
       <c r="E15">
-        <v>10641</v>
+        <v>10198</v>
       </c>
       <c r="F15" t="s">
         <v>16</v>
       </c>
       <c r="G15" s="1">
-        <v>45899.469224537032</v>
+        <v>45890.461192129631</v>
       </c>
       <c r="H15" s="1">
-        <v>45854.469224537032</v>
+        <v>45845.4612037037</v>
       </c>
       <c r="I15" s="2">
-        <v>-37.46922453703155</v>
+        <v>-26.461192129630945</v>
       </c>
       <c r="J15" s="3">
-        <v>206.94</v>
+        <v>317.5</v>
       </c>
       <c r="K15" s="3">
-        <v>206.94</v>
+        <v>317.5</v>
       </c>
       <c r="L15" t="s">
         <v>17</v>
@@ -1277,25 +1247,25 @@
         <v>15</v>
       </c>
       <c r="E16">
-        <v>10893</v>
+        <v>10641</v>
       </c>
       <c r="F16" t="s">
         <v>16</v>
       </c>
       <c r="G16" s="1">
-        <v>45906.413287037038</v>
+        <v>45899.469224537032</v>
       </c>
       <c r="H16" s="1">
-        <v>45861.413842592592</v>
+        <v>45854.469224537032</v>
       </c>
       <c r="I16" s="2">
-        <v>-44.413287037037662</v>
+        <v>-35.46922453703155</v>
       </c>
       <c r="J16" s="3">
-        <v>88.14</v>
+        <v>206.94</v>
       </c>
       <c r="K16" s="3">
-        <v>88.14</v>
+        <v>206.94</v>
       </c>
       <c r="L16" t="s">
         <v>17</v>
@@ -1306,10 +1276,10 @@
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>211111278</v>
+        <v>211111233</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C17" t="s">
         <v>14</v>
@@ -1318,25 +1288,25 @@
         <v>15</v>
       </c>
       <c r="E17">
-        <v>10237</v>
+        <v>10893</v>
       </c>
       <c r="F17" t="s">
         <v>16</v>
       </c>
       <c r="G17" s="1">
-        <v>45875.699583333335</v>
+        <v>45906.413287037038</v>
       </c>
       <c r="H17" s="1">
-        <v>45845.702106481476</v>
+        <v>45861.413842592592</v>
       </c>
       <c r="I17" s="2">
-        <v>-13.699583333334886</v>
+        <v>-42.413287037037662</v>
       </c>
       <c r="J17" s="3">
-        <v>547.71</v>
+        <v>88.14</v>
       </c>
       <c r="K17" s="3">
-        <v>15.55</v>
+        <v>88.14</v>
       </c>
       <c r="L17" t="s">
         <v>17</v>
@@ -1350,7 +1320,7 @@
         <v>211111423</v>
       </c>
       <c r="B18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
         <v>14</v>
@@ -1371,7 +1341,7 @@
         <v>45833.41673611111</v>
       </c>
       <c r="I18" s="2">
-        <v>-1.4153587962937308</v>
+        <v>0.58464120370626915</v>
       </c>
       <c r="J18" s="3">
         <v>250.58</v>
@@ -1391,7 +1361,7 @@
         <v>211111423</v>
       </c>
       <c r="B19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
         <v>14</v>
@@ -1412,7 +1382,7 @@
         <v>45833.420914351853</v>
       </c>
       <c r="I19" s="2">
-        <v>-1.4198842592595611</v>
+        <v>0.58011574074043892</v>
       </c>
       <c r="J19" s="3">
         <v>244.15</v>
@@ -1432,7 +1402,7 @@
         <v>211111423</v>
       </c>
       <c r="B20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
         <v>14</v>
@@ -1453,7 +1423,7 @@
         <v>45841.521851851852</v>
       </c>
       <c r="I20" s="2">
-        <v>-9.5218518518522615</v>
+        <v>-7.5218518518522615</v>
       </c>
       <c r="J20" s="3">
         <v>405.40000000000003</v>
@@ -1473,7 +1443,7 @@
         <v>211111423</v>
       </c>
       <c r="B21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C21" t="s">
         <v>14</v>
@@ -1494,7 +1464,7 @@
         <v>45848.429571759254</v>
       </c>
       <c r="I21" s="2">
-        <v>-16.429571759254031</v>
+        <v>-14.429571759254031</v>
       </c>
       <c r="J21" s="3">
         <v>341.65000000000003</v>
@@ -1514,7 +1484,7 @@
         <v>211111423</v>
       </c>
       <c r="B22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C22" t="s">
         <v>14</v>
@@ -1535,7 +1505,7 @@
         <v>45855.500775462962</v>
       </c>
       <c r="I22" s="2">
-        <v>-23.500763888885558</v>
+        <v>-21.500763888885558</v>
       </c>
       <c r="J22" s="3">
         <v>398.29</v>
@@ -1552,43 +1522,43 @@
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>211111556</v>
+        <v>211111423</v>
       </c>
       <c r="B23" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C23" t="s">
-        <v>28</v>
-      </c>
-      <c r="D23">
-        <v>2025</v>
+        <v>14</v>
+      </c>
+      <c r="D23" t="s">
+        <v>15</v>
       </c>
       <c r="E23">
-        <v>438</v>
+        <v>10994</v>
       </c>
       <c r="F23" t="s">
         <v>16</v>
       </c>
       <c r="G23" s="1">
-        <v>45816</v>
+        <v>45892.493622685186</v>
       </c>
       <c r="H23" s="1">
-        <v>45786</v>
+        <v>45862.493622685186</v>
       </c>
       <c r="I23" s="2">
-        <v>46</v>
+        <v>-28.493622685185983</v>
       </c>
       <c r="J23" s="3">
-        <v>-54.99</v>
+        <v>631.11</v>
       </c>
       <c r="K23" s="3">
-        <v>-54.99</v>
+        <v>631.11</v>
       </c>
       <c r="L23" t="s">
         <v>17</v>
       </c>
       <c r="M23" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
@@ -1596,40 +1566,40 @@
         <v>211111556</v>
       </c>
       <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
         <v>27</v>
       </c>
-      <c r="C24" t="s">
-        <v>14</v>
-      </c>
-      <c r="D24" t="s">
-        <v>15</v>
+      <c r="D24">
+        <v>2025</v>
       </c>
       <c r="E24">
-        <v>8892</v>
+        <v>438</v>
       </c>
       <c r="F24" t="s">
         <v>16</v>
       </c>
       <c r="G24" s="1">
-        <v>45843.39638888889</v>
+        <v>45816</v>
       </c>
       <c r="H24" s="1">
-        <v>45813.396782407406</v>
+        <v>45786</v>
       </c>
       <c r="I24" s="2">
-        <v>18.603611111109785</v>
+        <v>48</v>
       </c>
       <c r="J24" s="3">
-        <v>350.93</v>
+        <v>-54.99</v>
       </c>
       <c r="K24" s="3">
-        <v>350.93</v>
+        <v>-54.99</v>
       </c>
       <c r="L24" t="s">
         <v>17</v>
       </c>
       <c r="M24" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
@@ -1637,7 +1607,7 @@
         <v>211111556</v>
       </c>
       <c r="B25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C25" t="s">
         <v>14</v>
@@ -1658,7 +1628,7 @@
         <v>45820.458229166667</v>
       </c>
       <c r="I25" s="2">
-        <v>11.542800925926713</v>
+        <v>13.542800925926713</v>
       </c>
       <c r="J25" s="3">
         <v>57.550000000000004</v>
@@ -1678,7 +1648,7 @@
         <v>211111556</v>
       </c>
       <c r="B26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C26" t="s">
         <v>14</v>
@@ -1699,7 +1669,7 @@
         <v>45841.468414351853</v>
       </c>
       <c r="I26" s="2">
-        <v>-9.4684143518534256</v>
+        <v>-7.4684143518534256</v>
       </c>
       <c r="J26" s="3">
         <v>328.56</v>
@@ -1716,7 +1686,7 @@
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>211111559</v>
+        <v>211111567</v>
       </c>
       <c r="B27" t="s">
         <v>30</v>
@@ -1728,36 +1698,36 @@
         <v>15</v>
       </c>
       <c r="E27">
-        <v>10413</v>
+        <v>8732</v>
       </c>
       <c r="F27" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="G27" s="1">
-        <v>45878.421365740738</v>
+        <v>45840.431840277779</v>
       </c>
       <c r="H27" s="1">
-        <v>45848.421377314815</v>
+        <v>45810.431990740741</v>
       </c>
       <c r="I27" s="2">
-        <v>-16.421365740738111</v>
+        <v>23.568159722221026</v>
       </c>
       <c r="J27" s="3">
-        <v>1025.83</v>
+        <v>186.96</v>
       </c>
       <c r="K27" s="3">
-        <v>1025.83</v>
+        <v>186.96</v>
       </c>
       <c r="L27" t="s">
         <v>17</v>
       </c>
       <c r="M27" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>211111559</v>
+        <v>211111567</v>
       </c>
       <c r="B28" t="s">
         <v>30</v>
@@ -1769,36 +1739,36 @@
         <v>15</v>
       </c>
       <c r="E28">
-        <v>10525</v>
+        <v>8931</v>
       </c>
       <c r="F28" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="G28" s="1">
-        <v>45882.489212962959</v>
+        <v>45843.55400462963</v>
       </c>
       <c r="H28" s="1">
-        <v>45852.489212962959</v>
+        <v>45813.554432870369</v>
       </c>
       <c r="I28" s="2">
-        <v>-20.489212962958845</v>
+        <v>20.445995370369928</v>
       </c>
       <c r="J28" s="3">
-        <v>354.62</v>
+        <v>161.62</v>
       </c>
       <c r="K28" s="3">
-        <v>354.62</v>
+        <v>161.62</v>
       </c>
       <c r="L28" t="s">
         <v>17</v>
       </c>
       <c r="M28" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>211111559</v>
+        <v>211111567</v>
       </c>
       <c r="B29" t="s">
         <v>30</v>
@@ -1810,31 +1780,31 @@
         <v>15</v>
       </c>
       <c r="E29">
-        <v>10826</v>
+        <v>9292</v>
       </c>
       <c r="F29" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="G29" s="1">
-        <v>45889.495115740741</v>
+        <v>45854.444444444445</v>
       </c>
       <c r="H29" s="1">
-        <v>45859.495127314811</v>
+        <v>45824.447060185186</v>
       </c>
       <c r="I29" s="2">
-        <v>-27.495115740741312</v>
+        <v>9.5555555555547471</v>
       </c>
       <c r="J29" s="3">
-        <v>361.78000000000003</v>
+        <v>338.69</v>
       </c>
       <c r="K29" s="3">
-        <v>361.78000000000003</v>
+        <v>338.69</v>
       </c>
       <c r="L29" t="s">
         <v>17</v>
       </c>
       <c r="M29" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
@@ -1842,7 +1812,7 @@
         <v>211111567</v>
       </c>
       <c r="B30" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C30" t="s">
         <v>14</v>
@@ -1851,31 +1821,31 @@
         <v>15</v>
       </c>
       <c r="E30">
-        <v>8732</v>
+        <v>9512</v>
       </c>
       <c r="F30" t="s">
         <v>16</v>
       </c>
       <c r="G30" s="1">
-        <v>45840.431840277779</v>
+        <v>45858.51866898148</v>
       </c>
       <c r="H30" s="1">
-        <v>45810.431990740741</v>
+        <v>45828.519467592589</v>
       </c>
       <c r="I30" s="2">
-        <v>21.568159722221026</v>
+        <v>5.4813310185199953</v>
       </c>
       <c r="J30" s="3">
-        <v>186.96</v>
+        <v>377.97</v>
       </c>
       <c r="K30" s="3">
-        <v>186.96</v>
+        <v>377.97</v>
       </c>
       <c r="L30" t="s">
         <v>17</v>
       </c>
       <c r="M30" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
@@ -1883,7 +1853,7 @@
         <v>211111567</v>
       </c>
       <c r="B31" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C31" t="s">
         <v>14</v>
@@ -1892,31 +1862,31 @@
         <v>15</v>
       </c>
       <c r="E31">
-        <v>8931</v>
+        <v>9761</v>
       </c>
       <c r="F31" t="s">
         <v>16</v>
       </c>
       <c r="G31" s="1">
-        <v>45843.55400462963</v>
+        <v>45864.419548611106</v>
       </c>
       <c r="H31" s="1">
-        <v>45813.554432870369</v>
+        <v>45834.420474537037</v>
       </c>
       <c r="I31" s="2">
-        <v>18.445995370369928</v>
+        <v>-0.41954861110571073</v>
       </c>
       <c r="J31" s="3">
-        <v>161.62</v>
+        <v>179.99</v>
       </c>
       <c r="K31" s="3">
-        <v>161.62</v>
+        <v>179.99</v>
       </c>
       <c r="L31" t="s">
         <v>17</v>
       </c>
       <c r="M31" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
@@ -1924,7 +1894,7 @@
         <v>211111567</v>
       </c>
       <c r="B32" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C32" t="s">
         <v>14</v>
@@ -1933,31 +1903,31 @@
         <v>15</v>
       </c>
       <c r="E32">
-        <v>9292</v>
+        <v>10215</v>
       </c>
       <c r="F32" t="s">
         <v>16</v>
       </c>
       <c r="G32" s="1">
-        <v>45854.444444444445</v>
+        <v>45875.482060185182</v>
       </c>
       <c r="H32" s="1">
-        <v>45824.447060185186</v>
+        <v>45845.482060185182</v>
       </c>
       <c r="I32" s="2">
-        <v>7.5555555555547471</v>
+        <v>-11.48206018518249</v>
       </c>
       <c r="J32" s="3">
-        <v>338.69</v>
+        <v>280.28000000000003</v>
       </c>
       <c r="K32" s="3">
-        <v>338.69</v>
+        <v>280.28000000000003</v>
       </c>
       <c r="L32" t="s">
         <v>17</v>
       </c>
       <c r="M32" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
@@ -1965,40 +1935,40 @@
         <v>211111567</v>
       </c>
       <c r="B33" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C33" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="D33" t="s">
         <v>15</v>
       </c>
       <c r="E33">
-        <v>9512</v>
+        <v>518</v>
       </c>
       <c r="F33" t="s">
         <v>16</v>
       </c>
       <c r="G33" s="1">
-        <v>45858.51866898148</v>
+        <v>45878</v>
       </c>
       <c r="H33" s="1">
-        <v>45828.519467592589</v>
+        <v>45848</v>
       </c>
       <c r="I33" s="2">
-        <v>3.4813310185199953</v>
+        <v>-14</v>
       </c>
       <c r="J33" s="3">
-        <v>377.97</v>
+        <v>-4.63</v>
       </c>
       <c r="K33" s="3">
-        <v>377.97</v>
+        <v>-4.63</v>
       </c>
       <c r="L33" t="s">
         <v>17</v>
       </c>
       <c r="M33" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
@@ -2006,7 +1976,7 @@
         <v>211111567</v>
       </c>
       <c r="B34" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C34" t="s">
         <v>14</v>
@@ -2015,25 +1985,25 @@
         <v>15</v>
       </c>
       <c r="E34">
-        <v>9761</v>
+        <v>10408</v>
       </c>
       <c r="F34" t="s">
         <v>16</v>
       </c>
       <c r="G34" s="1">
-        <v>45864.419548611106</v>
+        <v>45878.421249999999</v>
       </c>
       <c r="H34" s="1">
-        <v>45834.420474537037</v>
+        <v>45848.421249999999</v>
       </c>
       <c r="I34" s="2">
-        <v>-2.4195486111057107</v>
+        <v>-14.421249999999418</v>
       </c>
       <c r="J34" s="3">
-        <v>179.99</v>
+        <v>167.72</v>
       </c>
       <c r="K34" s="3">
-        <v>179.99</v>
+        <v>167.72</v>
       </c>
       <c r="L34" t="s">
         <v>17</v>
@@ -2047,7 +2017,7 @@
         <v>211111567</v>
       </c>
       <c r="B35" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C35" t="s">
         <v>14</v>
@@ -2056,25 +2026,25 @@
         <v>15</v>
       </c>
       <c r="E35">
-        <v>10215</v>
+        <v>10524</v>
       </c>
       <c r="F35" t="s">
         <v>16</v>
       </c>
       <c r="G35" s="1">
-        <v>45875.482060185182</v>
+        <v>45882.489189814813</v>
       </c>
       <c r="H35" s="1">
-        <v>45845.482060185182</v>
+        <v>45852.489189814813</v>
       </c>
       <c r="I35" s="2">
-        <v>-13.48206018518249</v>
+        <v>-18.489189814812562</v>
       </c>
       <c r="J35" s="3">
-        <v>280.28000000000003</v>
+        <v>301.11</v>
       </c>
       <c r="K35" s="3">
-        <v>280.28000000000003</v>
+        <v>301.11</v>
       </c>
       <c r="L35" t="s">
         <v>17</v>
@@ -2088,7 +2058,7 @@
         <v>211111567</v>
       </c>
       <c r="B36" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C36" t="s">
         <v>14</v>
@@ -2097,25 +2067,25 @@
         <v>15</v>
       </c>
       <c r="E36">
-        <v>10408</v>
+        <v>10704</v>
       </c>
       <c r="F36" t="s">
         <v>16</v>
       </c>
       <c r="G36" s="1">
-        <v>45878.421249999999</v>
+        <v>45885.498472222222</v>
       </c>
       <c r="H36" s="1">
-        <v>45848.421249999999</v>
+        <v>45855.498472222222</v>
       </c>
       <c r="I36" s="2">
-        <v>-16.421249999999418</v>
+        <v>-21.498472222221608</v>
       </c>
       <c r="J36" s="3">
-        <v>167.72</v>
+        <v>266.19</v>
       </c>
       <c r="K36" s="3">
-        <v>167.72</v>
+        <v>266.19</v>
       </c>
       <c r="L36" t="s">
         <v>17</v>
@@ -2129,7 +2099,7 @@
         <v>211111567</v>
       </c>
       <c r="B37" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C37" t="s">
         <v>14</v>
@@ -2138,25 +2108,25 @@
         <v>15</v>
       </c>
       <c r="E37">
-        <v>10524</v>
+        <v>10993</v>
       </c>
       <c r="F37" t="s">
         <v>16</v>
       </c>
       <c r="G37" s="1">
-        <v>45882.489189814813</v>
+        <v>45892.493587962963</v>
       </c>
       <c r="H37" s="1">
-        <v>45852.489189814813</v>
+        <v>45862.493599537032</v>
       </c>
       <c r="I37" s="2">
-        <v>-20.489189814812562</v>
+        <v>-28.49358796296292</v>
       </c>
       <c r="J37" s="3">
-        <v>301.11</v>
+        <v>57.02</v>
       </c>
       <c r="K37" s="3">
-        <v>301.11</v>
+        <v>57.02</v>
       </c>
       <c r="L37" t="s">
         <v>17</v>
@@ -2167,10 +2137,10 @@
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>211111567</v>
+        <v>211111832</v>
       </c>
       <c r="B38" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="C38" t="s">
         <v>14</v>
@@ -2179,244 +2149,244 @@
         <v>15</v>
       </c>
       <c r="E38">
-        <v>10704</v>
+        <v>8724</v>
       </c>
       <c r="F38" t="s">
         <v>16</v>
       </c>
       <c r="G38" s="1">
-        <v>45885.498472222222</v>
+        <v>45840.417569444442</v>
       </c>
       <c r="H38" s="1">
-        <v>45855.498472222222</v>
+        <v>45810.426018518519</v>
       </c>
       <c r="I38" s="2">
-        <v>-23.498472222221608</v>
+        <v>23.582430555557949</v>
       </c>
       <c r="J38" s="3">
-        <v>266.19</v>
+        <v>126.35000000000001</v>
       </c>
       <c r="K38" s="3">
-        <v>266.19</v>
+        <v>126.35000000000001</v>
       </c>
       <c r="L38" t="s">
         <v>17</v>
       </c>
       <c r="M38" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>211111594</v>
+        <v>211111832</v>
       </c>
       <c r="B39" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C39" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="D39" t="s">
-        <v>36</v>
-      </c>
-      <c r="E39" t="s">
-        <v>37</v>
+        <v>15</v>
+      </c>
+      <c r="E39">
+        <v>8939</v>
       </c>
       <c r="F39" t="s">
         <v>16</v>
       </c>
       <c r="G39" s="1">
-        <v>45743</v>
+        <v>45843.550532407404</v>
       </c>
       <c r="H39" s="1">
-        <v>45713</v>
+        <v>45813.574108796296</v>
       </c>
       <c r="I39" s="2">
-        <v>119</v>
+        <v>20.449467592596193</v>
       </c>
       <c r="J39" s="3">
-        <v>-1113.56</v>
+        <v>391.52</v>
       </c>
       <c r="K39" s="3">
-        <v>-182.22</v>
+        <v>391.52</v>
       </c>
       <c r="L39" t="s">
         <v>17</v>
       </c>
       <c r="M39" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>211111668</v>
+        <v>211111832</v>
       </c>
       <c r="B40" t="s">
         <v>39</v>
       </c>
       <c r="C40" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="D40" t="s">
-        <v>36</v>
-      </c>
-      <c r="E40" t="s">
-        <v>41</v>
+        <v>15</v>
+      </c>
+      <c r="E40">
+        <v>8968</v>
       </c>
       <c r="F40" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="G40" s="1">
-        <v>45330</v>
+        <v>45847.378715277773</v>
       </c>
       <c r="H40" s="1">
-        <v>45330</v>
+        <v>45817.381168981483</v>
       </c>
       <c r="I40" s="2">
-        <v>532</v>
+        <v>16.621284722226846</v>
       </c>
       <c r="J40" s="3">
-        <v>259.05</v>
+        <v>59.06</v>
       </c>
       <c r="K40" s="3">
-        <v>259.05</v>
+        <v>59.06</v>
       </c>
       <c r="L40" t="s">
         <v>17</v>
       </c>
       <c r="M40" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>211111668</v>
+        <v>211111832</v>
       </c>
       <c r="B41" t="s">
         <v>39</v>
       </c>
       <c r="C41" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="D41" t="s">
-        <v>36</v>
-      </c>
-      <c r="E41" t="s">
-        <v>43</v>
+        <v>15</v>
+      </c>
+      <c r="E41">
+        <v>9148</v>
       </c>
       <c r="F41" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="G41" s="1">
-        <v>45337</v>
+        <v>45850.450706018513</v>
       </c>
       <c r="H41" s="1">
-        <v>45337</v>
+        <v>45820.452037037037</v>
       </c>
       <c r="I41" s="2">
-        <v>525</v>
+        <v>13.549293981486699</v>
       </c>
       <c r="J41" s="3">
-        <v>47.74</v>
+        <v>314.43</v>
       </c>
       <c r="K41" s="3">
-        <v>47.74</v>
+        <v>314.43</v>
       </c>
       <c r="L41" t="s">
         <v>17</v>
       </c>
       <c r="M41" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>211111668</v>
+        <v>211111832</v>
       </c>
       <c r="B42" t="s">
         <v>39</v>
       </c>
       <c r="C42" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="D42" t="s">
-        <v>36</v>
-      </c>
-      <c r="E42" t="s">
-        <v>44</v>
+        <v>15</v>
+      </c>
+      <c r="E42">
+        <v>9510</v>
       </c>
       <c r="F42" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="G42" s="1">
-        <v>45344</v>
+        <v>45858.516712962963</v>
       </c>
       <c r="H42" s="1">
-        <v>45344</v>
+        <v>45828.517974537033</v>
       </c>
       <c r="I42" s="2">
-        <v>518</v>
+        <v>5.4832870370373712</v>
       </c>
       <c r="J42" s="3">
-        <v>7.09</v>
+        <v>394.83</v>
       </c>
       <c r="K42" s="3">
-        <v>7.09</v>
+        <v>394.83</v>
       </c>
       <c r="L42" t="s">
         <v>17</v>
       </c>
       <c r="M42" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>211111668</v>
+        <v>211111832</v>
       </c>
       <c r="B43" t="s">
         <v>39</v>
       </c>
       <c r="C43" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="D43" t="s">
-        <v>36</v>
-      </c>
-      <c r="E43" t="s">
-        <v>45</v>
+        <v>15</v>
+      </c>
+      <c r="E43">
+        <v>9764</v>
       </c>
       <c r="F43" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="G43" s="1">
-        <v>45351</v>
+        <v>45864.422581018516</v>
       </c>
       <c r="H43" s="1">
-        <v>45351</v>
+        <v>45834.424537037034</v>
       </c>
       <c r="I43" s="2">
-        <v>511</v>
+        <v>-0.42258101851621177</v>
       </c>
       <c r="J43" s="3">
-        <v>21.63</v>
+        <v>340.11</v>
       </c>
       <c r="K43" s="3">
-        <v>21.63</v>
+        <v>340.11</v>
       </c>
       <c r="L43" t="s">
         <v>17</v>
       </c>
       <c r="M43" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>211111830</v>
+        <v>211111832</v>
       </c>
       <c r="B44" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="C44" t="s">
         <v>14</v>
@@ -2425,39 +2395,39 @@
         <v>15</v>
       </c>
       <c r="E44">
-        <v>3709</v>
+        <v>10015</v>
       </c>
       <c r="F44" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="G44" s="1">
-        <v>45745.447951388887</v>
+        <v>45870.643773148149</v>
       </c>
       <c r="H44" s="1">
-        <v>45715.449710648143</v>
+        <v>45840.645138888889</v>
       </c>
       <c r="I44" s="2">
-        <v>116.5520486111127</v>
+        <v>-6.6437731481491937</v>
       </c>
       <c r="J44" s="3">
-        <v>332.63</v>
+        <v>163.52000000000001</v>
       </c>
       <c r="K44" s="3">
-        <v>332.63</v>
+        <v>163.52000000000001</v>
       </c>
       <c r="L44" t="s">
         <v>17</v>
       </c>
       <c r="M44" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>211111830</v>
+        <v>211111832</v>
       </c>
       <c r="B45" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="C45" t="s">
         <v>14</v>
@@ -2466,39 +2436,39 @@
         <v>15</v>
       </c>
       <c r="E45">
-        <v>4479</v>
+        <v>10073</v>
       </c>
       <c r="F45" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="G45" s="1">
-        <v>45759.413807870369</v>
+        <v>45871.54855324074</v>
       </c>
       <c r="H45" s="1">
-        <v>45729.414583333331</v>
+        <v>45841.54855324074</v>
       </c>
       <c r="I45" s="2">
-        <v>102.58619212963094</v>
+        <v>-7.5485532407401479</v>
       </c>
       <c r="J45" s="3">
-        <v>142.27000000000001</v>
+        <v>159.94</v>
       </c>
       <c r="K45" s="3">
-        <v>142.27000000000001</v>
+        <v>159.94</v>
       </c>
       <c r="L45" t="s">
         <v>17</v>
       </c>
       <c r="M45" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>211111830</v>
+        <v>211111832</v>
       </c>
       <c r="B46" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="C46" t="s">
         <v>14</v>
@@ -2507,39 +2477,39 @@
         <v>15</v>
       </c>
       <c r="E46">
-        <v>5384</v>
+        <v>10208</v>
       </c>
       <c r="F46" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="G46" s="1">
-        <v>45777.41002314815</v>
+        <v>45875.481840277775</v>
       </c>
       <c r="H46" s="1">
-        <v>45747.414629629631</v>
+        <v>45845.481840277775</v>
       </c>
       <c r="I46" s="2">
-        <v>84.589976851850224</v>
+        <v>-11.481840277774609</v>
       </c>
       <c r="J46" s="3">
-        <v>200.29</v>
+        <v>69.59</v>
       </c>
       <c r="K46" s="3">
-        <v>200.29</v>
+        <v>69.59</v>
       </c>
       <c r="L46" t="s">
         <v>17</v>
       </c>
       <c r="M46" t="s">
-        <v>47</v>
+        <v>18</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>211111830</v>
+        <v>211111832</v>
       </c>
       <c r="B47" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="C47" t="s">
         <v>14</v>
@@ -2548,31 +2518,31 @@
         <v>15</v>
       </c>
       <c r="E47">
-        <v>6059</v>
+        <v>10415</v>
       </c>
       <c r="F47" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="G47" s="1">
-        <v>45787.425995370366</v>
+        <v>45878.428206018514</v>
       </c>
       <c r="H47" s="1">
-        <v>45757.428553240738</v>
+        <v>45848.428217592591</v>
       </c>
       <c r="I47" s="2">
-        <v>74.574004629634146</v>
+        <v>-14.428206018514175</v>
       </c>
       <c r="J47" s="3">
-        <v>267.89999999999998</v>
+        <v>362.03000000000003</v>
       </c>
       <c r="K47" s="3">
-        <v>267.89999999999998</v>
+        <v>362.03000000000003</v>
       </c>
       <c r="L47" t="s">
         <v>17</v>
       </c>
       <c r="M47" t="s">
-        <v>47</v>
+        <v>18</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
@@ -2580,7 +2550,7 @@
         <v>211111832</v>
       </c>
       <c r="B48" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="C48" t="s">
         <v>14</v>
@@ -2589,31 +2559,31 @@
         <v>15</v>
       </c>
       <c r="E48">
-        <v>8724</v>
+        <v>10701</v>
       </c>
       <c r="F48" t="s">
         <v>16</v>
       </c>
       <c r="G48" s="1">
-        <v>45840.417569444442</v>
+        <v>45885.498379629629</v>
       </c>
       <c r="H48" s="1">
-        <v>45810.426018518519</v>
+        <v>45855.498391203699</v>
       </c>
       <c r="I48" s="2">
-        <v>21.582430555557949</v>
+        <v>-21.498379629629198</v>
       </c>
       <c r="J48" s="3">
-        <v>126.35000000000001</v>
+        <v>414.34000000000003</v>
       </c>
       <c r="K48" s="3">
-        <v>126.35000000000001</v>
+        <v>414.34000000000003</v>
       </c>
       <c r="L48" t="s">
         <v>17</v>
       </c>
       <c r="M48" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
@@ -2621,7 +2591,7 @@
         <v>211111832</v>
       </c>
       <c r="B49" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="C49" t="s">
         <v>14</v>
@@ -2630,31 +2600,31 @@
         <v>15</v>
       </c>
       <c r="E49">
-        <v>8939</v>
+        <v>10827</v>
       </c>
       <c r="F49" t="s">
         <v>16</v>
       </c>
       <c r="G49" s="1">
-        <v>45843.550532407404</v>
+        <v>45889.495150462964</v>
       </c>
       <c r="H49" s="1">
-        <v>45813.574108796296</v>
+        <v>45859.495150462964</v>
       </c>
       <c r="I49" s="2">
-        <v>18.449467592596193</v>
+        <v>-25.495150462964375</v>
       </c>
       <c r="J49" s="3">
-        <v>391.52</v>
+        <v>55.44</v>
       </c>
       <c r="K49" s="3">
-        <v>391.52</v>
+        <v>55.44</v>
       </c>
       <c r="L49" t="s">
         <v>17</v>
       </c>
       <c r="M49" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.25">
@@ -2662,7 +2632,7 @@
         <v>211111832</v>
       </c>
       <c r="B50" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="C50" t="s">
         <v>14</v>
@@ -2671,39 +2641,39 @@
         <v>15</v>
       </c>
       <c r="E50">
-        <v>8968</v>
+        <v>10991</v>
       </c>
       <c r="F50" t="s">
         <v>16</v>
       </c>
       <c r="G50" s="1">
-        <v>45847.378715277773</v>
+        <v>45892.492847222224</v>
       </c>
       <c r="H50" s="1">
-        <v>45817.381168981483</v>
+        <v>45862.492905092593</v>
       </c>
       <c r="I50" s="2">
-        <v>14.621284722226846</v>
+        <v>-28.492847222223645</v>
       </c>
       <c r="J50" s="3">
-        <v>59.06</v>
+        <v>366.97</v>
       </c>
       <c r="K50" s="3">
-        <v>59.06</v>
+        <v>366.97</v>
       </c>
       <c r="L50" t="s">
         <v>17</v>
       </c>
       <c r="M50" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>211111832</v>
+        <v>211111909</v>
       </c>
       <c r="B51" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C51" t="s">
         <v>14</v>
@@ -2712,39 +2682,39 @@
         <v>15</v>
       </c>
       <c r="E51">
-        <v>9148</v>
+        <v>9955</v>
       </c>
       <c r="F51" t="s">
         <v>16</v>
       </c>
       <c r="G51" s="1">
-        <v>45850.450706018513</v>
+        <v>45870.409421296295</v>
       </c>
       <c r="H51" s="1">
-        <v>45820.452037037037</v>
+        <v>45840.411736111106</v>
       </c>
       <c r="I51" s="2">
-        <v>11.549293981486699</v>
+        <v>-6.4094212962954771</v>
       </c>
       <c r="J51" s="3">
-        <v>314.43</v>
+        <v>112.11</v>
       </c>
       <c r="K51" s="3">
-        <v>314.43</v>
+        <v>112.11</v>
       </c>
       <c r="L51" t="s">
         <v>17</v>
       </c>
       <c r="M51" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>211111832</v>
+        <v>211111909</v>
       </c>
       <c r="B52" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C52" t="s">
         <v>14</v>
@@ -2753,39 +2723,39 @@
         <v>15</v>
       </c>
       <c r="E52">
-        <v>9510</v>
+        <v>10092</v>
       </c>
       <c r="F52" t="s">
         <v>16</v>
       </c>
       <c r="G52" s="1">
-        <v>45858.516712962963</v>
+        <v>45872.315787037034</v>
       </c>
       <c r="H52" s="1">
-        <v>45828.517974537033</v>
+        <v>45842.315787037034</v>
       </c>
       <c r="I52" s="2">
-        <v>3.4832870370373712</v>
+        <v>-8.3157870370341698</v>
       </c>
       <c r="J52" s="3">
-        <v>394.83</v>
+        <v>75.03</v>
       </c>
       <c r="K52" s="3">
-        <v>394.83</v>
+        <v>75.03</v>
       </c>
       <c r="L52" t="s">
         <v>17</v>
       </c>
       <c r="M52" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>211111832</v>
+        <v>211111909</v>
       </c>
       <c r="B53" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C53" t="s">
         <v>14</v>
@@ -2794,25 +2764,25 @@
         <v>15</v>
       </c>
       <c r="E53">
-        <v>9764</v>
+        <v>10093</v>
       </c>
       <c r="F53" t="s">
         <v>16</v>
       </c>
       <c r="G53" s="1">
-        <v>45864.422581018516</v>
+        <v>45872.31581018518</v>
       </c>
       <c r="H53" s="1">
-        <v>45834.424537037034</v>
+        <v>45842.31581018518</v>
       </c>
       <c r="I53" s="2">
-        <v>-2.4225810185162118</v>
+        <v>-8.3158101851804531</v>
       </c>
       <c r="J53" s="3">
-        <v>340.11</v>
+        <v>114.44</v>
       </c>
       <c r="K53" s="3">
-        <v>340.11</v>
+        <v>114.44</v>
       </c>
       <c r="L53" t="s">
         <v>17</v>
@@ -2823,37 +2793,37 @@
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>211111832</v>
+        <v>211111909</v>
       </c>
       <c r="B54" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C54" t="s">
-        <v>14</v>
-      </c>
-      <c r="D54" t="s">
-        <v>15</v>
+        <v>27</v>
+      </c>
+      <c r="D54">
+        <v>2025</v>
       </c>
       <c r="E54">
-        <v>10015</v>
+        <v>638</v>
       </c>
       <c r="F54" t="s">
         <v>16</v>
       </c>
       <c r="G54" s="1">
-        <v>45870.643773148149</v>
+        <v>45878</v>
       </c>
       <c r="H54" s="1">
-        <v>45840.645138888889</v>
+        <v>45848</v>
       </c>
       <c r="I54" s="2">
-        <v>-8.6437731481491937</v>
+        <v>-14</v>
       </c>
       <c r="J54" s="3">
-        <v>163.52000000000001</v>
+        <v>-73.5</v>
       </c>
       <c r="K54" s="3">
-        <v>163.52000000000001</v>
+        <v>-73.5</v>
       </c>
       <c r="L54" t="s">
         <v>17</v>
@@ -2864,10 +2834,10 @@
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>211111832</v>
+        <v>211111909</v>
       </c>
       <c r="B55" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C55" t="s">
         <v>14</v>
@@ -2876,25 +2846,25 @@
         <v>15</v>
       </c>
       <c r="E55">
-        <v>10073</v>
+        <v>10409</v>
       </c>
       <c r="F55" t="s">
         <v>16</v>
       </c>
       <c r="G55" s="1">
-        <v>45871.54855324074</v>
+        <v>45878.421273148146</v>
       </c>
       <c r="H55" s="1">
-        <v>45841.54855324074</v>
+        <v>45848.421273148146</v>
       </c>
       <c r="I55" s="2">
-        <v>-9.5485532407401479</v>
+        <v>-14.421273148145701</v>
       </c>
       <c r="J55" s="3">
-        <v>159.94</v>
+        <v>112.3</v>
       </c>
       <c r="K55" s="3">
-        <v>159.94</v>
+        <v>112.3</v>
       </c>
       <c r="L55" t="s">
         <v>17</v>
@@ -2905,10 +2875,10 @@
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>211111832</v>
+        <v>211111909</v>
       </c>
       <c r="B56" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C56" t="s">
         <v>14</v>
@@ -2917,25 +2887,25 @@
         <v>15</v>
       </c>
       <c r="E56">
-        <v>10208</v>
+        <v>10592</v>
       </c>
       <c r="F56" t="s">
         <v>16</v>
       </c>
       <c r="G56" s="1">
-        <v>45875.481840277775</v>
+        <v>45884.413032407407</v>
       </c>
       <c r="H56" s="1">
-        <v>45845.481840277775</v>
+        <v>45854.413043981476</v>
       </c>
       <c r="I56" s="2">
-        <v>-13.481840277774609</v>
+        <v>-20.413032407406718</v>
       </c>
       <c r="J56" s="3">
-        <v>69.59</v>
+        <v>220.38</v>
       </c>
       <c r="K56" s="3">
-        <v>69.59</v>
+        <v>220.38</v>
       </c>
       <c r="L56" t="s">
         <v>17</v>
@@ -2946,10 +2916,10 @@
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>211111832</v>
+        <v>211111909</v>
       </c>
       <c r="B57" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C57" t="s">
         <v>14</v>
@@ -2958,25 +2928,25 @@
         <v>15</v>
       </c>
       <c r="E57">
-        <v>10415</v>
+        <v>10694</v>
       </c>
       <c r="F57" t="s">
         <v>16</v>
       </c>
       <c r="G57" s="1">
-        <v>45878.428206018514</v>
+        <v>45885.498206018514</v>
       </c>
       <c r="H57" s="1">
-        <v>45848.428217592591</v>
+        <v>45855.498217592591</v>
       </c>
       <c r="I57" s="2">
-        <v>-16.428206018514175</v>
+        <v>-21.498206018513883</v>
       </c>
       <c r="J57" s="3">
-        <v>362.03000000000003</v>
+        <v>220.07</v>
       </c>
       <c r="K57" s="3">
-        <v>362.03000000000003</v>
+        <v>220.07</v>
       </c>
       <c r="L57" t="s">
         <v>17</v>
@@ -2987,10 +2957,10 @@
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>211111832</v>
+        <v>211111909</v>
       </c>
       <c r="B58" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C58" t="s">
         <v>14</v>
@@ -2999,25 +2969,25 @@
         <v>15</v>
       </c>
       <c r="E58">
-        <v>10701</v>
+        <v>10695</v>
       </c>
       <c r="F58" t="s">
         <v>16</v>
       </c>
       <c r="G58" s="1">
-        <v>45885.498379629629</v>
+        <v>45885.498240740737</v>
       </c>
       <c r="H58" s="1">
-        <v>45855.498391203699</v>
+        <v>45855.498240740737</v>
       </c>
       <c r="I58" s="2">
-        <v>-23.498379629629198</v>
+        <v>-21.498240740736946</v>
       </c>
       <c r="J58" s="3">
-        <v>414.34000000000003</v>
+        <v>182.79</v>
       </c>
       <c r="K58" s="3">
-        <v>414.34000000000003</v>
+        <v>182.79</v>
       </c>
       <c r="L58" t="s">
         <v>17</v>
@@ -3028,10 +2998,10 @@
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>211111832</v>
+        <v>211111909</v>
       </c>
       <c r="B59" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C59" t="s">
         <v>14</v>
@@ -3040,25 +3010,25 @@
         <v>15</v>
       </c>
       <c r="E59">
-        <v>10827</v>
+        <v>10823</v>
       </c>
       <c r="F59" t="s">
         <v>16</v>
       </c>
       <c r="G59" s="1">
-        <v>45889.495150462964</v>
+        <v>45889.495046296295</v>
       </c>
       <c r="H59" s="1">
-        <v>45859.495150462964</v>
+        <v>45859.495057870372</v>
       </c>
       <c r="I59" s="2">
-        <v>-27.495150462964375</v>
+        <v>-25.495046296295186</v>
       </c>
       <c r="J59" s="3">
-        <v>55.44</v>
+        <v>99.84</v>
       </c>
       <c r="K59" s="3">
-        <v>55.44</v>
+        <v>99.84</v>
       </c>
       <c r="L59" t="s">
         <v>17</v>
@@ -3069,10 +3039,10 @@
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>211111909</v>
+        <v>211111932</v>
       </c>
       <c r="B60" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="C60" t="s">
         <v>14</v>
@@ -3081,39 +3051,39 @@
         <v>15</v>
       </c>
       <c r="E60">
-        <v>9955</v>
+        <v>6876</v>
       </c>
       <c r="F60" t="s">
         <v>16</v>
       </c>
       <c r="G60" s="1">
-        <v>45870.409421296295</v>
+        <v>45806.316099537034</v>
       </c>
       <c r="H60" s="1">
-        <v>45840.411736111106</v>
+        <v>45776.318043981482</v>
       </c>
       <c r="I60" s="2">
-        <v>-8.4094212962954771</v>
+        <v>57.683900462965539</v>
       </c>
       <c r="J60" s="3">
-        <v>112.11</v>
+        <v>337.18</v>
       </c>
       <c r="K60" s="3">
-        <v>112.11</v>
+        <v>337.18</v>
       </c>
       <c r="L60" t="s">
         <v>17</v>
       </c>
       <c r="M60" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>211111909</v>
+        <v>211111932</v>
       </c>
       <c r="B61" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="C61" t="s">
         <v>14</v>
@@ -3122,66 +3092,66 @@
         <v>15</v>
       </c>
       <c r="E61">
-        <v>10092</v>
+        <v>7112</v>
       </c>
       <c r="F61" t="s">
         <v>16</v>
       </c>
       <c r="G61" s="1">
-        <v>45872.315787037034</v>
+        <v>45809.600486111107</v>
       </c>
       <c r="H61" s="1">
-        <v>45842.315787037034</v>
+        <v>45779.601805555554</v>
       </c>
       <c r="I61" s="2">
-        <v>-10.31578703703417</v>
+        <v>54.399513888893125</v>
       </c>
       <c r="J61" s="3">
-        <v>75.03</v>
+        <v>1342.49</v>
       </c>
       <c r="K61" s="3">
-        <v>75.03</v>
+        <v>1000</v>
       </c>
       <c r="L61" t="s">
         <v>17</v>
       </c>
       <c r="M61" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>211111909</v>
+        <v>211111949</v>
       </c>
       <c r="B62" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="C62" t="s">
-        <v>14</v>
-      </c>
-      <c r="D62" t="s">
-        <v>15</v>
+        <v>27</v>
+      </c>
+      <c r="D62">
+        <v>2025</v>
       </c>
       <c r="E62">
-        <v>10093</v>
+        <v>626</v>
       </c>
       <c r="F62" t="s">
         <v>16</v>
       </c>
       <c r="G62" s="1">
-        <v>45872.31581018518</v>
+        <v>45876</v>
       </c>
       <c r="H62" s="1">
-        <v>45842.31581018518</v>
+        <v>45846</v>
       </c>
       <c r="I62" s="2">
-        <v>-10.315810185180453</v>
+        <v>-12</v>
       </c>
       <c r="J62" s="3">
-        <v>114.44</v>
+        <v>-12.36</v>
       </c>
       <c r="K62" s="3">
-        <v>114.44</v>
+        <v>-12.36</v>
       </c>
       <c r="L62" t="s">
         <v>17</v>
@@ -3192,10 +3162,10 @@
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>211111909</v>
+        <v>211111949</v>
       </c>
       <c r="B63" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="C63" t="s">
         <v>14</v>
@@ -3204,25 +3174,25 @@
         <v>15</v>
       </c>
       <c r="E63">
-        <v>10409</v>
+        <v>10861</v>
       </c>
       <c r="F63" t="s">
         <v>16</v>
       </c>
       <c r="G63" s="1">
-        <v>45878.421273148146</v>
+        <v>45890.528368055551</v>
       </c>
       <c r="H63" s="1">
-        <v>45848.421273148146</v>
+        <v>45860.528379629628</v>
       </c>
       <c r="I63" s="2">
-        <v>-16.421273148145701</v>
+        <v>-26.528368055551255</v>
       </c>
       <c r="J63" s="3">
-        <v>112.3</v>
+        <v>153.81</v>
       </c>
       <c r="K63" s="3">
-        <v>112.3</v>
+        <v>153.81</v>
       </c>
       <c r="L63" t="s">
         <v>17</v>
@@ -3233,10 +3203,10 @@
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>211111909</v>
+        <v>211111949</v>
       </c>
       <c r="B64" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="C64" t="s">
         <v>14</v>
@@ -3245,25 +3215,25 @@
         <v>15</v>
       </c>
       <c r="E64">
-        <v>10592</v>
+        <v>11021</v>
       </c>
       <c r="F64" t="s">
         <v>16</v>
       </c>
       <c r="G64" s="1">
-        <v>45884.413032407407</v>
+        <v>45893.457129629627</v>
       </c>
       <c r="H64" s="1">
-        <v>45854.413043981476</v>
+        <v>45863.457141203704</v>
       </c>
       <c r="I64" s="2">
-        <v>-22.413032407406718</v>
+        <v>-29.457129629627161</v>
       </c>
       <c r="J64" s="3">
-        <v>220.38</v>
+        <v>165.34</v>
       </c>
       <c r="K64" s="3">
-        <v>220.38</v>
+        <v>165.34</v>
       </c>
       <c r="L64" t="s">
         <v>17</v>
@@ -3274,51 +3244,51 @@
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>211111909</v>
+        <v>211111992</v>
       </c>
       <c r="B65" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C65" t="s">
-        <v>14</v>
-      </c>
-      <c r="D65" t="s">
-        <v>15</v>
+        <v>27</v>
+      </c>
+      <c r="D65">
+        <v>2025</v>
       </c>
       <c r="E65">
-        <v>10694</v>
+        <v>531</v>
       </c>
       <c r="F65" t="s">
         <v>16</v>
       </c>
       <c r="G65" s="1">
-        <v>45885.498206018514</v>
+        <v>45843</v>
       </c>
       <c r="H65" s="1">
-        <v>45855.498217592591</v>
+        <v>45813</v>
       </c>
       <c r="I65" s="2">
-        <v>-23.498206018513883</v>
+        <v>21</v>
       </c>
       <c r="J65" s="3">
-        <v>220.07</v>
+        <v>-238.66</v>
       </c>
       <c r="K65" s="3">
-        <v>220.07</v>
+        <v>-238.66</v>
       </c>
       <c r="L65" t="s">
         <v>17</v>
       </c>
       <c r="M65" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>211111909</v>
+        <v>211111992</v>
       </c>
       <c r="B66" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C66" t="s">
         <v>14</v>
@@ -3327,39 +3297,39 @@
         <v>15</v>
       </c>
       <c r="E66">
-        <v>10695</v>
+        <v>8927</v>
       </c>
       <c r="F66" t="s">
         <v>16</v>
       </c>
       <c r="G66" s="1">
-        <v>45885.498240740737</v>
+        <v>45843.550543981481</v>
       </c>
       <c r="H66" s="1">
-        <v>45855.498240740737</v>
+        <v>45813.550752314812</v>
       </c>
       <c r="I66" s="2">
-        <v>-23.498240740736946</v>
+        <v>20.449456018519413</v>
       </c>
       <c r="J66" s="3">
-        <v>182.79</v>
+        <v>363.07</v>
       </c>
       <c r="K66" s="3">
-        <v>182.79</v>
+        <v>363.07</v>
       </c>
       <c r="L66" t="s">
         <v>17</v>
       </c>
       <c r="M66" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>211111909</v>
+        <v>211111992</v>
       </c>
       <c r="B67" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C67" t="s">
         <v>14</v>
@@ -3368,39 +3338,39 @@
         <v>15</v>
       </c>
       <c r="E67">
-        <v>10823</v>
+        <v>9168</v>
       </c>
       <c r="F67" t="s">
         <v>16</v>
       </c>
       <c r="G67" s="1">
-        <v>45889.495046296295</v>
+        <v>45850.539571759255</v>
       </c>
       <c r="H67" s="1">
-        <v>45859.495057870372</v>
+        <v>45820.541122685187</v>
       </c>
       <c r="I67" s="2">
-        <v>-27.495046296295186</v>
+        <v>13.460428240745387</v>
       </c>
       <c r="J67" s="3">
-        <v>99.84</v>
+        <v>248.46</v>
       </c>
       <c r="K67" s="3">
-        <v>99.84</v>
+        <v>248.46</v>
       </c>
       <c r="L67" t="s">
         <v>17</v>
       </c>
       <c r="M67" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>211111932</v>
+        <v>211111992</v>
       </c>
       <c r="B68" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="C68" t="s">
         <v>14</v>
@@ -3409,80 +3379,80 @@
         <v>15</v>
       </c>
       <c r="E68">
-        <v>6876</v>
+        <v>9636</v>
       </c>
       <c r="F68" t="s">
         <v>16</v>
       </c>
       <c r="G68" s="1">
-        <v>45806.316099537034</v>
+        <v>45861.612002314811</v>
       </c>
       <c r="H68" s="1">
-        <v>45776.318043981482</v>
+        <v>45831.617939814816</v>
       </c>
       <c r="I68" s="2">
-        <v>55.683900462965539</v>
+        <v>2.3879976851894753</v>
       </c>
       <c r="J68" s="3">
-        <v>337.18</v>
+        <v>249.89000000000001</v>
       </c>
       <c r="K68" s="3">
-        <v>337.18</v>
+        <v>249.89000000000001</v>
       </c>
       <c r="L68" t="s">
         <v>17</v>
       </c>
       <c r="M68" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>211111932</v>
+        <v>211111992</v>
       </c>
       <c r="B69" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="C69" t="s">
-        <v>14</v>
-      </c>
-      <c r="D69" t="s">
-        <v>15</v>
+        <v>27</v>
+      </c>
+      <c r="D69">
+        <v>2025</v>
       </c>
       <c r="E69">
-        <v>7112</v>
+        <v>628</v>
       </c>
       <c r="F69" t="s">
         <v>16</v>
       </c>
       <c r="G69" s="1">
-        <v>45809.600486111107</v>
+        <v>45876</v>
       </c>
       <c r="H69" s="1">
-        <v>45779.601805555554</v>
+        <v>45846</v>
       </c>
       <c r="I69" s="2">
-        <v>52.399513888893125</v>
+        <v>-12</v>
       </c>
       <c r="J69" s="3">
-        <v>1342.49</v>
+        <v>-24.060000000000002</v>
       </c>
       <c r="K69" s="3">
-        <v>1000</v>
+        <v>-24.060000000000002</v>
       </c>
       <c r="L69" t="s">
         <v>17</v>
       </c>
       <c r="M69" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>211111949</v>
+        <v>211111992</v>
       </c>
       <c r="B70" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="C70" t="s">
         <v>14</v>
@@ -3491,25 +3461,25 @@
         <v>15</v>
       </c>
       <c r="E70">
-        <v>10861</v>
+        <v>10284</v>
       </c>
       <c r="F70" t="s">
         <v>16</v>
       </c>
       <c r="G70" s="1">
-        <v>45890.528368055551</v>
+        <v>45876.526770833334</v>
       </c>
       <c r="H70" s="1">
-        <v>45860.528379629628</v>
+        <v>45846.52884259259</v>
       </c>
       <c r="I70" s="2">
-        <v>-28.528368055551255</v>
+        <v>-12.526770833334012</v>
       </c>
       <c r="J70" s="3">
-        <v>153.81</v>
+        <v>192.77</v>
       </c>
       <c r="K70" s="3">
-        <v>153.81</v>
+        <v>192.77</v>
       </c>
       <c r="L70" t="s">
         <v>17</v>
@@ -3523,7 +3493,7 @@
         <v>211111992</v>
       </c>
       <c r="B71" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="C71" t="s">
         <v>14</v>
@@ -3532,31 +3502,31 @@
         <v>15</v>
       </c>
       <c r="E71">
-        <v>8163</v>
+        <v>10720</v>
       </c>
       <c r="F71" t="s">
         <v>16</v>
       </c>
       <c r="G71" s="1">
-        <v>45828.579780092594</v>
+        <v>45885.592870370368</v>
       </c>
       <c r="H71" s="1">
-        <v>45798.580069444441</v>
+        <v>45855.592870370368</v>
       </c>
       <c r="I71" s="2">
-        <v>33.420219907406135</v>
+        <v>-21.592870370368473</v>
       </c>
       <c r="J71" s="3">
-        <v>83.11</v>
+        <v>57.06</v>
       </c>
       <c r="K71" s="3">
-        <v>70.850000000000009</v>
+        <v>57.06</v>
       </c>
       <c r="L71" t="s">
         <v>17</v>
       </c>
       <c r="M71" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.25">
@@ -3564,7 +3534,7 @@
         <v>211111992</v>
       </c>
       <c r="B72" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="C72" t="s">
         <v>14</v>
@@ -3573,80 +3543,80 @@
         <v>15</v>
       </c>
       <c r="E72">
-        <v>8543</v>
+        <v>10722</v>
       </c>
       <c r="F72" t="s">
         <v>16</v>
       </c>
       <c r="G72" s="1">
-        <v>45835.559664351851</v>
+        <v>45885.593692129631</v>
       </c>
       <c r="H72" s="1">
-        <v>45805.560277777775</v>
+        <v>45855.593692129631</v>
       </c>
       <c r="I72" s="2">
-        <v>26.440335648148903</v>
+        <v>-21.593692129630654</v>
       </c>
       <c r="J72" s="3">
-        <v>116.45</v>
+        <v>161.43</v>
       </c>
       <c r="K72" s="3">
-        <v>116.45</v>
+        <v>161.43</v>
       </c>
       <c r="L72" t="s">
         <v>17</v>
       </c>
       <c r="M72" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>211111992</v>
+        <v>211112011</v>
       </c>
       <c r="B73" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="C73" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D73">
         <v>2025</v>
       </c>
       <c r="E73">
-        <v>531</v>
+        <v>635</v>
       </c>
       <c r="F73" t="s">
         <v>16</v>
       </c>
       <c r="G73" s="1">
-        <v>45843</v>
+        <v>45878</v>
       </c>
       <c r="H73" s="1">
-        <v>45813</v>
+        <v>45848</v>
       </c>
       <c r="I73" s="2">
-        <v>19</v>
+        <v>-14</v>
       </c>
       <c r="J73" s="3">
-        <v>-238.66</v>
+        <v>-62.300000000000004</v>
       </c>
       <c r="K73" s="3">
-        <v>-238.66</v>
+        <v>-62.300000000000004</v>
       </c>
       <c r="L73" t="s">
         <v>17</v>
       </c>
       <c r="M73" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>211111992</v>
+        <v>211112011</v>
       </c>
       <c r="B74" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="C74" t="s">
         <v>14</v>
@@ -3655,39 +3625,39 @@
         <v>15</v>
       </c>
       <c r="E74">
-        <v>8927</v>
+        <v>10424</v>
       </c>
       <c r="F74" t="s">
         <v>16</v>
       </c>
       <c r="G74" s="1">
-        <v>45843.550543981481</v>
+        <v>45878.471504629626</v>
       </c>
       <c r="H74" s="1">
-        <v>45813.550752314812</v>
+        <v>45848.471504629626</v>
       </c>
       <c r="I74" s="2">
-        <v>18.449456018519413</v>
+        <v>-14.471504629625997</v>
       </c>
       <c r="J74" s="3">
-        <v>363.07</v>
+        <v>577.54</v>
       </c>
       <c r="K74" s="3">
-        <v>363.07</v>
+        <v>61.61</v>
       </c>
       <c r="L74" t="s">
         <v>17</v>
       </c>
       <c r="M74" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>211111992</v>
+        <v>211112011</v>
       </c>
       <c r="B75" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="C75" t="s">
         <v>14</v>
@@ -3696,39 +3666,39 @@
         <v>15</v>
       </c>
       <c r="E75">
-        <v>9168</v>
+        <v>10828</v>
       </c>
       <c r="F75" t="s">
         <v>16</v>
       </c>
       <c r="G75" s="1">
-        <v>45850.539571759255</v>
+        <v>45889.495162037034</v>
       </c>
       <c r="H75" s="1">
-        <v>45820.541122685187</v>
+        <v>45859.495173611111</v>
       </c>
       <c r="I75" s="2">
-        <v>11.460428240745387</v>
+        <v>-25.495162037033879</v>
       </c>
       <c r="J75" s="3">
-        <v>248.46</v>
+        <v>201.51</v>
       </c>
       <c r="K75" s="3">
-        <v>248.46</v>
+        <v>201.51</v>
       </c>
       <c r="L75" t="s">
         <v>17</v>
       </c>
       <c r="M75" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>211111992</v>
+        <v>211112011</v>
       </c>
       <c r="B76" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="C76" t="s">
         <v>14</v>
@@ -3737,25 +3707,25 @@
         <v>15</v>
       </c>
       <c r="E76">
-        <v>9636</v>
+        <v>10992</v>
       </c>
       <c r="F76" t="s">
         <v>16</v>
       </c>
       <c r="G76" s="1">
-        <v>45861.612002314811</v>
+        <v>45892.492928240739</v>
       </c>
       <c r="H76" s="1">
-        <v>45831.617939814816</v>
+        <v>45862.492939814816</v>
       </c>
       <c r="I76" s="2">
-        <v>0.38799768518947531</v>
+        <v>-28.492928240739275</v>
       </c>
       <c r="J76" s="3">
-        <v>249.89000000000001</v>
+        <v>214.39000000000001</v>
       </c>
       <c r="K76" s="3">
-        <v>249.89000000000001</v>
+        <v>214.39000000000001</v>
       </c>
       <c r="L76" t="s">
         <v>17</v>
@@ -3766,10 +3736,10 @@
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>211111992</v>
+        <v>211112028</v>
       </c>
       <c r="B77" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="C77" t="s">
         <v>14</v>
@@ -3778,25 +3748,25 @@
         <v>15</v>
       </c>
       <c r="E77">
-        <v>10284</v>
+        <v>9787</v>
       </c>
       <c r="F77" t="s">
         <v>16</v>
       </c>
       <c r="G77" s="1">
-        <v>45876.526770833334</v>
+        <v>45864.504062499997</v>
       </c>
       <c r="H77" s="1">
-        <v>45846.52884259259</v>
+        <v>45834.504340277774</v>
       </c>
       <c r="I77" s="2">
-        <v>-14.526770833334012</v>
+        <v>-0.50406249999650754</v>
       </c>
       <c r="J77" s="3">
-        <v>192.77</v>
+        <v>287.97000000000003</v>
       </c>
       <c r="K77" s="3">
-        <v>192.77</v>
+        <v>287.97000000000003</v>
       </c>
       <c r="L77" t="s">
         <v>17</v>
@@ -3807,10 +3777,10 @@
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>211111992</v>
+        <v>211112028</v>
       </c>
       <c r="B78" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="C78" t="s">
         <v>14</v>
@@ -3819,25 +3789,25 @@
         <v>15</v>
       </c>
       <c r="E78">
-        <v>10720</v>
+        <v>10711</v>
       </c>
       <c r="F78" t="s">
         <v>16</v>
       </c>
       <c r="G78" s="1">
-        <v>45885.592870370368</v>
+        <v>45885.555312500001</v>
       </c>
       <c r="H78" s="1">
-        <v>45855.592870370368</v>
+        <v>45855.556076388886</v>
       </c>
       <c r="I78" s="2">
-        <v>-23.592870370368473</v>
+        <v>-21.555312500000582</v>
       </c>
       <c r="J78" s="3">
-        <v>57.06</v>
+        <v>281.88</v>
       </c>
       <c r="K78" s="3">
-        <v>57.06</v>
+        <v>281.88</v>
       </c>
       <c r="L78" t="s">
         <v>17</v>
@@ -3848,10 +3818,10 @@
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>211111992</v>
+        <v>211112064</v>
       </c>
       <c r="B79" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C79" t="s">
         <v>14</v>
@@ -3860,25 +3830,25 @@
         <v>15</v>
       </c>
       <c r="E79">
-        <v>10722</v>
+        <v>9983</v>
       </c>
       <c r="F79" t="s">
         <v>16</v>
       </c>
       <c r="G79" s="1">
-        <v>45885.593692129631</v>
+        <v>45870.443148148144</v>
       </c>
       <c r="H79" s="1">
-        <v>45855.593692129631</v>
+        <v>45840.443472222221</v>
       </c>
       <c r="I79" s="2">
-        <v>-23.593692129630654</v>
+        <v>-6.4431481481442461</v>
       </c>
       <c r="J79" s="3">
-        <v>161.43</v>
+        <v>44.81</v>
       </c>
       <c r="K79" s="3">
-        <v>161.43</v>
+        <v>44.81</v>
       </c>
       <c r="L79" t="s">
         <v>17</v>
@@ -3889,10 +3859,10 @@
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>211112011</v>
+        <v>211112064</v>
       </c>
       <c r="B80" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="C80" t="s">
         <v>14</v>
@@ -3901,25 +3871,25 @@
         <v>15</v>
       </c>
       <c r="E80">
-        <v>10424</v>
+        <v>10467</v>
       </c>
       <c r="F80" t="s">
         <v>16</v>
       </c>
       <c r="G80" s="1">
-        <v>45878.471504629626</v>
+        <v>45879.403541666667</v>
       </c>
       <c r="H80" s="1">
-        <v>45848.471504629626</v>
+        <v>45849.403553240736</v>
       </c>
       <c r="I80" s="2">
-        <v>-16.471504629625997</v>
+        <v>-15.40354166666657</v>
       </c>
       <c r="J80" s="3">
-        <v>577.54</v>
+        <v>172.37</v>
       </c>
       <c r="K80" s="3">
-        <v>61.61</v>
+        <v>172.37</v>
       </c>
       <c r="L80" t="s">
         <v>17</v>
@@ -3930,10 +3900,10 @@
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>211112011</v>
+        <v>211112064</v>
       </c>
       <c r="B81" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="C81" t="s">
         <v>14</v>
@@ -3942,25 +3912,25 @@
         <v>15</v>
       </c>
       <c r="E81">
-        <v>10523</v>
+        <v>10647</v>
       </c>
       <c r="F81" t="s">
         <v>16</v>
       </c>
       <c r="G81" s="1">
-        <v>45882.489108796297</v>
+        <v>45884.469375000001</v>
       </c>
       <c r="H81" s="1">
-        <v>45852.489166666666</v>
+        <v>45854.469375000001</v>
       </c>
       <c r="I81" s="2">
-        <v>-20.489108796296932</v>
+        <v>-20.469375000000582</v>
       </c>
       <c r="J81" s="3">
-        <v>236.49</v>
+        <v>78.2</v>
       </c>
       <c r="K81" s="3">
-        <v>236.49</v>
+        <v>78.2</v>
       </c>
       <c r="L81" t="s">
         <v>17</v>
@@ -3971,37 +3941,37 @@
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>211112011</v>
+        <v>211112064</v>
       </c>
       <c r="B82" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="C82" t="s">
-        <v>14</v>
+        <v>60</v>
       </c>
       <c r="D82" t="s">
         <v>15</v>
       </c>
       <c r="E82">
-        <v>10703</v>
+        <v>13</v>
       </c>
       <c r="F82" t="s">
         <v>16</v>
       </c>
       <c r="G82" s="1">
-        <v>45885.498437499999</v>
+        <v>45891</v>
       </c>
       <c r="H82" s="1">
-        <v>45855.498449074075</v>
+        <v>45861</v>
       </c>
       <c r="I82" s="2">
-        <v>-23.498437499998545</v>
+        <v>-27</v>
       </c>
       <c r="J82" s="3">
-        <v>180.05</v>
+        <v>-156.15</v>
       </c>
       <c r="K82" s="3">
-        <v>180.05</v>
+        <v>-156.15</v>
       </c>
       <c r="L82" t="s">
         <v>17</v>
@@ -4012,10 +3982,10 @@
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>211112011</v>
+        <v>211112064</v>
       </c>
       <c r="B83" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="C83" t="s">
         <v>14</v>
@@ -4024,25 +3994,25 @@
         <v>15</v>
       </c>
       <c r="E83">
-        <v>10828</v>
+        <v>10933</v>
       </c>
       <c r="F83" t="s">
         <v>16</v>
       </c>
       <c r="G83" s="1">
-        <v>45889.495162037034</v>
+        <v>45891.550335648149</v>
       </c>
       <c r="H83" s="1">
-        <v>45859.495173611111</v>
+        <v>45861.550335648149</v>
       </c>
       <c r="I83" s="2">
-        <v>-27.495162037033879</v>
+        <v>-27.550335648149485</v>
       </c>
       <c r="J83" s="3">
-        <v>201.51</v>
+        <v>156.15</v>
       </c>
       <c r="K83" s="3">
-        <v>201.51</v>
+        <v>156.15</v>
       </c>
       <c r="L83" t="s">
         <v>17</v>
@@ -4053,10 +4023,10 @@
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>211112028</v>
+        <v>211112064</v>
       </c>
       <c r="B84" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="C84" t="s">
         <v>14</v>
@@ -4065,25 +4035,25 @@
         <v>15</v>
       </c>
       <c r="E84">
-        <v>9787</v>
+        <v>10974</v>
       </c>
       <c r="F84" t="s">
         <v>16</v>
       </c>
       <c r="G84" s="1">
-        <v>45864.504062499997</v>
+        <v>45892.340671296297</v>
       </c>
       <c r="H84" s="1">
-        <v>45834.504340277774</v>
+        <v>45862.34233796296</v>
       </c>
       <c r="I84" s="2">
-        <v>-2.5040624999965075</v>
+        <v>-28.340671296296932</v>
       </c>
       <c r="J84" s="3">
-        <v>287.97000000000003</v>
+        <v>116.54</v>
       </c>
       <c r="K84" s="3">
-        <v>287.97000000000003</v>
+        <v>116.54</v>
       </c>
       <c r="L84" t="s">
         <v>17</v>
@@ -4094,10 +4064,10 @@
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>211112028</v>
+        <v>211112086</v>
       </c>
       <c r="B85" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="C85" t="s">
         <v>14</v>
@@ -4106,25 +4076,25 @@
         <v>15</v>
       </c>
       <c r="E85">
-        <v>10711</v>
+        <v>10414</v>
       </c>
       <c r="F85" t="s">
         <v>16</v>
       </c>
       <c r="G85" s="1">
-        <v>45885.555312500001</v>
+        <v>45878.428182870368</v>
       </c>
       <c r="H85" s="1">
-        <v>45855.556076388886</v>
+        <v>45848.428182870368</v>
       </c>
       <c r="I85" s="2">
-        <v>-23.555312500000582</v>
+        <v>-14.428182870367891</v>
       </c>
       <c r="J85" s="3">
-        <v>281.88</v>
+        <v>181.28</v>
       </c>
       <c r="K85" s="3">
-        <v>281.88</v>
+        <v>81.070000000000007</v>
       </c>
       <c r="L85" t="s">
         <v>17</v>
@@ -4135,10 +4105,10 @@
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>211112064</v>
+        <v>211112086</v>
       </c>
       <c r="B86" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="C86" t="s">
         <v>14</v>
@@ -4147,25 +4117,25 @@
         <v>15</v>
       </c>
       <c r="E86">
-        <v>9983</v>
+        <v>10705</v>
       </c>
       <c r="F86" t="s">
         <v>16</v>
       </c>
       <c r="G86" s="1">
-        <v>45870.443148148144</v>
+        <v>45885.500740740739</v>
       </c>
       <c r="H86" s="1">
-        <v>45840.443472222221</v>
+        <v>45855.500740740739</v>
       </c>
       <c r="I86" s="2">
-        <v>-8.4431481481442461</v>
+        <v>-21.500740740739275</v>
       </c>
       <c r="J86" s="3">
-        <v>44.81</v>
+        <v>236.3</v>
       </c>
       <c r="K86" s="3">
-        <v>44.81</v>
+        <v>236.3</v>
       </c>
       <c r="L86" t="s">
         <v>17</v>
@@ -4176,10 +4146,10 @@
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>211112064</v>
+        <v>211112086</v>
       </c>
       <c r="B87" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="C87" t="s">
         <v>14</v>
@@ -4188,25 +4158,25 @@
         <v>15</v>
       </c>
       <c r="E87">
-        <v>10467</v>
+        <v>10990</v>
       </c>
       <c r="F87" t="s">
         <v>16</v>
       </c>
       <c r="G87" s="1">
-        <v>45879.403541666667</v>
+        <v>45892.49282407407</v>
       </c>
       <c r="H87" s="1">
-        <v>45849.403553240736</v>
+        <v>45862.49282407407</v>
       </c>
       <c r="I87" s="2">
-        <v>-17.40354166666657</v>
+        <v>-28.492824074070086</v>
       </c>
       <c r="J87" s="3">
-        <v>172.37</v>
+        <v>68.710000000000008</v>
       </c>
       <c r="K87" s="3">
-        <v>172.37</v>
+        <v>68.710000000000008</v>
       </c>
       <c r="L87" t="s">
         <v>17</v>
@@ -4217,10 +4187,10 @@
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>211112064</v>
+        <v>211112115</v>
       </c>
       <c r="B88" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="C88" t="s">
         <v>14</v>
@@ -4229,25 +4199,25 @@
         <v>15</v>
       </c>
       <c r="E88">
-        <v>10647</v>
+        <v>10824</v>
       </c>
       <c r="F88" t="s">
         <v>16</v>
       </c>
       <c r="G88" s="1">
-        <v>45884.469375000001</v>
+        <v>45889.495069444441</v>
       </c>
       <c r="H88" s="1">
-        <v>45854.469375000001</v>
+        <v>45859.495081018518</v>
       </c>
       <c r="I88" s="2">
-        <v>-22.469375000000582</v>
+        <v>-25.495069444441469</v>
       </c>
       <c r="J88" s="3">
-        <v>78.2</v>
+        <v>250.09</v>
       </c>
       <c r="K88" s="3">
-        <v>78.2</v>
+        <v>250.09</v>
       </c>
       <c r="L88" t="s">
         <v>17</v>
@@ -4258,10 +4228,10 @@
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>211112064</v>
+        <v>211112132</v>
       </c>
       <c r="B89" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C89" t="s">
         <v>14</v>
@@ -4270,25 +4240,25 @@
         <v>15</v>
       </c>
       <c r="E89">
-        <v>10933</v>
+        <v>10196</v>
       </c>
       <c r="F89" t="s">
         <v>16</v>
       </c>
       <c r="G89" s="1">
-        <v>45891.550335648149</v>
+        <v>45875.461145833331</v>
       </c>
       <c r="H89" s="1">
-        <v>45861.550335648149</v>
+        <v>45845.461145833331</v>
       </c>
       <c r="I89" s="2">
-        <v>-29.550335648149485</v>
+        <v>-11.461145833331102</v>
       </c>
       <c r="J89" s="3">
-        <v>156.15</v>
+        <v>225.16</v>
       </c>
       <c r="K89" s="3">
-        <v>156.15</v>
+        <v>225.16</v>
       </c>
       <c r="L89" t="s">
         <v>17</v>
@@ -4299,10 +4269,10 @@
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>211112067</v>
+        <v>211112132</v>
       </c>
       <c r="B90" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="C90" t="s">
         <v>14</v>
@@ -4311,80 +4281,80 @@
         <v>15</v>
       </c>
       <c r="E90">
-        <v>188</v>
+        <v>10702</v>
       </c>
       <c r="F90" t="s">
         <v>16</v>
       </c>
       <c r="G90" s="1">
-        <v>45660.521828703699</v>
+        <v>45885.498414351852</v>
       </c>
       <c r="H90" s="1">
-        <v>45660.521828703699</v>
+        <v>45855.498414351852</v>
       </c>
       <c r="I90" s="2">
-        <v>201.4781712963013</v>
+        <v>-21.498414351852261</v>
       </c>
       <c r="J90" s="3">
-        <v>589.87</v>
+        <v>320.82</v>
       </c>
       <c r="K90" s="3">
-        <v>589.87</v>
+        <v>320.82</v>
       </c>
       <c r="L90" t="s">
         <v>17</v>
       </c>
       <c r="M90" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>211112086</v>
+        <v>211112198</v>
       </c>
       <c r="B91" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="C91" t="s">
-        <v>14</v>
-      </c>
-      <c r="D91" t="s">
-        <v>15</v>
+        <v>27</v>
+      </c>
+      <c r="D91">
+        <v>2025</v>
       </c>
       <c r="E91">
-        <v>9484</v>
+        <v>622</v>
       </c>
       <c r="F91" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="G91" s="1">
-        <v>45858.485891203702</v>
+        <v>45875</v>
       </c>
       <c r="H91" s="1">
-        <v>45828.486481481479</v>
+        <v>45845</v>
       </c>
       <c r="I91" s="2">
-        <v>3.5141087962983875</v>
+        <v>-11</v>
       </c>
       <c r="J91" s="3">
-        <v>454.15000000000003</v>
+        <v>-134.19999999999999</v>
       </c>
       <c r="K91" s="3">
-        <v>454.15000000000003</v>
+        <v>-134.19999999999999</v>
       </c>
       <c r="L91" t="s">
         <v>17</v>
       </c>
       <c r="M91" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>211112086</v>
+        <v>211112198</v>
       </c>
       <c r="B92" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="C92" t="s">
         <v>14</v>
@@ -4393,25 +4363,25 @@
         <v>15</v>
       </c>
       <c r="E92">
-        <v>9769</v>
+        <v>10217</v>
       </c>
       <c r="F92" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G92" s="1">
-        <v>45864.445300925923</v>
+        <v>45875.486840277779</v>
       </c>
       <c r="H92" s="1">
-        <v>45834.445868055554</v>
+        <v>45845.486840277779</v>
       </c>
       <c r="I92" s="2">
-        <v>-2.4453009259232203</v>
+        <v>-11.486840277779265</v>
       </c>
       <c r="J92" s="3">
-        <v>738.56000000000006</v>
+        <v>187.19</v>
       </c>
       <c r="K92" s="3">
-        <v>738.56000000000006</v>
+        <v>187.19</v>
       </c>
       <c r="L92" t="s">
         <v>17</v>
@@ -4422,297 +4392,297 @@
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>211112086</v>
+        <v>211112291</v>
       </c>
       <c r="B93" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C93" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="D93" t="s">
-        <v>15</v>
-      </c>
-      <c r="E93">
-        <v>10026</v>
+        <v>33</v>
+      </c>
+      <c r="E93" t="s">
+        <v>52</v>
       </c>
       <c r="F93" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="G93" s="1">
-        <v>45871.442129629628</v>
+        <v>45324</v>
       </c>
       <c r="H93" s="1">
-        <v>45841.442129629628</v>
+        <v>45324</v>
       </c>
       <c r="I93" s="2">
-        <v>-9.4421296296277433</v>
+        <v>540</v>
       </c>
       <c r="J93" s="3">
-        <v>157.08000000000001</v>
+        <v>200.59</v>
       </c>
       <c r="K93" s="3">
-        <v>157.08000000000001</v>
+        <v>200.59</v>
       </c>
       <c r="L93" t="s">
         <v>17</v>
       </c>
       <c r="M93" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>211112086</v>
+        <v>211112291</v>
       </c>
       <c r="B94" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C94" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="D94" t="s">
-        <v>15</v>
-      </c>
-      <c r="E94">
-        <v>10414</v>
+        <v>33</v>
+      </c>
+      <c r="E94" t="s">
+        <v>53</v>
       </c>
       <c r="F94" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="G94" s="1">
-        <v>45878.428182870368</v>
+        <v>45324</v>
       </c>
       <c r="H94" s="1">
-        <v>45848.428182870368</v>
+        <v>45324</v>
       </c>
       <c r="I94" s="2">
-        <v>-16.428182870367891</v>
+        <v>540</v>
       </c>
       <c r="J94" s="3">
-        <v>181.28</v>
+        <v>76.36</v>
       </c>
       <c r="K94" s="3">
-        <v>181.28</v>
+        <v>76.36</v>
       </c>
       <c r="L94" t="s">
         <v>17</v>
       </c>
       <c r="M94" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>211112086</v>
+        <v>211112291</v>
       </c>
       <c r="B95" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C95" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="D95" t="s">
-        <v>15</v>
-      </c>
-      <c r="E95">
-        <v>10705</v>
+        <v>33</v>
+      </c>
+      <c r="E95" t="s">
+        <v>54</v>
       </c>
       <c r="F95" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="G95" s="1">
-        <v>45885.500740740739</v>
+        <v>45331</v>
       </c>
       <c r="H95" s="1">
-        <v>45855.500740740739</v>
+        <v>45331</v>
       </c>
       <c r="I95" s="2">
-        <v>-23.500740740739275</v>
+        <v>533</v>
       </c>
       <c r="J95" s="3">
-        <v>236.3</v>
+        <v>209.18</v>
       </c>
       <c r="K95" s="3">
-        <v>236.3</v>
+        <v>209.18</v>
       </c>
       <c r="L95" t="s">
         <v>17</v>
       </c>
       <c r="M95" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>211112115</v>
+        <v>211112291</v>
       </c>
       <c r="B96" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="C96" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="D96" t="s">
-        <v>15</v>
-      </c>
-      <c r="E96">
-        <v>10824</v>
+        <v>33</v>
+      </c>
+      <c r="E96" t="s">
+        <v>55</v>
       </c>
       <c r="F96" t="s">
         <v>16</v>
       </c>
       <c r="G96" s="1">
-        <v>45889.495069444441</v>
+        <v>45366</v>
       </c>
       <c r="H96" s="1">
-        <v>45859.495081018518</v>
+        <v>45366</v>
       </c>
       <c r="I96" s="2">
-        <v>-27.495069444441469</v>
+        <v>498</v>
       </c>
       <c r="J96" s="3">
-        <v>250.09</v>
+        <v>872.94</v>
       </c>
       <c r="K96" s="3">
-        <v>250.09</v>
+        <v>872.94</v>
       </c>
       <c r="L96" t="s">
         <v>17</v>
       </c>
       <c r="M96" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>211112132</v>
+        <v>211112291</v>
       </c>
       <c r="B97" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="C97" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="D97" t="s">
-        <v>15</v>
-      </c>
-      <c r="E97">
-        <v>6221</v>
+        <v>33</v>
+      </c>
+      <c r="E97" t="s">
+        <v>56</v>
       </c>
       <c r="F97" t="s">
         <v>16</v>
       </c>
       <c r="G97" s="1">
-        <v>45791.428252314814</v>
+        <v>45390</v>
       </c>
       <c r="H97" s="1">
-        <v>45761.429930555554</v>
+        <v>45390</v>
       </c>
       <c r="I97" s="2">
-        <v>70.571747685185983</v>
+        <v>474</v>
       </c>
       <c r="J97" s="3">
-        <v>315.56</v>
+        <v>261.22000000000003</v>
       </c>
       <c r="K97" s="3">
-        <v>315.56</v>
+        <v>261.22000000000003</v>
       </c>
       <c r="L97" t="s">
         <v>17</v>
       </c>
       <c r="M97" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>211112132</v>
+        <v>211112291</v>
       </c>
       <c r="B98" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="C98" t="s">
         <v>14</v>
       </c>
       <c r="D98" t="s">
-        <v>15</v>
+        <v>57</v>
       </c>
       <c r="E98">
-        <v>6466</v>
+        <v>1957</v>
       </c>
       <c r="F98" t="s">
         <v>16</v>
       </c>
       <c r="G98" s="1">
-        <v>45794.432476851849</v>
+        <v>45529.645949074074</v>
       </c>
       <c r="H98" s="1">
-        <v>45764.433287037034</v>
+        <v>45499.646979166668</v>
       </c>
       <c r="I98" s="2">
-        <v>67.56752314815094</v>
+        <v>334.35405092592555</v>
       </c>
       <c r="J98" s="3">
-        <v>367.25</v>
+        <v>68.7</v>
       </c>
       <c r="K98" s="3">
-        <v>367.25</v>
+        <v>68.7</v>
       </c>
       <c r="L98" t="s">
         <v>17</v>
       </c>
       <c r="M98" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>211112132</v>
+        <v>211112314</v>
       </c>
       <c r="B99" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C99" t="s">
-        <v>14</v>
-      </c>
-      <c r="D99" t="s">
-        <v>15</v>
+        <v>27</v>
+      </c>
+      <c r="D99">
+        <v>2025</v>
       </c>
       <c r="E99">
-        <v>7062</v>
+        <v>345</v>
       </c>
       <c r="F99" t="s">
         <v>16</v>
       </c>
       <c r="G99" s="1">
-        <v>45809.451168981483</v>
+        <v>45788</v>
       </c>
       <c r="H99" s="1">
-        <v>45779.452569444446</v>
+        <v>45758</v>
       </c>
       <c r="I99" s="2">
-        <v>52.548831018517376</v>
+        <v>76</v>
       </c>
       <c r="J99" s="3">
-        <v>151.74</v>
+        <v>-16.809999999999999</v>
       </c>
       <c r="K99" s="3">
-        <v>151.74</v>
+        <v>-16.809999999999999</v>
       </c>
       <c r="L99" t="s">
         <v>17</v>
       </c>
       <c r="M99" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>211112132</v>
+        <v>211112314</v>
       </c>
       <c r="B100" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C100" t="s">
         <v>14</v>
@@ -4721,39 +4691,39 @@
         <v>15</v>
       </c>
       <c r="E100">
-        <v>7136</v>
+        <v>7594</v>
       </c>
       <c r="F100" t="s">
         <v>16</v>
       </c>
       <c r="G100" s="1">
-        <v>45812.451990740738</v>
+        <v>45819.477175925924</v>
       </c>
       <c r="H100" s="1">
-        <v>45782.453032407408</v>
+        <v>45789.477384259255</v>
       </c>
       <c r="I100" s="2">
-        <v>49.548009259262471</v>
+        <v>44.522824074076198</v>
       </c>
       <c r="J100" s="3">
-        <v>344.23</v>
+        <v>299.16000000000003</v>
       </c>
       <c r="K100" s="3">
-        <v>344.23</v>
+        <v>299.16000000000003</v>
       </c>
       <c r="L100" t="s">
         <v>17</v>
       </c>
       <c r="M100" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>211112132</v>
+        <v>211112314</v>
       </c>
       <c r="B101" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C101" t="s">
         <v>14</v>
@@ -4762,39 +4732,39 @@
         <v>15</v>
       </c>
       <c r="E101">
-        <v>7418</v>
+        <v>7963</v>
       </c>
       <c r="F101" t="s">
         <v>16</v>
       </c>
       <c r="G101" s="1">
-        <v>45815.458310185182</v>
+        <v>45826.545543981483</v>
       </c>
       <c r="H101" s="1">
-        <v>45785.458703703705</v>
+        <v>45796.546076388884</v>
       </c>
       <c r="I101" s="2">
-        <v>46.541689814817801</v>
+        <v>37.454456018516794</v>
       </c>
       <c r="J101" s="3">
-        <v>254.37</v>
+        <v>257.61</v>
       </c>
       <c r="K101" s="3">
-        <v>254.37</v>
+        <v>257.61</v>
       </c>
       <c r="L101" t="s">
         <v>17</v>
       </c>
       <c r="M101" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A102">
-        <v>211112132</v>
+        <v>211112314</v>
       </c>
       <c r="B102" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C102" t="s">
         <v>14</v>
@@ -4803,80 +4773,80 @@
         <v>15</v>
       </c>
       <c r="E102">
-        <v>7564</v>
+        <v>8212</v>
       </c>
       <c r="F102" t="s">
         <v>16</v>
       </c>
       <c r="G102" s="1">
-        <v>45819.427627314813</v>
+        <v>45829.438958333332</v>
       </c>
       <c r="H102" s="1">
-        <v>45789.429386574069</v>
+        <v>45799.439328703702</v>
       </c>
       <c r="I102" s="2">
-        <v>42.572372685186565</v>
+        <v>34.561041666667734</v>
       </c>
       <c r="J102" s="3">
-        <v>279.14</v>
+        <v>49.53</v>
       </c>
       <c r="K102" s="3">
-        <v>279.14</v>
+        <v>49.53</v>
       </c>
       <c r="L102" t="s">
         <v>17</v>
       </c>
       <c r="M102" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A103">
-        <v>211112132</v>
+        <v>211112314</v>
       </c>
       <c r="B103" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C103" t="s">
-        <v>28</v>
-      </c>
-      <c r="D103">
-        <v>2025</v>
+        <v>14</v>
+      </c>
+      <c r="D103" t="s">
+        <v>15</v>
       </c>
       <c r="E103">
-        <v>460</v>
+        <v>8360</v>
       </c>
       <c r="F103" t="s">
         <v>16</v>
       </c>
       <c r="G103" s="1">
-        <v>45826</v>
+        <v>45833.452615740738</v>
       </c>
       <c r="H103" s="1">
-        <v>45796</v>
+        <v>45803.452893518515</v>
       </c>
       <c r="I103" s="2">
-        <v>36</v>
+        <v>30.547384259261889</v>
       </c>
       <c r="J103" s="3">
-        <v>-3.42</v>
+        <v>152.79</v>
       </c>
       <c r="K103" s="3">
-        <v>-3.42</v>
+        <v>152.79</v>
       </c>
       <c r="L103" t="s">
         <v>17</v>
       </c>
       <c r="M103" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A104">
-        <v>211112132</v>
+        <v>211112314</v>
       </c>
       <c r="B104" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C104" t="s">
         <v>14</v>
@@ -4885,39 +4855,39 @@
         <v>15</v>
       </c>
       <c r="E104">
-        <v>7964</v>
+        <v>8584</v>
       </c>
       <c r="F104" t="s">
         <v>16</v>
       </c>
       <c r="G104" s="1">
-        <v>45826.5462037037</v>
+        <v>45836.412951388884</v>
       </c>
       <c r="H104" s="1">
-        <v>45796.547326388885</v>
+        <v>45806.420115740737</v>
       </c>
       <c r="I104" s="2">
-        <v>35.453796296300425</v>
+        <v>27.587048611116188</v>
       </c>
       <c r="J104" s="3">
-        <v>461.47</v>
+        <v>417.92</v>
       </c>
       <c r="K104" s="3">
-        <v>461.47</v>
+        <v>417.92</v>
       </c>
       <c r="L104" t="s">
         <v>17</v>
       </c>
       <c r="M104" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A105">
-        <v>211112132</v>
+        <v>211112314</v>
       </c>
       <c r="B105" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C105" t="s">
         <v>14</v>
@@ -4926,39 +4896,39 @@
         <v>15</v>
       </c>
       <c r="E105">
-        <v>8206</v>
+        <v>9310</v>
       </c>
       <c r="F105" t="s">
         <v>16</v>
       </c>
       <c r="G105" s="1">
-        <v>45829.435983796291</v>
+        <v>45854.476550925923</v>
       </c>
       <c r="H105" s="1">
-        <v>45799.436423611107</v>
+        <v>45824.477476851847</v>
       </c>
       <c r="I105" s="2">
-        <v>32.564016203708888</v>
+        <v>9.5234490740767797</v>
       </c>
       <c r="J105" s="3">
-        <v>28.57</v>
+        <v>276.85000000000002</v>
       </c>
       <c r="K105" s="3">
-        <v>28.57</v>
+        <v>276.85000000000002</v>
       </c>
       <c r="L105" t="s">
         <v>17</v>
       </c>
       <c r="M105" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="106" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A106">
-        <v>211112132</v>
+        <v>211112314</v>
       </c>
       <c r="B106" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C106" t="s">
         <v>14</v>
@@ -4967,39 +4937,39 @@
         <v>15</v>
       </c>
       <c r="E106">
-        <v>8309</v>
+        <v>9605</v>
       </c>
       <c r="F106" t="s">
         <v>16</v>
       </c>
       <c r="G106" s="1">
-        <v>45830.63212962963</v>
+        <v>45861.477291666662</v>
       </c>
       <c r="H106" s="1">
-        <v>45800.632326388884</v>
+        <v>45831.482349537036</v>
       </c>
       <c r="I106" s="2">
-        <v>31.367870370369928</v>
+        <v>2.5227083333375049</v>
       </c>
       <c r="J106" s="3">
-        <v>91.08</v>
+        <v>179.56</v>
       </c>
       <c r="K106" s="3">
-        <v>91.08</v>
+        <v>179.56</v>
       </c>
       <c r="L106" t="s">
         <v>17</v>
       </c>
       <c r="M106" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="107" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A107">
-        <v>211112132</v>
+        <v>211112314</v>
       </c>
       <c r="B107" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C107" t="s">
         <v>14</v>
@@ -5008,162 +4978,162 @@
         <v>15</v>
       </c>
       <c r="E107">
-        <v>8361</v>
+        <v>9765</v>
       </c>
       <c r="F107" t="s">
         <v>16</v>
       </c>
       <c r="G107" s="1">
-        <v>45833.453032407408</v>
+        <v>45864.431539351848</v>
       </c>
       <c r="H107" s="1">
-        <v>45803.453333333331</v>
+        <v>45834.432766203703</v>
       </c>
       <c r="I107" s="2">
-        <v>28.546967592592409</v>
+        <v>-0.43153935184818693</v>
       </c>
       <c r="J107" s="3">
-        <v>46.85</v>
+        <v>124.9</v>
       </c>
       <c r="K107" s="3">
-        <v>46.85</v>
+        <v>124.9</v>
       </c>
       <c r="L107" t="s">
         <v>17</v>
       </c>
       <c r="M107" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A108">
-        <v>211112132</v>
+        <v>211112327</v>
       </c>
       <c r="B108" t="s">
         <v>59</v>
       </c>
       <c r="C108" t="s">
-        <v>14</v>
-      </c>
-      <c r="D108" t="s">
-        <v>15</v>
+        <v>27</v>
+      </c>
+      <c r="D108">
+        <v>2025</v>
       </c>
       <c r="E108">
-        <v>8932</v>
+        <v>75</v>
       </c>
       <c r="F108" t="s">
         <v>16</v>
       </c>
       <c r="G108" s="1">
-        <v>45843.554664351846</v>
+        <v>45721</v>
       </c>
       <c r="H108" s="1">
-        <v>45813.555451388886</v>
+        <v>45691</v>
       </c>
       <c r="I108" s="2">
-        <v>18.445335648153559</v>
+        <v>143</v>
       </c>
       <c r="J108" s="3">
-        <v>116.69</v>
+        <v>-52.050000000000004</v>
       </c>
       <c r="K108" s="3">
-        <v>116.69</v>
+        <v>-52.050000000000004</v>
       </c>
       <c r="L108" t="s">
         <v>17</v>
       </c>
       <c r="M108" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
     </row>
     <row r="109" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A109">
-        <v>211112132</v>
+        <v>211112327</v>
       </c>
       <c r="B109" t="s">
         <v>59</v>
       </c>
       <c r="C109" t="s">
-        <v>14</v>
+        <v>60</v>
       </c>
       <c r="D109" t="s">
         <v>15</v>
       </c>
       <c r="E109">
-        <v>8997</v>
+        <v>4</v>
       </c>
       <c r="F109" t="s">
         <v>16</v>
       </c>
       <c r="G109" s="1">
-        <v>45847.440196759257</v>
+        <v>45723</v>
       </c>
       <c r="H109" s="1">
-        <v>45817.440671296295</v>
+        <v>45693</v>
       </c>
       <c r="I109" s="2">
-        <v>14.559803240743349</v>
+        <v>141</v>
       </c>
       <c r="J109" s="3">
-        <v>147.05000000000001</v>
+        <v>-26.51</v>
       </c>
       <c r="K109" s="3">
-        <v>147.05000000000001</v>
+        <v>-26.51</v>
       </c>
       <c r="L109" t="s">
         <v>17</v>
       </c>
       <c r="M109" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
     </row>
     <row r="110" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A110">
-        <v>211112132</v>
+        <v>211112401</v>
       </c>
       <c r="B110" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C110" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="D110" t="s">
-        <v>15</v>
-      </c>
-      <c r="E110">
-        <v>9150</v>
+        <v>33</v>
+      </c>
+      <c r="E110" t="s">
+        <v>34</v>
       </c>
       <c r="F110" t="s">
         <v>16</v>
       </c>
       <c r="G110" s="1">
-        <v>45850.452650462961</v>
+        <v>45755</v>
       </c>
       <c r="H110" s="1">
-        <v>45820.452986111108</v>
+        <v>45740</v>
       </c>
       <c r="I110" s="2">
-        <v>11.547349537038826</v>
+        <v>109</v>
       </c>
       <c r="J110" s="3">
-        <v>118.11</v>
+        <v>-489.09000000000003</v>
       </c>
       <c r="K110" s="3">
-        <v>118.11</v>
+        <v>-109.25</v>
       </c>
       <c r="L110" t="s">
         <v>17</v>
       </c>
       <c r="M110" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
     </row>
     <row r="111" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A111">
-        <v>211112132</v>
+        <v>211112477</v>
       </c>
       <c r="B111" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C111" t="s">
         <v>14</v>
@@ -5172,80 +5142,80 @@
         <v>15</v>
       </c>
       <c r="E111">
-        <v>9487</v>
+        <v>8741</v>
       </c>
       <c r="F111" t="s">
         <v>16</v>
       </c>
       <c r="G111" s="1">
-        <v>45858.48814814815</v>
+        <v>45855.442604166667</v>
       </c>
       <c r="H111" s="1">
-        <v>45828.488657407404</v>
+        <v>45810.442766203705</v>
       </c>
       <c r="I111" s="2">
-        <v>3.5118518518502242</v>
+        <v>8.5573958333334303</v>
       </c>
       <c r="J111" s="3">
-        <v>455.89</v>
+        <v>107.15</v>
       </c>
       <c r="K111" s="3">
-        <v>455.89</v>
+        <v>107.15</v>
       </c>
       <c r="L111" t="s">
         <v>17</v>
       </c>
       <c r="M111" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A112">
-        <v>211112132</v>
+        <v>211112477</v>
       </c>
       <c r="B112" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C112" t="s">
-        <v>14</v>
-      </c>
-      <c r="D112" t="s">
-        <v>15</v>
+        <v>27</v>
+      </c>
+      <c r="D112">
+        <v>2025</v>
       </c>
       <c r="E112">
-        <v>9607</v>
+        <v>527</v>
       </c>
       <c r="F112" t="s">
         <v>16</v>
       </c>
       <c r="G112" s="1">
-        <v>45861.482615740737</v>
+        <v>45856</v>
       </c>
       <c r="H112" s="1">
-        <v>45831.483946759254</v>
+        <v>45811</v>
       </c>
       <c r="I112" s="2">
-        <v>0.51738425926305354</v>
+        <v>8</v>
       </c>
       <c r="J112" s="3">
-        <v>203.45000000000002</v>
+        <v>-25.46</v>
       </c>
       <c r="K112" s="3">
-        <v>203.45000000000002</v>
+        <v>-25.46</v>
       </c>
       <c r="L112" t="s">
         <v>17</v>
       </c>
       <c r="M112" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="113" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A113">
-        <v>211112132</v>
+        <v>211112477</v>
       </c>
       <c r="B113" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C113" t="s">
         <v>14</v>
@@ -5254,39 +5224,39 @@
         <v>15</v>
       </c>
       <c r="E113">
-        <v>10196</v>
+        <v>9013</v>
       </c>
       <c r="F113" t="s">
         <v>16</v>
       </c>
       <c r="G113" s="1">
-        <v>45875.461145833331</v>
+        <v>45862.47657407407</v>
       </c>
       <c r="H113" s="1">
-        <v>45845.461145833331</v>
+        <v>45817.476712962962</v>
       </c>
       <c r="I113" s="2">
-        <v>-13.461145833331102</v>
+        <v>1.5234259259304963</v>
       </c>
       <c r="J113" s="3">
-        <v>225.16</v>
+        <v>106.99000000000001</v>
       </c>
       <c r="K113" s="3">
-        <v>225.16</v>
+        <v>106.99000000000001</v>
       </c>
       <c r="L113" t="s">
         <v>17</v>
       </c>
       <c r="M113" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
     </row>
     <row r="114" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A114">
-        <v>211112132</v>
+        <v>211112477</v>
       </c>
       <c r="B114" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C114" t="s">
         <v>14</v>
@@ -5295,25 +5265,25 @@
         <v>15</v>
       </c>
       <c r="E114">
-        <v>10702</v>
+        <v>9587</v>
       </c>
       <c r="F114" t="s">
         <v>16</v>
       </c>
       <c r="G114" s="1">
-        <v>45885.498414351852</v>
+        <v>45876.433703703704</v>
       </c>
       <c r="H114" s="1">
-        <v>45855.498414351852</v>
+        <v>45831.43509259259</v>
       </c>
       <c r="I114" s="2">
-        <v>-23.498414351852261</v>
+        <v>-12.433703703703941</v>
       </c>
       <c r="J114" s="3">
-        <v>320.82</v>
+        <v>140.44</v>
       </c>
       <c r="K114" s="3">
-        <v>320.82</v>
+        <v>140.44</v>
       </c>
       <c r="L114" t="s">
         <v>17</v>
@@ -5324,10 +5294,10 @@
     </row>
     <row r="115" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A115">
-        <v>211112198</v>
+        <v>211112477</v>
       </c>
       <c r="B115" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C115" t="s">
         <v>14</v>
@@ -5336,25 +5306,25 @@
         <v>15</v>
       </c>
       <c r="E115">
-        <v>10217</v>
+        <v>10202</v>
       </c>
       <c r="F115" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="G115" s="1">
-        <v>45875.486840277779</v>
+        <v>45890.468854166662</v>
       </c>
       <c r="H115" s="1">
-        <v>45845.486840277779</v>
+        <v>45845.468854166662</v>
       </c>
       <c r="I115" s="2">
-        <v>-13.486840277779265</v>
+        <v>-26.468854166661913</v>
       </c>
       <c r="J115" s="3">
-        <v>187.19</v>
+        <v>88.87</v>
       </c>
       <c r="K115" s="3">
-        <v>187.19</v>
+        <v>88.87</v>
       </c>
       <c r="L115" t="s">
         <v>17</v>
@@ -5365,1109 +5335,166 @@
     </row>
     <row r="116" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A116">
-        <v>211112291</v>
+        <v>211112477</v>
       </c>
       <c r="B116" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C116" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="D116" t="s">
-        <v>36</v>
-      </c>
-      <c r="E116" t="s">
-        <v>62</v>
+        <v>15</v>
+      </c>
+      <c r="E116">
+        <v>10634</v>
       </c>
       <c r="F116" t="s">
         <v>16</v>
       </c>
       <c r="G116" s="1">
-        <v>45324</v>
+        <v>45899.469050925924</v>
       </c>
       <c r="H116" s="1">
-        <v>45324</v>
+        <v>45854.469050925924</v>
       </c>
       <c r="I116" s="2">
-        <v>538</v>
+        <v>-35.469050925923511</v>
       </c>
       <c r="J116" s="3">
-        <v>200.59</v>
+        <v>84.22</v>
       </c>
       <c r="K116" s="3">
-        <v>200.59</v>
+        <v>84.22</v>
       </c>
       <c r="L116" t="s">
         <v>17</v>
       </c>
       <c r="M116" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
     </row>
     <row r="117" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A117">
-        <v>211112291</v>
+        <v>211112477</v>
       </c>
       <c r="B117" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C117" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="D117" t="s">
-        <v>36</v>
-      </c>
-      <c r="E117" t="s">
-        <v>63</v>
+        <v>15</v>
+      </c>
+      <c r="E117">
+        <v>10892</v>
       </c>
       <c r="F117" t="s">
         <v>16</v>
       </c>
       <c r="G117" s="1">
-        <v>45324</v>
+        <v>45906.412418981483</v>
       </c>
       <c r="H117" s="1">
-        <v>45324</v>
+        <v>45861.413124999999</v>
       </c>
       <c r="I117" s="2">
-        <v>538</v>
+        <v>-42.412418981482915</v>
       </c>
       <c r="J117" s="3">
-        <v>76.36</v>
+        <v>89.64</v>
       </c>
       <c r="K117" s="3">
-        <v>76.36</v>
+        <v>89.64</v>
       </c>
       <c r="L117" t="s">
         <v>17</v>
       </c>
       <c r="M117" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
     </row>
     <row r="118" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A118">
-        <v>211112291</v>
+        <v>211112505</v>
       </c>
       <c r="B118" t="s">
+        <v>63</v>
+      </c>
+      <c r="C118" t="s">
+        <v>32</v>
+      </c>
+      <c r="D118" t="s">
+        <v>33</v>
+      </c>
+      <c r="E118" t="s">
+        <v>34</v>
+      </c>
+      <c r="F118" t="s">
+        <v>16</v>
+      </c>
+      <c r="G118" s="1">
+        <v>45803</v>
+      </c>
+      <c r="H118" s="1">
+        <v>45803</v>
+      </c>
+      <c r="I118" s="2">
         <v>61</v>
       </c>
-      <c r="C118" t="s">
-        <v>40</v>
-      </c>
-      <c r="D118" t="s">
-        <v>36</v>
-      </c>
-      <c r="E118" t="s">
-        <v>64</v>
-      </c>
-      <c r="F118" t="s">
-        <v>16</v>
-      </c>
-      <c r="G118" s="1">
-        <v>45331</v>
-      </c>
-      <c r="H118" s="1">
-        <v>45331</v>
-      </c>
-      <c r="I118" s="2">
-        <v>531</v>
-      </c>
       <c r="J118" s="3">
-        <v>209.18</v>
+        <v>-350</v>
       </c>
       <c r="K118" s="3">
-        <v>209.18</v>
+        <v>-0.24</v>
       </c>
       <c r="L118" t="s">
         <v>17</v>
       </c>
       <c r="M118" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="119" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A119">
-        <v>211112291</v>
+        <v>211112523</v>
       </c>
       <c r="B119" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C119" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="D119" t="s">
-        <v>36</v>
-      </c>
-      <c r="E119" t="s">
-        <v>65</v>
+        <v>15</v>
+      </c>
+      <c r="E119">
+        <v>7843</v>
       </c>
       <c r="F119" t="s">
         <v>16</v>
       </c>
       <c r="G119" s="1">
-        <v>45366</v>
+        <v>45792.648773148147</v>
       </c>
       <c r="H119" s="1">
-        <v>45366</v>
+        <v>45792.648773148147</v>
       </c>
       <c r="I119" s="2">
-        <v>496</v>
+        <v>71.351226851853426</v>
       </c>
       <c r="J119" s="3">
-        <v>872.94</v>
+        <v>481.94</v>
       </c>
       <c r="K119" s="3">
-        <v>872.94</v>
+        <v>481.94</v>
       </c>
       <c r="L119" t="s">
         <v>17</v>
       </c>
       <c r="M119" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A120">
-        <v>211112291</v>
-      </c>
-      <c r="B120" t="s">
-        <v>61</v>
-      </c>
-      <c r="C120" t="s">
-        <v>40</v>
-      </c>
-      <c r="D120" t="s">
-        <v>36</v>
-      </c>
-      <c r="E120" t="s">
-        <v>66</v>
-      </c>
-      <c r="F120" t="s">
-        <v>16</v>
-      </c>
-      <c r="G120" s="1">
-        <v>45390</v>
-      </c>
-      <c r="H120" s="1">
-        <v>45390</v>
-      </c>
-      <c r="I120" s="2">
-        <v>472</v>
-      </c>
-      <c r="J120" s="3">
-        <v>261.22000000000003</v>
-      </c>
-      <c r="K120" s="3">
-        <v>261.22000000000003</v>
-      </c>
-      <c r="L120" t="s">
-        <v>17</v>
-      </c>
-      <c r="M120" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A121">
-        <v>211112291</v>
-      </c>
-      <c r="B121" t="s">
-        <v>61</v>
-      </c>
-      <c r="C121" t="s">
-        <v>14</v>
-      </c>
-      <c r="D121" t="s">
-        <v>67</v>
-      </c>
-      <c r="E121">
-        <v>1957</v>
-      </c>
-      <c r="F121" t="s">
-        <v>16</v>
-      </c>
-      <c r="G121" s="1">
-        <v>45529.645949074074</v>
-      </c>
-      <c r="H121" s="1">
-        <v>45499.646979166668</v>
-      </c>
-      <c r="I121" s="2">
-        <v>332.35405092592555</v>
-      </c>
-      <c r="J121" s="3">
-        <v>68.7</v>
-      </c>
-      <c r="K121" s="3">
-        <v>68.7</v>
-      </c>
-      <c r="L121" t="s">
-        <v>17</v>
-      </c>
-      <c r="M121" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A122">
-        <v>211112314</v>
-      </c>
-      <c r="B122" t="s">
-        <v>68</v>
-      </c>
-      <c r="C122" t="s">
-        <v>28</v>
-      </c>
-      <c r="D122">
-        <v>2025</v>
-      </c>
-      <c r="E122">
-        <v>345</v>
-      </c>
-      <c r="F122" t="s">
-        <v>16</v>
-      </c>
-      <c r="G122" s="1">
-        <v>45788</v>
-      </c>
-      <c r="H122" s="1">
-        <v>45758</v>
-      </c>
-      <c r="I122" s="2">
-        <v>74</v>
-      </c>
-      <c r="J122" s="3">
-        <v>-16.809999999999999</v>
-      </c>
-      <c r="K122" s="3">
-        <v>-16.809999999999999</v>
-      </c>
-      <c r="L122" t="s">
-        <v>17</v>
-      </c>
-      <c r="M122" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A123">
-        <v>211112314</v>
-      </c>
-      <c r="B123" t="s">
-        <v>68</v>
-      </c>
-      <c r="C123" t="s">
-        <v>14</v>
-      </c>
-      <c r="D123" t="s">
-        <v>15</v>
-      </c>
-      <c r="E123">
-        <v>7594</v>
-      </c>
-      <c r="F123" t="s">
-        <v>16</v>
-      </c>
-      <c r="G123" s="1">
-        <v>45819.477175925924</v>
-      </c>
-      <c r="H123" s="1">
-        <v>45789.477384259255</v>
-      </c>
-      <c r="I123" s="2">
-        <v>42.522824074076198</v>
-      </c>
-      <c r="J123" s="3">
-        <v>299.16000000000003</v>
-      </c>
-      <c r="K123" s="3">
-        <v>299.16000000000003</v>
-      </c>
-      <c r="L123" t="s">
-        <v>17</v>
-      </c>
-      <c r="M123" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A124">
-        <v>211112314</v>
-      </c>
-      <c r="B124" t="s">
-        <v>68</v>
-      </c>
-      <c r="C124" t="s">
-        <v>14</v>
-      </c>
-      <c r="D124" t="s">
-        <v>15</v>
-      </c>
-      <c r="E124">
-        <v>7963</v>
-      </c>
-      <c r="F124" t="s">
-        <v>16</v>
-      </c>
-      <c r="G124" s="1">
-        <v>45826.545543981483</v>
-      </c>
-      <c r="H124" s="1">
-        <v>45796.546076388884</v>
-      </c>
-      <c r="I124" s="2">
-        <v>35.454456018516794</v>
-      </c>
-      <c r="J124" s="3">
-        <v>257.61</v>
-      </c>
-      <c r="K124" s="3">
-        <v>257.61</v>
-      </c>
-      <c r="L124" t="s">
-        <v>17</v>
-      </c>
-      <c r="M124" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A125">
-        <v>211112314</v>
-      </c>
-      <c r="B125" t="s">
-        <v>68</v>
-      </c>
-      <c r="C125" t="s">
-        <v>14</v>
-      </c>
-      <c r="D125" t="s">
-        <v>15</v>
-      </c>
-      <c r="E125">
-        <v>8212</v>
-      </c>
-      <c r="F125" t="s">
-        <v>16</v>
-      </c>
-      <c r="G125" s="1">
-        <v>45829.438958333332</v>
-      </c>
-      <c r="H125" s="1">
-        <v>45799.439328703702</v>
-      </c>
-      <c r="I125" s="2">
-        <v>32.561041666667734</v>
-      </c>
-      <c r="J125" s="3">
-        <v>49.53</v>
-      </c>
-      <c r="K125" s="3">
-        <v>49.53</v>
-      </c>
-      <c r="L125" t="s">
-        <v>17</v>
-      </c>
-      <c r="M125" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A126">
-        <v>211112314</v>
-      </c>
-      <c r="B126" t="s">
-        <v>68</v>
-      </c>
-      <c r="C126" t="s">
-        <v>14</v>
-      </c>
-      <c r="D126" t="s">
-        <v>15</v>
-      </c>
-      <c r="E126">
-        <v>8360</v>
-      </c>
-      <c r="F126" t="s">
-        <v>16</v>
-      </c>
-      <c r="G126" s="1">
-        <v>45833.452615740738</v>
-      </c>
-      <c r="H126" s="1">
-        <v>45803.452893518515</v>
-      </c>
-      <c r="I126" s="2">
-        <v>28.547384259261889</v>
-      </c>
-      <c r="J126" s="3">
-        <v>152.79</v>
-      </c>
-      <c r="K126" s="3">
-        <v>152.79</v>
-      </c>
-      <c r="L126" t="s">
-        <v>17</v>
-      </c>
-      <c r="M126" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A127">
-        <v>211112314</v>
-      </c>
-      <c r="B127" t="s">
-        <v>68</v>
-      </c>
-      <c r="C127" t="s">
-        <v>14</v>
-      </c>
-      <c r="D127" t="s">
-        <v>15</v>
-      </c>
-      <c r="E127">
-        <v>8584</v>
-      </c>
-      <c r="F127" t="s">
-        <v>16</v>
-      </c>
-      <c r="G127" s="1">
-        <v>45836.412951388884</v>
-      </c>
-      <c r="H127" s="1">
-        <v>45806.420115740737</v>
-      </c>
-      <c r="I127" s="2">
-        <v>25.587048611116188</v>
-      </c>
-      <c r="J127" s="3">
-        <v>417.92</v>
-      </c>
-      <c r="K127" s="3">
-        <v>417.92</v>
-      </c>
-      <c r="L127" t="s">
-        <v>17</v>
-      </c>
-      <c r="M127" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A128">
-        <v>211112314</v>
-      </c>
-      <c r="B128" t="s">
-        <v>68</v>
-      </c>
-      <c r="C128" t="s">
-        <v>14</v>
-      </c>
-      <c r="D128" t="s">
-        <v>15</v>
-      </c>
-      <c r="E128">
-        <v>9310</v>
-      </c>
-      <c r="F128" t="s">
-        <v>16</v>
-      </c>
-      <c r="G128" s="1">
-        <v>45854.476550925923</v>
-      </c>
-      <c r="H128" s="1">
-        <v>45824.477476851847</v>
-      </c>
-      <c r="I128" s="2">
-        <v>7.5234490740767797</v>
-      </c>
-      <c r="J128" s="3">
-        <v>276.85000000000002</v>
-      </c>
-      <c r="K128" s="3">
-        <v>276.85000000000002</v>
-      </c>
-      <c r="L128" t="s">
-        <v>17</v>
-      </c>
-      <c r="M128" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A129">
-        <v>211112314</v>
-      </c>
-      <c r="B129" t="s">
-        <v>68</v>
-      </c>
-      <c r="C129" t="s">
-        <v>14</v>
-      </c>
-      <c r="D129" t="s">
-        <v>15</v>
-      </c>
-      <c r="E129">
-        <v>9605</v>
-      </c>
-      <c r="F129" t="s">
-        <v>16</v>
-      </c>
-      <c r="G129" s="1">
-        <v>45861.477291666662</v>
-      </c>
-      <c r="H129" s="1">
-        <v>45831.482349537036</v>
-      </c>
-      <c r="I129" s="2">
-        <v>0.52270833333750488</v>
-      </c>
-      <c r="J129" s="3">
-        <v>179.56</v>
-      </c>
-      <c r="K129" s="3">
-        <v>179.56</v>
-      </c>
-      <c r="L129" t="s">
-        <v>17</v>
-      </c>
-      <c r="M129" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A130">
-        <v>211112314</v>
-      </c>
-      <c r="B130" t="s">
-        <v>68</v>
-      </c>
-      <c r="C130" t="s">
-        <v>14</v>
-      </c>
-      <c r="D130" t="s">
-        <v>15</v>
-      </c>
-      <c r="E130">
-        <v>9765</v>
-      </c>
-      <c r="F130" t="s">
-        <v>16</v>
-      </c>
-      <c r="G130" s="1">
-        <v>45864.431539351848</v>
-      </c>
-      <c r="H130" s="1">
-        <v>45834.432766203703</v>
-      </c>
-      <c r="I130" s="2">
-        <v>-2.4315393518481869</v>
-      </c>
-      <c r="J130" s="3">
-        <v>124.9</v>
-      </c>
-      <c r="K130" s="3">
-        <v>124.9</v>
-      </c>
-      <c r="L130" t="s">
-        <v>17</v>
-      </c>
-      <c r="M130" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A131">
-        <v>211112327</v>
-      </c>
-      <c r="B131" t="s">
-        <v>69</v>
-      </c>
-      <c r="C131" t="s">
-        <v>28</v>
-      </c>
-      <c r="D131">
-        <v>2025</v>
-      </c>
-      <c r="E131">
-        <v>75</v>
-      </c>
-      <c r="F131" t="s">
-        <v>16</v>
-      </c>
-      <c r="G131" s="1">
-        <v>45721</v>
-      </c>
-      <c r="H131" s="1">
-        <v>45691</v>
-      </c>
-      <c r="I131" s="2">
-        <v>141</v>
-      </c>
-      <c r="J131" s="3">
-        <v>-52.050000000000004</v>
-      </c>
-      <c r="K131" s="3">
-        <v>-52.050000000000004</v>
-      </c>
-      <c r="L131" t="s">
-        <v>17</v>
-      </c>
-      <c r="M131" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A132">
-        <v>211112327</v>
-      </c>
-      <c r="B132" t="s">
-        <v>69</v>
-      </c>
-      <c r="C132" t="s">
-        <v>70</v>
-      </c>
-      <c r="D132" t="s">
-        <v>15</v>
-      </c>
-      <c r="E132">
-        <v>4</v>
-      </c>
-      <c r="F132" t="s">
-        <v>16</v>
-      </c>
-      <c r="G132" s="1">
-        <v>45723</v>
-      </c>
-      <c r="H132" s="1">
-        <v>45693</v>
-      </c>
-      <c r="I132" s="2">
-        <v>139</v>
-      </c>
-      <c r="J132" s="3">
-        <v>-26.51</v>
-      </c>
-      <c r="K132" s="3">
-        <v>-26.51</v>
-      </c>
-      <c r="L132" t="s">
-        <v>17</v>
-      </c>
-      <c r="M132" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A133">
-        <v>211112401</v>
-      </c>
-      <c r="B133" t="s">
-        <v>71</v>
-      </c>
-      <c r="C133" t="s">
-        <v>35</v>
-      </c>
-      <c r="D133" t="s">
-        <v>36</v>
-      </c>
-      <c r="E133" t="s">
-        <v>37</v>
-      </c>
-      <c r="F133" t="s">
-        <v>16</v>
-      </c>
-      <c r="G133" s="1">
-        <v>45755</v>
-      </c>
-      <c r="H133" s="1">
-        <v>45740</v>
-      </c>
-      <c r="I133" s="2">
-        <v>107</v>
-      </c>
-      <c r="J133" s="3">
-        <v>-489.09000000000003</v>
-      </c>
-      <c r="K133" s="3">
-        <v>-114.32000000000001</v>
-      </c>
-      <c r="L133" t="s">
-        <v>17</v>
-      </c>
-      <c r="M133" t="s">
         <v>38</v>
-      </c>
-    </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A134">
-        <v>211112477</v>
-      </c>
-      <c r="B134" t="s">
-        <v>72</v>
-      </c>
-      <c r="C134" t="s">
-        <v>14</v>
-      </c>
-      <c r="D134" t="s">
-        <v>15</v>
-      </c>
-      <c r="E134">
-        <v>8741</v>
-      </c>
-      <c r="F134" t="s">
-        <v>16</v>
-      </c>
-      <c r="G134" s="1">
-        <v>45855.442604166667</v>
-      </c>
-      <c r="H134" s="1">
-        <v>45810.442766203705</v>
-      </c>
-      <c r="I134" s="2">
-        <v>6.5573958333334303</v>
-      </c>
-      <c r="J134" s="3">
-        <v>107.15</v>
-      </c>
-      <c r="K134" s="3">
-        <v>107.15</v>
-      </c>
-      <c r="L134" t="s">
-        <v>17</v>
-      </c>
-      <c r="M134" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A135">
-        <v>211112477</v>
-      </c>
-      <c r="B135" t="s">
-        <v>72</v>
-      </c>
-      <c r="C135" t="s">
-        <v>28</v>
-      </c>
-      <c r="D135">
-        <v>2025</v>
-      </c>
-      <c r="E135">
-        <v>527</v>
-      </c>
-      <c r="F135" t="s">
-        <v>16</v>
-      </c>
-      <c r="G135" s="1">
-        <v>45856</v>
-      </c>
-      <c r="H135" s="1">
-        <v>45811</v>
-      </c>
-      <c r="I135" s="2">
-        <v>6</v>
-      </c>
-      <c r="J135" s="3">
-        <v>-25.46</v>
-      </c>
-      <c r="K135" s="3">
-        <v>-25.46</v>
-      </c>
-      <c r="L135" t="s">
-        <v>17</v>
-      </c>
-      <c r="M135" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A136">
-        <v>211112477</v>
-      </c>
-      <c r="B136" t="s">
-        <v>72</v>
-      </c>
-      <c r="C136" t="s">
-        <v>14</v>
-      </c>
-      <c r="D136" t="s">
-        <v>15</v>
-      </c>
-      <c r="E136">
-        <v>9013</v>
-      </c>
-      <c r="F136" t="s">
-        <v>16</v>
-      </c>
-      <c r="G136" s="1">
-        <v>45862.47657407407</v>
-      </c>
-      <c r="H136" s="1">
-        <v>45817.476712962962</v>
-      </c>
-      <c r="I136" s="2">
-        <v>-0.47657407406950369</v>
-      </c>
-      <c r="J136" s="3">
-        <v>106.99000000000001</v>
-      </c>
-      <c r="K136" s="3">
-        <v>106.99000000000001</v>
-      </c>
-      <c r="L136" t="s">
-        <v>17</v>
-      </c>
-      <c r="M136" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A137">
-        <v>211112477</v>
-      </c>
-      <c r="B137" t="s">
-        <v>72</v>
-      </c>
-      <c r="C137" t="s">
-        <v>14</v>
-      </c>
-      <c r="D137" t="s">
-        <v>15</v>
-      </c>
-      <c r="E137">
-        <v>9587</v>
-      </c>
-      <c r="F137" t="s">
-        <v>16</v>
-      </c>
-      <c r="G137" s="1">
-        <v>45876.433703703704</v>
-      </c>
-      <c r="H137" s="1">
-        <v>45831.43509259259</v>
-      </c>
-      <c r="I137" s="2">
-        <v>-14.433703703703941</v>
-      </c>
-      <c r="J137" s="3">
-        <v>140.44</v>
-      </c>
-      <c r="K137" s="3">
-        <v>140.44</v>
-      </c>
-      <c r="L137" t="s">
-        <v>17</v>
-      </c>
-      <c r="M137" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A138">
-        <v>211112477</v>
-      </c>
-      <c r="B138" t="s">
-        <v>72</v>
-      </c>
-      <c r="C138" t="s">
-        <v>14</v>
-      </c>
-      <c r="D138" t="s">
-        <v>15</v>
-      </c>
-      <c r="E138">
-        <v>10202</v>
-      </c>
-      <c r="F138" t="s">
-        <v>16</v>
-      </c>
-      <c r="G138" s="1">
-        <v>45890.468854166662</v>
-      </c>
-      <c r="H138" s="1">
-        <v>45845.468854166662</v>
-      </c>
-      <c r="I138" s="2">
-        <v>-28.468854166661913</v>
-      </c>
-      <c r="J138" s="3">
-        <v>88.87</v>
-      </c>
-      <c r="K138" s="3">
-        <v>88.87</v>
-      </c>
-      <c r="L138" t="s">
-        <v>17</v>
-      </c>
-      <c r="M138" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A139">
-        <v>211112477</v>
-      </c>
-      <c r="B139" t="s">
-        <v>72</v>
-      </c>
-      <c r="C139" t="s">
-        <v>14</v>
-      </c>
-      <c r="D139" t="s">
-        <v>15</v>
-      </c>
-      <c r="E139">
-        <v>10634</v>
-      </c>
-      <c r="F139" t="s">
-        <v>16</v>
-      </c>
-      <c r="G139" s="1">
-        <v>45899.469050925924</v>
-      </c>
-      <c r="H139" s="1">
-        <v>45854.469050925924</v>
-      </c>
-      <c r="I139" s="2">
-        <v>-37.469050925923511</v>
-      </c>
-      <c r="J139" s="3">
-        <v>84.22</v>
-      </c>
-      <c r="K139" s="3">
-        <v>84.22</v>
-      </c>
-      <c r="L139" t="s">
-        <v>17</v>
-      </c>
-      <c r="M139" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A140">
-        <v>211112477</v>
-      </c>
-      <c r="B140" t="s">
-        <v>72</v>
-      </c>
-      <c r="C140" t="s">
-        <v>14</v>
-      </c>
-      <c r="D140" t="s">
-        <v>15</v>
-      </c>
-      <c r="E140">
-        <v>10892</v>
-      </c>
-      <c r="F140" t="s">
-        <v>16</v>
-      </c>
-      <c r="G140" s="1">
-        <v>45906.412418981483</v>
-      </c>
-      <c r="H140" s="1">
-        <v>45861.413124999999</v>
-      </c>
-      <c r="I140" s="2">
-        <v>-44.412418981482915</v>
-      </c>
-      <c r="J140" s="3">
-        <v>89.64</v>
-      </c>
-      <c r="K140" s="3">
-        <v>89.64</v>
-      </c>
-      <c r="L140" t="s">
-        <v>17</v>
-      </c>
-      <c r="M140" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A141">
-        <v>211112505</v>
-      </c>
-      <c r="B141" t="s">
-        <v>73</v>
-      </c>
-      <c r="C141" t="s">
-        <v>35</v>
-      </c>
-      <c r="D141" t="s">
-        <v>36</v>
-      </c>
-      <c r="E141" t="s">
-        <v>37</v>
-      </c>
-      <c r="F141" t="s">
-        <v>16</v>
-      </c>
-      <c r="G141" s="1">
-        <v>45803</v>
-      </c>
-      <c r="H141" s="1">
-        <v>45803</v>
-      </c>
-      <c r="I141" s="2">
-        <v>59</v>
-      </c>
-      <c r="J141" s="3">
-        <v>-350</v>
-      </c>
-      <c r="K141" s="3">
-        <v>-0.24</v>
-      </c>
-      <c r="L141" t="s">
-        <v>17</v>
-      </c>
-      <c r="M141" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A142">
-        <v>211112523</v>
-      </c>
-      <c r="B142" t="s">
-        <v>74</v>
-      </c>
-      <c r="C142" t="s">
-        <v>14</v>
-      </c>
-      <c r="D142" t="s">
-        <v>15</v>
-      </c>
-      <c r="E142">
-        <v>7843</v>
-      </c>
-      <c r="F142" t="s">
-        <v>16</v>
-      </c>
-      <c r="G142" s="1">
-        <v>45792.648773148147</v>
-      </c>
-      <c r="H142" s="1">
-        <v>45792.648773148147</v>
-      </c>
-      <c r="I142" s="2">
-        <v>69.351226851853426</v>
-      </c>
-      <c r="J142" s="3">
-        <v>481.94</v>
-      </c>
-      <c r="K142" s="3">
-        <v>481.94</v>
-      </c>
-      <c r="L142" t="s">
-        <v>17</v>
-      </c>
-      <c r="M142" t="s">
-        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/RSilva.xlsx
+++ b/RSilva.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29119"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4ce9537a3d4953a2/Desktop/COMERCIAIS/Comerciais_Sttremlit/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Paulo\Desktop\AnaliseDebitos\Comerciais\Comercias_streamlit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{99255BF3-FF99-4BC7-BD03-C2D70B7D5DFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{81154817-C6BA-4380-AF25-5E7B0F402673}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DA3C408-9CF4-4363-8F9A-589BD0356D7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{625309C2-95EA-4B09-BB51-191061F91C1F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{625309C2-95EA-4B09-BB51-191061F91C1F}"/>
   </bookViews>
   <sheets>
     <sheet name="RSilva" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="743" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="690" uniqueCount="64">
   <si>
     <t>Tipo Conta</t>
   </si>
@@ -129,9 +129,6 @@
   </si>
   <si>
     <t>Surpresaparalela Supermercado</t>
-  </si>
-  <si>
-    <t>1A5</t>
   </si>
   <si>
     <t>CCR</t>
@@ -605,20 +602,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD349965-A8B5-4EE0-821C-041F97E8ED57}">
-  <dimension ref="A1:M123"/>
+  <dimension ref="A1:M114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:M123"/>
+    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:M114"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="7" max="8" width="10.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.109375" style="2"/>
-    <col min="10" max="11" width="9.109375" style="3"/>
+    <col min="7" max="8" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="2"/>
+    <col min="10" max="11" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -659,7 +656,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>211110152</v>
       </c>
@@ -685,7 +682,7 @@
         <v>45846.542997685181</v>
       </c>
       <c r="I2" s="2">
-        <v>-7</v>
+        <v>-5.5427430555500905</v>
       </c>
       <c r="J2" s="3">
         <v>342.38</v>
@@ -700,7 +697,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>211110244</v>
       </c>
@@ -726,7 +723,7 @@
         <v>45834.507268518515</v>
       </c>
       <c r="I3" s="2">
-        <v>5</v>
+        <v>6.4931018518545898</v>
       </c>
       <c r="J3" s="3">
         <v>100.2</v>
@@ -738,10 +735,10 @@
         <v>17</v>
       </c>
       <c r="M3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>211110244</v>
       </c>
@@ -767,7 +764,7 @@
         <v>45855.560266203705</v>
       </c>
       <c r="I4" s="2">
-        <v>-16</v>
+        <v>-14.559814814812853</v>
       </c>
       <c r="J4" s="3">
         <v>63.9</v>
@@ -782,7 +779,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>211110545</v>
       </c>
@@ -808,7 +805,7 @@
         <v>45855.554108796292</v>
       </c>
       <c r="I5" s="2">
-        <v>-16</v>
+        <v>-14.552534722221026</v>
       </c>
       <c r="J5" s="3">
         <v>195.99</v>
@@ -823,7 +820,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>211110545</v>
       </c>
@@ -849,7 +846,7 @@
         <v>45863.454097222224</v>
       </c>
       <c r="I6" s="2">
-        <v>-24</v>
+        <v>-22.454085648147156</v>
       </c>
       <c r="J6" s="3">
         <v>145.12</v>
@@ -864,7 +861,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>211110629</v>
       </c>
@@ -890,7 +887,7 @@
         <v>45854.469178240739</v>
       </c>
       <c r="I7" s="2">
-        <v>-15</v>
+        <v>-13.469178240738984</v>
       </c>
       <c r="J7" s="3">
         <v>120.76</v>
@@ -905,7 +902,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>211110629</v>
       </c>
@@ -931,7 +928,7 @@
         <v>45868.501041666663</v>
       </c>
       <c r="I8" s="2">
-        <v>-29</v>
+        <v>-27.501041666662786</v>
       </c>
       <c r="J8" s="3">
         <v>164.08</v>
@@ -946,7 +943,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>211111219</v>
       </c>
@@ -972,7 +969,7 @@
         <v>45846.5465162037</v>
       </c>
       <c r="I9" s="2">
-        <v>-7</v>
+        <v>-5.5460648148145992</v>
       </c>
       <c r="J9" s="3">
         <v>157.82</v>
@@ -987,7 +984,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>211111219</v>
       </c>
@@ -1013,7 +1010,7 @@
         <v>45855.593657407408</v>
       </c>
       <c r="I10" s="2">
-        <v>-16</v>
+        <v>-14.593645833330811</v>
       </c>
       <c r="J10" s="3">
         <v>177.07</v>
@@ -1028,7 +1025,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>211111233</v>
       </c>
@@ -1042,34 +1039,34 @@
         <v>15</v>
       </c>
       <c r="E11">
-        <v>8740</v>
+        <v>10893</v>
       </c>
       <c r="F11" t="s">
         <v>16</v>
       </c>
       <c r="G11" s="1">
-        <v>45855.442199074074</v>
+        <v>45906.413287037038</v>
       </c>
       <c r="H11" s="1">
-        <v>45810.442384259259</v>
+        <v>45861.413842592592</v>
       </c>
       <c r="I11" s="2">
-        <v>14</v>
+        <v>-35.413287037037662</v>
       </c>
       <c r="J11" s="3">
-        <v>68.78</v>
+        <v>88.14</v>
       </c>
       <c r="K11" s="3">
-        <v>68.78</v>
+        <v>88.14</v>
       </c>
       <c r="L11" t="s">
         <v>17</v>
       </c>
       <c r="M11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>211111233</v>
       </c>
@@ -1083,80 +1080,80 @@
         <v>15</v>
       </c>
       <c r="E12">
-        <v>9007</v>
+        <v>11354</v>
       </c>
       <c r="F12" t="s">
         <v>16</v>
       </c>
       <c r="G12" s="1">
-        <v>45862.469953703701</v>
+        <v>45915.566932870366</v>
       </c>
       <c r="H12" s="1">
-        <v>45817.470231481479</v>
+        <v>45870.566944444443</v>
       </c>
       <c r="I12" s="2">
-        <v>7</v>
+        <v>-44.566932870366145</v>
       </c>
       <c r="J12" s="3">
-        <v>127.65</v>
+        <v>115.95</v>
       </c>
       <c r="K12" s="3">
-        <v>127.65</v>
+        <v>115.95</v>
       </c>
       <c r="L12" t="s">
         <v>17</v>
       </c>
       <c r="M12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>211111423</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13">
+        <v>9665</v>
+      </c>
+      <c r="F13" t="s">
+        <v>16</v>
+      </c>
+      <c r="G13" s="1">
+        <v>45863.415358796294</v>
+      </c>
+      <c r="H13" s="1">
+        <v>45833.41673611111</v>
+      </c>
+      <c r="I13" s="2">
+        <v>7.5846412037062692</v>
+      </c>
+      <c r="J13" s="3">
+        <v>250.58</v>
+      </c>
+      <c r="K13" s="3">
+        <v>250.58</v>
+      </c>
+      <c r="L13" t="s">
+        <v>17</v>
+      </c>
+      <c r="M13" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>211111233</v>
-      </c>
-      <c r="B13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" t="s">
-        <v>14</v>
-      </c>
-      <c r="D13" t="s">
-        <v>15</v>
-      </c>
-      <c r="E13">
-        <v>9306</v>
-      </c>
-      <c r="F13" t="s">
-        <v>16</v>
-      </c>
-      <c r="G13" s="1">
-        <v>45869.470729166664</v>
-      </c>
-      <c r="H13" s="1">
-        <v>45824.473055555551</v>
-      </c>
-      <c r="I13" s="2">
-        <v>0</v>
-      </c>
-      <c r="J13" s="3">
-        <v>129.6</v>
-      </c>
-      <c r="K13" s="3">
-        <v>129.6</v>
-      </c>
-      <c r="L13" t="s">
-        <v>17</v>
-      </c>
-      <c r="M13" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>211111233</v>
+        <v>211111423</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
         <v>14</v>
@@ -1165,39 +1162,39 @@
         <v>15</v>
       </c>
       <c r="E14">
-        <v>9585</v>
+        <v>9666</v>
       </c>
       <c r="F14" t="s">
         <v>16</v>
       </c>
       <c r="G14" s="1">
-        <v>45876.426076388889</v>
+        <v>45863.41988425926</v>
       </c>
       <c r="H14" s="1">
-        <v>45831.428472222222</v>
+        <v>45833.420914351853</v>
       </c>
       <c r="I14" s="2">
-        <v>-7</v>
+        <v>7.5801157407404389</v>
       </c>
       <c r="J14" s="3">
-        <v>140.36000000000001</v>
+        <v>244.15</v>
       </c>
       <c r="K14" s="3">
-        <v>140.36000000000001</v>
+        <v>244.15</v>
       </c>
       <c r="L14" t="s">
         <v>17</v>
       </c>
       <c r="M14" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>211111233</v>
+        <v>211111423</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
         <v>14</v>
@@ -1206,25 +1203,25 @@
         <v>15</v>
       </c>
       <c r="E15">
-        <v>10087</v>
+        <v>10062</v>
       </c>
       <c r="F15" t="s">
         <v>16</v>
       </c>
       <c r="G15" s="1">
-        <v>45886.740532407406</v>
+        <v>45871.521851851852</v>
       </c>
       <c r="H15" s="1">
-        <v>45841.741412037038</v>
+        <v>45841.521851851852</v>
       </c>
       <c r="I15" s="2">
-        <v>-17</v>
+        <v>-0.52185185185226146</v>
       </c>
       <c r="J15" s="3">
-        <v>286.95999999999998</v>
+        <v>405.40000000000003</v>
       </c>
       <c r="K15" s="3">
-        <v>286.95999999999998</v>
+        <v>405.40000000000003</v>
       </c>
       <c r="L15" t="s">
         <v>17</v>
@@ -1233,12 +1230,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>211111233</v>
+        <v>211111423</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
         <v>14</v>
@@ -1247,107 +1244,107 @@
         <v>15</v>
       </c>
       <c r="E16">
-        <v>10198</v>
+        <v>10416</v>
       </c>
       <c r="F16" t="s">
         <v>16</v>
       </c>
       <c r="G16" s="1">
-        <v>45890.461192129631</v>
+        <v>45878.429571759254</v>
       </c>
       <c r="H16" s="1">
-        <v>45845.4612037037</v>
+        <v>45848.429571759254</v>
       </c>
       <c r="I16" s="2">
+        <v>-7.4295717592540313</v>
+      </c>
+      <c r="J16" s="3">
+        <v>341.65000000000003</v>
+      </c>
+      <c r="K16" s="3">
+        <v>341.65000000000003</v>
+      </c>
+      <c r="L16" t="s">
+        <v>17</v>
+      </c>
+      <c r="M16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>211111423</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17">
+        <v>10706</v>
+      </c>
+      <c r="F17" t="s">
+        <v>16</v>
+      </c>
+      <c r="G17" s="1">
+        <v>45885.500763888886</v>
+      </c>
+      <c r="H17" s="1">
+        <v>45855.500775462962</v>
+      </c>
+      <c r="I17" s="2">
+        <v>-14.500763888885558</v>
+      </c>
+      <c r="J17" s="3">
+        <v>398.29</v>
+      </c>
+      <c r="K17" s="3">
+        <v>398.29</v>
+      </c>
+      <c r="L17" t="s">
+        <v>17</v>
+      </c>
+      <c r="M17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>211111423</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18">
+        <v>2025</v>
+      </c>
+      <c r="E18">
+        <v>680</v>
+      </c>
+      <c r="F18" t="s">
+        <v>16</v>
+      </c>
+      <c r="G18" s="1">
+        <v>45892</v>
+      </c>
+      <c r="H18" s="1">
+        <v>45862</v>
+      </c>
+      <c r="I18" s="2">
         <v>-21</v>
       </c>
-      <c r="J16" s="3">
-        <v>317.5</v>
-      </c>
-      <c r="K16" s="3">
-        <v>317.5</v>
-      </c>
-      <c r="L16" t="s">
-        <v>17</v>
-      </c>
-      <c r="M16" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <v>211111233</v>
-      </c>
-      <c r="B17" t="s">
-        <v>23</v>
-      </c>
-      <c r="C17" t="s">
-        <v>14</v>
-      </c>
-      <c r="D17" t="s">
-        <v>15</v>
-      </c>
-      <c r="E17">
-        <v>10641</v>
-      </c>
-      <c r="F17" t="s">
-        <v>16</v>
-      </c>
-      <c r="G17" s="1">
-        <v>45899.469224537032</v>
-      </c>
-      <c r="H17" s="1">
-        <v>45854.469224537032</v>
-      </c>
-      <c r="I17" s="2">
-        <v>-30</v>
-      </c>
-      <c r="J17" s="3">
-        <v>206.94</v>
-      </c>
-      <c r="K17" s="3">
-        <v>206.94</v>
-      </c>
-      <c r="L17" t="s">
-        <v>17</v>
-      </c>
-      <c r="M17" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <v>211111233</v>
-      </c>
-      <c r="B18" t="s">
-        <v>23</v>
-      </c>
-      <c r="C18" t="s">
-        <v>14</v>
-      </c>
-      <c r="D18" t="s">
-        <v>15</v>
-      </c>
-      <c r="E18">
-        <v>10893</v>
-      </c>
-      <c r="F18" t="s">
-        <v>16</v>
-      </c>
-      <c r="G18" s="1">
-        <v>45906.413287037038</v>
-      </c>
-      <c r="H18" s="1">
-        <v>45861.413842592592</v>
-      </c>
-      <c r="I18" s="2">
-        <v>-37</v>
-      </c>
       <c r="J18" s="3">
-        <v>88.14</v>
+        <v>-254.65</v>
       </c>
       <c r="K18" s="3">
-        <v>88.14</v>
+        <v>-254.65</v>
       </c>
       <c r="L18" t="s">
         <v>17</v>
@@ -1356,7 +1353,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>211111423</v>
       </c>
@@ -1370,34 +1367,34 @@
         <v>15</v>
       </c>
       <c r="E19">
-        <v>9665</v>
+        <v>10994</v>
       </c>
       <c r="F19" t="s">
         <v>16</v>
       </c>
       <c r="G19" s="1">
-        <v>45863.415358796294</v>
+        <v>45892.493622685186</v>
       </c>
       <c r="H19" s="1">
-        <v>45833.41673611111</v>
+        <v>45862.493622685186</v>
       </c>
       <c r="I19" s="2">
-        <v>6</v>
+        <v>-21.493622685185983</v>
       </c>
       <c r="J19" s="3">
-        <v>250.58</v>
+        <v>631.11</v>
       </c>
       <c r="K19" s="3">
-        <v>250.58</v>
+        <v>631.11</v>
       </c>
       <c r="L19" t="s">
         <v>17</v>
       </c>
       <c r="M19" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>211111423</v>
       </c>
@@ -1411,34 +1408,34 @@
         <v>15</v>
       </c>
       <c r="E20">
-        <v>9666</v>
+        <v>11111</v>
       </c>
       <c r="F20" t="s">
         <v>16</v>
       </c>
       <c r="G20" s="1">
-        <v>45863.41988425926</v>
+        <v>45896.528333333328</v>
       </c>
       <c r="H20" s="1">
-        <v>45833.420914351853</v>
+        <v>45866.528333333328</v>
       </c>
       <c r="I20" s="2">
-        <v>6</v>
+        <v>-25.528333333328192</v>
       </c>
       <c r="J20" s="3">
-        <v>244.15</v>
+        <v>386.63</v>
       </c>
       <c r="K20" s="3">
-        <v>244.15</v>
+        <v>386.63</v>
       </c>
       <c r="L20" t="s">
         <v>17</v>
       </c>
       <c r="M20" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>211111423</v>
       </c>
@@ -1452,25 +1449,25 @@
         <v>15</v>
       </c>
       <c r="E21">
-        <v>10062</v>
+        <v>11284</v>
       </c>
       <c r="F21" t="s">
         <v>16</v>
       </c>
       <c r="G21" s="1">
-        <v>45871.521851851852</v>
+        <v>45899.501481481479</v>
       </c>
       <c r="H21" s="1">
-        <v>45841.521851851852</v>
+        <v>45869.501481481479</v>
       </c>
       <c r="I21" s="2">
-        <v>-2</v>
+        <v>-28.50148148147855</v>
       </c>
       <c r="J21" s="3">
-        <v>405.40000000000003</v>
+        <v>319.64</v>
       </c>
       <c r="K21" s="3">
-        <v>405.40000000000003</v>
+        <v>319.64</v>
       </c>
       <c r="L21" t="s">
         <v>17</v>
@@ -1479,53 +1476,53 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>211111423</v>
+        <v>211111556</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>14</v>
-      </c>
-      <c r="D22" t="s">
-        <v>15</v>
+        <v>27</v>
+      </c>
+      <c r="D22">
+        <v>2025</v>
       </c>
       <c r="E22">
-        <v>10416</v>
+        <v>438</v>
       </c>
       <c r="F22" t="s">
         <v>16</v>
       </c>
       <c r="G22" s="1">
-        <v>45878.429571759254</v>
+        <v>45816</v>
       </c>
       <c r="H22" s="1">
-        <v>45848.429571759254</v>
+        <v>45786</v>
       </c>
       <c r="I22" s="2">
-        <v>-9</v>
+        <v>55</v>
       </c>
       <c r="J22" s="3">
-        <v>341.65000000000003</v>
+        <v>-54.99</v>
       </c>
       <c r="K22" s="3">
-        <v>341.65000000000003</v>
+        <v>-54.99</v>
       </c>
       <c r="L22" t="s">
         <v>17</v>
       </c>
       <c r="M22" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>211111423</v>
+        <v>211111556</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C23" t="s">
         <v>14</v>
@@ -1534,25 +1531,25 @@
         <v>15</v>
       </c>
       <c r="E23">
-        <v>10706</v>
+        <v>10029</v>
       </c>
       <c r="F23" t="s">
         <v>16</v>
       </c>
       <c r="G23" s="1">
-        <v>45885.500763888886</v>
+        <v>45871.468414351853</v>
       </c>
       <c r="H23" s="1">
-        <v>45855.500775462962</v>
+        <v>45841.468414351853</v>
       </c>
       <c r="I23" s="2">
-        <v>-16</v>
+        <v>-0.46841435185342561</v>
       </c>
       <c r="J23" s="3">
-        <v>398.29</v>
+        <v>328.56</v>
       </c>
       <c r="K23" s="3">
-        <v>398.29</v>
+        <v>328.56</v>
       </c>
       <c r="L23" t="s">
         <v>17</v>
@@ -1561,39 +1558,39 @@
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>211111423</v>
+        <v>211111556</v>
       </c>
       <c r="B24" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C24" t="s">
-        <v>27</v>
-      </c>
-      <c r="D24">
-        <v>2025</v>
+        <v>14</v>
+      </c>
+      <c r="D24" t="s">
+        <v>15</v>
       </c>
       <c r="E24">
-        <v>680</v>
+        <v>11112</v>
       </c>
       <c r="F24" t="s">
         <v>16</v>
       </c>
       <c r="G24" s="1">
-        <v>45892</v>
+        <v>45896.528356481482</v>
       </c>
       <c r="H24" s="1">
-        <v>45862</v>
+        <v>45866.528368055551</v>
       </c>
       <c r="I24" s="2">
-        <v>-23</v>
+        <v>-25.528356481481751</v>
       </c>
       <c r="J24" s="3">
-        <v>-254.65</v>
+        <v>471.41</v>
       </c>
       <c r="K24" s="3">
-        <v>-254.65</v>
+        <v>471.41</v>
       </c>
       <c r="L24" t="s">
         <v>17</v>
@@ -1602,12 +1599,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>211111423</v>
+        <v>211111559</v>
       </c>
       <c r="B25" t="s">
-        <v>25</v>
+        <v>63</v>
       </c>
       <c r="C25" t="s">
         <v>14</v>
@@ -1616,25 +1613,25 @@
         <v>15</v>
       </c>
       <c r="E25">
-        <v>10994</v>
+        <v>11105</v>
       </c>
       <c r="F25" t="s">
         <v>16</v>
       </c>
       <c r="G25" s="1">
-        <v>45892.493622685186</v>
+        <v>45896.528148148143</v>
       </c>
       <c r="H25" s="1">
-        <v>45862.493622685186</v>
+        <v>45866.528148148143</v>
       </c>
       <c r="I25" s="2">
-        <v>-23</v>
+        <v>-25.528148148143373</v>
       </c>
       <c r="J25" s="3">
-        <v>631.11</v>
+        <v>673.51</v>
       </c>
       <c r="K25" s="3">
-        <v>631.11</v>
+        <v>673.51</v>
       </c>
       <c r="L25" t="s">
         <v>17</v>
@@ -1643,12 +1640,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>211111423</v>
+        <v>211111567</v>
       </c>
       <c r="B26" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C26" t="s">
         <v>14</v>
@@ -1657,25 +1654,25 @@
         <v>15</v>
       </c>
       <c r="E26">
-        <v>11111</v>
+        <v>8732</v>
       </c>
       <c r="F26" t="s">
         <v>16</v>
       </c>
       <c r="G26" s="1">
-        <v>45896.528333333328</v>
+        <v>45840.431840277779</v>
       </c>
       <c r="H26" s="1">
-        <v>45866.528333333328</v>
+        <v>45810.431990740741</v>
       </c>
       <c r="I26" s="2">
-        <v>-27</v>
+        <v>30.568159722221026</v>
       </c>
       <c r="J26" s="3">
-        <v>386.63</v>
+        <v>186.96</v>
       </c>
       <c r="K26" s="3">
-        <v>386.63</v>
+        <v>186.96</v>
       </c>
       <c r="L26" t="s">
         <v>17</v>
@@ -1684,12 +1681,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>211111423</v>
+        <v>211111567</v>
       </c>
       <c r="B27" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C27" t="s">
         <v>14</v>
@@ -1698,80 +1695,80 @@
         <v>15</v>
       </c>
       <c r="E27">
-        <v>11284</v>
+        <v>8931</v>
       </c>
       <c r="F27" t="s">
         <v>16</v>
       </c>
       <c r="G27" s="1">
-        <v>45899.501481481479</v>
+        <v>45843.55400462963</v>
       </c>
       <c r="H27" s="1">
-        <v>45869.501481481479</v>
+        <v>45813.554432870369</v>
       </c>
       <c r="I27" s="2">
-        <v>-30</v>
+        <v>27.445995370369928</v>
       </c>
       <c r="J27" s="3">
-        <v>319.64</v>
+        <v>161.62</v>
       </c>
       <c r="K27" s="3">
-        <v>319.64</v>
+        <v>161.62</v>
       </c>
       <c r="L27" t="s">
         <v>17</v>
       </c>
       <c r="M27" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>211111556</v>
+        <v>211111567</v>
       </c>
       <c r="B28" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C28" t="s">
-        <v>27</v>
-      </c>
-      <c r="D28">
-        <v>2025</v>
+        <v>14</v>
+      </c>
+      <c r="D28" t="s">
+        <v>15</v>
       </c>
       <c r="E28">
-        <v>438</v>
+        <v>9292</v>
       </c>
       <c r="F28" t="s">
         <v>16</v>
       </c>
       <c r="G28" s="1">
-        <v>45816</v>
+        <v>45854.444444444445</v>
       </c>
       <c r="H28" s="1">
-        <v>45786</v>
+        <v>45824.447060185186</v>
       </c>
       <c r="I28" s="2">
-        <v>53</v>
+        <v>16.555555555554747</v>
       </c>
       <c r="J28" s="3">
-        <v>-54.99</v>
+        <v>338.69</v>
       </c>
       <c r="K28" s="3">
-        <v>-54.99</v>
+        <v>338.69</v>
       </c>
       <c r="L28" t="s">
         <v>17</v>
       </c>
       <c r="M28" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>211111556</v>
+        <v>211111567</v>
       </c>
       <c r="B29" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C29" t="s">
         <v>14</v>
@@ -1780,39 +1777,39 @@
         <v>15</v>
       </c>
       <c r="E29">
-        <v>10029</v>
+        <v>9512</v>
       </c>
       <c r="F29" t="s">
         <v>16</v>
       </c>
       <c r="G29" s="1">
-        <v>45871.468414351853</v>
+        <v>45858.51866898148</v>
       </c>
       <c r="H29" s="1">
-        <v>45841.468414351853</v>
+        <v>45828.519467592589</v>
       </c>
       <c r="I29" s="2">
-        <v>-2</v>
+        <v>12.481331018519995</v>
       </c>
       <c r="J29" s="3">
-        <v>328.56</v>
+        <v>377.97</v>
       </c>
       <c r="K29" s="3">
-        <v>328.56</v>
+        <v>377.97</v>
       </c>
       <c r="L29" t="s">
         <v>17</v>
       </c>
       <c r="M29" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>211111556</v>
+        <v>211111567</v>
       </c>
       <c r="B30" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C30" t="s">
         <v>14</v>
@@ -1821,39 +1818,39 @@
         <v>15</v>
       </c>
       <c r="E30">
-        <v>11112</v>
+        <v>9761</v>
       </c>
       <c r="F30" t="s">
         <v>16</v>
       </c>
       <c r="G30" s="1">
-        <v>45896.528356481482</v>
+        <v>45864.419548611106</v>
       </c>
       <c r="H30" s="1">
-        <v>45866.528368055551</v>
+        <v>45834.420474537037</v>
       </c>
       <c r="I30" s="2">
-        <v>-27</v>
+        <v>6.5804513888942893</v>
       </c>
       <c r="J30" s="3">
-        <v>471.41</v>
+        <v>179.99</v>
       </c>
       <c r="K30" s="3">
-        <v>471.41</v>
+        <v>179.99</v>
       </c>
       <c r="L30" t="s">
         <v>17</v>
       </c>
       <c r="M30" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>211111559</v>
+        <v>211111567</v>
       </c>
       <c r="B31" t="s">
-        <v>64</v>
+        <v>30</v>
       </c>
       <c r="C31" t="s">
         <v>14</v>
@@ -1862,25 +1859,25 @@
         <v>15</v>
       </c>
       <c r="E31">
-        <v>11105</v>
+        <v>10215</v>
       </c>
       <c r="F31" t="s">
         <v>16</v>
       </c>
       <c r="G31" s="1">
-        <v>45896.528148148143</v>
+        <v>45875.482060185182</v>
       </c>
       <c r="H31" s="1">
-        <v>45866.528148148143</v>
+        <v>45845.482060185182</v>
       </c>
       <c r="I31" s="2">
-        <v>-27</v>
+        <v>-4.4820601851824904</v>
       </c>
       <c r="J31" s="3">
-        <v>673.51</v>
+        <v>280.28000000000003</v>
       </c>
       <c r="K31" s="3">
-        <v>673.51</v>
+        <v>280.28000000000003</v>
       </c>
       <c r="L31" t="s">
         <v>17</v>
@@ -1889,7 +1886,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>211111567</v>
       </c>
@@ -1897,40 +1894,40 @@
         <v>30</v>
       </c>
       <c r="C32" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="D32" t="s">
         <v>15</v>
       </c>
       <c r="E32">
-        <v>8732</v>
+        <v>518</v>
       </c>
       <c r="F32" t="s">
         <v>16</v>
       </c>
       <c r="G32" s="1">
-        <v>45840.431840277779</v>
+        <v>45878</v>
       </c>
       <c r="H32" s="1">
-        <v>45810.431990740741</v>
+        <v>45848</v>
       </c>
       <c r="I32" s="2">
-        <v>29</v>
+        <v>-7</v>
       </c>
       <c r="J32" s="3">
-        <v>186.96</v>
+        <v>-4.63</v>
       </c>
       <c r="K32" s="3">
-        <v>186.96</v>
+        <v>-4.63</v>
       </c>
       <c r="L32" t="s">
         <v>17</v>
       </c>
       <c r="M32" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>211111567</v>
       </c>
@@ -1944,34 +1941,34 @@
         <v>15</v>
       </c>
       <c r="E33">
-        <v>8931</v>
+        <v>10408</v>
       </c>
       <c r="F33" t="s">
         <v>16</v>
       </c>
       <c r="G33" s="1">
-        <v>45843.55400462963</v>
+        <v>45878.421249999999</v>
       </c>
       <c r="H33" s="1">
-        <v>45813.554432870369</v>
+        <v>45848.421249999999</v>
       </c>
       <c r="I33" s="2">
-        <v>26</v>
+        <v>-7.4212499999994179</v>
       </c>
       <c r="J33" s="3">
-        <v>161.62</v>
+        <v>167.72</v>
       </c>
       <c r="K33" s="3">
-        <v>161.62</v>
+        <v>167.72</v>
       </c>
       <c r="L33" t="s">
         <v>17</v>
       </c>
       <c r="M33" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>211111567</v>
       </c>
@@ -1985,34 +1982,34 @@
         <v>15</v>
       </c>
       <c r="E34">
-        <v>9292</v>
+        <v>10524</v>
       </c>
       <c r="F34" t="s">
         <v>16</v>
       </c>
       <c r="G34" s="1">
-        <v>45854.444444444445</v>
+        <v>45882.489189814813</v>
       </c>
       <c r="H34" s="1">
-        <v>45824.447060185186</v>
+        <v>45852.489189814813</v>
       </c>
       <c r="I34" s="2">
-        <v>15</v>
+        <v>-11.489189814812562</v>
       </c>
       <c r="J34" s="3">
-        <v>338.69</v>
+        <v>301.11</v>
       </c>
       <c r="K34" s="3">
-        <v>338.69</v>
+        <v>301.11</v>
       </c>
       <c r="L34" t="s">
         <v>17</v>
       </c>
       <c r="M34" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>211111567</v>
       </c>
@@ -2026,34 +2023,34 @@
         <v>15</v>
       </c>
       <c r="E35">
-        <v>9512</v>
+        <v>10704</v>
       </c>
       <c r="F35" t="s">
         <v>16</v>
       </c>
       <c r="G35" s="1">
-        <v>45858.51866898148</v>
+        <v>45885.498472222222</v>
       </c>
       <c r="H35" s="1">
-        <v>45828.519467592589</v>
+        <v>45855.498472222222</v>
       </c>
       <c r="I35" s="2">
-        <v>11</v>
+        <v>-14.498472222221608</v>
       </c>
       <c r="J35" s="3">
-        <v>377.97</v>
+        <v>266.19</v>
       </c>
       <c r="K35" s="3">
-        <v>377.97</v>
+        <v>266.19</v>
       </c>
       <c r="L35" t="s">
         <v>17</v>
       </c>
       <c r="M35" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>211111567</v>
       </c>
@@ -2067,34 +2064,34 @@
         <v>15</v>
       </c>
       <c r="E36">
-        <v>9761</v>
+        <v>10993</v>
       </c>
       <c r="F36" t="s">
         <v>16</v>
       </c>
       <c r="G36" s="1">
-        <v>45864.419548611106</v>
+        <v>45892.493587962963</v>
       </c>
       <c r="H36" s="1">
-        <v>45834.420474537037</v>
+        <v>45862.493599537032</v>
       </c>
       <c r="I36" s="2">
-        <v>5</v>
+        <v>-21.49358796296292</v>
       </c>
       <c r="J36" s="3">
-        <v>179.99</v>
+        <v>57.02</v>
       </c>
       <c r="K36" s="3">
-        <v>179.99</v>
+        <v>57.02</v>
       </c>
       <c r="L36" t="s">
         <v>17</v>
       </c>
       <c r="M36" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>211111567</v>
       </c>
@@ -2108,25 +2105,25 @@
         <v>15</v>
       </c>
       <c r="E37">
-        <v>10215</v>
+        <v>11110</v>
       </c>
       <c r="F37" t="s">
         <v>16</v>
       </c>
       <c r="G37" s="1">
-        <v>45875.482060185182</v>
+        <v>45926.528310185182</v>
       </c>
       <c r="H37" s="1">
-        <v>45845.482060185182</v>
+        <v>45866.528310185182</v>
       </c>
       <c r="I37" s="2">
-        <v>-6</v>
+        <v>-55.528310185181908</v>
       </c>
       <c r="J37" s="3">
-        <v>280.28000000000003</v>
+        <v>290.05</v>
       </c>
       <c r="K37" s="3">
-        <v>280.28000000000003</v>
+        <v>290.05</v>
       </c>
       <c r="L37" t="s">
         <v>17</v>
@@ -2135,7 +2132,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>211111567</v>
       </c>
@@ -2143,31 +2140,31 @@
         <v>30</v>
       </c>
       <c r="C38" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="D38" t="s">
         <v>15</v>
       </c>
       <c r="E38">
-        <v>518</v>
+        <v>11283</v>
       </c>
       <c r="F38" t="s">
         <v>16</v>
       </c>
       <c r="G38" s="1">
-        <v>45878</v>
+        <v>45929.501446759255</v>
       </c>
       <c r="H38" s="1">
-        <v>45848</v>
+        <v>45869.501446759255</v>
       </c>
       <c r="I38" s="2">
-        <v>-9</v>
+        <v>-58.501446759255487</v>
       </c>
       <c r="J38" s="3">
-        <v>-4.63</v>
+        <v>512.48</v>
       </c>
       <c r="K38" s="3">
-        <v>-4.63</v>
+        <v>512.48</v>
       </c>
       <c r="L38" t="s">
         <v>17</v>
@@ -2176,12 +2173,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>211111567</v>
+        <v>211111832</v>
       </c>
       <c r="B39" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="C39" t="s">
         <v>14</v>
@@ -2190,25 +2187,25 @@
         <v>15</v>
       </c>
       <c r="E39">
-        <v>10408</v>
+        <v>8724</v>
       </c>
       <c r="F39" t="s">
         <v>16</v>
       </c>
       <c r="G39" s="1">
-        <v>45878.421249999999</v>
+        <v>45840.417569444442</v>
       </c>
       <c r="H39" s="1">
-        <v>45848.421249999999</v>
+        <v>45810.426018518519</v>
       </c>
       <c r="I39" s="2">
-        <v>-9</v>
+        <v>30.582430555557949</v>
       </c>
       <c r="J39" s="3">
-        <v>167.72</v>
+        <v>126.35000000000001</v>
       </c>
       <c r="K39" s="3">
-        <v>167.72</v>
+        <v>126.35000000000001</v>
       </c>
       <c r="L39" t="s">
         <v>17</v>
@@ -2217,12 +2214,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>211111567</v>
+        <v>211111832</v>
       </c>
       <c r="B40" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="C40" t="s">
         <v>14</v>
@@ -2231,39 +2228,39 @@
         <v>15</v>
       </c>
       <c r="E40">
-        <v>10524</v>
+        <v>8939</v>
       </c>
       <c r="F40" t="s">
         <v>16</v>
       </c>
       <c r="G40" s="1">
-        <v>45882.489189814813</v>
+        <v>45843.550532407404</v>
       </c>
       <c r="H40" s="1">
-        <v>45852.489189814813</v>
+        <v>45813.574108796296</v>
       </c>
       <c r="I40" s="2">
-        <v>-13</v>
+        <v>27.449467592596193</v>
       </c>
       <c r="J40" s="3">
-        <v>301.11</v>
+        <v>391.52</v>
       </c>
       <c r="K40" s="3">
-        <v>301.11</v>
+        <v>391.52</v>
       </c>
       <c r="L40" t="s">
         <v>17</v>
       </c>
       <c r="M40" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>211111567</v>
+        <v>211111832</v>
       </c>
       <c r="B41" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="C41" t="s">
         <v>14</v>
@@ -2272,39 +2269,39 @@
         <v>15</v>
       </c>
       <c r="E41">
-        <v>10704</v>
+        <v>8968</v>
       </c>
       <c r="F41" t="s">
         <v>16</v>
       </c>
       <c r="G41" s="1">
-        <v>45885.498472222222</v>
+        <v>45847.378715277773</v>
       </c>
       <c r="H41" s="1">
-        <v>45855.498472222222</v>
+        <v>45817.381168981483</v>
       </c>
       <c r="I41" s="2">
-        <v>-16</v>
+        <v>23.621284722226846</v>
       </c>
       <c r="J41" s="3">
-        <v>266.19</v>
+        <v>59.06</v>
       </c>
       <c r="K41" s="3">
-        <v>266.19</v>
+        <v>59.06</v>
       </c>
       <c r="L41" t="s">
         <v>17</v>
       </c>
       <c r="M41" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>211111567</v>
+        <v>211111832</v>
       </c>
       <c r="B42" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="C42" t="s">
         <v>14</v>
@@ -2313,39 +2310,39 @@
         <v>15</v>
       </c>
       <c r="E42">
-        <v>10993</v>
+        <v>9148</v>
       </c>
       <c r="F42" t="s">
         <v>16</v>
       </c>
       <c r="G42" s="1">
-        <v>45892.493587962963</v>
+        <v>45850.450706018513</v>
       </c>
       <c r="H42" s="1">
-        <v>45862.493599537032</v>
+        <v>45820.452037037037</v>
       </c>
       <c r="I42" s="2">
-        <v>-23</v>
+        <v>20.549293981486699</v>
       </c>
       <c r="J42" s="3">
-        <v>57.02</v>
+        <v>314.43</v>
       </c>
       <c r="K42" s="3">
-        <v>57.02</v>
+        <v>314.43</v>
       </c>
       <c r="L42" t="s">
         <v>17</v>
       </c>
       <c r="M42" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>211111567</v>
+        <v>211111832</v>
       </c>
       <c r="B43" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="C43" t="s">
         <v>14</v>
@@ -2354,39 +2351,39 @@
         <v>15</v>
       </c>
       <c r="E43">
-        <v>11110</v>
+        <v>9510</v>
       </c>
       <c r="F43" t="s">
         <v>16</v>
       </c>
       <c r="G43" s="1">
-        <v>45926.528310185182</v>
+        <v>45858.516712962963</v>
       </c>
       <c r="H43" s="1">
-        <v>45866.528310185182</v>
+        <v>45828.517974537033</v>
       </c>
       <c r="I43" s="2">
-        <v>-57</v>
+        <v>12.483287037037371</v>
       </c>
       <c r="J43" s="3">
-        <v>290.05</v>
+        <v>394.83</v>
       </c>
       <c r="K43" s="3">
-        <v>290.05</v>
+        <v>394.83</v>
       </c>
       <c r="L43" t="s">
         <v>17</v>
       </c>
       <c r="M43" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>211111567</v>
+        <v>211111832</v>
       </c>
       <c r="B44" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="C44" t="s">
         <v>14</v>
@@ -2395,39 +2392,39 @@
         <v>15</v>
       </c>
       <c r="E44">
-        <v>11283</v>
+        <v>9764</v>
       </c>
       <c r="F44" t="s">
         <v>16</v>
       </c>
       <c r="G44" s="1">
-        <v>45929.501446759255</v>
+        <v>45864.422581018516</v>
       </c>
       <c r="H44" s="1">
-        <v>45869.501446759255</v>
+        <v>45834.424537037034</v>
       </c>
       <c r="I44" s="2">
-        <v>-60</v>
+        <v>6.5774189814837882</v>
       </c>
       <c r="J44" s="3">
-        <v>512.48</v>
+        <v>340.11</v>
       </c>
       <c r="K44" s="3">
-        <v>512.48</v>
+        <v>340.11</v>
       </c>
       <c r="L44" t="s">
         <v>17</v>
       </c>
       <c r="M44" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>211111832</v>
       </c>
       <c r="B45" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C45" t="s">
         <v>14</v>
@@ -2436,39 +2433,39 @@
         <v>15</v>
       </c>
       <c r="E45">
-        <v>8724</v>
+        <v>10015</v>
       </c>
       <c r="F45" t="s">
         <v>16</v>
       </c>
       <c r="G45" s="1">
-        <v>45840.417569444442</v>
+        <v>45870.643773148149</v>
       </c>
       <c r="H45" s="1">
-        <v>45810.426018518519</v>
+        <v>45840.645138888889</v>
       </c>
       <c r="I45" s="2">
-        <v>29</v>
+        <v>0.35622685185080627</v>
       </c>
       <c r="J45" s="3">
-        <v>126.35000000000001</v>
+        <v>163.52000000000001</v>
       </c>
       <c r="K45" s="3">
-        <v>126.35000000000001</v>
+        <v>163.52000000000001</v>
       </c>
       <c r="L45" t="s">
         <v>17</v>
       </c>
       <c r="M45" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>211111832</v>
       </c>
       <c r="B46" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C46" t="s">
         <v>14</v>
@@ -2477,39 +2474,39 @@
         <v>15</v>
       </c>
       <c r="E46">
-        <v>8939</v>
+        <v>10073</v>
       </c>
       <c r="F46" t="s">
         <v>16</v>
       </c>
       <c r="G46" s="1">
-        <v>45843.550532407404</v>
+        <v>45871.54855324074</v>
       </c>
       <c r="H46" s="1">
-        <v>45813.574108796296</v>
+        <v>45841.54855324074</v>
       </c>
       <c r="I46" s="2">
-        <v>26</v>
+        <v>-0.54855324074014788</v>
       </c>
       <c r="J46" s="3">
-        <v>391.52</v>
+        <v>159.94</v>
       </c>
       <c r="K46" s="3">
-        <v>391.52</v>
+        <v>159.94</v>
       </c>
       <c r="L46" t="s">
         <v>17</v>
       </c>
       <c r="M46" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>211111832</v>
       </c>
       <c r="B47" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C47" t="s">
         <v>14</v>
@@ -2518,39 +2515,39 @@
         <v>15</v>
       </c>
       <c r="E47">
-        <v>8968</v>
+        <v>10208</v>
       </c>
       <c r="F47" t="s">
         <v>16</v>
       </c>
       <c r="G47" s="1">
-        <v>45847.378715277773</v>
+        <v>45875.481840277775</v>
       </c>
       <c r="H47" s="1">
-        <v>45817.381168981483</v>
+        <v>45845.481840277775</v>
       </c>
       <c r="I47" s="2">
-        <v>22</v>
+        <v>-4.4818402777746087</v>
       </c>
       <c r="J47" s="3">
-        <v>59.06</v>
+        <v>69.59</v>
       </c>
       <c r="K47" s="3">
-        <v>59.06</v>
+        <v>69.59</v>
       </c>
       <c r="L47" t="s">
         <v>17</v>
       </c>
       <c r="M47" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>211111832</v>
       </c>
       <c r="B48" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C48" t="s">
         <v>14</v>
@@ -2559,39 +2556,39 @@
         <v>15</v>
       </c>
       <c r="E48">
-        <v>9148</v>
+        <v>10415</v>
       </c>
       <c r="F48" t="s">
         <v>16</v>
       </c>
       <c r="G48" s="1">
-        <v>45850.450706018513</v>
+        <v>45878.428206018514</v>
       </c>
       <c r="H48" s="1">
-        <v>45820.452037037037</v>
+        <v>45848.428217592591</v>
       </c>
       <c r="I48" s="2">
-        <v>19</v>
+        <v>-7.4282060185141745</v>
       </c>
       <c r="J48" s="3">
-        <v>314.43</v>
+        <v>362.03000000000003</v>
       </c>
       <c r="K48" s="3">
-        <v>314.43</v>
+        <v>362.03000000000003</v>
       </c>
       <c r="L48" t="s">
         <v>17</v>
       </c>
       <c r="M48" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>211111832</v>
       </c>
       <c r="B49" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C49" t="s">
         <v>14</v>
@@ -2600,39 +2597,39 @@
         <v>15</v>
       </c>
       <c r="E49">
-        <v>9510</v>
+        <v>10701</v>
       </c>
       <c r="F49" t="s">
         <v>16</v>
       </c>
       <c r="G49" s="1">
-        <v>45858.516712962963</v>
+        <v>45885.498379629629</v>
       </c>
       <c r="H49" s="1">
-        <v>45828.517974537033</v>
+        <v>45855.498391203699</v>
       </c>
       <c r="I49" s="2">
-        <v>11</v>
+        <v>-14.498379629629198</v>
       </c>
       <c r="J49" s="3">
-        <v>394.83</v>
+        <v>414.34000000000003</v>
       </c>
       <c r="K49" s="3">
-        <v>394.83</v>
+        <v>414.34000000000003</v>
       </c>
       <c r="L49" t="s">
         <v>17</v>
       </c>
       <c r="M49" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>211111832</v>
       </c>
       <c r="B50" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C50" t="s">
         <v>14</v>
@@ -2641,39 +2638,39 @@
         <v>15</v>
       </c>
       <c r="E50">
-        <v>9764</v>
+        <v>10827</v>
       </c>
       <c r="F50" t="s">
         <v>16</v>
       </c>
       <c r="G50" s="1">
-        <v>45864.422581018516</v>
+        <v>45889.495150462964</v>
       </c>
       <c r="H50" s="1">
-        <v>45834.424537037034</v>
+        <v>45859.495150462964</v>
       </c>
       <c r="I50" s="2">
-        <v>5</v>
+        <v>-18.495150462964375</v>
       </c>
       <c r="J50" s="3">
-        <v>340.11</v>
+        <v>55.44</v>
       </c>
       <c r="K50" s="3">
-        <v>340.11</v>
+        <v>55.44</v>
       </c>
       <c r="L50" t="s">
         <v>17</v>
       </c>
       <c r="M50" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>211111832</v>
       </c>
       <c r="B51" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C51" t="s">
         <v>14</v>
@@ -2682,25 +2679,25 @@
         <v>15</v>
       </c>
       <c r="E51">
-        <v>10015</v>
+        <v>10991</v>
       </c>
       <c r="F51" t="s">
         <v>16</v>
       </c>
       <c r="G51" s="1">
-        <v>45870.643773148149</v>
+        <v>45892.492847222224</v>
       </c>
       <c r="H51" s="1">
-        <v>45840.645138888889</v>
+        <v>45862.492905092593</v>
       </c>
       <c r="I51" s="2">
-        <v>-1</v>
+        <v>-21.492847222223645</v>
       </c>
       <c r="J51" s="3">
-        <v>163.52000000000001</v>
+        <v>366.97</v>
       </c>
       <c r="K51" s="3">
-        <v>163.52000000000001</v>
+        <v>366.97</v>
       </c>
       <c r="L51" t="s">
         <v>17</v>
@@ -2709,12 +2706,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>211111832</v>
       </c>
       <c r="B52" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C52" t="s">
         <v>14</v>
@@ -2723,25 +2720,25 @@
         <v>15</v>
       </c>
       <c r="E52">
-        <v>10073</v>
+        <v>11106</v>
       </c>
       <c r="F52" t="s">
         <v>16</v>
       </c>
       <c r="G52" s="1">
-        <v>45871.54855324074</v>
+        <v>45926.528171296297</v>
       </c>
       <c r="H52" s="1">
-        <v>45841.54855324074</v>
+        <v>45866.528182870366</v>
       </c>
       <c r="I52" s="2">
-        <v>-2</v>
+        <v>-55.528171296296932</v>
       </c>
       <c r="J52" s="3">
-        <v>159.94</v>
+        <v>159.31</v>
       </c>
       <c r="K52" s="3">
-        <v>159.94</v>
+        <v>159.31</v>
       </c>
       <c r="L52" t="s">
         <v>17</v>
@@ -2750,12 +2747,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>211111832</v>
       </c>
       <c r="B53" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C53" t="s">
         <v>14</v>
@@ -2764,25 +2761,25 @@
         <v>15</v>
       </c>
       <c r="E53">
-        <v>10208</v>
+        <v>11279</v>
       </c>
       <c r="F53" t="s">
         <v>16</v>
       </c>
       <c r="G53" s="1">
-        <v>45875.481840277775</v>
+        <v>45929.50131944444</v>
       </c>
       <c r="H53" s="1">
-        <v>45845.481840277775</v>
+        <v>45869.501331018517</v>
       </c>
       <c r="I53" s="2">
-        <v>-6</v>
+        <v>-58.501319444440014</v>
       </c>
       <c r="J53" s="3">
-        <v>69.59</v>
+        <v>420.68</v>
       </c>
       <c r="K53" s="3">
-        <v>69.59</v>
+        <v>420.68</v>
       </c>
       <c r="L53" t="s">
         <v>17</v>
@@ -2791,9 +2788,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>211111832</v>
+        <v>211111909</v>
       </c>
       <c r="B54" t="s">
         <v>39</v>
@@ -2805,25 +2802,25 @@
         <v>15</v>
       </c>
       <c r="E54">
-        <v>10415</v>
+        <v>9955</v>
       </c>
       <c r="F54" t="s">
         <v>16</v>
       </c>
       <c r="G54" s="1">
-        <v>45878.428206018514</v>
+        <v>45870.409421296295</v>
       </c>
       <c r="H54" s="1">
-        <v>45848.428217592591</v>
+        <v>45840.411736111106</v>
       </c>
       <c r="I54" s="2">
-        <v>-9</v>
+        <v>0.59057870370452292</v>
       </c>
       <c r="J54" s="3">
-        <v>362.03000000000003</v>
+        <v>112.11</v>
       </c>
       <c r="K54" s="3">
-        <v>362.03000000000003</v>
+        <v>112.11</v>
       </c>
       <c r="L54" t="s">
         <v>17</v>
@@ -2832,9 +2829,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>211111832</v>
+        <v>211111909</v>
       </c>
       <c r="B55" t="s">
         <v>39</v>
@@ -2846,25 +2843,25 @@
         <v>15</v>
       </c>
       <c r="E55">
-        <v>10701</v>
+        <v>10092</v>
       </c>
       <c r="F55" t="s">
         <v>16</v>
       </c>
       <c r="G55" s="1">
-        <v>45885.498379629629</v>
+        <v>45872.315787037034</v>
       </c>
       <c r="H55" s="1">
-        <v>45855.498391203699</v>
+        <v>45842.315787037034</v>
       </c>
       <c r="I55" s="2">
-        <v>-16</v>
+        <v>-1.3157870370341698</v>
       </c>
       <c r="J55" s="3">
-        <v>414.34000000000003</v>
+        <v>75.03</v>
       </c>
       <c r="K55" s="3">
-        <v>414.34000000000003</v>
+        <v>75.03</v>
       </c>
       <c r="L55" t="s">
         <v>17</v>
@@ -2873,9 +2870,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>211111832</v>
+        <v>211111909</v>
       </c>
       <c r="B56" t="s">
         <v>39</v>
@@ -2887,25 +2884,25 @@
         <v>15</v>
       </c>
       <c r="E56">
-        <v>10827</v>
+        <v>10093</v>
       </c>
       <c r="F56" t="s">
         <v>16</v>
       </c>
       <c r="G56" s="1">
-        <v>45889.495150462964</v>
+        <v>45872.31581018518</v>
       </c>
       <c r="H56" s="1">
-        <v>45859.495150462964</v>
+        <v>45842.31581018518</v>
       </c>
       <c r="I56" s="2">
-        <v>-20</v>
+        <v>-1.3158101851804531</v>
       </c>
       <c r="J56" s="3">
-        <v>55.44</v>
+        <v>114.44</v>
       </c>
       <c r="K56" s="3">
-        <v>55.44</v>
+        <v>114.44</v>
       </c>
       <c r="L56" t="s">
         <v>17</v>
@@ -2914,39 +2911,39 @@
         <v>18</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>211111832</v>
+        <v>211111909</v>
       </c>
       <c r="B57" t="s">
         <v>39</v>
       </c>
       <c r="C57" t="s">
-        <v>14</v>
-      </c>
-      <c r="D57" t="s">
-        <v>15</v>
+        <v>27</v>
+      </c>
+      <c r="D57">
+        <v>2025</v>
       </c>
       <c r="E57">
-        <v>10991</v>
+        <v>638</v>
       </c>
       <c r="F57" t="s">
         <v>16</v>
       </c>
       <c r="G57" s="1">
-        <v>45892.492847222224</v>
+        <v>45878</v>
       </c>
       <c r="H57" s="1">
-        <v>45862.492905092593</v>
+        <v>45848</v>
       </c>
       <c r="I57" s="2">
-        <v>-23</v>
+        <v>-7</v>
       </c>
       <c r="J57" s="3">
-        <v>366.97</v>
+        <v>-73.5</v>
       </c>
       <c r="K57" s="3">
-        <v>366.97</v>
+        <v>-73.5</v>
       </c>
       <c r="L57" t="s">
         <v>17</v>
@@ -2955,9 +2952,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>211111832</v>
+        <v>211111909</v>
       </c>
       <c r="B58" t="s">
         <v>39</v>
@@ -2969,25 +2966,25 @@
         <v>15</v>
       </c>
       <c r="E58">
-        <v>11106</v>
+        <v>10409</v>
       </c>
       <c r="F58" t="s">
         <v>16</v>
       </c>
       <c r="G58" s="1">
-        <v>45926.528171296297</v>
+        <v>45878.421273148146</v>
       </c>
       <c r="H58" s="1">
-        <v>45866.528182870366</v>
+        <v>45848.421273148146</v>
       </c>
       <c r="I58" s="2">
-        <v>-57</v>
+        <v>-7.4212731481457013</v>
       </c>
       <c r="J58" s="3">
-        <v>159.31</v>
+        <v>112.3</v>
       </c>
       <c r="K58" s="3">
-        <v>159.31</v>
+        <v>112.3</v>
       </c>
       <c r="L58" t="s">
         <v>17</v>
@@ -2996,9 +2993,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>211111832</v>
+        <v>211111909</v>
       </c>
       <c r="B59" t="s">
         <v>39</v>
@@ -3010,25 +3007,25 @@
         <v>15</v>
       </c>
       <c r="E59">
-        <v>11279</v>
+        <v>10592</v>
       </c>
       <c r="F59" t="s">
         <v>16</v>
       </c>
       <c r="G59" s="1">
-        <v>45929.50131944444</v>
+        <v>45884.413032407407</v>
       </c>
       <c r="H59" s="1">
-        <v>45869.501331018517</v>
+        <v>45854.413043981476</v>
       </c>
       <c r="I59" s="2">
-        <v>-60</v>
+        <v>-13.413032407406718</v>
       </c>
       <c r="J59" s="3">
-        <v>420.68</v>
+        <v>220.38</v>
       </c>
       <c r="K59" s="3">
-        <v>420.68</v>
+        <v>220.38</v>
       </c>
       <c r="L59" t="s">
         <v>17</v>
@@ -3037,12 +3034,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>211111909</v>
       </c>
       <c r="B60" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C60" t="s">
         <v>14</v>
@@ -3051,25 +3048,25 @@
         <v>15</v>
       </c>
       <c r="E60">
-        <v>9955</v>
+        <v>10694</v>
       </c>
       <c r="F60" t="s">
         <v>16</v>
       </c>
       <c r="G60" s="1">
-        <v>45870.409421296295</v>
+        <v>45885.498206018514</v>
       </c>
       <c r="H60" s="1">
-        <v>45840.411736111106</v>
+        <v>45855.498217592591</v>
       </c>
       <c r="I60" s="2">
-        <v>-1</v>
+        <v>-14.498206018513883</v>
       </c>
       <c r="J60" s="3">
-        <v>112.11</v>
+        <v>220.07</v>
       </c>
       <c r="K60" s="3">
-        <v>112.11</v>
+        <v>220.07</v>
       </c>
       <c r="L60" t="s">
         <v>17</v>
@@ -3078,12 +3075,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>211111909</v>
       </c>
       <c r="B61" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C61" t="s">
         <v>14</v>
@@ -3092,25 +3089,25 @@
         <v>15</v>
       </c>
       <c r="E61">
-        <v>10092</v>
+        <v>10695</v>
       </c>
       <c r="F61" t="s">
         <v>16</v>
       </c>
       <c r="G61" s="1">
-        <v>45872.315787037034</v>
+        <v>45885.498240740737</v>
       </c>
       <c r="H61" s="1">
-        <v>45842.315787037034</v>
+        <v>45855.498240740737</v>
       </c>
       <c r="I61" s="2">
-        <v>-3</v>
+        <v>-14.498240740736946</v>
       </c>
       <c r="J61" s="3">
-        <v>75.03</v>
+        <v>182.79</v>
       </c>
       <c r="K61" s="3">
-        <v>75.03</v>
+        <v>182.79</v>
       </c>
       <c r="L61" t="s">
         <v>17</v>
@@ -3119,12 +3116,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>211111909</v>
       </c>
       <c r="B62" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C62" t="s">
         <v>14</v>
@@ -3133,25 +3130,25 @@
         <v>15</v>
       </c>
       <c r="E62">
-        <v>10093</v>
+        <v>10823</v>
       </c>
       <c r="F62" t="s">
         <v>16</v>
       </c>
       <c r="G62" s="1">
-        <v>45872.31581018518</v>
+        <v>45889.495046296295</v>
       </c>
       <c r="H62" s="1">
-        <v>45842.31581018518</v>
+        <v>45859.495057870372</v>
       </c>
       <c r="I62" s="2">
-        <v>-3</v>
+        <v>-18.495046296295186</v>
       </c>
       <c r="J62" s="3">
-        <v>114.44</v>
+        <v>99.84</v>
       </c>
       <c r="K62" s="3">
-        <v>114.44</v>
+        <v>99.84</v>
       </c>
       <c r="L62" t="s">
         <v>17</v>
@@ -3160,39 +3157,39 @@
         <v>18</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>211111909</v>
       </c>
       <c r="B63" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C63" t="s">
-        <v>27</v>
-      </c>
-      <c r="D63">
-        <v>2025</v>
+        <v>14</v>
+      </c>
+      <c r="D63" t="s">
+        <v>15</v>
       </c>
       <c r="E63">
-        <v>638</v>
+        <v>11103</v>
       </c>
       <c r="F63" t="s">
         <v>16</v>
       </c>
       <c r="G63" s="1">
-        <v>45878</v>
+        <v>45896.528101851851</v>
       </c>
       <c r="H63" s="1">
-        <v>45848</v>
+        <v>45866.528113425928</v>
       </c>
       <c r="I63" s="2">
-        <v>-9</v>
+        <v>-25.528101851850806</v>
       </c>
       <c r="J63" s="3">
-        <v>-73.5</v>
+        <v>74.12</v>
       </c>
       <c r="K63" s="3">
-        <v>-73.5</v>
+        <v>74.12</v>
       </c>
       <c r="L63" t="s">
         <v>17</v>
@@ -3201,12 +3198,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>211111909</v>
       </c>
       <c r="B64" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C64" t="s">
         <v>14</v>
@@ -3215,25 +3212,25 @@
         <v>15</v>
       </c>
       <c r="E64">
-        <v>10409</v>
+        <v>11193</v>
       </c>
       <c r="F64" t="s">
         <v>16</v>
       </c>
       <c r="G64" s="1">
-        <v>45878.421273148146</v>
+        <v>45898.482453703698</v>
       </c>
       <c r="H64" s="1">
-        <v>45848.421273148146</v>
+        <v>45868.482465277775</v>
       </c>
       <c r="I64" s="2">
-        <v>-9</v>
+        <v>-27.482453703698411</v>
       </c>
       <c r="J64" s="3">
-        <v>112.3</v>
+        <v>128.46</v>
       </c>
       <c r="K64" s="3">
-        <v>112.3</v>
+        <v>128.46</v>
       </c>
       <c r="L64" t="s">
         <v>17</v>
@@ -3242,12 +3239,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>211111909</v>
       </c>
       <c r="B65" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C65" t="s">
         <v>14</v>
@@ -3256,25 +3253,25 @@
         <v>15</v>
       </c>
       <c r="E65">
-        <v>10592</v>
+        <v>11277</v>
       </c>
       <c r="F65" t="s">
         <v>16</v>
       </c>
       <c r="G65" s="1">
-        <v>45884.413032407407</v>
+        <v>45899.501284722217</v>
       </c>
       <c r="H65" s="1">
-        <v>45854.413043981476</v>
+        <v>45869.501284722217</v>
       </c>
       <c r="I65" s="2">
-        <v>-15</v>
+        <v>-28.501284722216951</v>
       </c>
       <c r="J65" s="3">
-        <v>220.38</v>
+        <v>37.800000000000004</v>
       </c>
       <c r="K65" s="3">
-        <v>220.38</v>
+        <v>37.800000000000004</v>
       </c>
       <c r="L65" t="s">
         <v>17</v>
@@ -3283,12 +3280,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>211111909</v>
       </c>
       <c r="B66" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C66" t="s">
         <v>14</v>
@@ -3297,25 +3294,25 @@
         <v>15</v>
       </c>
       <c r="E66">
-        <v>10694</v>
+        <v>11278</v>
       </c>
       <c r="F66" t="s">
         <v>16</v>
       </c>
       <c r="G66" s="1">
-        <v>45885.498206018514</v>
+        <v>45899.501296296294</v>
       </c>
       <c r="H66" s="1">
-        <v>45855.498217592591</v>
+        <v>45869.501307870371</v>
       </c>
       <c r="I66" s="2">
-        <v>-16</v>
+        <v>-28.501296296293731</v>
       </c>
       <c r="J66" s="3">
-        <v>220.07</v>
+        <v>33.700000000000003</v>
       </c>
       <c r="K66" s="3">
-        <v>220.07</v>
+        <v>33.700000000000003</v>
       </c>
       <c r="L66" t="s">
         <v>17</v>
@@ -3324,9 +3321,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>211111909</v>
+        <v>211111932</v>
       </c>
       <c r="B67" t="s">
         <v>40</v>
@@ -3338,36 +3335,36 @@
         <v>15</v>
       </c>
       <c r="E67">
-        <v>10695</v>
+        <v>6876</v>
       </c>
       <c r="F67" t="s">
         <v>16</v>
       </c>
       <c r="G67" s="1">
-        <v>45885.498240740737</v>
+        <v>45806.316099537034</v>
       </c>
       <c r="H67" s="1">
-        <v>45855.498240740737</v>
+        <v>45776.318043981482</v>
       </c>
       <c r="I67" s="2">
-        <v>-16</v>
+        <v>64.683900462965539</v>
       </c>
       <c r="J67" s="3">
-        <v>182.79</v>
+        <v>337.18</v>
       </c>
       <c r="K67" s="3">
-        <v>182.79</v>
+        <v>337.18</v>
       </c>
       <c r="L67" t="s">
         <v>17</v>
       </c>
       <c r="M67" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>211111909</v>
+        <v>211111932</v>
       </c>
       <c r="B68" t="s">
         <v>40</v>
@@ -3379,66 +3376,66 @@
         <v>15</v>
       </c>
       <c r="E68">
-        <v>10823</v>
+        <v>7112</v>
       </c>
       <c r="F68" t="s">
         <v>16</v>
       </c>
       <c r="G68" s="1">
-        <v>45889.495046296295</v>
+        <v>45809.600486111107</v>
       </c>
       <c r="H68" s="1">
-        <v>45859.495057870372</v>
+        <v>45779.601805555554</v>
       </c>
       <c r="I68" s="2">
-        <v>-20</v>
+        <v>61.399513888893125</v>
       </c>
       <c r="J68" s="3">
-        <v>99.84</v>
+        <v>1342.49</v>
       </c>
       <c r="K68" s="3">
-        <v>99.84</v>
+        <v>1000</v>
       </c>
       <c r="L68" t="s">
         <v>17</v>
       </c>
       <c r="M68" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>211111909</v>
+        <v>211111949</v>
       </c>
       <c r="B69" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C69" t="s">
-        <v>14</v>
-      </c>
-      <c r="D69" t="s">
-        <v>15</v>
+        <v>27</v>
+      </c>
+      <c r="D69">
+        <v>2025</v>
       </c>
       <c r="E69">
-        <v>11103</v>
+        <v>626</v>
       </c>
       <c r="F69" t="s">
         <v>16</v>
       </c>
       <c r="G69" s="1">
-        <v>45896.528101851851</v>
+        <v>45876</v>
       </c>
       <c r="H69" s="1">
-        <v>45866.528113425928</v>
+        <v>45846</v>
       </c>
       <c r="I69" s="2">
-        <v>-27</v>
+        <v>-5</v>
       </c>
       <c r="J69" s="3">
-        <v>74.12</v>
+        <v>-12.36</v>
       </c>
       <c r="K69" s="3">
-        <v>74.12</v>
+        <v>-12.36</v>
       </c>
       <c r="L69" t="s">
         <v>17</v>
@@ -3447,12 +3444,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>211111909</v>
+        <v>211111949</v>
       </c>
       <c r="B70" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C70" t="s">
         <v>14</v>
@@ -3461,25 +3458,25 @@
         <v>15</v>
       </c>
       <c r="E70">
-        <v>11193</v>
+        <v>11181</v>
       </c>
       <c r="F70" t="s">
         <v>16</v>
       </c>
       <c r="G70" s="1">
-        <v>45898.482453703698</v>
+        <v>45897.554988425924</v>
       </c>
       <c r="H70" s="1">
-        <v>45868.482465277775</v>
+        <v>45867.555</v>
       </c>
       <c r="I70" s="2">
-        <v>-29</v>
+        <v>-26.554988425923511</v>
       </c>
       <c r="J70" s="3">
-        <v>128.46</v>
+        <v>173.49</v>
       </c>
       <c r="K70" s="3">
-        <v>128.46</v>
+        <v>173.49</v>
       </c>
       <c r="L70" t="s">
         <v>17</v>
@@ -3488,12 +3485,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>211111909</v>
+        <v>211111949</v>
       </c>
       <c r="B71" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C71" t="s">
         <v>14</v>
@@ -3502,25 +3499,25 @@
         <v>15</v>
       </c>
       <c r="E71">
-        <v>11277</v>
+        <v>11318</v>
       </c>
       <c r="F71" t="s">
         <v>16</v>
       </c>
       <c r="G71" s="1">
-        <v>45899.501284722217</v>
+        <v>45900.455787037034</v>
       </c>
       <c r="H71" s="1">
-        <v>45869.501284722217</v>
+        <v>45870.455787037034</v>
       </c>
       <c r="I71" s="2">
-        <v>-30</v>
+        <v>-29.455787037033588</v>
       </c>
       <c r="J71" s="3">
-        <v>37.800000000000004</v>
+        <v>148.87</v>
       </c>
       <c r="K71" s="3">
-        <v>37.800000000000004</v>
+        <v>148.87</v>
       </c>
       <c r="L71" t="s">
         <v>17</v>
@@ -3529,39 +3526,39 @@
         <v>18</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>211111909</v>
+        <v>211111992</v>
       </c>
       <c r="B72" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C72" t="s">
-        <v>14</v>
-      </c>
-      <c r="D72" t="s">
-        <v>15</v>
+        <v>27</v>
+      </c>
+      <c r="D72">
+        <v>2025</v>
       </c>
       <c r="E72">
-        <v>11278</v>
+        <v>628</v>
       </c>
       <c r="F72" t="s">
         <v>16</v>
       </c>
       <c r="G72" s="1">
-        <v>45899.501296296294</v>
+        <v>45876</v>
       </c>
       <c r="H72" s="1">
-        <v>45869.501307870371</v>
+        <v>45846</v>
       </c>
       <c r="I72" s="2">
-        <v>-30</v>
+        <v>-5</v>
       </c>
       <c r="J72" s="3">
-        <v>33.700000000000003</v>
+        <v>-24.060000000000002</v>
       </c>
       <c r="K72" s="3">
-        <v>33.700000000000003</v>
+        <v>-24.060000000000002</v>
       </c>
       <c r="L72" t="s">
         <v>17</v>
@@ -3570,12 +3567,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>211111932</v>
+        <v>211111992</v>
       </c>
       <c r="B73" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C73" t="s">
         <v>14</v>
@@ -3584,39 +3581,39 @@
         <v>15</v>
       </c>
       <c r="E73">
-        <v>6876</v>
+        <v>10284</v>
       </c>
       <c r="F73" t="s">
         <v>16</v>
       </c>
       <c r="G73" s="1">
-        <v>45806.316099537034</v>
+        <v>45876.526770833334</v>
       </c>
       <c r="H73" s="1">
-        <v>45776.318043981482</v>
+        <v>45846.52884259259</v>
       </c>
       <c r="I73" s="2">
-        <v>63</v>
+        <v>-5.5267708333340124</v>
       </c>
       <c r="J73" s="3">
-        <v>337.18</v>
+        <v>192.77</v>
       </c>
       <c r="K73" s="3">
-        <v>337.18</v>
+        <v>192.77</v>
       </c>
       <c r="L73" t="s">
         <v>17</v>
       </c>
       <c r="M73" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>211111932</v>
+        <v>211111992</v>
       </c>
       <c r="B74" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C74" t="s">
         <v>14</v>
@@ -3625,66 +3622,66 @@
         <v>15</v>
       </c>
       <c r="E74">
-        <v>7112</v>
+        <v>10720</v>
       </c>
       <c r="F74" t="s">
         <v>16</v>
       </c>
       <c r="G74" s="1">
-        <v>45809.600486111107</v>
+        <v>45885.592870370368</v>
       </c>
       <c r="H74" s="1">
-        <v>45779.601805555554</v>
+        <v>45855.592870370368</v>
       </c>
       <c r="I74" s="2">
-        <v>60</v>
+        <v>-14.592870370368473</v>
       </c>
       <c r="J74" s="3">
-        <v>1342.49</v>
+        <v>57.06</v>
       </c>
       <c r="K74" s="3">
-        <v>1000</v>
+        <v>57.06</v>
       </c>
       <c r="L74" t="s">
         <v>17</v>
       </c>
       <c r="M74" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>211111949</v>
+        <v>211111992</v>
       </c>
       <c r="B75" t="s">
         <v>42</v>
       </c>
       <c r="C75" t="s">
-        <v>27</v>
-      </c>
-      <c r="D75">
-        <v>2025</v>
+        <v>14</v>
+      </c>
+      <c r="D75" t="s">
+        <v>15</v>
       </c>
       <c r="E75">
-        <v>626</v>
+        <v>10722</v>
       </c>
       <c r="F75" t="s">
         <v>16</v>
       </c>
       <c r="G75" s="1">
-        <v>45876</v>
+        <v>45885.593692129631</v>
       </c>
       <c r="H75" s="1">
-        <v>45846</v>
+        <v>45855.593692129631</v>
       </c>
       <c r="I75" s="2">
-        <v>-7</v>
+        <v>-14.593692129630654</v>
       </c>
       <c r="J75" s="3">
-        <v>-12.36</v>
+        <v>161.43</v>
       </c>
       <c r="K75" s="3">
-        <v>-12.36</v>
+        <v>161.43</v>
       </c>
       <c r="L75" t="s">
         <v>17</v>
@@ -3693,9 +3690,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>211111949</v>
+        <v>211111992</v>
       </c>
       <c r="B76" t="s">
         <v>42</v>
@@ -3707,25 +3704,25 @@
         <v>15</v>
       </c>
       <c r="E76">
-        <v>11181</v>
+        <v>11293</v>
       </c>
       <c r="F76" t="s">
         <v>16</v>
       </c>
       <c r="G76" s="1">
-        <v>45897.554988425924</v>
+        <v>45899.506145833329</v>
       </c>
       <c r="H76" s="1">
-        <v>45867.555</v>
+        <v>45869.506157407406</v>
       </c>
       <c r="I76" s="2">
-        <v>-28</v>
+        <v>-28.506145833329356</v>
       </c>
       <c r="J76" s="3">
-        <v>173.49</v>
+        <v>237.28</v>
       </c>
       <c r="K76" s="3">
-        <v>173.49</v>
+        <v>237.28</v>
       </c>
       <c r="L76" t="s">
         <v>17</v>
@@ -3734,9 +3731,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>211111992</v>
+        <v>211112011</v>
       </c>
       <c r="B77" t="s">
         <v>43</v>
@@ -3748,25 +3745,25 @@
         <v>2025</v>
       </c>
       <c r="E77">
-        <v>628</v>
+        <v>635</v>
       </c>
       <c r="F77" t="s">
         <v>16</v>
       </c>
       <c r="G77" s="1">
-        <v>45876</v>
+        <v>45878</v>
       </c>
       <c r="H77" s="1">
-        <v>45846</v>
+        <v>45848</v>
       </c>
       <c r="I77" s="2">
         <v>-7</v>
       </c>
       <c r="J77" s="3">
-        <v>-24.060000000000002</v>
+        <v>-62.300000000000004</v>
       </c>
       <c r="K77" s="3">
-        <v>-24.060000000000002</v>
+        <v>-0.69000000000000006</v>
       </c>
       <c r="L77" t="s">
         <v>17</v>
@@ -3775,9 +3772,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>211111992</v>
+        <v>211112011</v>
       </c>
       <c r="B78" t="s">
         <v>43</v>
@@ -3789,25 +3786,25 @@
         <v>15</v>
       </c>
       <c r="E78">
-        <v>10284</v>
+        <v>11109</v>
       </c>
       <c r="F78" t="s">
         <v>16</v>
       </c>
       <c r="G78" s="1">
-        <v>45876.526770833334</v>
+        <v>45896.528275462959</v>
       </c>
       <c r="H78" s="1">
-        <v>45846.52884259259</v>
+        <v>45866.528275462959</v>
       </c>
       <c r="I78" s="2">
-        <v>-7</v>
+        <v>-25.528275462958845</v>
       </c>
       <c r="J78" s="3">
-        <v>192.77</v>
+        <v>611.25</v>
       </c>
       <c r="K78" s="3">
-        <v>192.77</v>
+        <v>611.25</v>
       </c>
       <c r="L78" t="s">
         <v>17</v>
@@ -3816,9 +3813,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>211111992</v>
+        <v>211112011</v>
       </c>
       <c r="B79" t="s">
         <v>43</v>
@@ -3830,25 +3827,25 @@
         <v>15</v>
       </c>
       <c r="E79">
-        <v>10720</v>
+        <v>11281</v>
       </c>
       <c r="F79" t="s">
         <v>16</v>
       </c>
       <c r="G79" s="1">
-        <v>45885.592870370368</v>
+        <v>45899.501377314809</v>
       </c>
       <c r="H79" s="1">
-        <v>45855.592870370368</v>
+        <v>45869.501388888886</v>
       </c>
       <c r="I79" s="2">
-        <v>-16</v>
+        <v>-28.501377314809361</v>
       </c>
       <c r="J79" s="3">
-        <v>57.06</v>
+        <v>210.24</v>
       </c>
       <c r="K79" s="3">
-        <v>57.06</v>
+        <v>210.24</v>
       </c>
       <c r="L79" t="s">
         <v>17</v>
@@ -3857,12 +3854,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>211111992</v>
+        <v>211112028</v>
       </c>
       <c r="B80" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C80" t="s">
         <v>14</v>
@@ -3871,25 +3868,25 @@
         <v>15</v>
       </c>
       <c r="E80">
-        <v>10722</v>
+        <v>10711</v>
       </c>
       <c r="F80" t="s">
         <v>16</v>
       </c>
       <c r="G80" s="1">
-        <v>45885.593692129631</v>
+        <v>45885.555312500001</v>
       </c>
       <c r="H80" s="1">
-        <v>45855.593692129631</v>
+        <v>45855.556076388886</v>
       </c>
       <c r="I80" s="2">
-        <v>-16</v>
+        <v>-14.555312500000582</v>
       </c>
       <c r="J80" s="3">
-        <v>161.43</v>
+        <v>281.88</v>
       </c>
       <c r="K80" s="3">
-        <v>161.43</v>
+        <v>281.88</v>
       </c>
       <c r="L80" t="s">
         <v>17</v>
@@ -3898,12 +3895,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>211111992</v>
+        <v>211112064</v>
       </c>
       <c r="B81" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C81" t="s">
         <v>14</v>
@@ -3912,25 +3909,25 @@
         <v>15</v>
       </c>
       <c r="E81">
-        <v>11293</v>
+        <v>10467</v>
       </c>
       <c r="F81" t="s">
         <v>16</v>
       </c>
       <c r="G81" s="1">
-        <v>45899.506145833329</v>
+        <v>45879.403541666667</v>
       </c>
       <c r="H81" s="1">
-        <v>45869.506157407406</v>
+        <v>45849.403553240736</v>
       </c>
       <c r="I81" s="2">
-        <v>-30</v>
+        <v>-8.4035416666665697</v>
       </c>
       <c r="J81" s="3">
-        <v>237.28</v>
+        <v>172.37</v>
       </c>
       <c r="K81" s="3">
-        <v>237.28</v>
+        <v>172.37</v>
       </c>
       <c r="L81" t="s">
         <v>17</v>
@@ -3939,39 +3936,39 @@
         <v>18</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>211112011</v>
+        <v>211112064</v>
       </c>
       <c r="B82" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C82" t="s">
-        <v>27</v>
-      </c>
-      <c r="D82">
-        <v>2025</v>
+        <v>14</v>
+      </c>
+      <c r="D82" t="s">
+        <v>15</v>
       </c>
       <c r="E82">
-        <v>635</v>
+        <v>10647</v>
       </c>
       <c r="F82" t="s">
         <v>16</v>
       </c>
       <c r="G82" s="1">
-        <v>45878</v>
+        <v>45884.469375000001</v>
       </c>
       <c r="H82" s="1">
-        <v>45848</v>
+        <v>45854.469375000001</v>
       </c>
       <c r="I82" s="2">
-        <v>-9</v>
+        <v>-13.469375000000582</v>
       </c>
       <c r="J82" s="3">
-        <v>-62.300000000000004</v>
+        <v>78.2</v>
       </c>
       <c r="K82" s="3">
-        <v>-0.69000000000000006</v>
+        <v>78.2</v>
       </c>
       <c r="L82" t="s">
         <v>17</v>
@@ -3980,39 +3977,39 @@
         <v>18</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>211112011</v>
+        <v>211112064</v>
       </c>
       <c r="B83" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C83" t="s">
-        <v>14</v>
+        <v>58</v>
       </c>
       <c r="D83" t="s">
         <v>15</v>
       </c>
       <c r="E83">
-        <v>11109</v>
+        <v>13</v>
       </c>
       <c r="F83" t="s">
         <v>16</v>
       </c>
       <c r="G83" s="1">
-        <v>45896.528275462959</v>
+        <v>45891</v>
       </c>
       <c r="H83" s="1">
-        <v>45866.528275462959</v>
+        <v>45861</v>
       </c>
       <c r="I83" s="2">
-        <v>-27</v>
+        <v>-20</v>
       </c>
       <c r="J83" s="3">
-        <v>611.25</v>
+        <v>-156.15</v>
       </c>
       <c r="K83" s="3">
-        <v>611.25</v>
+        <v>-156.15</v>
       </c>
       <c r="L83" t="s">
         <v>17</v>
@@ -4021,12 +4018,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>211112011</v>
+        <v>211112064</v>
       </c>
       <c r="B84" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C84" t="s">
         <v>14</v>
@@ -4035,25 +4032,25 @@
         <v>15</v>
       </c>
       <c r="E84">
-        <v>11281</v>
+        <v>10933</v>
       </c>
       <c r="F84" t="s">
         <v>16</v>
       </c>
       <c r="G84" s="1">
-        <v>45899.501377314809</v>
+        <v>45891.550335648149</v>
       </c>
       <c r="H84" s="1">
-        <v>45869.501388888886</v>
+        <v>45861.550335648149</v>
       </c>
       <c r="I84" s="2">
-        <v>-30</v>
+        <v>-20.550335648149485</v>
       </c>
       <c r="J84" s="3">
-        <v>210.24</v>
+        <v>156.15</v>
       </c>
       <c r="K84" s="3">
-        <v>210.24</v>
+        <v>156.15</v>
       </c>
       <c r="L84" t="s">
         <v>17</v>
@@ -4062,9 +4059,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>211112028</v>
+        <v>211112064</v>
       </c>
       <c r="B85" t="s">
         <v>45</v>
@@ -4076,25 +4073,25 @@
         <v>15</v>
       </c>
       <c r="E85">
-        <v>10711</v>
+        <v>10974</v>
       </c>
       <c r="F85" t="s">
         <v>16</v>
       </c>
       <c r="G85" s="1">
-        <v>45885.555312500001</v>
+        <v>45892.340671296297</v>
       </c>
       <c r="H85" s="1">
-        <v>45855.556076388886</v>
+        <v>45862.34233796296</v>
       </c>
       <c r="I85" s="2">
-        <v>-16</v>
+        <v>-21.340671296296932</v>
       </c>
       <c r="J85" s="3">
-        <v>281.88</v>
+        <v>116.54</v>
       </c>
       <c r="K85" s="3">
-        <v>281.88</v>
+        <v>116.54</v>
       </c>
       <c r="L85" t="s">
         <v>17</v>
@@ -4103,12 +4100,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>211112064</v>
       </c>
       <c r="B86" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C86" t="s">
         <v>14</v>
@@ -4117,25 +4114,25 @@
         <v>15</v>
       </c>
       <c r="E86">
-        <v>10467</v>
+        <v>11132</v>
       </c>
       <c r="F86" t="s">
         <v>16</v>
       </c>
       <c r="G86" s="1">
-        <v>45879.403541666667</v>
+        <v>45896.624918981477</v>
       </c>
       <c r="H86" s="1">
-        <v>45849.403553240736</v>
+        <v>45866.626180555555</v>
       </c>
       <c r="I86" s="2">
-        <v>-10</v>
+        <v>-25.624918981477094</v>
       </c>
       <c r="J86" s="3">
-        <v>172.37</v>
+        <v>44.92</v>
       </c>
       <c r="K86" s="3">
-        <v>172.37</v>
+        <v>44.92</v>
       </c>
       <c r="L86" t="s">
         <v>17</v>
@@ -4144,12 +4141,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>211112064</v>
       </c>
       <c r="B87" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C87" t="s">
         <v>14</v>
@@ -4158,25 +4155,25 @@
         <v>15</v>
       </c>
       <c r="E87">
-        <v>10647</v>
+        <v>11361</v>
       </c>
       <c r="F87" t="s">
         <v>16</v>
       </c>
       <c r="G87" s="1">
-        <v>45884.469375000001</v>
+        <v>45900.567106481481</v>
       </c>
       <c r="H87" s="1">
-        <v>45854.469375000001</v>
+        <v>45870.567106481481</v>
       </c>
       <c r="I87" s="2">
-        <v>-15</v>
+        <v>-29.56710648148146</v>
       </c>
       <c r="J87" s="3">
-        <v>78.2</v>
+        <v>179.36</v>
       </c>
       <c r="K87" s="3">
-        <v>78.2</v>
+        <v>179.36</v>
       </c>
       <c r="L87" t="s">
         <v>17</v>
@@ -4185,39 +4182,39 @@
         <v>18</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>211112064</v>
+        <v>211112086</v>
       </c>
       <c r="B88" t="s">
         <v>46</v>
       </c>
       <c r="C88" t="s">
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="D88" t="s">
         <v>15</v>
       </c>
       <c r="E88">
-        <v>13</v>
+        <v>10414</v>
       </c>
       <c r="F88" t="s">
         <v>16</v>
       </c>
       <c r="G88" s="1">
-        <v>45891</v>
+        <v>45878.428182870368</v>
       </c>
       <c r="H88" s="1">
-        <v>45861</v>
+        <v>45848.428182870368</v>
       </c>
       <c r="I88" s="2">
-        <v>-22</v>
+        <v>-7.4281828703678912</v>
       </c>
       <c r="J88" s="3">
-        <v>-156.15</v>
+        <v>181.28</v>
       </c>
       <c r="K88" s="3">
-        <v>-156.15</v>
+        <v>81.070000000000007</v>
       </c>
       <c r="L88" t="s">
         <v>17</v>
@@ -4226,9 +4223,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>211112064</v>
+        <v>211112086</v>
       </c>
       <c r="B89" t="s">
         <v>46</v>
@@ -4240,25 +4237,25 @@
         <v>15</v>
       </c>
       <c r="E89">
-        <v>10933</v>
+        <v>10705</v>
       </c>
       <c r="F89" t="s">
         <v>16</v>
       </c>
       <c r="G89" s="1">
-        <v>45891.550335648149</v>
+        <v>45885.500740740739</v>
       </c>
       <c r="H89" s="1">
-        <v>45861.550335648149</v>
+        <v>45855.500740740739</v>
       </c>
       <c r="I89" s="2">
-        <v>-22</v>
+        <v>-14.500740740739275</v>
       </c>
       <c r="J89" s="3">
-        <v>156.15</v>
+        <v>236.3</v>
       </c>
       <c r="K89" s="3">
-        <v>156.15</v>
+        <v>236.3</v>
       </c>
       <c r="L89" t="s">
         <v>17</v>
@@ -4267,9 +4264,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>211112064</v>
+        <v>211112086</v>
       </c>
       <c r="B90" t="s">
         <v>46</v>
@@ -4281,25 +4278,25 @@
         <v>15</v>
       </c>
       <c r="E90">
-        <v>10974</v>
+        <v>10990</v>
       </c>
       <c r="F90" t="s">
         <v>16</v>
       </c>
       <c r="G90" s="1">
-        <v>45892.340671296297</v>
+        <v>45892.49282407407</v>
       </c>
       <c r="H90" s="1">
-        <v>45862.34233796296</v>
+        <v>45862.49282407407</v>
       </c>
       <c r="I90" s="2">
-        <v>-23</v>
+        <v>-21.492824074070086</v>
       </c>
       <c r="J90" s="3">
-        <v>116.54</v>
+        <v>68.710000000000008</v>
       </c>
       <c r="K90" s="3">
-        <v>116.54</v>
+        <v>68.710000000000008</v>
       </c>
       <c r="L90" t="s">
         <v>17</v>
@@ -4308,12 +4305,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>211112064</v>
+        <v>211112132</v>
       </c>
       <c r="B91" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C91" t="s">
         <v>14</v>
@@ -4322,25 +4319,25 @@
         <v>15</v>
       </c>
       <c r="E91">
-        <v>11132</v>
+        <v>10196</v>
       </c>
       <c r="F91" t="s">
         <v>16</v>
       </c>
       <c r="G91" s="1">
-        <v>45896.624918981477</v>
+        <v>45875.461145833331</v>
       </c>
       <c r="H91" s="1">
-        <v>45866.626180555555</v>
+        <v>45845.461145833331</v>
       </c>
       <c r="I91" s="2">
-        <v>-27</v>
+        <v>-4.461145833331102</v>
       </c>
       <c r="J91" s="3">
-        <v>44.92</v>
+        <v>225.16</v>
       </c>
       <c r="K91" s="3">
-        <v>44.92</v>
+        <v>225.16</v>
       </c>
       <c r="L91" t="s">
         <v>17</v>
@@ -4349,9 +4346,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>211112086</v>
+        <v>211112132</v>
       </c>
       <c r="B92" t="s">
         <v>47</v>
@@ -4363,25 +4360,25 @@
         <v>15</v>
       </c>
       <c r="E92">
-        <v>10414</v>
+        <v>10702</v>
       </c>
       <c r="F92" t="s">
         <v>16</v>
       </c>
       <c r="G92" s="1">
-        <v>45878.428182870368</v>
+        <v>45885.498414351852</v>
       </c>
       <c r="H92" s="1">
-        <v>45848.428182870368</v>
+        <v>45855.498414351852</v>
       </c>
       <c r="I92" s="2">
-        <v>-9</v>
+        <v>-14.498414351852261</v>
       </c>
       <c r="J92" s="3">
-        <v>181.28</v>
+        <v>320.82</v>
       </c>
       <c r="K92" s="3">
-        <v>81.070000000000007</v>
+        <v>320.82</v>
       </c>
       <c r="L92" t="s">
         <v>17</v>
@@ -4390,9 +4387,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>211112086</v>
+        <v>211112132</v>
       </c>
       <c r="B93" t="s">
         <v>47</v>
@@ -4404,25 +4401,25 @@
         <v>15</v>
       </c>
       <c r="E93">
-        <v>10705</v>
+        <v>11108</v>
       </c>
       <c r="F93" t="s">
         <v>16</v>
       </c>
       <c r="G93" s="1">
-        <v>45885.500740740739</v>
+        <v>45896.528252314813</v>
       </c>
       <c r="H93" s="1">
-        <v>45855.500740740739</v>
+        <v>45866.528252314813</v>
       </c>
       <c r="I93" s="2">
-        <v>-16</v>
+        <v>-25.528252314812562</v>
       </c>
       <c r="J93" s="3">
-        <v>236.3</v>
+        <v>296.43</v>
       </c>
       <c r="K93" s="3">
-        <v>236.3</v>
+        <v>296.43</v>
       </c>
       <c r="L93" t="s">
         <v>17</v>
@@ -4431,9 +4428,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>211112086</v>
+        <v>211112132</v>
       </c>
       <c r="B94" t="s">
         <v>47</v>
@@ -4445,25 +4442,25 @@
         <v>15</v>
       </c>
       <c r="E94">
-        <v>10990</v>
+        <v>11280</v>
       </c>
       <c r="F94" t="s">
         <v>16</v>
       </c>
       <c r="G94" s="1">
-        <v>45892.49282407407</v>
+        <v>45899.501354166663</v>
       </c>
       <c r="H94" s="1">
-        <v>45862.49282407407</v>
+        <v>45869.50136574074</v>
       </c>
       <c r="I94" s="2">
-        <v>-23</v>
+        <v>-28.501354166663077</v>
       </c>
       <c r="J94" s="3">
-        <v>68.710000000000008</v>
+        <v>96.56</v>
       </c>
       <c r="K94" s="3">
-        <v>68.710000000000008</v>
+        <v>96.56</v>
       </c>
       <c r="L94" t="s">
         <v>17</v>
@@ -4472,9 +4469,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>211112132</v>
+        <v>211112198</v>
       </c>
       <c r="B95" t="s">
         <v>48</v>
@@ -4486,25 +4483,25 @@
         <v>15</v>
       </c>
       <c r="E95">
-        <v>10196</v>
+        <v>10217</v>
       </c>
       <c r="F95" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="G95" s="1">
-        <v>45875.461145833331</v>
+        <v>45875.486840277779</v>
       </c>
       <c r="H95" s="1">
-        <v>45845.461145833331</v>
+        <v>45845.486840277779</v>
       </c>
       <c r="I95" s="2">
-        <v>-6</v>
+        <v>-4.4868402777792653</v>
       </c>
       <c r="J95" s="3">
-        <v>225.16</v>
+        <v>187.19</v>
       </c>
       <c r="K95" s="3">
-        <v>225.16</v>
+        <v>187.19</v>
       </c>
       <c r="L95" t="s">
         <v>17</v>
@@ -4513,9 +4510,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>211112132</v>
+        <v>211112198</v>
       </c>
       <c r="B96" t="s">
         <v>48</v>
@@ -4527,25 +4524,25 @@
         <v>15</v>
       </c>
       <c r="E96">
-        <v>10702</v>
+        <v>11107</v>
       </c>
       <c r="F96" t="s">
         <v>16</v>
       </c>
       <c r="G96" s="1">
-        <v>45885.498414351852</v>
+        <v>45896.52820601852</v>
       </c>
       <c r="H96" s="1">
-        <v>45855.498414351852</v>
+        <v>45866.52820601852</v>
       </c>
       <c r="I96" s="2">
-        <v>-16</v>
+        <v>-25.528206018519995</v>
       </c>
       <c r="J96" s="3">
-        <v>320.82</v>
+        <v>587.35</v>
       </c>
       <c r="K96" s="3">
-        <v>320.82</v>
+        <v>60.03</v>
       </c>
       <c r="L96" t="s">
         <v>17</v>
@@ -4554,285 +4551,285 @@
         <v>18</v>
       </c>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>211112132</v>
+        <v>211112291</v>
       </c>
       <c r="B97" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C97" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="D97" t="s">
-        <v>15</v>
-      </c>
-      <c r="E97">
-        <v>11108</v>
+        <v>32</v>
+      </c>
+      <c r="E97" t="s">
+        <v>50</v>
       </c>
       <c r="F97" t="s">
         <v>16</v>
       </c>
       <c r="G97" s="1">
-        <v>45896.528252314813</v>
+        <v>45324</v>
       </c>
       <c r="H97" s="1">
-        <v>45866.528252314813</v>
+        <v>45324</v>
       </c>
       <c r="I97" s="2">
-        <v>-27</v>
+        <v>547</v>
       </c>
       <c r="J97" s="3">
-        <v>296.43</v>
+        <v>200.59</v>
       </c>
       <c r="K97" s="3">
-        <v>296.43</v>
+        <v>200.59</v>
       </c>
       <c r="L97" t="s">
         <v>17</v>
       </c>
       <c r="M97" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>211112132</v>
+        <v>211112291</v>
       </c>
       <c r="B98" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C98" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="D98" t="s">
-        <v>15</v>
-      </c>
-      <c r="E98">
-        <v>11280</v>
+        <v>32</v>
+      </c>
+      <c r="E98" t="s">
+        <v>51</v>
       </c>
       <c r="F98" t="s">
         <v>16</v>
       </c>
       <c r="G98" s="1">
-        <v>45899.501354166663</v>
+        <v>45324</v>
       </c>
       <c r="H98" s="1">
-        <v>45869.50136574074</v>
+        <v>45324</v>
       </c>
       <c r="I98" s="2">
-        <v>-30</v>
+        <v>547</v>
       </c>
       <c r="J98" s="3">
-        <v>96.56</v>
+        <v>76.36</v>
       </c>
       <c r="K98" s="3">
-        <v>96.56</v>
+        <v>76.36</v>
       </c>
       <c r="L98" t="s">
         <v>17</v>
       </c>
       <c r="M98" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>211112198</v>
+        <v>211112291</v>
       </c>
       <c r="B99" t="s">
         <v>49</v>
       </c>
       <c r="C99" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="D99" t="s">
-        <v>15</v>
-      </c>
-      <c r="E99">
-        <v>10217</v>
+        <v>32</v>
+      </c>
+      <c r="E99" t="s">
+        <v>52</v>
       </c>
       <c r="F99" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="G99" s="1">
-        <v>45875.486840277779</v>
+        <v>45331</v>
       </c>
       <c r="H99" s="1">
-        <v>45845.486840277779</v>
+        <v>45331</v>
       </c>
       <c r="I99" s="2">
-        <v>-6</v>
+        <v>540</v>
       </c>
       <c r="J99" s="3">
-        <v>187.19</v>
+        <v>209.18</v>
       </c>
       <c r="K99" s="3">
-        <v>187.19</v>
+        <v>209.18</v>
       </c>
       <c r="L99" t="s">
         <v>17</v>
       </c>
       <c r="M99" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>211112198</v>
+        <v>211112291</v>
       </c>
       <c r="B100" t="s">
         <v>49</v>
       </c>
       <c r="C100" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="D100" t="s">
-        <v>15</v>
-      </c>
-      <c r="E100">
-        <v>11107</v>
+        <v>32</v>
+      </c>
+      <c r="E100" t="s">
+        <v>53</v>
       </c>
       <c r="F100" t="s">
         <v>16</v>
       </c>
       <c r="G100" s="1">
-        <v>45896.52820601852</v>
+        <v>45366</v>
       </c>
       <c r="H100" s="1">
-        <v>45866.52820601852</v>
+        <v>45366</v>
       </c>
       <c r="I100" s="2">
-        <v>-27</v>
+        <v>505</v>
       </c>
       <c r="J100" s="3">
-        <v>587.35</v>
+        <v>872.94</v>
       </c>
       <c r="K100" s="3">
-        <v>60.03</v>
+        <v>872.94</v>
       </c>
       <c r="L100" t="s">
         <v>17</v>
       </c>
       <c r="M100" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>211112291</v>
       </c>
       <c r="B101" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C101" t="s">
+        <v>35</v>
+      </c>
+      <c r="D101" t="s">
+        <v>32</v>
+      </c>
+      <c r="E101" t="s">
+        <v>54</v>
+      </c>
+      <c r="F101" t="s">
+        <v>16</v>
+      </c>
+      <c r="G101" s="1">
+        <v>45390</v>
+      </c>
+      <c r="H101" s="1">
+        <v>45390</v>
+      </c>
+      <c r="I101" s="2">
+        <v>481</v>
+      </c>
+      <c r="J101" s="3">
+        <v>261.22000000000003</v>
+      </c>
+      <c r="K101" s="3">
+        <v>261.22000000000003</v>
+      </c>
+      <c r="L101" t="s">
+        <v>17</v>
+      </c>
+      <c r="M101" t="s">
         <v>36</v>
       </c>
-      <c r="D101" t="s">
-        <v>33</v>
-      </c>
-      <c r="E101" t="s">
-        <v>51</v>
-      </c>
-      <c r="F101" t="s">
-        <v>16</v>
-      </c>
-      <c r="G101" s="1">
-        <v>45324</v>
-      </c>
-      <c r="H101" s="1">
-        <v>45324</v>
-      </c>
-      <c r="I101" s="2">
-        <v>545</v>
-      </c>
-      <c r="J101" s="3">
-        <v>200.59</v>
-      </c>
-      <c r="K101" s="3">
-        <v>200.59</v>
-      </c>
-      <c r="L101" t="s">
-        <v>17</v>
-      </c>
-      <c r="M101" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>211112291</v>
       </c>
       <c r="B102" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C102" t="s">
+        <v>14</v>
+      </c>
+      <c r="D102" t="s">
+        <v>55</v>
+      </c>
+      <c r="E102">
+        <v>1957</v>
+      </c>
+      <c r="F102" t="s">
+        <v>16</v>
+      </c>
+      <c r="G102" s="1">
+        <v>45529.645949074074</v>
+      </c>
+      <c r="H102" s="1">
+        <v>45499.646979166668</v>
+      </c>
+      <c r="I102" s="2">
+        <v>341.35405092592555</v>
+      </c>
+      <c r="J102" s="3">
+        <v>68.7</v>
+      </c>
+      <c r="K102" s="3">
+        <v>68.7</v>
+      </c>
+      <c r="L102" t="s">
+        <v>17</v>
+      </c>
+      <c r="M102" t="s">
         <v>36</v>
       </c>
-      <c r="D102" t="s">
-        <v>33</v>
-      </c>
-      <c r="E102" t="s">
-        <v>52</v>
-      </c>
-      <c r="F102" t="s">
-        <v>16</v>
-      </c>
-      <c r="G102" s="1">
-        <v>45324</v>
-      </c>
-      <c r="H102" s="1">
-        <v>45324</v>
-      </c>
-      <c r="I102" s="2">
-        <v>545</v>
-      </c>
-      <c r="J102" s="3">
-        <v>76.36</v>
-      </c>
-      <c r="K102" s="3">
-        <v>76.36</v>
-      </c>
-      <c r="L102" t="s">
-        <v>17</v>
-      </c>
-      <c r="M102" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A103">
-        <v>211112291</v>
+        <v>211112314</v>
       </c>
       <c r="B103" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="C103" t="s">
-        <v>36</v>
-      </c>
-      <c r="D103" t="s">
-        <v>33</v>
-      </c>
-      <c r="E103" t="s">
-        <v>53</v>
+        <v>27</v>
+      </c>
+      <c r="D103">
+        <v>2025</v>
+      </c>
+      <c r="E103">
+        <v>345</v>
       </c>
       <c r="F103" t="s">
         <v>16</v>
       </c>
       <c r="G103" s="1">
-        <v>45331</v>
+        <v>45788</v>
       </c>
       <c r="H103" s="1">
-        <v>45331</v>
+        <v>45758</v>
       </c>
       <c r="I103" s="2">
-        <v>538</v>
+        <v>83</v>
       </c>
       <c r="J103" s="3">
-        <v>209.18</v>
+        <v>-16.809999999999999</v>
       </c>
       <c r="K103" s="3">
-        <v>209.18</v>
+        <v>-16.809999999999999</v>
       </c>
       <c r="L103" t="s">
         <v>17</v>
@@ -4841,299 +4838,299 @@
         <v>37</v>
       </c>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A104">
-        <v>211112291</v>
+        <v>211112314</v>
       </c>
       <c r="B104" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="C104" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="D104" t="s">
-        <v>33</v>
-      </c>
-      <c r="E104" t="s">
-        <v>54</v>
+        <v>15</v>
+      </c>
+      <c r="E104">
+        <v>8584</v>
       </c>
       <c r="F104" t="s">
         <v>16</v>
       </c>
       <c r="G104" s="1">
-        <v>45366</v>
+        <v>45836.412951388884</v>
       </c>
       <c r="H104" s="1">
-        <v>45366</v>
+        <v>45806.420115740737</v>
       </c>
       <c r="I104" s="2">
-        <v>503</v>
+        <v>34.587048611116188</v>
       </c>
       <c r="J104" s="3">
-        <v>872.94</v>
+        <v>417.92</v>
       </c>
       <c r="K104" s="3">
-        <v>872.94</v>
+        <v>417.92</v>
       </c>
       <c r="L104" t="s">
         <v>17</v>
       </c>
       <c r="M104" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A105">
-        <v>211112291</v>
+        <v>211112314</v>
       </c>
       <c r="B105" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="C105" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="D105" t="s">
-        <v>33</v>
-      </c>
-      <c r="E105" t="s">
-        <v>55</v>
+        <v>15</v>
+      </c>
+      <c r="E105">
+        <v>9310</v>
       </c>
       <c r="F105" t="s">
         <v>16</v>
       </c>
       <c r="G105" s="1">
-        <v>45390</v>
+        <v>45854.476550925923</v>
       </c>
       <c r="H105" s="1">
-        <v>45390</v>
+        <v>45824.477476851847</v>
       </c>
       <c r="I105" s="2">
-        <v>479</v>
+        <v>16.52344907407678</v>
       </c>
       <c r="J105" s="3">
-        <v>261.22000000000003</v>
+        <v>276.85000000000002</v>
       </c>
       <c r="K105" s="3">
-        <v>261.22000000000003</v>
+        <v>276.85000000000002</v>
       </c>
       <c r="L105" t="s">
         <v>17</v>
       </c>
       <c r="M105" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A106">
-        <v>211112291</v>
+        <v>211112314</v>
       </c>
       <c r="B106" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="C106" t="s">
         <v>14</v>
       </c>
       <c r="D106" t="s">
-        <v>56</v>
+        <v>15</v>
       </c>
       <c r="E106">
-        <v>1957</v>
+        <v>9605</v>
       </c>
       <c r="F106" t="s">
         <v>16</v>
       </c>
       <c r="G106" s="1">
-        <v>45529.645949074074</v>
+        <v>45861.477291666662</v>
       </c>
       <c r="H106" s="1">
-        <v>45499.646979166668</v>
+        <v>45831.482349537036</v>
       </c>
       <c r="I106" s="2">
-        <v>340</v>
+        <v>9.5227083333375049</v>
       </c>
       <c r="J106" s="3">
-        <v>68.7</v>
+        <v>179.56</v>
       </c>
       <c r="K106" s="3">
-        <v>68.7</v>
+        <v>179.56</v>
       </c>
       <c r="L106" t="s">
         <v>17</v>
       </c>
       <c r="M106" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>211112314</v>
       </c>
       <c r="B107" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C107" t="s">
-        <v>27</v>
-      </c>
-      <c r="D107">
-        <v>2025</v>
+        <v>14</v>
+      </c>
+      <c r="D107" t="s">
+        <v>15</v>
       </c>
       <c r="E107">
-        <v>345</v>
+        <v>9765</v>
       </c>
       <c r="F107" t="s">
         <v>16</v>
       </c>
       <c r="G107" s="1">
-        <v>45788</v>
+        <v>45864.431539351848</v>
       </c>
       <c r="H107" s="1">
-        <v>45758</v>
+        <v>45834.432766203703</v>
       </c>
       <c r="I107" s="2">
-        <v>81</v>
+        <v>6.5684606481518131</v>
       </c>
       <c r="J107" s="3">
-        <v>-16.809999999999999</v>
+        <v>124.9</v>
       </c>
       <c r="K107" s="3">
-        <v>-16.809999999999999</v>
+        <v>124.9</v>
       </c>
       <c r="L107" t="s">
         <v>17</v>
       </c>
       <c r="M107" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A108">
-        <v>211112314</v>
+        <v>211112327</v>
       </c>
       <c r="B108" t="s">
         <v>57</v>
       </c>
       <c r="C108" t="s">
-        <v>14</v>
-      </c>
-      <c r="D108" t="s">
-        <v>15</v>
+        <v>27</v>
+      </c>
+      <c r="D108">
+        <v>2025</v>
       </c>
       <c r="E108">
-        <v>8584</v>
+        <v>75</v>
       </c>
       <c r="F108" t="s">
         <v>16</v>
       </c>
       <c r="G108" s="1">
-        <v>45836.412951388884</v>
+        <v>45721</v>
       </c>
       <c r="H108" s="1">
-        <v>45806.420115740737</v>
+        <v>45691</v>
       </c>
       <c r="I108" s="2">
-        <v>33</v>
+        <v>150</v>
       </c>
       <c r="J108" s="3">
-        <v>417.92</v>
+        <v>-52.050000000000004</v>
       </c>
       <c r="K108" s="3">
-        <v>417.92</v>
+        <v>-52.050000000000004</v>
       </c>
       <c r="L108" t="s">
         <v>17</v>
       </c>
       <c r="M108" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A109">
-        <v>211112314</v>
+        <v>211112327</v>
       </c>
       <c r="B109" t="s">
         <v>57</v>
       </c>
       <c r="C109" t="s">
-        <v>14</v>
+        <v>58</v>
       </c>
       <c r="D109" t="s">
         <v>15</v>
       </c>
       <c r="E109">
-        <v>9310</v>
+        <v>4</v>
       </c>
       <c r="F109" t="s">
         <v>16</v>
       </c>
       <c r="G109" s="1">
-        <v>45854.476550925923</v>
+        <v>45723</v>
       </c>
       <c r="H109" s="1">
-        <v>45824.477476851847</v>
+        <v>45693</v>
       </c>
       <c r="I109" s="2">
-        <v>15</v>
+        <v>148</v>
       </c>
       <c r="J109" s="3">
-        <v>276.85000000000002</v>
+        <v>-26.51</v>
       </c>
       <c r="K109" s="3">
-        <v>276.85000000000002</v>
+        <v>-26.51</v>
       </c>
       <c r="L109" t="s">
         <v>17</v>
       </c>
       <c r="M109" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A110">
-        <v>211112314</v>
+        <v>211112401</v>
       </c>
       <c r="B110" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C110" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="D110" t="s">
-        <v>15</v>
-      </c>
-      <c r="E110">
-        <v>9605</v>
+        <v>32</v>
+      </c>
+      <c r="E110" t="s">
+        <v>33</v>
       </c>
       <c r="F110" t="s">
         <v>16</v>
       </c>
       <c r="G110" s="1">
-        <v>45861.477291666662</v>
+        <v>45755</v>
       </c>
       <c r="H110" s="1">
-        <v>45831.482349537036</v>
+        <v>45740</v>
       </c>
       <c r="I110" s="2">
-        <v>8</v>
+        <v>116</v>
       </c>
       <c r="J110" s="3">
-        <v>179.56</v>
+        <v>-489.09000000000003</v>
       </c>
       <c r="K110" s="3">
-        <v>179.56</v>
+        <v>-109.25</v>
       </c>
       <c r="L110" t="s">
         <v>17</v>
       </c>
       <c r="M110" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A111">
-        <v>211112314</v>
+        <v>211112477</v>
       </c>
       <c r="B111" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C111" t="s">
         <v>14</v>
@@ -5142,107 +5139,107 @@
         <v>15</v>
       </c>
       <c r="E111">
-        <v>9765</v>
+        <v>10892</v>
       </c>
       <c r="F111" t="s">
         <v>16</v>
       </c>
       <c r="G111" s="1">
-        <v>45864.431539351848</v>
+        <v>45906.412418981483</v>
       </c>
       <c r="H111" s="1">
-        <v>45834.432766203703</v>
+        <v>45861.413124999999</v>
       </c>
       <c r="I111" s="2">
-        <v>5</v>
+        <v>-35.412418981482915</v>
       </c>
       <c r="J111" s="3">
-        <v>124.9</v>
+        <v>89.64</v>
       </c>
       <c r="K111" s="3">
-        <v>124.9</v>
+        <v>89.64</v>
       </c>
       <c r="L111" t="s">
         <v>17</v>
       </c>
       <c r="M111" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>211112477</v>
+      </c>
+      <c r="B112" t="s">
+        <v>60</v>
+      </c>
+      <c r="C112" t="s">
+        <v>14</v>
+      </c>
+      <c r="D112" t="s">
+        <v>15</v>
+      </c>
+      <c r="E112">
+        <v>11350</v>
+      </c>
+      <c r="F112" t="s">
+        <v>16</v>
+      </c>
+      <c r="G112" s="1">
+        <v>45915.566817129627</v>
+      </c>
+      <c r="H112" s="1">
+        <v>45870.566817129627</v>
+      </c>
+      <c r="I112" s="2">
+        <v>-44.566817129627452</v>
+      </c>
+      <c r="J112" s="3">
+        <v>113.84</v>
+      </c>
+      <c r="K112" s="3">
+        <v>113.84</v>
+      </c>
+      <c r="L112" t="s">
+        <v>17</v>
+      </c>
+      <c r="M112" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>211112505</v>
+      </c>
+      <c r="B113" t="s">
+        <v>61</v>
+      </c>
+      <c r="C113" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A112">
-        <v>211112327</v>
-      </c>
-      <c r="B112" t="s">
-        <v>58</v>
-      </c>
-      <c r="C112" t="s">
-        <v>27</v>
-      </c>
-      <c r="D112">
-        <v>2025</v>
-      </c>
-      <c r="E112">
-        <v>75</v>
-      </c>
-      <c r="F112" t="s">
-        <v>16</v>
-      </c>
-      <c r="G112" s="1">
-        <v>45721</v>
-      </c>
-      <c r="H112" s="1">
-        <v>45691</v>
-      </c>
-      <c r="I112" s="2">
-        <v>148</v>
-      </c>
-      <c r="J112" s="3">
-        <v>-52.050000000000004</v>
-      </c>
-      <c r="K112" s="3">
-        <v>-52.050000000000004</v>
-      </c>
-      <c r="L112" t="s">
-        <v>17</v>
-      </c>
-      <c r="M112" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A113">
-        <v>211112327</v>
-      </c>
-      <c r="B113" t="s">
-        <v>58</v>
-      </c>
-      <c r="C113" t="s">
-        <v>59</v>
-      </c>
       <c r="D113" t="s">
-        <v>15</v>
-      </c>
-      <c r="E113">
-        <v>4</v>
+        <v>32</v>
+      </c>
+      <c r="E113" t="s">
+        <v>33</v>
       </c>
       <c r="F113" t="s">
         <v>16</v>
       </c>
       <c r="G113" s="1">
-        <v>45723</v>
+        <v>45803</v>
       </c>
       <c r="H113" s="1">
-        <v>45693</v>
+        <v>45803</v>
       </c>
       <c r="I113" s="2">
-        <v>146</v>
+        <v>68</v>
       </c>
       <c r="J113" s="3">
-        <v>-26.51</v>
+        <v>-350</v>
       </c>
       <c r="K113" s="3">
-        <v>-26.51</v>
+        <v>-0.24</v>
       </c>
       <c r="L113" t="s">
         <v>17</v>
@@ -5251,414 +5248,45 @@
         <v>37</v>
       </c>
     </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A114">
-        <v>211112401</v>
+        <v>211112523</v>
       </c>
       <c r="B114" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C114" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="D114" t="s">
-        <v>33</v>
-      </c>
-      <c r="E114" t="s">
-        <v>34</v>
+        <v>15</v>
+      </c>
+      <c r="E114">
+        <v>7843</v>
       </c>
       <c r="F114" t="s">
         <v>16</v>
       </c>
       <c r="G114" s="1">
-        <v>45755</v>
+        <v>45792.648773148147</v>
       </c>
       <c r="H114" s="1">
-        <v>45740</v>
+        <v>45792.648773148147</v>
       </c>
       <c r="I114" s="2">
-        <v>114</v>
+        <v>78.351226851853426</v>
       </c>
       <c r="J114" s="3">
-        <v>-489.09000000000003</v>
+        <v>481.94</v>
       </c>
       <c r="K114" s="3">
-        <v>-109.25</v>
+        <v>481.94</v>
       </c>
       <c r="L114" t="s">
         <v>17</v>
       </c>
       <c r="M114" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A115">
-        <v>211112477</v>
-      </c>
-      <c r="B115" t="s">
-        <v>61</v>
-      </c>
-      <c r="C115" t="s">
-        <v>14</v>
-      </c>
-      <c r="D115" t="s">
-        <v>15</v>
-      </c>
-      <c r="E115">
-        <v>8741</v>
-      </c>
-      <c r="F115" t="s">
-        <v>16</v>
-      </c>
-      <c r="G115" s="1">
-        <v>45855.442604166667</v>
-      </c>
-      <c r="H115" s="1">
-        <v>45810.442766203705</v>
-      </c>
-      <c r="I115" s="2">
-        <v>14</v>
-      </c>
-      <c r="J115" s="3">
-        <v>107.15</v>
-      </c>
-      <c r="K115" s="3">
-        <v>107.15</v>
-      </c>
-      <c r="L115" t="s">
-        <v>17</v>
-      </c>
-      <c r="M115" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A116">
-        <v>211112477</v>
-      </c>
-      <c r="B116" t="s">
-        <v>61</v>
-      </c>
-      <c r="C116" t="s">
-        <v>27</v>
-      </c>
-      <c r="D116">
-        <v>2025</v>
-      </c>
-      <c r="E116">
-        <v>527</v>
-      </c>
-      <c r="F116" t="s">
-        <v>16</v>
-      </c>
-      <c r="G116" s="1">
-        <v>45856</v>
-      </c>
-      <c r="H116" s="1">
-        <v>45811</v>
-      </c>
-      <c r="I116" s="2">
-        <v>13</v>
-      </c>
-      <c r="J116" s="3">
-        <v>-25.46</v>
-      </c>
-      <c r="K116" s="3">
-        <v>-25.46</v>
-      </c>
-      <c r="L116" t="s">
-        <v>17</v>
-      </c>
-      <c r="M116" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A117">
-        <v>211112477</v>
-      </c>
-      <c r="B117" t="s">
-        <v>61</v>
-      </c>
-      <c r="C117" t="s">
-        <v>14</v>
-      </c>
-      <c r="D117" t="s">
-        <v>15</v>
-      </c>
-      <c r="E117">
-        <v>9013</v>
-      </c>
-      <c r="F117" t="s">
-        <v>16</v>
-      </c>
-      <c r="G117" s="1">
-        <v>45862.47657407407</v>
-      </c>
-      <c r="H117" s="1">
-        <v>45817.476712962962</v>
-      </c>
-      <c r="I117" s="2">
-        <v>7</v>
-      </c>
-      <c r="J117" s="3">
-        <v>106.99000000000001</v>
-      </c>
-      <c r="K117" s="3">
-        <v>106.99000000000001</v>
-      </c>
-      <c r="L117" t="s">
-        <v>17</v>
-      </c>
-      <c r="M117" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A118">
-        <v>211112477</v>
-      </c>
-      <c r="B118" t="s">
-        <v>61</v>
-      </c>
-      <c r="C118" t="s">
-        <v>14</v>
-      </c>
-      <c r="D118" t="s">
-        <v>15</v>
-      </c>
-      <c r="E118">
-        <v>9587</v>
-      </c>
-      <c r="F118" t="s">
-        <v>16</v>
-      </c>
-      <c r="G118" s="1">
-        <v>45876.433703703704</v>
-      </c>
-      <c r="H118" s="1">
-        <v>45831.43509259259</v>
-      </c>
-      <c r="I118" s="2">
-        <v>-7</v>
-      </c>
-      <c r="J118" s="3">
-        <v>140.44</v>
-      </c>
-      <c r="K118" s="3">
-        <v>140.44</v>
-      </c>
-      <c r="L118" t="s">
-        <v>17</v>
-      </c>
-      <c r="M118" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A119">
-        <v>211112477</v>
-      </c>
-      <c r="B119" t="s">
-        <v>61</v>
-      </c>
-      <c r="C119" t="s">
-        <v>14</v>
-      </c>
-      <c r="D119" t="s">
-        <v>15</v>
-      </c>
-      <c r="E119">
-        <v>10202</v>
-      </c>
-      <c r="F119" t="s">
-        <v>16</v>
-      </c>
-      <c r="G119" s="1">
-        <v>45890.468854166662</v>
-      </c>
-      <c r="H119" s="1">
-        <v>45845.468854166662</v>
-      </c>
-      <c r="I119" s="2">
-        <v>-21</v>
-      </c>
-      <c r="J119" s="3">
-        <v>88.87</v>
-      </c>
-      <c r="K119" s="3">
-        <v>88.87</v>
-      </c>
-      <c r="L119" t="s">
-        <v>17</v>
-      </c>
-      <c r="M119" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A120">
-        <v>211112477</v>
-      </c>
-      <c r="B120" t="s">
-        <v>61</v>
-      </c>
-      <c r="C120" t="s">
-        <v>14</v>
-      </c>
-      <c r="D120" t="s">
-        <v>15</v>
-      </c>
-      <c r="E120">
-        <v>10634</v>
-      </c>
-      <c r="F120" t="s">
-        <v>16</v>
-      </c>
-      <c r="G120" s="1">
-        <v>45899.469050925924</v>
-      </c>
-      <c r="H120" s="1">
-        <v>45854.469050925924</v>
-      </c>
-      <c r="I120" s="2">
-        <v>-30</v>
-      </c>
-      <c r="J120" s="3">
-        <v>84.22</v>
-      </c>
-      <c r="K120" s="3">
-        <v>84.22</v>
-      </c>
-      <c r="L120" t="s">
-        <v>17</v>
-      </c>
-      <c r="M120" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A121">
-        <v>211112477</v>
-      </c>
-      <c r="B121" t="s">
-        <v>61</v>
-      </c>
-      <c r="C121" t="s">
-        <v>14</v>
-      </c>
-      <c r="D121" t="s">
-        <v>15</v>
-      </c>
-      <c r="E121">
-        <v>10892</v>
-      </c>
-      <c r="F121" t="s">
-        <v>16</v>
-      </c>
-      <c r="G121" s="1">
-        <v>45906.412418981483</v>
-      </c>
-      <c r="H121" s="1">
-        <v>45861.413124999999</v>
-      </c>
-      <c r="I121" s="2">
-        <v>-37</v>
-      </c>
-      <c r="J121" s="3">
-        <v>89.64</v>
-      </c>
-      <c r="K121" s="3">
-        <v>89.64</v>
-      </c>
-      <c r="L121" t="s">
-        <v>17</v>
-      </c>
-      <c r="M121" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A122">
-        <v>211112505</v>
-      </c>
-      <c r="B122" t="s">
-        <v>62</v>
-      </c>
-      <c r="C122" t="s">
-        <v>32</v>
-      </c>
-      <c r="D122" t="s">
-        <v>33</v>
-      </c>
-      <c r="E122" t="s">
-        <v>34</v>
-      </c>
-      <c r="F122" t="s">
-        <v>16</v>
-      </c>
-      <c r="G122" s="1">
-        <v>45803</v>
-      </c>
-      <c r="H122" s="1">
-        <v>45803</v>
-      </c>
-      <c r="I122" s="2">
-        <v>66</v>
-      </c>
-      <c r="J122" s="3">
-        <v>-350</v>
-      </c>
-      <c r="K122" s="3">
-        <v>-0.24</v>
-      </c>
-      <c r="L122" t="s">
-        <v>17</v>
-      </c>
-      <c r="M122" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A123">
-        <v>211112523</v>
-      </c>
-      <c r="B123" t="s">
-        <v>63</v>
-      </c>
-      <c r="C123" t="s">
-        <v>14</v>
-      </c>
-      <c r="D123" t="s">
-        <v>15</v>
-      </c>
-      <c r="E123">
-        <v>7843</v>
-      </c>
-      <c r="F123" t="s">
-        <v>16</v>
-      </c>
-      <c r="G123" s="1">
-        <v>45792.648773148147</v>
-      </c>
-      <c r="H123" s="1">
-        <v>45792.648773148147</v>
-      </c>
-      <c r="I123" s="2">
-        <v>77</v>
-      </c>
-      <c r="J123" s="3">
-        <v>481.94</v>
-      </c>
-      <c r="K123" s="3">
-        <v>481.94</v>
-      </c>
-      <c r="L123" t="s">
-        <v>17</v>
-      </c>
-      <c r="M123" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/RSilva.xlsx
+++ b/RSilva.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Paulo\Desktop\AnaliseDebitos\Comerciais\Comercias_streamlit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DA3C408-9CF4-4363-8F9A-589BD0356D7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4F7C17E-B67C-4BB7-A4A3-E724D83CDA4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{625309C2-95EA-4B09-BB51-191061F91C1F}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="690" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="701" uniqueCount="66">
   <si>
     <t>Tipo Conta</t>
   </si>
@@ -140,9 +140,6 @@
     <t>Transferência</t>
   </si>
   <si>
-    <t>91A120</t>
-  </si>
-  <si>
     <t>FAC</t>
   </si>
   <si>
@@ -228,6 +225,15 @@
   </si>
   <si>
     <t>Dupla Famosa - Unipessoal,Lda</t>
+  </si>
+  <si>
+    <t>1A5</t>
+  </si>
+  <si>
+    <t>Aparencia Harmoniosa, Lda.</t>
+  </si>
+  <si>
+    <t>Nuno Gonçalves Pereira</t>
   </si>
 </sst>
 </file>
@@ -602,10 +608,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD349965-A8B5-4EE0-821C-041F97E8ED57}">
-  <dimension ref="A1:M114"/>
+  <dimension ref="A1:M116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:M114"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:M116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -682,7 +688,7 @@
         <v>45846.542997685181</v>
       </c>
       <c r="I2" s="2">
-        <v>-5.5427430555500905</v>
+        <v>1</v>
       </c>
       <c r="J2" s="3">
         <v>342.38</v>
@@ -694,7 +700,7 @@
         <v>17</v>
       </c>
       <c r="M2" t="s">
-        <v>18</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -723,7 +729,7 @@
         <v>45834.507268518515</v>
       </c>
       <c r="I3" s="2">
-        <v>6.4931018518545898</v>
+        <v>13</v>
       </c>
       <c r="J3" s="3">
         <v>100.2</v>
@@ -764,7 +770,7 @@
         <v>45855.560266203705</v>
       </c>
       <c r="I4" s="2">
-        <v>-14.559814814812853</v>
+        <v>-8</v>
       </c>
       <c r="J4" s="3">
         <v>63.9</v>
@@ -805,7 +811,7 @@
         <v>45855.554108796292</v>
       </c>
       <c r="I5" s="2">
-        <v>-14.552534722221026</v>
+        <v>-8</v>
       </c>
       <c r="J5" s="3">
         <v>195.99</v>
@@ -846,7 +852,7 @@
         <v>45863.454097222224</v>
       </c>
       <c r="I6" s="2">
-        <v>-22.454085648147156</v>
+        <v>-16</v>
       </c>
       <c r="J6" s="3">
         <v>145.12</v>
@@ -863,10 +869,10 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>211110629</v>
+        <v>211110545</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C7" t="s">
         <v>14</v>
@@ -875,25 +881,25 @@
         <v>15</v>
       </c>
       <c r="E7">
-        <v>10639</v>
+        <v>11416</v>
       </c>
       <c r="F7" t="s">
         <v>16</v>
       </c>
       <c r="G7" s="1">
-        <v>45884.469178240739</v>
+        <v>45903.635324074072</v>
       </c>
       <c r="H7" s="1">
-        <v>45854.469178240739</v>
+        <v>45873.635324074072</v>
       </c>
       <c r="I7" s="2">
-        <v>-13.469178240738984</v>
+        <v>-26</v>
       </c>
       <c r="J7" s="3">
-        <v>120.76</v>
+        <v>277.5</v>
       </c>
       <c r="K7" s="3">
-        <v>120.76</v>
+        <v>277.5</v>
       </c>
       <c r="L7" t="s">
         <v>17</v>
@@ -916,25 +922,25 @@
         <v>15</v>
       </c>
       <c r="E8">
-        <v>11236</v>
+        <v>10639</v>
       </c>
       <c r="F8" t="s">
         <v>16</v>
       </c>
       <c r="G8" s="1">
-        <v>45898.501041666663</v>
+        <v>45884.469178240739</v>
       </c>
       <c r="H8" s="1">
-        <v>45868.501041666663</v>
+        <v>45854.469178240739</v>
       </c>
       <c r="I8" s="2">
-        <v>-27.501041666662786</v>
+        <v>-7</v>
       </c>
       <c r="J8" s="3">
-        <v>164.08</v>
+        <v>120.76</v>
       </c>
       <c r="K8" s="3">
-        <v>164.08</v>
+        <v>120.76</v>
       </c>
       <c r="L8" t="s">
         <v>17</v>
@@ -945,10 +951,10 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>211111219</v>
+        <v>211110629</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C9" t="s">
         <v>14</v>
@@ -957,25 +963,25 @@
         <v>15</v>
       </c>
       <c r="E9">
-        <v>10289</v>
+        <v>11236</v>
       </c>
       <c r="F9" t="s">
         <v>16</v>
       </c>
       <c r="G9" s="1">
-        <v>45876.546064814815</v>
+        <v>45898.501041666663</v>
       </c>
       <c r="H9" s="1">
-        <v>45846.5465162037</v>
+        <v>45868.501041666663</v>
       </c>
       <c r="I9" s="2">
-        <v>-5.5460648148145992</v>
+        <v>-21</v>
       </c>
       <c r="J9" s="3">
-        <v>157.82</v>
+        <v>164.08</v>
       </c>
       <c r="K9" s="3">
-        <v>157.82</v>
+        <v>164.08</v>
       </c>
       <c r="L9" t="s">
         <v>17</v>
@@ -998,39 +1004,39 @@
         <v>15</v>
       </c>
       <c r="E10">
-        <v>10721</v>
+        <v>10289</v>
       </c>
       <c r="F10" t="s">
         <v>16</v>
       </c>
       <c r="G10" s="1">
-        <v>45885.593645833331</v>
+        <v>45876.546064814815</v>
       </c>
       <c r="H10" s="1">
-        <v>45855.593657407408</v>
+        <v>45846.5465162037</v>
       </c>
       <c r="I10" s="2">
-        <v>-14.593645833330811</v>
+        <v>1</v>
       </c>
       <c r="J10" s="3">
-        <v>177.07</v>
+        <v>157.82</v>
       </c>
       <c r="K10" s="3">
-        <v>177.07</v>
+        <v>157.82</v>
       </c>
       <c r="L10" t="s">
         <v>17</v>
       </c>
       <c r="M10" t="s">
-        <v>18</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>211111233</v>
+        <v>211111219</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C11" t="s">
         <v>14</v>
@@ -1039,25 +1045,25 @@
         <v>15</v>
       </c>
       <c r="E11">
-        <v>10893</v>
+        <v>10721</v>
       </c>
       <c r="F11" t="s">
         <v>16</v>
       </c>
       <c r="G11" s="1">
-        <v>45906.413287037038</v>
+        <v>45885.593645833331</v>
       </c>
       <c r="H11" s="1">
-        <v>45861.413842592592</v>
+        <v>45855.593657407408</v>
       </c>
       <c r="I11" s="2">
-        <v>-35.413287037037662</v>
+        <v>-8</v>
       </c>
       <c r="J11" s="3">
-        <v>88.14</v>
+        <v>177.07</v>
       </c>
       <c r="K11" s="3">
-        <v>88.14</v>
+        <v>177.07</v>
       </c>
       <c r="L11" t="s">
         <v>17</v>
@@ -1080,25 +1086,25 @@
         <v>15</v>
       </c>
       <c r="E12">
-        <v>11354</v>
+        <v>10893</v>
       </c>
       <c r="F12" t="s">
         <v>16</v>
       </c>
       <c r="G12" s="1">
-        <v>45915.566932870366</v>
+        <v>45906.413287037038</v>
       </c>
       <c r="H12" s="1">
-        <v>45870.566944444443</v>
+        <v>45861.413842592592</v>
       </c>
       <c r="I12" s="2">
-        <v>-44.566932870366145</v>
+        <v>-29</v>
       </c>
       <c r="J12" s="3">
-        <v>115.95</v>
+        <v>88.14</v>
       </c>
       <c r="K12" s="3">
-        <v>115.95</v>
+        <v>88.14</v>
       </c>
       <c r="L12" t="s">
         <v>17</v>
@@ -1109,10 +1115,10 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>211111423</v>
+        <v>211111233</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C13" t="s">
         <v>14</v>
@@ -1121,31 +1127,31 @@
         <v>15</v>
       </c>
       <c r="E13">
-        <v>9665</v>
+        <v>11354</v>
       </c>
       <c r="F13" t="s">
         <v>16</v>
       </c>
       <c r="G13" s="1">
-        <v>45863.415358796294</v>
+        <v>45915.566932870366</v>
       </c>
       <c r="H13" s="1">
-        <v>45833.41673611111</v>
+        <v>45870.566944444443</v>
       </c>
       <c r="I13" s="2">
-        <v>7.5846412037062692</v>
+        <v>-38</v>
       </c>
       <c r="J13" s="3">
-        <v>250.58</v>
+        <v>115.95</v>
       </c>
       <c r="K13" s="3">
-        <v>250.58</v>
+        <v>115.95</v>
       </c>
       <c r="L13" t="s">
         <v>17</v>
       </c>
       <c r="M13" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
@@ -1162,80 +1168,80 @@
         <v>15</v>
       </c>
       <c r="E14">
-        <v>9666</v>
+        <v>11404</v>
       </c>
       <c r="F14" t="s">
         <v>16</v>
       </c>
       <c r="G14" s="1">
-        <v>45863.41988425926</v>
+        <v>45903.565601851849</v>
       </c>
       <c r="H14" s="1">
-        <v>45833.420914351853</v>
+        <v>45873.565613425926</v>
       </c>
       <c r="I14" s="2">
-        <v>7.5801157407404389</v>
+        <v>-26</v>
       </c>
       <c r="J14" s="3">
-        <v>244.15</v>
+        <v>292.47000000000003</v>
       </c>
       <c r="K14" s="3">
-        <v>244.15</v>
+        <v>292.47000000000003</v>
       </c>
       <c r="L14" t="s">
         <v>17</v>
       </c>
       <c r="M14" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>211111423</v>
+        <v>211111556</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>14</v>
-      </c>
-      <c r="D15" t="s">
-        <v>15</v>
+        <v>27</v>
+      </c>
+      <c r="D15">
+        <v>2025</v>
       </c>
       <c r="E15">
-        <v>10062</v>
+        <v>438</v>
       </c>
       <c r="F15" t="s">
         <v>16</v>
       </c>
       <c r="G15" s="1">
-        <v>45871.521851851852</v>
+        <v>45816</v>
       </c>
       <c r="H15" s="1">
-        <v>45841.521851851852</v>
+        <v>45786</v>
       </c>
       <c r="I15" s="2">
-        <v>-0.52185185185226146</v>
+        <v>61</v>
       </c>
       <c r="J15" s="3">
-        <v>405.40000000000003</v>
+        <v>-54.99</v>
       </c>
       <c r="K15" s="3">
-        <v>405.40000000000003</v>
+        <v>-54.99</v>
       </c>
       <c r="L15" t="s">
         <v>17</v>
       </c>
       <c r="M15" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>211111423</v>
+        <v>211111556</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
         <v>14</v>
@@ -1244,66 +1250,66 @@
         <v>15</v>
       </c>
       <c r="E16">
-        <v>10416</v>
+        <v>10029</v>
       </c>
       <c r="F16" t="s">
         <v>16</v>
       </c>
       <c r="G16" s="1">
-        <v>45878.429571759254</v>
+        <v>45871.468414351853</v>
       </c>
       <c r="H16" s="1">
-        <v>45848.429571759254</v>
+        <v>45841.468414351853</v>
       </c>
       <c r="I16" s="2">
-        <v>-7.4295717592540313</v>
+        <v>6</v>
       </c>
       <c r="J16" s="3">
-        <v>341.65000000000003</v>
+        <v>328.56</v>
       </c>
       <c r="K16" s="3">
-        <v>341.65000000000003</v>
+        <v>328.56</v>
       </c>
       <c r="L16" t="s">
         <v>17</v>
       </c>
       <c r="M16" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>211111423</v>
+        <v>211111556</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>14</v>
-      </c>
-      <c r="D17" t="s">
-        <v>15</v>
+        <v>27</v>
+      </c>
+      <c r="D17">
+        <v>2025</v>
       </c>
       <c r="E17">
-        <v>10706</v>
+        <v>701</v>
       </c>
       <c r="F17" t="s">
         <v>16</v>
       </c>
       <c r="G17" s="1">
-        <v>45885.500763888886</v>
+        <v>45896</v>
       </c>
       <c r="H17" s="1">
-        <v>45855.500775462962</v>
+        <v>45866</v>
       </c>
       <c r="I17" s="2">
-        <v>-14.500763888885558</v>
+        <v>-19</v>
       </c>
       <c r="J17" s="3">
-        <v>398.29</v>
+        <v>-26.240000000000002</v>
       </c>
       <c r="K17" s="3">
-        <v>398.29</v>
+        <v>-26.240000000000002</v>
       </c>
       <c r="L17" t="s">
         <v>17</v>
@@ -1314,37 +1320,37 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>211111423</v>
+        <v>211111556</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C18" t="s">
-        <v>27</v>
-      </c>
-      <c r="D18">
-        <v>2025</v>
+        <v>14</v>
+      </c>
+      <c r="D18" t="s">
+        <v>15</v>
       </c>
       <c r="E18">
-        <v>680</v>
+        <v>11112</v>
       </c>
       <c r="F18" t="s">
         <v>16</v>
       </c>
       <c r="G18" s="1">
-        <v>45892</v>
+        <v>45896.528356481482</v>
       </c>
       <c r="H18" s="1">
-        <v>45862</v>
+        <v>45866.528368055551</v>
       </c>
       <c r="I18" s="2">
-        <v>-21</v>
+        <v>-19</v>
       </c>
       <c r="J18" s="3">
-        <v>-254.65</v>
+        <v>471.41</v>
       </c>
       <c r="K18" s="3">
-        <v>-254.65</v>
+        <v>471.41</v>
       </c>
       <c r="L18" t="s">
         <v>17</v>
@@ -1355,37 +1361,37 @@
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>211111423</v>
+        <v>211111559</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
+        <v>62</v>
       </c>
       <c r="C19" t="s">
-        <v>14</v>
-      </c>
-      <c r="D19" t="s">
-        <v>15</v>
+        <v>27</v>
+      </c>
+      <c r="D19">
+        <v>2025</v>
       </c>
       <c r="E19">
-        <v>10994</v>
+        <v>703</v>
       </c>
       <c r="F19" t="s">
         <v>16</v>
       </c>
       <c r="G19" s="1">
-        <v>45892.493622685186</v>
+        <v>45896</v>
       </c>
       <c r="H19" s="1">
-        <v>45862.493622685186</v>
+        <v>45866</v>
       </c>
       <c r="I19" s="2">
-        <v>-21.493622685185983</v>
+        <v>-19</v>
       </c>
       <c r="J19" s="3">
-        <v>631.11</v>
+        <v>-2.41</v>
       </c>
       <c r="K19" s="3">
-        <v>631.11</v>
+        <v>-2.41</v>
       </c>
       <c r="L19" t="s">
         <v>17</v>
@@ -1396,10 +1402,10 @@
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>211111423</v>
+        <v>211111559</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>62</v>
       </c>
       <c r="C20" t="s">
         <v>14</v>
@@ -1408,25 +1414,25 @@
         <v>15</v>
       </c>
       <c r="E20">
-        <v>11111</v>
+        <v>11105</v>
       </c>
       <c r="F20" t="s">
         <v>16</v>
       </c>
       <c r="G20" s="1">
-        <v>45896.528333333328</v>
+        <v>45896.528148148143</v>
       </c>
       <c r="H20" s="1">
-        <v>45866.528333333328</v>
+        <v>45866.528148148143</v>
       </c>
       <c r="I20" s="2">
-        <v>-25.528333333328192</v>
+        <v>-19</v>
       </c>
       <c r="J20" s="3">
-        <v>386.63</v>
+        <v>673.51</v>
       </c>
       <c r="K20" s="3">
-        <v>386.63</v>
+        <v>673.51</v>
       </c>
       <c r="L20" t="s">
         <v>17</v>
@@ -1437,10 +1443,10 @@
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>211111423</v>
+        <v>211111559</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>62</v>
       </c>
       <c r="C21" t="s">
         <v>14</v>
@@ -1449,25 +1455,25 @@
         <v>15</v>
       </c>
       <c r="E21">
-        <v>11284</v>
+        <v>11408</v>
       </c>
       <c r="F21" t="s">
         <v>16</v>
       </c>
       <c r="G21" s="1">
-        <v>45899.501481481479</v>
+        <v>45903.568749999999</v>
       </c>
       <c r="H21" s="1">
-        <v>45869.501481481479</v>
+        <v>45873.568761574075</v>
       </c>
       <c r="I21" s="2">
-        <v>-28.50148148147855</v>
+        <v>-26</v>
       </c>
       <c r="J21" s="3">
-        <v>319.64</v>
+        <v>684.17</v>
       </c>
       <c r="K21" s="3">
-        <v>319.64</v>
+        <v>684.17</v>
       </c>
       <c r="L21" t="s">
         <v>17</v>
@@ -1478,37 +1484,37 @@
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>211111556</v>
+        <v>211111567</v>
       </c>
       <c r="B22" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C22" t="s">
-        <v>27</v>
-      </c>
-      <c r="D22">
-        <v>2025</v>
+        <v>14</v>
+      </c>
+      <c r="D22" t="s">
+        <v>15</v>
       </c>
       <c r="E22">
-        <v>438</v>
+        <v>8732</v>
       </c>
       <c r="F22" t="s">
         <v>16</v>
       </c>
       <c r="G22" s="1">
-        <v>45816</v>
+        <v>45840.431840277779</v>
       </c>
       <c r="H22" s="1">
-        <v>45786</v>
+        <v>45810.431990740741</v>
       </c>
       <c r="I22" s="2">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="J22" s="3">
-        <v>-54.99</v>
+        <v>186.96</v>
       </c>
       <c r="K22" s="3">
-        <v>-54.99</v>
+        <v>186.96</v>
       </c>
       <c r="L22" t="s">
         <v>17</v>
@@ -1519,10 +1525,10 @@
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>211111556</v>
+        <v>211111567</v>
       </c>
       <c r="B23" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C23" t="s">
         <v>14</v>
@@ -1531,39 +1537,39 @@
         <v>15</v>
       </c>
       <c r="E23">
-        <v>10029</v>
+        <v>8931</v>
       </c>
       <c r="F23" t="s">
         <v>16</v>
       </c>
       <c r="G23" s="1">
-        <v>45871.468414351853</v>
+        <v>45843.55400462963</v>
       </c>
       <c r="H23" s="1">
-        <v>45841.468414351853</v>
+        <v>45813.554432870369</v>
       </c>
       <c r="I23" s="2">
-        <v>-0.46841435185342561</v>
+        <v>34</v>
       </c>
       <c r="J23" s="3">
-        <v>328.56</v>
+        <v>161.62</v>
       </c>
       <c r="K23" s="3">
-        <v>328.56</v>
+        <v>161.62</v>
       </c>
       <c r="L23" t="s">
         <v>17</v>
       </c>
       <c r="M23" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>211111556</v>
+        <v>211111567</v>
       </c>
       <c r="B24" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C24" t="s">
         <v>14</v>
@@ -1572,39 +1578,39 @@
         <v>15</v>
       </c>
       <c r="E24">
-        <v>11112</v>
+        <v>9292</v>
       </c>
       <c r="F24" t="s">
         <v>16</v>
       </c>
       <c r="G24" s="1">
-        <v>45896.528356481482</v>
+        <v>45854.444444444445</v>
       </c>
       <c r="H24" s="1">
-        <v>45866.528368055551</v>
+        <v>45824.447060185186</v>
       </c>
       <c r="I24" s="2">
-        <v>-25.528356481481751</v>
+        <v>23</v>
       </c>
       <c r="J24" s="3">
-        <v>471.41</v>
+        <v>338.69</v>
       </c>
       <c r="K24" s="3">
-        <v>471.41</v>
+        <v>338.69</v>
       </c>
       <c r="L24" t="s">
         <v>17</v>
       </c>
       <c r="M24" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>211111559</v>
+        <v>211111567</v>
       </c>
       <c r="B25" t="s">
-        <v>63</v>
+        <v>30</v>
       </c>
       <c r="C25" t="s">
         <v>14</v>
@@ -1613,31 +1619,31 @@
         <v>15</v>
       </c>
       <c r="E25">
-        <v>11105</v>
+        <v>9512</v>
       </c>
       <c r="F25" t="s">
         <v>16</v>
       </c>
       <c r="G25" s="1">
-        <v>45896.528148148143</v>
+        <v>45858.51866898148</v>
       </c>
       <c r="H25" s="1">
-        <v>45866.528148148143</v>
+        <v>45828.519467592589</v>
       </c>
       <c r="I25" s="2">
-        <v>-25.528148148143373</v>
+        <v>19</v>
       </c>
       <c r="J25" s="3">
-        <v>673.51</v>
+        <v>377.97</v>
       </c>
       <c r="K25" s="3">
-        <v>673.51</v>
+        <v>377.97</v>
       </c>
       <c r="L25" t="s">
         <v>17</v>
       </c>
       <c r="M25" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
@@ -1654,31 +1660,31 @@
         <v>15</v>
       </c>
       <c r="E26">
-        <v>8732</v>
+        <v>9761</v>
       </c>
       <c r="F26" t="s">
         <v>16</v>
       </c>
       <c r="G26" s="1">
-        <v>45840.431840277779</v>
+        <v>45864.419548611106</v>
       </c>
       <c r="H26" s="1">
-        <v>45810.431990740741</v>
+        <v>45834.420474537037</v>
       </c>
       <c r="I26" s="2">
-        <v>30.568159722221026</v>
+        <v>13</v>
       </c>
       <c r="J26" s="3">
-        <v>186.96</v>
+        <v>179.99</v>
       </c>
       <c r="K26" s="3">
-        <v>186.96</v>
+        <v>179.99</v>
       </c>
       <c r="L26" t="s">
         <v>17</v>
       </c>
       <c r="M26" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
@@ -1695,31 +1701,31 @@
         <v>15</v>
       </c>
       <c r="E27">
-        <v>8931</v>
+        <v>10215</v>
       </c>
       <c r="F27" t="s">
         <v>16</v>
       </c>
       <c r="G27" s="1">
-        <v>45843.55400462963</v>
+        <v>45875.482060185182</v>
       </c>
       <c r="H27" s="1">
-        <v>45813.554432870369</v>
+        <v>45845.482060185182</v>
       </c>
       <c r="I27" s="2">
-        <v>27.445995370369928</v>
+        <v>2</v>
       </c>
       <c r="J27" s="3">
-        <v>161.62</v>
+        <v>280.28000000000003</v>
       </c>
       <c r="K27" s="3">
-        <v>161.62</v>
+        <v>280.28000000000003</v>
       </c>
       <c r="L27" t="s">
         <v>17</v>
       </c>
       <c r="M27" t="s">
-        <v>24</v>
+        <v>63</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
@@ -1730,37 +1736,37 @@
         <v>30</v>
       </c>
       <c r="C28" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="D28" t="s">
         <v>15</v>
       </c>
       <c r="E28">
-        <v>9292</v>
+        <v>518</v>
       </c>
       <c r="F28" t="s">
         <v>16</v>
       </c>
       <c r="G28" s="1">
-        <v>45854.444444444445</v>
+        <v>45878</v>
       </c>
       <c r="H28" s="1">
-        <v>45824.447060185186</v>
+        <v>45848</v>
       </c>
       <c r="I28" s="2">
-        <v>16.555555555554747</v>
+        <v>-1</v>
       </c>
       <c r="J28" s="3">
-        <v>338.69</v>
+        <v>-4.63</v>
       </c>
       <c r="K28" s="3">
-        <v>338.69</v>
+        <v>-4.63</v>
       </c>
       <c r="L28" t="s">
         <v>17</v>
       </c>
       <c r="M28" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
@@ -1777,31 +1783,31 @@
         <v>15</v>
       </c>
       <c r="E29">
-        <v>9512</v>
+        <v>10408</v>
       </c>
       <c r="F29" t="s">
         <v>16</v>
       </c>
       <c r="G29" s="1">
-        <v>45858.51866898148</v>
+        <v>45878.421249999999</v>
       </c>
       <c r="H29" s="1">
-        <v>45828.519467592589</v>
+        <v>45848.421249999999</v>
       </c>
       <c r="I29" s="2">
-        <v>12.481331018519995</v>
+        <v>-1</v>
       </c>
       <c r="J29" s="3">
-        <v>377.97</v>
+        <v>167.72</v>
       </c>
       <c r="K29" s="3">
-        <v>377.97</v>
+        <v>167.72</v>
       </c>
       <c r="L29" t="s">
         <v>17</v>
       </c>
       <c r="M29" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
@@ -1818,31 +1824,31 @@
         <v>15</v>
       </c>
       <c r="E30">
-        <v>9761</v>
+        <v>10524</v>
       </c>
       <c r="F30" t="s">
         <v>16</v>
       </c>
       <c r="G30" s="1">
-        <v>45864.419548611106</v>
+        <v>45882.489189814813</v>
       </c>
       <c r="H30" s="1">
-        <v>45834.420474537037</v>
+        <v>45852.489189814813</v>
       </c>
       <c r="I30" s="2">
-        <v>6.5804513888942893</v>
+        <v>-5</v>
       </c>
       <c r="J30" s="3">
-        <v>179.99</v>
+        <v>301.11</v>
       </c>
       <c r="K30" s="3">
-        <v>179.99</v>
+        <v>301.11</v>
       </c>
       <c r="L30" t="s">
         <v>17</v>
       </c>
       <c r="M30" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
@@ -1859,25 +1865,25 @@
         <v>15</v>
       </c>
       <c r="E31">
-        <v>10215</v>
+        <v>10704</v>
       </c>
       <c r="F31" t="s">
         <v>16</v>
       </c>
       <c r="G31" s="1">
-        <v>45875.482060185182</v>
+        <v>45885.498472222222</v>
       </c>
       <c r="H31" s="1">
-        <v>45845.482060185182</v>
+        <v>45855.498472222222</v>
       </c>
       <c r="I31" s="2">
-        <v>-4.4820601851824904</v>
+        <v>-8</v>
       </c>
       <c r="J31" s="3">
-        <v>280.28000000000003</v>
+        <v>266.19</v>
       </c>
       <c r="K31" s="3">
-        <v>280.28000000000003</v>
+        <v>266.19</v>
       </c>
       <c r="L31" t="s">
         <v>17</v>
@@ -1894,31 +1900,31 @@
         <v>30</v>
       </c>
       <c r="C32" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="D32" t="s">
         <v>15</v>
       </c>
       <c r="E32">
-        <v>518</v>
+        <v>10993</v>
       </c>
       <c r="F32" t="s">
         <v>16</v>
       </c>
       <c r="G32" s="1">
-        <v>45878</v>
+        <v>45892.493587962963</v>
       </c>
       <c r="H32" s="1">
-        <v>45848</v>
+        <v>45862.493599537032</v>
       </c>
       <c r="I32" s="2">
-        <v>-7</v>
+        <v>-15</v>
       </c>
       <c r="J32" s="3">
-        <v>-4.63</v>
+        <v>57.02</v>
       </c>
       <c r="K32" s="3">
-        <v>-4.63</v>
+        <v>57.02</v>
       </c>
       <c r="L32" t="s">
         <v>17</v>
@@ -1941,25 +1947,25 @@
         <v>15</v>
       </c>
       <c r="E33">
-        <v>10408</v>
+        <v>11110</v>
       </c>
       <c r="F33" t="s">
         <v>16</v>
       </c>
       <c r="G33" s="1">
-        <v>45878.421249999999</v>
+        <v>45926.528310185182</v>
       </c>
       <c r="H33" s="1">
-        <v>45848.421249999999</v>
+        <v>45866.528310185182</v>
       </c>
       <c r="I33" s="2">
-        <v>-7.4212499999994179</v>
+        <v>-49</v>
       </c>
       <c r="J33" s="3">
-        <v>167.72</v>
+        <v>290.05</v>
       </c>
       <c r="K33" s="3">
-        <v>167.72</v>
+        <v>290.05</v>
       </c>
       <c r="L33" t="s">
         <v>17</v>
@@ -1982,25 +1988,25 @@
         <v>15</v>
       </c>
       <c r="E34">
-        <v>10524</v>
+        <v>11283</v>
       </c>
       <c r="F34" t="s">
         <v>16</v>
       </c>
       <c r="G34" s="1">
-        <v>45882.489189814813</v>
+        <v>45929.501446759255</v>
       </c>
       <c r="H34" s="1">
-        <v>45852.489189814813</v>
+        <v>45869.501446759255</v>
       </c>
       <c r="I34" s="2">
-        <v>-11.489189814812562</v>
+        <v>-52</v>
       </c>
       <c r="J34" s="3">
-        <v>301.11</v>
+        <v>512.48</v>
       </c>
       <c r="K34" s="3">
-        <v>301.11</v>
+        <v>512.48</v>
       </c>
       <c r="L34" t="s">
         <v>17</v>
@@ -2023,25 +2029,25 @@
         <v>15</v>
       </c>
       <c r="E35">
-        <v>10704</v>
+        <v>11403</v>
       </c>
       <c r="F35" t="s">
         <v>16</v>
       </c>
       <c r="G35" s="1">
-        <v>45885.498472222222</v>
+        <v>45933.565578703703</v>
       </c>
       <c r="H35" s="1">
-        <v>45855.498472222222</v>
+        <v>45873.565578703703</v>
       </c>
       <c r="I35" s="2">
-        <v>-14.498472222221608</v>
+        <v>-56</v>
       </c>
       <c r="J35" s="3">
-        <v>266.19</v>
+        <v>369.45</v>
       </c>
       <c r="K35" s="3">
-        <v>266.19</v>
+        <v>369.45</v>
       </c>
       <c r="L35" t="s">
         <v>17</v>
@@ -2064,25 +2070,25 @@
         <v>15</v>
       </c>
       <c r="E36">
-        <v>10993</v>
+        <v>11585</v>
       </c>
       <c r="F36" t="s">
         <v>16</v>
       </c>
       <c r="G36" s="1">
-        <v>45892.493587962963</v>
+        <v>45936.517835648148</v>
       </c>
       <c r="H36" s="1">
-        <v>45862.493599537032</v>
+        <v>45876.518402777772</v>
       </c>
       <c r="I36" s="2">
-        <v>-21.49358796296292</v>
+        <v>-59</v>
       </c>
       <c r="J36" s="3">
-        <v>57.02</v>
+        <v>288.54000000000002</v>
       </c>
       <c r="K36" s="3">
-        <v>57.02</v>
+        <v>288.54000000000002</v>
       </c>
       <c r="L36" t="s">
         <v>17</v>
@@ -2093,10 +2099,10 @@
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>211111567</v>
+        <v>211111832</v>
       </c>
       <c r="B37" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="C37" t="s">
         <v>14</v>
@@ -2105,39 +2111,39 @@
         <v>15</v>
       </c>
       <c r="E37">
-        <v>11110</v>
+        <v>8724</v>
       </c>
       <c r="F37" t="s">
         <v>16</v>
       </c>
       <c r="G37" s="1">
-        <v>45926.528310185182</v>
+        <v>45840.417569444442</v>
       </c>
       <c r="H37" s="1">
-        <v>45866.528310185182</v>
+        <v>45810.426018518519</v>
       </c>
       <c r="I37" s="2">
-        <v>-55.528310185181908</v>
+        <v>37</v>
       </c>
       <c r="J37" s="3">
-        <v>290.05</v>
+        <v>126.35000000000001</v>
       </c>
       <c r="K37" s="3">
-        <v>290.05</v>
+        <v>126.35000000000001</v>
       </c>
       <c r="L37" t="s">
         <v>17</v>
       </c>
       <c r="M37" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>211111567</v>
+        <v>211111832</v>
       </c>
       <c r="B38" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="C38" t="s">
         <v>14</v>
@@ -2146,31 +2152,31 @@
         <v>15</v>
       </c>
       <c r="E38">
-        <v>11283</v>
+        <v>8939</v>
       </c>
       <c r="F38" t="s">
         <v>16</v>
       </c>
       <c r="G38" s="1">
-        <v>45929.501446759255</v>
+        <v>45843.550532407404</v>
       </c>
       <c r="H38" s="1">
-        <v>45869.501446759255</v>
+        <v>45813.574108796296</v>
       </c>
       <c r="I38" s="2">
-        <v>-58.501446759255487</v>
+        <v>34</v>
       </c>
       <c r="J38" s="3">
-        <v>512.48</v>
+        <v>391.52</v>
       </c>
       <c r="K38" s="3">
-        <v>512.48</v>
+        <v>391.52</v>
       </c>
       <c r="L38" t="s">
         <v>17</v>
       </c>
       <c r="M38" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
@@ -2178,7 +2184,7 @@
         <v>211111832</v>
       </c>
       <c r="B39" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C39" t="s">
         <v>14</v>
@@ -2187,31 +2193,31 @@
         <v>15</v>
       </c>
       <c r="E39">
-        <v>8724</v>
+        <v>8968</v>
       </c>
       <c r="F39" t="s">
         <v>16</v>
       </c>
       <c r="G39" s="1">
-        <v>45840.417569444442</v>
+        <v>45847.378715277773</v>
       </c>
       <c r="H39" s="1">
-        <v>45810.426018518519</v>
+        <v>45817.381168981483</v>
       </c>
       <c r="I39" s="2">
-        <v>30.582430555557949</v>
+        <v>30</v>
       </c>
       <c r="J39" s="3">
-        <v>126.35000000000001</v>
+        <v>59.06</v>
       </c>
       <c r="K39" s="3">
-        <v>126.35000000000001</v>
+        <v>59.06</v>
       </c>
       <c r="L39" t="s">
         <v>17</v>
       </c>
       <c r="M39" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
@@ -2219,7 +2225,7 @@
         <v>211111832</v>
       </c>
       <c r="B40" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C40" t="s">
         <v>14</v>
@@ -2228,25 +2234,25 @@
         <v>15</v>
       </c>
       <c r="E40">
-        <v>8939</v>
+        <v>9148</v>
       </c>
       <c r="F40" t="s">
         <v>16</v>
       </c>
       <c r="G40" s="1">
-        <v>45843.550532407404</v>
+        <v>45850.450706018513</v>
       </c>
       <c r="H40" s="1">
-        <v>45813.574108796296</v>
+        <v>45820.452037037037</v>
       </c>
       <c r="I40" s="2">
-        <v>27.449467592596193</v>
+        <v>27</v>
       </c>
       <c r="J40" s="3">
-        <v>391.52</v>
+        <v>314.43</v>
       </c>
       <c r="K40" s="3">
-        <v>391.52</v>
+        <v>314.43</v>
       </c>
       <c r="L40" t="s">
         <v>17</v>
@@ -2260,7 +2266,7 @@
         <v>211111832</v>
       </c>
       <c r="B41" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C41" t="s">
         <v>14</v>
@@ -2269,25 +2275,25 @@
         <v>15</v>
       </c>
       <c r="E41">
-        <v>8968</v>
+        <v>9510</v>
       </c>
       <c r="F41" t="s">
         <v>16</v>
       </c>
       <c r="G41" s="1">
-        <v>45847.378715277773</v>
+        <v>45858.516712962963</v>
       </c>
       <c r="H41" s="1">
-        <v>45817.381168981483</v>
+        <v>45828.517974537033</v>
       </c>
       <c r="I41" s="2">
-        <v>23.621284722226846</v>
+        <v>19</v>
       </c>
       <c r="J41" s="3">
-        <v>59.06</v>
+        <v>394.83</v>
       </c>
       <c r="K41" s="3">
-        <v>59.06</v>
+        <v>394.83</v>
       </c>
       <c r="L41" t="s">
         <v>17</v>
@@ -2301,7 +2307,7 @@
         <v>211111832</v>
       </c>
       <c r="B42" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C42" t="s">
         <v>14</v>
@@ -2310,25 +2316,25 @@
         <v>15</v>
       </c>
       <c r="E42">
-        <v>9148</v>
+        <v>9764</v>
       </c>
       <c r="F42" t="s">
         <v>16</v>
       </c>
       <c r="G42" s="1">
-        <v>45850.450706018513</v>
+        <v>45864.422581018516</v>
       </c>
       <c r="H42" s="1">
-        <v>45820.452037037037</v>
+        <v>45834.424537037034</v>
       </c>
       <c r="I42" s="2">
-        <v>20.549293981486699</v>
+        <v>13</v>
       </c>
       <c r="J42" s="3">
-        <v>314.43</v>
+        <v>340.11</v>
       </c>
       <c r="K42" s="3">
-        <v>314.43</v>
+        <v>340.11</v>
       </c>
       <c r="L42" t="s">
         <v>17</v>
@@ -2342,7 +2348,7 @@
         <v>211111832</v>
       </c>
       <c r="B43" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C43" t="s">
         <v>14</v>
@@ -2351,25 +2357,25 @@
         <v>15</v>
       </c>
       <c r="E43">
-        <v>9510</v>
+        <v>10015</v>
       </c>
       <c r="F43" t="s">
         <v>16</v>
       </c>
       <c r="G43" s="1">
-        <v>45858.516712962963</v>
+        <v>45870.643773148149</v>
       </c>
       <c r="H43" s="1">
-        <v>45828.517974537033</v>
+        <v>45840.645138888889</v>
       </c>
       <c r="I43" s="2">
-        <v>12.483287037037371</v>
+        <v>7</v>
       </c>
       <c r="J43" s="3">
-        <v>394.83</v>
+        <v>163.52000000000001</v>
       </c>
       <c r="K43" s="3">
-        <v>394.83</v>
+        <v>163.52000000000001</v>
       </c>
       <c r="L43" t="s">
         <v>17</v>
@@ -2383,7 +2389,7 @@
         <v>211111832</v>
       </c>
       <c r="B44" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C44" t="s">
         <v>14</v>
@@ -2392,25 +2398,25 @@
         <v>15</v>
       </c>
       <c r="E44">
-        <v>9764</v>
+        <v>10073</v>
       </c>
       <c r="F44" t="s">
         <v>16</v>
       </c>
       <c r="G44" s="1">
-        <v>45864.422581018516</v>
+        <v>45871.54855324074</v>
       </c>
       <c r="H44" s="1">
-        <v>45834.424537037034</v>
+        <v>45841.54855324074</v>
       </c>
       <c r="I44" s="2">
-        <v>6.5774189814837882</v>
+        <v>6</v>
       </c>
       <c r="J44" s="3">
-        <v>340.11</v>
+        <v>159.94</v>
       </c>
       <c r="K44" s="3">
-        <v>340.11</v>
+        <v>159.94</v>
       </c>
       <c r="L44" t="s">
         <v>17</v>
@@ -2424,7 +2430,7 @@
         <v>211111832</v>
       </c>
       <c r="B45" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C45" t="s">
         <v>14</v>
@@ -2433,31 +2439,31 @@
         <v>15</v>
       </c>
       <c r="E45">
-        <v>10015</v>
+        <v>10208</v>
       </c>
       <c r="F45" t="s">
         <v>16</v>
       </c>
       <c r="G45" s="1">
-        <v>45870.643773148149</v>
+        <v>45875.481840277775</v>
       </c>
       <c r="H45" s="1">
-        <v>45840.645138888889</v>
+        <v>45845.481840277775</v>
       </c>
       <c r="I45" s="2">
-        <v>0.35622685185080627</v>
+        <v>2</v>
       </c>
       <c r="J45" s="3">
-        <v>163.52000000000001</v>
+        <v>69.59</v>
       </c>
       <c r="K45" s="3">
-        <v>163.52000000000001</v>
+        <v>69.59</v>
       </c>
       <c r="L45" t="s">
         <v>17</v>
       </c>
       <c r="M45" t="s">
-        <v>18</v>
+        <v>63</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
@@ -2465,7 +2471,7 @@
         <v>211111832</v>
       </c>
       <c r="B46" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C46" t="s">
         <v>14</v>
@@ -2474,25 +2480,25 @@
         <v>15</v>
       </c>
       <c r="E46">
-        <v>10073</v>
+        <v>10415</v>
       </c>
       <c r="F46" t="s">
         <v>16</v>
       </c>
       <c r="G46" s="1">
-        <v>45871.54855324074</v>
+        <v>45878.428206018514</v>
       </c>
       <c r="H46" s="1">
-        <v>45841.54855324074</v>
+        <v>45848.428217592591</v>
       </c>
       <c r="I46" s="2">
-        <v>-0.54855324074014788</v>
+        <v>-1</v>
       </c>
       <c r="J46" s="3">
-        <v>159.94</v>
+        <v>362.03000000000003</v>
       </c>
       <c r="K46" s="3">
-        <v>159.94</v>
+        <v>362.03000000000003</v>
       </c>
       <c r="L46" t="s">
         <v>17</v>
@@ -2506,7 +2512,7 @@
         <v>211111832</v>
       </c>
       <c r="B47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C47" t="s">
         <v>14</v>
@@ -2515,25 +2521,25 @@
         <v>15</v>
       </c>
       <c r="E47">
-        <v>10208</v>
+        <v>10701</v>
       </c>
       <c r="F47" t="s">
         <v>16</v>
       </c>
       <c r="G47" s="1">
-        <v>45875.481840277775</v>
+        <v>45885.498379629629</v>
       </c>
       <c r="H47" s="1">
-        <v>45845.481840277775</v>
+        <v>45855.498391203699</v>
       </c>
       <c r="I47" s="2">
-        <v>-4.4818402777746087</v>
+        <v>-8</v>
       </c>
       <c r="J47" s="3">
-        <v>69.59</v>
+        <v>414.34000000000003</v>
       </c>
       <c r="K47" s="3">
-        <v>69.59</v>
+        <v>414.34000000000003</v>
       </c>
       <c r="L47" t="s">
         <v>17</v>
@@ -2547,7 +2553,7 @@
         <v>211111832</v>
       </c>
       <c r="B48" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C48" t="s">
         <v>14</v>
@@ -2556,25 +2562,25 @@
         <v>15</v>
       </c>
       <c r="E48">
-        <v>10415</v>
+        <v>10827</v>
       </c>
       <c r="F48" t="s">
         <v>16</v>
       </c>
       <c r="G48" s="1">
-        <v>45878.428206018514</v>
+        <v>45889.495150462964</v>
       </c>
       <c r="H48" s="1">
-        <v>45848.428217592591</v>
+        <v>45859.495150462964</v>
       </c>
       <c r="I48" s="2">
-        <v>-7.4282060185141745</v>
+        <v>-12</v>
       </c>
       <c r="J48" s="3">
-        <v>362.03000000000003</v>
+        <v>55.44</v>
       </c>
       <c r="K48" s="3">
-        <v>362.03000000000003</v>
+        <v>55.44</v>
       </c>
       <c r="L48" t="s">
         <v>17</v>
@@ -2588,7 +2594,7 @@
         <v>211111832</v>
       </c>
       <c r="B49" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C49" t="s">
         <v>14</v>
@@ -2597,25 +2603,25 @@
         <v>15</v>
       </c>
       <c r="E49">
-        <v>10701</v>
+        <v>10991</v>
       </c>
       <c r="F49" t="s">
         <v>16</v>
       </c>
       <c r="G49" s="1">
-        <v>45885.498379629629</v>
+        <v>45892.492847222224</v>
       </c>
       <c r="H49" s="1">
-        <v>45855.498391203699</v>
+        <v>45862.492905092593</v>
       </c>
       <c r="I49" s="2">
-        <v>-14.498379629629198</v>
+        <v>-15</v>
       </c>
       <c r="J49" s="3">
-        <v>414.34000000000003</v>
+        <v>366.97</v>
       </c>
       <c r="K49" s="3">
-        <v>414.34000000000003</v>
+        <v>366.97</v>
       </c>
       <c r="L49" t="s">
         <v>17</v>
@@ -2629,7 +2635,7 @@
         <v>211111832</v>
       </c>
       <c r="B50" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C50" t="s">
         <v>14</v>
@@ -2638,25 +2644,25 @@
         <v>15</v>
       </c>
       <c r="E50">
-        <v>10827</v>
+        <v>11106</v>
       </c>
       <c r="F50" t="s">
         <v>16</v>
       </c>
       <c r="G50" s="1">
-        <v>45889.495150462964</v>
+        <v>45926.528171296297</v>
       </c>
       <c r="H50" s="1">
-        <v>45859.495150462964</v>
+        <v>45866.528182870366</v>
       </c>
       <c r="I50" s="2">
-        <v>-18.495150462964375</v>
+        <v>-49</v>
       </c>
       <c r="J50" s="3">
-        <v>55.44</v>
+        <v>159.31</v>
       </c>
       <c r="K50" s="3">
-        <v>55.44</v>
+        <v>159.31</v>
       </c>
       <c r="L50" t="s">
         <v>17</v>
@@ -2670,7 +2676,7 @@
         <v>211111832</v>
       </c>
       <c r="B51" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C51" t="s">
         <v>14</v>
@@ -2679,25 +2685,25 @@
         <v>15</v>
       </c>
       <c r="E51">
-        <v>10991</v>
+        <v>11279</v>
       </c>
       <c r="F51" t="s">
         <v>16</v>
       </c>
       <c r="G51" s="1">
-        <v>45892.492847222224</v>
+        <v>45929.50131944444</v>
       </c>
       <c r="H51" s="1">
-        <v>45862.492905092593</v>
+        <v>45869.501331018517</v>
       </c>
       <c r="I51" s="2">
-        <v>-21.492847222223645</v>
+        <v>-52</v>
       </c>
       <c r="J51" s="3">
-        <v>366.97</v>
+        <v>420.68</v>
       </c>
       <c r="K51" s="3">
-        <v>366.97</v>
+        <v>420.68</v>
       </c>
       <c r="L51" t="s">
         <v>17</v>
@@ -2711,7 +2717,7 @@
         <v>211111832</v>
       </c>
       <c r="B52" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C52" t="s">
         <v>14</v>
@@ -2720,25 +2726,25 @@
         <v>15</v>
       </c>
       <c r="E52">
-        <v>11106</v>
+        <v>11401</v>
       </c>
       <c r="F52" t="s">
         <v>16</v>
       </c>
       <c r="G52" s="1">
-        <v>45926.528171296297</v>
+        <v>45933.565509259257</v>
       </c>
       <c r="H52" s="1">
-        <v>45866.528182870366</v>
+        <v>45873.565520833334</v>
       </c>
       <c r="I52" s="2">
-        <v>-55.528171296296932</v>
+        <v>-56</v>
       </c>
       <c r="J52" s="3">
-        <v>159.31</v>
+        <v>176.39000000000001</v>
       </c>
       <c r="K52" s="3">
-        <v>159.31</v>
+        <v>176.39000000000001</v>
       </c>
       <c r="L52" t="s">
         <v>17</v>
@@ -2752,7 +2758,7 @@
         <v>211111832</v>
       </c>
       <c r="B53" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C53" t="s">
         <v>14</v>
@@ -2761,25 +2767,25 @@
         <v>15</v>
       </c>
       <c r="E53">
-        <v>11279</v>
+        <v>11591</v>
       </c>
       <c r="F53" t="s">
         <v>16</v>
       </c>
       <c r="G53" s="1">
-        <v>45929.50131944444</v>
+        <v>45936.521041666667</v>
       </c>
       <c r="H53" s="1">
-        <v>45869.501331018517</v>
+        <v>45876.521238425921</v>
       </c>
       <c r="I53" s="2">
-        <v>-58.501319444440014</v>
+        <v>-59</v>
       </c>
       <c r="J53" s="3">
-        <v>420.68</v>
+        <v>460.85</v>
       </c>
       <c r="K53" s="3">
-        <v>420.68</v>
+        <v>460.85</v>
       </c>
       <c r="L53" t="s">
         <v>17</v>
@@ -2793,7 +2799,7 @@
         <v>211111909</v>
       </c>
       <c r="B54" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C54" t="s">
         <v>14</v>
@@ -2814,7 +2820,7 @@
         <v>45840.411736111106</v>
       </c>
       <c r="I54" s="2">
-        <v>0.59057870370452292</v>
+        <v>7</v>
       </c>
       <c r="J54" s="3">
         <v>112.11</v>
@@ -2826,7 +2832,7 @@
         <v>17</v>
       </c>
       <c r="M54" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.25">
@@ -2834,7 +2840,7 @@
         <v>211111909</v>
       </c>
       <c r="B55" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C55" t="s">
         <v>14</v>
@@ -2855,7 +2861,7 @@
         <v>45842.315787037034</v>
       </c>
       <c r="I55" s="2">
-        <v>-1.3157870370341698</v>
+        <v>5</v>
       </c>
       <c r="J55" s="3">
         <v>75.03</v>
@@ -2867,7 +2873,7 @@
         <v>17</v>
       </c>
       <c r="M55" t="s">
-        <v>18</v>
+        <v>63</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.25">
@@ -2875,7 +2881,7 @@
         <v>211111909</v>
       </c>
       <c r="B56" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C56" t="s">
         <v>14</v>
@@ -2896,7 +2902,7 @@
         <v>45842.31581018518</v>
       </c>
       <c r="I56" s="2">
-        <v>-1.3158101851804531</v>
+        <v>5</v>
       </c>
       <c r="J56" s="3">
         <v>114.44</v>
@@ -2908,7 +2914,7 @@
         <v>17</v>
       </c>
       <c r="M56" t="s">
-        <v>18</v>
+        <v>63</v>
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.25">
@@ -2916,7 +2922,7 @@
         <v>211111909</v>
       </c>
       <c r="B57" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C57" t="s">
         <v>27</v>
@@ -2937,7 +2943,7 @@
         <v>45848</v>
       </c>
       <c r="I57" s="2">
-        <v>-7</v>
+        <v>-1</v>
       </c>
       <c r="J57" s="3">
         <v>-73.5</v>
@@ -2957,7 +2963,7 @@
         <v>211111909</v>
       </c>
       <c r="B58" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C58" t="s">
         <v>14</v>
@@ -2978,7 +2984,7 @@
         <v>45848.421273148146</v>
       </c>
       <c r="I58" s="2">
-        <v>-7.4212731481457013</v>
+        <v>-1</v>
       </c>
       <c r="J58" s="3">
         <v>112.3</v>
@@ -2998,7 +3004,7 @@
         <v>211111909</v>
       </c>
       <c r="B59" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C59" t="s">
         <v>14</v>
@@ -3019,7 +3025,7 @@
         <v>45854.413043981476</v>
       </c>
       <c r="I59" s="2">
-        <v>-13.413032407406718</v>
+        <v>-7</v>
       </c>
       <c r="J59" s="3">
         <v>220.38</v>
@@ -3039,7 +3045,7 @@
         <v>211111909</v>
       </c>
       <c r="B60" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C60" t="s">
         <v>14</v>
@@ -3060,7 +3066,7 @@
         <v>45855.498217592591</v>
       </c>
       <c r="I60" s="2">
-        <v>-14.498206018513883</v>
+        <v>-8</v>
       </c>
       <c r="J60" s="3">
         <v>220.07</v>
@@ -3080,7 +3086,7 @@
         <v>211111909</v>
       </c>
       <c r="B61" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C61" t="s">
         <v>14</v>
@@ -3101,7 +3107,7 @@
         <v>45855.498240740737</v>
       </c>
       <c r="I61" s="2">
-        <v>-14.498240740736946</v>
+        <v>-8</v>
       </c>
       <c r="J61" s="3">
         <v>182.79</v>
@@ -3121,7 +3127,7 @@
         <v>211111909</v>
       </c>
       <c r="B62" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C62" t="s">
         <v>14</v>
@@ -3142,7 +3148,7 @@
         <v>45859.495057870372</v>
       </c>
       <c r="I62" s="2">
-        <v>-18.495046296295186</v>
+        <v>-12</v>
       </c>
       <c r="J62" s="3">
         <v>99.84</v>
@@ -3162,7 +3168,7 @@
         <v>211111909</v>
       </c>
       <c r="B63" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C63" t="s">
         <v>14</v>
@@ -3183,7 +3189,7 @@
         <v>45866.528113425928</v>
       </c>
       <c r="I63" s="2">
-        <v>-25.528101851850806</v>
+        <v>-19</v>
       </c>
       <c r="J63" s="3">
         <v>74.12</v>
@@ -3203,7 +3209,7 @@
         <v>211111909</v>
       </c>
       <c r="B64" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C64" t="s">
         <v>14</v>
@@ -3224,7 +3230,7 @@
         <v>45868.482465277775</v>
       </c>
       <c r="I64" s="2">
-        <v>-27.482453703698411</v>
+        <v>-21</v>
       </c>
       <c r="J64" s="3">
         <v>128.46</v>
@@ -3244,7 +3250,7 @@
         <v>211111909</v>
       </c>
       <c r="B65" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C65" t="s">
         <v>14</v>
@@ -3265,7 +3271,7 @@
         <v>45869.501284722217</v>
       </c>
       <c r="I65" s="2">
-        <v>-28.501284722216951</v>
+        <v>-22</v>
       </c>
       <c r="J65" s="3">
         <v>37.800000000000004</v>
@@ -3285,7 +3291,7 @@
         <v>211111909</v>
       </c>
       <c r="B66" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C66" t="s">
         <v>14</v>
@@ -3306,7 +3312,7 @@
         <v>45869.501307870371</v>
       </c>
       <c r="I66" s="2">
-        <v>-28.501296296293731</v>
+        <v>-22</v>
       </c>
       <c r="J66" s="3">
         <v>33.700000000000003</v>
@@ -3323,10 +3329,10 @@
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>211111932</v>
+        <v>211111909</v>
       </c>
       <c r="B67" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C67" t="s">
         <v>14</v>
@@ -3335,31 +3341,31 @@
         <v>15</v>
       </c>
       <c r="E67">
-        <v>6876</v>
+        <v>11589</v>
       </c>
       <c r="F67" t="s">
         <v>16</v>
       </c>
       <c r="G67" s="1">
-        <v>45806.316099537034</v>
+        <v>45906.520150462959</v>
       </c>
       <c r="H67" s="1">
-        <v>45776.318043981482</v>
+        <v>45876.520451388889</v>
       </c>
       <c r="I67" s="2">
-        <v>64.683900462965539</v>
+        <v>-29</v>
       </c>
       <c r="J67" s="3">
-        <v>337.18</v>
+        <v>69.11</v>
       </c>
       <c r="K67" s="3">
-        <v>337.18</v>
+        <v>69.11</v>
       </c>
       <c r="L67" t="s">
         <v>17</v>
       </c>
       <c r="M67" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.25">
@@ -3367,7 +3373,7 @@
         <v>211111932</v>
       </c>
       <c r="B68" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C68" t="s">
         <v>14</v>
@@ -3376,72 +3382,72 @@
         <v>15</v>
       </c>
       <c r="E68">
-        <v>7112</v>
+        <v>6876</v>
       </c>
       <c r="F68" t="s">
         <v>16</v>
       </c>
       <c r="G68" s="1">
-        <v>45809.600486111107</v>
+        <v>45806.316099537034</v>
       </c>
       <c r="H68" s="1">
-        <v>45779.601805555554</v>
+        <v>45776.318043981482</v>
       </c>
       <c r="I68" s="2">
-        <v>61.399513888893125</v>
+        <v>71</v>
       </c>
       <c r="J68" s="3">
-        <v>1342.49</v>
+        <v>337.18</v>
       </c>
       <c r="K68" s="3">
-        <v>1000</v>
+        <v>337.18</v>
       </c>
       <c r="L68" t="s">
         <v>17</v>
       </c>
       <c r="M68" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>211111949</v>
+        <v>211111932</v>
       </c>
       <c r="B69" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C69" t="s">
-        <v>27</v>
-      </c>
-      <c r="D69">
-        <v>2025</v>
+        <v>14</v>
+      </c>
+      <c r="D69" t="s">
+        <v>15</v>
       </c>
       <c r="E69">
-        <v>626</v>
+        <v>7112</v>
       </c>
       <c r="F69" t="s">
         <v>16</v>
       </c>
       <c r="G69" s="1">
-        <v>45876</v>
+        <v>45809.600486111107</v>
       </c>
       <c r="H69" s="1">
-        <v>45846</v>
+        <v>45779.601805555554</v>
       </c>
       <c r="I69" s="2">
-        <v>-5</v>
+        <v>68</v>
       </c>
       <c r="J69" s="3">
-        <v>-12.36</v>
+        <v>1342.49</v>
       </c>
       <c r="K69" s="3">
-        <v>-12.36</v>
+        <v>1000</v>
       </c>
       <c r="L69" t="s">
         <v>17</v>
       </c>
       <c r="M69" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.25">
@@ -3449,7 +3455,7 @@
         <v>211111949</v>
       </c>
       <c r="B70" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C70" t="s">
         <v>14</v>
@@ -3458,25 +3464,25 @@
         <v>15</v>
       </c>
       <c r="E70">
-        <v>11181</v>
+        <v>11459</v>
       </c>
       <c r="F70" t="s">
         <v>16</v>
       </c>
       <c r="G70" s="1">
-        <v>45897.554988425924</v>
+        <v>45904.540520833332</v>
       </c>
       <c r="H70" s="1">
-        <v>45867.555</v>
+        <v>45874.540532407409</v>
       </c>
       <c r="I70" s="2">
-        <v>-26.554988425923511</v>
+        <v>-27</v>
       </c>
       <c r="J70" s="3">
-        <v>173.49</v>
+        <v>218.93</v>
       </c>
       <c r="K70" s="3">
-        <v>173.49</v>
+        <v>218.93</v>
       </c>
       <c r="L70" t="s">
         <v>17</v>
@@ -3487,43 +3493,43 @@
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>211111949</v>
+        <v>211111992</v>
       </c>
       <c r="B71" t="s">
         <v>41</v>
       </c>
       <c r="C71" t="s">
-        <v>14</v>
-      </c>
-      <c r="D71" t="s">
-        <v>15</v>
+        <v>27</v>
+      </c>
+      <c r="D71">
+        <v>2025</v>
       </c>
       <c r="E71">
-        <v>11318</v>
+        <v>628</v>
       </c>
       <c r="F71" t="s">
         <v>16</v>
       </c>
       <c r="G71" s="1">
-        <v>45900.455787037034</v>
+        <v>45876</v>
       </c>
       <c r="H71" s="1">
-        <v>45870.455787037034</v>
+        <v>45846</v>
       </c>
       <c r="I71" s="2">
-        <v>-29.455787037033588</v>
+        <v>1</v>
       </c>
       <c r="J71" s="3">
-        <v>148.87</v>
+        <v>-24.060000000000002</v>
       </c>
       <c r="K71" s="3">
-        <v>148.87</v>
+        <v>-24.060000000000002</v>
       </c>
       <c r="L71" t="s">
         <v>17</v>
       </c>
       <c r="M71" t="s">
-        <v>18</v>
+        <v>63</v>
       </c>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.25">
@@ -3531,40 +3537,40 @@
         <v>211111992</v>
       </c>
       <c r="B72" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C72" t="s">
-        <v>27</v>
-      </c>
-      <c r="D72">
-        <v>2025</v>
+        <v>14</v>
+      </c>
+      <c r="D72" t="s">
+        <v>15</v>
       </c>
       <c r="E72">
-        <v>628</v>
+        <v>10284</v>
       </c>
       <c r="F72" t="s">
         <v>16</v>
       </c>
       <c r="G72" s="1">
-        <v>45876</v>
+        <v>45876.526770833334</v>
       </c>
       <c r="H72" s="1">
-        <v>45846</v>
+        <v>45846.52884259259</v>
       </c>
       <c r="I72" s="2">
-        <v>-5</v>
+        <v>1</v>
       </c>
       <c r="J72" s="3">
-        <v>-24.060000000000002</v>
+        <v>192.77</v>
       </c>
       <c r="K72" s="3">
-        <v>-24.060000000000002</v>
+        <v>192.77</v>
       </c>
       <c r="L72" t="s">
         <v>17</v>
       </c>
       <c r="M72" t="s">
-        <v>18</v>
+        <v>63</v>
       </c>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.25">
@@ -3572,7 +3578,7 @@
         <v>211111992</v>
       </c>
       <c r="B73" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C73" t="s">
         <v>14</v>
@@ -3581,25 +3587,25 @@
         <v>15</v>
       </c>
       <c r="E73">
-        <v>10284</v>
+        <v>10720</v>
       </c>
       <c r="F73" t="s">
         <v>16</v>
       </c>
       <c r="G73" s="1">
-        <v>45876.526770833334</v>
+        <v>45885.592870370368</v>
       </c>
       <c r="H73" s="1">
-        <v>45846.52884259259</v>
+        <v>45855.592870370368</v>
       </c>
       <c r="I73" s="2">
-        <v>-5.5267708333340124</v>
+        <v>-8</v>
       </c>
       <c r="J73" s="3">
-        <v>192.77</v>
+        <v>57.06</v>
       </c>
       <c r="K73" s="3">
-        <v>192.77</v>
+        <v>57.06</v>
       </c>
       <c r="L73" t="s">
         <v>17</v>
@@ -3613,7 +3619,7 @@
         <v>211111992</v>
       </c>
       <c r="B74" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C74" t="s">
         <v>14</v>
@@ -3622,25 +3628,25 @@
         <v>15</v>
       </c>
       <c r="E74">
-        <v>10720</v>
+        <v>10722</v>
       </c>
       <c r="F74" t="s">
         <v>16</v>
       </c>
       <c r="G74" s="1">
-        <v>45885.592870370368</v>
+        <v>45885.593692129631</v>
       </c>
       <c r="H74" s="1">
-        <v>45855.592870370368</v>
+        <v>45855.593692129631</v>
       </c>
       <c r="I74" s="2">
-        <v>-14.592870370368473</v>
+        <v>-8</v>
       </c>
       <c r="J74" s="3">
-        <v>57.06</v>
+        <v>161.43</v>
       </c>
       <c r="K74" s="3">
-        <v>57.06</v>
+        <v>161.43</v>
       </c>
       <c r="L74" t="s">
         <v>17</v>
@@ -3654,7 +3660,7 @@
         <v>211111992</v>
       </c>
       <c r="B75" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C75" t="s">
         <v>14</v>
@@ -3663,25 +3669,25 @@
         <v>15</v>
       </c>
       <c r="E75">
-        <v>10722</v>
+        <v>11293</v>
       </c>
       <c r="F75" t="s">
         <v>16</v>
       </c>
       <c r="G75" s="1">
-        <v>45885.593692129631</v>
+        <v>45899.506145833329</v>
       </c>
       <c r="H75" s="1">
-        <v>45855.593692129631</v>
+        <v>45869.506157407406</v>
       </c>
       <c r="I75" s="2">
-        <v>-14.593692129630654</v>
+        <v>-22</v>
       </c>
       <c r="J75" s="3">
-        <v>161.43</v>
+        <v>237.28</v>
       </c>
       <c r="K75" s="3">
-        <v>161.43</v>
+        <v>237.28</v>
       </c>
       <c r="L75" t="s">
         <v>17</v>
@@ -3695,7 +3701,7 @@
         <v>211111992</v>
       </c>
       <c r="B76" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C76" t="s">
         <v>14</v>
@@ -3704,25 +3710,25 @@
         <v>15</v>
       </c>
       <c r="E76">
-        <v>11293</v>
+        <v>11599</v>
       </c>
       <c r="F76" t="s">
         <v>16</v>
       </c>
       <c r="G76" s="1">
-        <v>45899.506145833329</v>
+        <v>45906.63481481481</v>
       </c>
       <c r="H76" s="1">
-        <v>45869.506157407406</v>
+        <v>45876.635011574072</v>
       </c>
       <c r="I76" s="2">
-        <v>-28.506145833329356</v>
+        <v>-29</v>
       </c>
       <c r="J76" s="3">
-        <v>237.28</v>
+        <v>278.55</v>
       </c>
       <c r="K76" s="3">
-        <v>237.28</v>
+        <v>278.55</v>
       </c>
       <c r="L76" t="s">
         <v>17</v>
@@ -3736,7 +3742,7 @@
         <v>211112011</v>
       </c>
       <c r="B77" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C77" t="s">
         <v>27</v>
@@ -3757,7 +3763,7 @@
         <v>45848</v>
       </c>
       <c r="I77" s="2">
-        <v>-7</v>
+        <v>-1</v>
       </c>
       <c r="J77" s="3">
         <v>-62.300000000000004</v>
@@ -3777,7 +3783,7 @@
         <v>211112011</v>
       </c>
       <c r="B78" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C78" t="s">
         <v>14</v>
@@ -3786,25 +3792,25 @@
         <v>15</v>
       </c>
       <c r="E78">
-        <v>11109</v>
+        <v>11402</v>
       </c>
       <c r="F78" t="s">
         <v>16</v>
       </c>
       <c r="G78" s="1">
-        <v>45896.528275462959</v>
+        <v>45903.56554398148</v>
       </c>
       <c r="H78" s="1">
-        <v>45866.528275462959</v>
+        <v>45873.56554398148</v>
       </c>
       <c r="I78" s="2">
-        <v>-25.528275462958845</v>
+        <v>-26</v>
       </c>
       <c r="J78" s="3">
-        <v>611.25</v>
+        <v>479.16</v>
       </c>
       <c r="K78" s="3">
-        <v>611.25</v>
+        <v>479.16</v>
       </c>
       <c r="L78" t="s">
         <v>17</v>
@@ -3818,7 +3824,7 @@
         <v>211112011</v>
       </c>
       <c r="B79" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C79" t="s">
         <v>14</v>
@@ -3827,25 +3833,25 @@
         <v>15</v>
       </c>
       <c r="E79">
-        <v>11281</v>
+        <v>11586</v>
       </c>
       <c r="F79" t="s">
         <v>16</v>
       </c>
       <c r="G79" s="1">
-        <v>45899.501377314809</v>
+        <v>45906.518587962964</v>
       </c>
       <c r="H79" s="1">
-        <v>45869.501388888886</v>
+        <v>45876.519027777773</v>
       </c>
       <c r="I79" s="2">
-        <v>-28.501377314809361</v>
+        <v>-29</v>
       </c>
       <c r="J79" s="3">
-        <v>210.24</v>
+        <v>85.26</v>
       </c>
       <c r="K79" s="3">
-        <v>210.24</v>
+        <v>85.26</v>
       </c>
       <c r="L79" t="s">
         <v>17</v>
@@ -3859,7 +3865,7 @@
         <v>211112028</v>
       </c>
       <c r="B80" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C80" t="s">
         <v>14</v>
@@ -3880,7 +3886,7 @@
         <v>45855.556076388886</v>
       </c>
       <c r="I80" s="2">
-        <v>-14.555312500000582</v>
+        <v>-8</v>
       </c>
       <c r="J80" s="3">
         <v>281.88</v>
@@ -3897,10 +3903,10 @@
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>211112064</v>
+        <v>211112028</v>
       </c>
       <c r="B81" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C81" t="s">
         <v>14</v>
@@ -3909,25 +3915,25 @@
         <v>15</v>
       </c>
       <c r="E81">
-        <v>10467</v>
+        <v>11418</v>
       </c>
       <c r="F81" t="s">
         <v>16</v>
       </c>
       <c r="G81" s="1">
-        <v>45879.403541666667</v>
+        <v>45903.635358796295</v>
       </c>
       <c r="H81" s="1">
-        <v>45849.403553240736</v>
+        <v>45873.635370370372</v>
       </c>
       <c r="I81" s="2">
-        <v>-8.4035416666665697</v>
+        <v>-26</v>
       </c>
       <c r="J81" s="3">
-        <v>172.37</v>
+        <v>174.49</v>
       </c>
       <c r="K81" s="3">
-        <v>172.37</v>
+        <v>174.49</v>
       </c>
       <c r="L81" t="s">
         <v>17</v>
@@ -3941,7 +3947,7 @@
         <v>211112064</v>
       </c>
       <c r="B82" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C82" t="s">
         <v>14</v>
@@ -3962,7 +3968,7 @@
         <v>45854.469375000001</v>
       </c>
       <c r="I82" s="2">
-        <v>-13.469375000000582</v>
+        <v>-7</v>
       </c>
       <c r="J82" s="3">
         <v>78.2</v>
@@ -3982,10 +3988,10 @@
         <v>211112064</v>
       </c>
       <c r="B83" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C83" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D83" t="s">
         <v>15</v>
@@ -4003,7 +4009,7 @@
         <v>45861</v>
       </c>
       <c r="I83" s="2">
-        <v>-20</v>
+        <v>-14</v>
       </c>
       <c r="J83" s="3">
         <v>-156.15</v>
@@ -4023,7 +4029,7 @@
         <v>211112064</v>
       </c>
       <c r="B84" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C84" t="s">
         <v>14</v>
@@ -4044,7 +4050,7 @@
         <v>45861.550335648149</v>
       </c>
       <c r="I84" s="2">
-        <v>-20.550335648149485</v>
+        <v>-14</v>
       </c>
       <c r="J84" s="3">
         <v>156.15</v>
@@ -4064,7 +4070,7 @@
         <v>211112064</v>
       </c>
       <c r="B85" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C85" t="s">
         <v>14</v>
@@ -4085,7 +4091,7 @@
         <v>45862.34233796296</v>
       </c>
       <c r="I85" s="2">
-        <v>-21.340671296296932</v>
+        <v>-15</v>
       </c>
       <c r="J85" s="3">
         <v>116.54</v>
@@ -4105,7 +4111,7 @@
         <v>211112064</v>
       </c>
       <c r="B86" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C86" t="s">
         <v>14</v>
@@ -4126,7 +4132,7 @@
         <v>45866.626180555555</v>
       </c>
       <c r="I86" s="2">
-        <v>-25.624918981477094</v>
+        <v>-19</v>
       </c>
       <c r="J86" s="3">
         <v>44.92</v>
@@ -4146,7 +4152,7 @@
         <v>211112064</v>
       </c>
       <c r="B87" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C87" t="s">
         <v>14</v>
@@ -4167,7 +4173,7 @@
         <v>45870.567106481481</v>
       </c>
       <c r="I87" s="2">
-        <v>-29.56710648148146</v>
+        <v>-23</v>
       </c>
       <c r="J87" s="3">
         <v>179.36</v>
@@ -4187,7 +4193,7 @@
         <v>211112086</v>
       </c>
       <c r="B88" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C88" t="s">
         <v>14</v>
@@ -4208,7 +4214,7 @@
         <v>45848.428182870368</v>
       </c>
       <c r="I88" s="2">
-        <v>-7.4281828703678912</v>
+        <v>-1</v>
       </c>
       <c r="J88" s="3">
         <v>181.28</v>
@@ -4228,7 +4234,7 @@
         <v>211112086</v>
       </c>
       <c r="B89" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C89" t="s">
         <v>14</v>
@@ -4249,7 +4255,7 @@
         <v>45855.500740740739</v>
       </c>
       <c r="I89" s="2">
-        <v>-14.500740740739275</v>
+        <v>-8</v>
       </c>
       <c r="J89" s="3">
         <v>236.3</v>
@@ -4269,7 +4275,7 @@
         <v>211112086</v>
       </c>
       <c r="B90" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C90" t="s">
         <v>14</v>
@@ -4290,7 +4296,7 @@
         <v>45862.49282407407</v>
       </c>
       <c r="I90" s="2">
-        <v>-21.492824074070086</v>
+        <v>-15</v>
       </c>
       <c r="J90" s="3">
         <v>68.710000000000008</v>
@@ -4307,10 +4313,10 @@
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>211112132</v>
+        <v>211112086</v>
       </c>
       <c r="B91" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C91" t="s">
         <v>14</v>
@@ -4319,25 +4325,25 @@
         <v>15</v>
       </c>
       <c r="E91">
-        <v>10196</v>
+        <v>11590</v>
       </c>
       <c r="F91" t="s">
         <v>16</v>
       </c>
       <c r="G91" s="1">
-        <v>45875.461145833331</v>
+        <v>45906.520590277774</v>
       </c>
       <c r="H91" s="1">
-        <v>45845.461145833331</v>
+        <v>45876.520879629628</v>
       </c>
       <c r="I91" s="2">
-        <v>-4.461145833331102</v>
+        <v>-29</v>
       </c>
       <c r="J91" s="3">
-        <v>225.16</v>
+        <v>122.73</v>
       </c>
       <c r="K91" s="3">
-        <v>225.16</v>
+        <v>122.73</v>
       </c>
       <c r="L91" t="s">
         <v>17</v>
@@ -4348,10 +4354,10 @@
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>211112132</v>
+        <v>211112115</v>
       </c>
       <c r="B92" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="C92" t="s">
         <v>14</v>
@@ -4360,25 +4366,25 @@
         <v>15</v>
       </c>
       <c r="E92">
-        <v>10702</v>
+        <v>11400</v>
       </c>
       <c r="F92" t="s">
         <v>16</v>
       </c>
       <c r="G92" s="1">
-        <v>45885.498414351852</v>
+        <v>45903.565439814811</v>
       </c>
       <c r="H92" s="1">
-        <v>45855.498414351852</v>
+        <v>45873.565462962964</v>
       </c>
       <c r="I92" s="2">
-        <v>-14.498414351852261</v>
+        <v>-26</v>
       </c>
       <c r="J92" s="3">
-        <v>320.82</v>
+        <v>104.63</v>
       </c>
       <c r="K92" s="3">
-        <v>320.82</v>
+        <v>104.63</v>
       </c>
       <c r="L92" t="s">
         <v>17</v>
@@ -4389,10 +4395,10 @@
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>211112132</v>
+        <v>211112115</v>
       </c>
       <c r="B93" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="C93" t="s">
         <v>14</v>
@@ -4401,25 +4407,25 @@
         <v>15</v>
       </c>
       <c r="E93">
-        <v>11108</v>
+        <v>11587</v>
       </c>
       <c r="F93" t="s">
         <v>16</v>
       </c>
       <c r="G93" s="1">
-        <v>45896.528252314813</v>
+        <v>45906.519178240742</v>
       </c>
       <c r="H93" s="1">
-        <v>45866.528252314813</v>
+        <v>45876.519560185181</v>
       </c>
       <c r="I93" s="2">
-        <v>-25.528252314812562</v>
+        <v>-29</v>
       </c>
       <c r="J93" s="3">
-        <v>296.43</v>
+        <v>257.05</v>
       </c>
       <c r="K93" s="3">
-        <v>296.43</v>
+        <v>257.05</v>
       </c>
       <c r="L93" t="s">
         <v>17</v>
@@ -4433,7 +4439,7 @@
         <v>211112132</v>
       </c>
       <c r="B94" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C94" t="s">
         <v>14</v>
@@ -4442,25 +4448,25 @@
         <v>15</v>
       </c>
       <c r="E94">
-        <v>11280</v>
+        <v>11593</v>
       </c>
       <c r="F94" t="s">
         <v>16</v>
       </c>
       <c r="G94" s="1">
-        <v>45899.501354166663</v>
+        <v>45906.522152777776</v>
       </c>
       <c r="H94" s="1">
-        <v>45869.50136574074</v>
+        <v>45876.52475694444</v>
       </c>
       <c r="I94" s="2">
-        <v>-28.501354166663077</v>
+        <v>-29</v>
       </c>
       <c r="J94" s="3">
-        <v>96.56</v>
+        <v>233.13</v>
       </c>
       <c r="K94" s="3">
-        <v>96.56</v>
+        <v>233.13</v>
       </c>
       <c r="L94" t="s">
         <v>17</v>
@@ -4474,7 +4480,7 @@
         <v>211112198</v>
       </c>
       <c r="B95" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C95" t="s">
         <v>14</v>
@@ -4495,7 +4501,7 @@
         <v>45845.486840277779</v>
       </c>
       <c r="I95" s="2">
-        <v>-4.4868402777792653</v>
+        <v>2</v>
       </c>
       <c r="J95" s="3">
         <v>187.19</v>
@@ -4507,7 +4513,7 @@
         <v>17</v>
       </c>
       <c r="M95" t="s">
-        <v>18</v>
+        <v>63</v>
       </c>
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.25">
@@ -4515,34 +4521,34 @@
         <v>211112198</v>
       </c>
       <c r="B96" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C96" t="s">
-        <v>14</v>
-      </c>
-      <c r="D96" t="s">
-        <v>15</v>
+        <v>27</v>
+      </c>
+      <c r="D96">
+        <v>2025</v>
       </c>
       <c r="E96">
-        <v>11107</v>
+        <v>702</v>
       </c>
       <c r="F96" t="s">
         <v>16</v>
       </c>
       <c r="G96" s="1">
-        <v>45896.52820601852</v>
+        <v>45896</v>
       </c>
       <c r="H96" s="1">
-        <v>45866.52820601852</v>
+        <v>45866</v>
       </c>
       <c r="I96" s="2">
-        <v>-25.528206018519995</v>
+        <v>-19</v>
       </c>
       <c r="J96" s="3">
-        <v>587.35</v>
+        <v>-2.41</v>
       </c>
       <c r="K96" s="3">
-        <v>60.03</v>
+        <v>-2.41</v>
       </c>
       <c r="L96" t="s">
         <v>17</v>
@@ -4553,43 +4559,43 @@
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>211112291</v>
+        <v>211112198</v>
       </c>
       <c r="B97" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C97" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="D97" t="s">
-        <v>32</v>
-      </c>
-      <c r="E97" t="s">
-        <v>50</v>
+        <v>15</v>
+      </c>
+      <c r="E97">
+        <v>11107</v>
       </c>
       <c r="F97" t="s">
         <v>16</v>
       </c>
       <c r="G97" s="1">
-        <v>45324</v>
+        <v>45896.52820601852</v>
       </c>
       <c r="H97" s="1">
-        <v>45324</v>
+        <v>45866.52820601852</v>
       </c>
       <c r="I97" s="2">
-        <v>547</v>
+        <v>-19</v>
       </c>
       <c r="J97" s="3">
-        <v>200.59</v>
+        <v>587.35</v>
       </c>
       <c r="K97" s="3">
-        <v>200.59</v>
+        <v>60.03</v>
       </c>
       <c r="L97" t="s">
         <v>17</v>
       </c>
       <c r="M97" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.25">
@@ -4597,16 +4603,16 @@
         <v>211112291</v>
       </c>
       <c r="B98" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C98" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D98" t="s">
         <v>32</v>
       </c>
       <c r="E98" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F98" t="s">
         <v>16</v>
@@ -4618,19 +4624,19 @@
         <v>45324</v>
       </c>
       <c r="I98" s="2">
-        <v>547</v>
+        <v>553</v>
       </c>
       <c r="J98" s="3">
-        <v>76.36</v>
+        <v>200.59</v>
       </c>
       <c r="K98" s="3">
-        <v>76.36</v>
+        <v>200.59</v>
       </c>
       <c r="L98" t="s">
         <v>17</v>
       </c>
       <c r="M98" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.25">
@@ -4638,40 +4644,40 @@
         <v>211112291</v>
       </c>
       <c r="B99" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C99" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D99" t="s">
         <v>32</v>
       </c>
       <c r="E99" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F99" t="s">
         <v>16</v>
       </c>
       <c r="G99" s="1">
-        <v>45331</v>
+        <v>45324</v>
       </c>
       <c r="H99" s="1">
-        <v>45331</v>
+        <v>45324</v>
       </c>
       <c r="I99" s="2">
-        <v>540</v>
+        <v>553</v>
       </c>
       <c r="J99" s="3">
-        <v>209.18</v>
+        <v>76.36</v>
       </c>
       <c r="K99" s="3">
-        <v>209.18</v>
+        <v>76.36</v>
       </c>
       <c r="L99" t="s">
         <v>17</v>
       </c>
       <c r="M99" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.25">
@@ -4679,40 +4685,40 @@
         <v>211112291</v>
       </c>
       <c r="B100" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C100" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D100" t="s">
         <v>32</v>
       </c>
       <c r="E100" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F100" t="s">
         <v>16</v>
       </c>
       <c r="G100" s="1">
-        <v>45366</v>
+        <v>45331</v>
       </c>
       <c r="H100" s="1">
-        <v>45366</v>
+        <v>45331</v>
       </c>
       <c r="I100" s="2">
-        <v>505</v>
+        <v>546</v>
       </c>
       <c r="J100" s="3">
-        <v>872.94</v>
+        <v>209.18</v>
       </c>
       <c r="K100" s="3">
-        <v>872.94</v>
+        <v>209.18</v>
       </c>
       <c r="L100" t="s">
         <v>17</v>
       </c>
       <c r="M100" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.25">
@@ -4720,40 +4726,40 @@
         <v>211112291</v>
       </c>
       <c r="B101" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C101" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D101" t="s">
         <v>32</v>
       </c>
       <c r="E101" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F101" t="s">
         <v>16</v>
       </c>
       <c r="G101" s="1">
-        <v>45390</v>
+        <v>45366</v>
       </c>
       <c r="H101" s="1">
-        <v>45390</v>
+        <v>45366</v>
       </c>
       <c r="I101" s="2">
-        <v>481</v>
+        <v>511</v>
       </c>
       <c r="J101" s="3">
-        <v>261.22000000000003</v>
+        <v>872.94</v>
       </c>
       <c r="K101" s="3">
-        <v>261.22000000000003</v>
+        <v>872.94</v>
       </c>
       <c r="L101" t="s">
         <v>17</v>
       </c>
       <c r="M101" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.25">
@@ -4761,81 +4767,81 @@
         <v>211112291</v>
       </c>
       <c r="B102" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C102" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="D102" t="s">
-        <v>55</v>
-      </c>
-      <c r="E102">
-        <v>1957</v>
+        <v>32</v>
+      </c>
+      <c r="E102" t="s">
+        <v>53</v>
       </c>
       <c r="F102" t="s">
         <v>16</v>
       </c>
       <c r="G102" s="1">
-        <v>45529.645949074074</v>
+        <v>45390</v>
       </c>
       <c r="H102" s="1">
-        <v>45499.646979166668</v>
+        <v>45390</v>
       </c>
       <c r="I102" s="2">
-        <v>341.35405092592555</v>
+        <v>487</v>
       </c>
       <c r="J102" s="3">
-        <v>68.7</v>
+        <v>261.22000000000003</v>
       </c>
       <c r="K102" s="3">
-        <v>68.7</v>
+        <v>261.22000000000003</v>
       </c>
       <c r="L102" t="s">
         <v>17</v>
       </c>
       <c r="M102" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A103">
-        <v>211112314</v>
+        <v>211112291</v>
       </c>
       <c r="B103" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C103" t="s">
-        <v>27</v>
-      </c>
-      <c r="D103">
-        <v>2025</v>
+        <v>14</v>
+      </c>
+      <c r="D103" t="s">
+        <v>54</v>
       </c>
       <c r="E103">
-        <v>345</v>
+        <v>1957</v>
       </c>
       <c r="F103" t="s">
         <v>16</v>
       </c>
       <c r="G103" s="1">
-        <v>45788</v>
+        <v>45529.645949074074</v>
       </c>
       <c r="H103" s="1">
-        <v>45758</v>
+        <v>45499.646979166668</v>
       </c>
       <c r="I103" s="2">
-        <v>83</v>
+        <v>348</v>
       </c>
       <c r="J103" s="3">
-        <v>-16.809999999999999</v>
+        <v>68.7</v>
       </c>
       <c r="K103" s="3">
-        <v>-16.809999999999999</v>
+        <v>68.7</v>
       </c>
       <c r="L103" t="s">
         <v>17</v>
       </c>
       <c r="M103" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.25">
@@ -4843,40 +4849,40 @@
         <v>211112314</v>
       </c>
       <c r="B104" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C104" t="s">
-        <v>14</v>
-      </c>
-      <c r="D104" t="s">
-        <v>15</v>
+        <v>27</v>
+      </c>
+      <c r="D104">
+        <v>2025</v>
       </c>
       <c r="E104">
-        <v>8584</v>
+        <v>345</v>
       </c>
       <c r="F104" t="s">
         <v>16</v>
       </c>
       <c r="G104" s="1">
-        <v>45836.412951388884</v>
+        <v>45788</v>
       </c>
       <c r="H104" s="1">
-        <v>45806.420115740737</v>
+        <v>45758</v>
       </c>
       <c r="I104" s="2">
-        <v>34.587048611116188</v>
+        <v>89</v>
       </c>
       <c r="J104" s="3">
-        <v>417.92</v>
+        <v>-16.809999999999999</v>
       </c>
       <c r="K104" s="3">
-        <v>417.92</v>
+        <v>-16.809999999999999</v>
       </c>
       <c r="L104" t="s">
         <v>17</v>
       </c>
       <c r="M104" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.25">
@@ -4884,7 +4890,7 @@
         <v>211112314</v>
       </c>
       <c r="B105" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C105" t="s">
         <v>14</v>
@@ -4893,31 +4899,31 @@
         <v>15</v>
       </c>
       <c r="E105">
-        <v>9310</v>
+        <v>8584</v>
       </c>
       <c r="F105" t="s">
         <v>16</v>
       </c>
       <c r="G105" s="1">
-        <v>45854.476550925923</v>
+        <v>45836.412951388884</v>
       </c>
       <c r="H105" s="1">
-        <v>45824.477476851847</v>
+        <v>45806.420115740737</v>
       </c>
       <c r="I105" s="2">
-        <v>16.52344907407678</v>
+        <v>41</v>
       </c>
       <c r="J105" s="3">
-        <v>276.85000000000002</v>
+        <v>417.92</v>
       </c>
       <c r="K105" s="3">
-        <v>276.85000000000002</v>
+        <v>417.92</v>
       </c>
       <c r="L105" t="s">
         <v>17</v>
       </c>
       <c r="M105" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="106" spans="1:13" x14ac:dyDescent="0.25">
@@ -4925,7 +4931,7 @@
         <v>211112314</v>
       </c>
       <c r="B106" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C106" t="s">
         <v>14</v>
@@ -4934,25 +4940,25 @@
         <v>15</v>
       </c>
       <c r="E106">
-        <v>9605</v>
+        <v>9310</v>
       </c>
       <c r="F106" t="s">
         <v>16</v>
       </c>
       <c r="G106" s="1">
-        <v>45861.477291666662</v>
+        <v>45854.476550925923</v>
       </c>
       <c r="H106" s="1">
-        <v>45831.482349537036</v>
+        <v>45824.477476851847</v>
       </c>
       <c r="I106" s="2">
-        <v>9.5227083333375049</v>
+        <v>23</v>
       </c>
       <c r="J106" s="3">
-        <v>179.56</v>
+        <v>276.85000000000002</v>
       </c>
       <c r="K106" s="3">
-        <v>179.56</v>
+        <v>276.85000000000002</v>
       </c>
       <c r="L106" t="s">
         <v>17</v>
@@ -4966,7 +4972,7 @@
         <v>211112314</v>
       </c>
       <c r="B107" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C107" t="s">
         <v>14</v>
@@ -4975,25 +4981,25 @@
         <v>15</v>
       </c>
       <c r="E107">
-        <v>9765</v>
+        <v>9605</v>
       </c>
       <c r="F107" t="s">
         <v>16</v>
       </c>
       <c r="G107" s="1">
-        <v>45864.431539351848</v>
+        <v>45861.477291666662</v>
       </c>
       <c r="H107" s="1">
-        <v>45834.432766203703</v>
+        <v>45831.482349537036</v>
       </c>
       <c r="I107" s="2">
-        <v>6.5684606481518131</v>
+        <v>16</v>
       </c>
       <c r="J107" s="3">
-        <v>124.9</v>
+        <v>179.56</v>
       </c>
       <c r="K107" s="3">
-        <v>124.9</v>
+        <v>179.56</v>
       </c>
       <c r="L107" t="s">
         <v>17</v>
@@ -5004,43 +5010,43 @@
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A108">
-        <v>211112327</v>
+        <v>211112314</v>
       </c>
       <c r="B108" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C108" t="s">
-        <v>27</v>
-      </c>
-      <c r="D108">
-        <v>2025</v>
+        <v>14</v>
+      </c>
+      <c r="D108" t="s">
+        <v>15</v>
       </c>
       <c r="E108">
-        <v>75</v>
+        <v>9765</v>
       </c>
       <c r="F108" t="s">
         <v>16</v>
       </c>
       <c r="G108" s="1">
-        <v>45721</v>
+        <v>45864.431539351848</v>
       </c>
       <c r="H108" s="1">
-        <v>45691</v>
+        <v>45834.432766203703</v>
       </c>
       <c r="I108" s="2">
-        <v>150</v>
+        <v>13</v>
       </c>
       <c r="J108" s="3">
-        <v>-52.050000000000004</v>
+        <v>124.9</v>
       </c>
       <c r="K108" s="3">
-        <v>-52.050000000000004</v>
+        <v>124.9</v>
       </c>
       <c r="L108" t="s">
         <v>17</v>
       </c>
       <c r="M108" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
     </row>
     <row r="109" spans="1:13" x14ac:dyDescent="0.25">
@@ -5048,130 +5054,130 @@
         <v>211112327</v>
       </c>
       <c r="B109" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C109" t="s">
-        <v>58</v>
-      </c>
-      <c r="D109" t="s">
-        <v>15</v>
+        <v>27</v>
+      </c>
+      <c r="D109">
+        <v>2025</v>
       </c>
       <c r="E109">
-        <v>4</v>
+        <v>75</v>
       </c>
       <c r="F109" t="s">
         <v>16</v>
       </c>
       <c r="G109" s="1">
-        <v>45723</v>
+        <v>45721</v>
       </c>
       <c r="H109" s="1">
-        <v>45693</v>
+        <v>45691</v>
       </c>
       <c r="I109" s="2">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="J109" s="3">
-        <v>-26.51</v>
+        <v>-52.050000000000004</v>
       </c>
       <c r="K109" s="3">
-        <v>-26.51</v>
+        <v>-52.050000000000004</v>
       </c>
       <c r="L109" t="s">
         <v>17</v>
       </c>
       <c r="M109" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="110" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A110">
-        <v>211112401</v>
+        <v>211112327</v>
       </c>
       <c r="B110" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C110" t="s">
-        <v>31</v>
+        <v>57</v>
       </c>
       <c r="D110" t="s">
-        <v>32</v>
-      </c>
-      <c r="E110" t="s">
-        <v>33</v>
+        <v>15</v>
+      </c>
+      <c r="E110">
+        <v>4</v>
       </c>
       <c r="F110" t="s">
         <v>16</v>
       </c>
       <c r="G110" s="1">
-        <v>45755</v>
+        <v>45723</v>
       </c>
       <c r="H110" s="1">
-        <v>45740</v>
+        <v>45693</v>
       </c>
       <c r="I110" s="2">
-        <v>116</v>
+        <v>154</v>
       </c>
       <c r="J110" s="3">
-        <v>-489.09000000000003</v>
+        <v>-26.51</v>
       </c>
       <c r="K110" s="3">
-        <v>-109.25</v>
+        <v>-26.51</v>
       </c>
       <c r="L110" t="s">
         <v>17</v>
       </c>
       <c r="M110" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="111" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A111">
-        <v>211112477</v>
+        <v>211112401</v>
       </c>
       <c r="B111" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C111" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="D111" t="s">
-        <v>15</v>
-      </c>
-      <c r="E111">
-        <v>10892</v>
+        <v>32</v>
+      </c>
+      <c r="E111" t="s">
+        <v>33</v>
       </c>
       <c r="F111" t="s">
         <v>16</v>
       </c>
       <c r="G111" s="1">
-        <v>45906.412418981483</v>
+        <v>45755</v>
       </c>
       <c r="H111" s="1">
-        <v>45861.413124999999</v>
+        <v>45740</v>
       </c>
       <c r="I111" s="2">
-        <v>-35.412418981482915</v>
+        <v>122</v>
       </c>
       <c r="J111" s="3">
-        <v>89.64</v>
+        <v>-489.09000000000003</v>
       </c>
       <c r="K111" s="3">
-        <v>89.64</v>
+        <v>-109.25</v>
       </c>
       <c r="L111" t="s">
         <v>17</v>
       </c>
       <c r="M111" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A112">
-        <v>211112477</v>
+        <v>211112436</v>
       </c>
       <c r="B112" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="C112" t="s">
         <v>14</v>
@@ -5180,25 +5186,25 @@
         <v>15</v>
       </c>
       <c r="E112">
-        <v>11350</v>
+        <v>11601</v>
       </c>
       <c r="F112" t="s">
         <v>16</v>
       </c>
       <c r="G112" s="1">
-        <v>45915.566817129627</v>
+        <v>45891.63612268518</v>
       </c>
       <c r="H112" s="1">
-        <v>45870.566817129627</v>
+        <v>45876.636307870365</v>
       </c>
       <c r="I112" s="2">
-        <v>-44.566817129627452</v>
+        <v>-14</v>
       </c>
       <c r="J112" s="3">
-        <v>113.84</v>
+        <v>271.74</v>
       </c>
       <c r="K112" s="3">
-        <v>113.84</v>
+        <v>271.74</v>
       </c>
       <c r="L112" t="s">
         <v>17</v>
@@ -5209,84 +5215,166 @@
     </row>
     <row r="113" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A113">
-        <v>211112505</v>
+        <v>211112477</v>
       </c>
       <c r="B113" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C113" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="D113" t="s">
-        <v>32</v>
-      </c>
-      <c r="E113" t="s">
-        <v>33</v>
+        <v>15</v>
+      </c>
+      <c r="E113">
+        <v>10892</v>
       </c>
       <c r="F113" t="s">
         <v>16</v>
       </c>
       <c r="G113" s="1">
-        <v>45803</v>
+        <v>45906.412418981483</v>
       </c>
       <c r="H113" s="1">
-        <v>45803</v>
+        <v>45861.413124999999</v>
       </c>
       <c r="I113" s="2">
-        <v>68</v>
+        <v>-29</v>
       </c>
       <c r="J113" s="3">
-        <v>-350</v>
+        <v>89.64</v>
       </c>
       <c r="K113" s="3">
-        <v>-0.24</v>
+        <v>89.64</v>
       </c>
       <c r="L113" t="s">
         <v>17</v>
       </c>
       <c r="M113" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
     </row>
     <row r="114" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A114">
+        <v>211112477</v>
+      </c>
+      <c r="B114" t="s">
+        <v>59</v>
+      </c>
+      <c r="C114" t="s">
+        <v>14</v>
+      </c>
+      <c r="D114" t="s">
+        <v>15</v>
+      </c>
+      <c r="E114">
+        <v>11350</v>
+      </c>
+      <c r="F114" t="s">
+        <v>16</v>
+      </c>
+      <c r="G114" s="1">
+        <v>45915.566817129627</v>
+      </c>
+      <c r="H114" s="1">
+        <v>45870.566817129627</v>
+      </c>
+      <c r="I114" s="2">
+        <v>-38</v>
+      </c>
+      <c r="J114" s="3">
+        <v>113.84</v>
+      </c>
+      <c r="K114" s="3">
+        <v>113.84</v>
+      </c>
+      <c r="L114" t="s">
+        <v>17</v>
+      </c>
+      <c r="M114" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>211112505</v>
+      </c>
+      <c r="B115" t="s">
+        <v>60</v>
+      </c>
+      <c r="C115" t="s">
+        <v>31</v>
+      </c>
+      <c r="D115" t="s">
+        <v>32</v>
+      </c>
+      <c r="E115" t="s">
+        <v>33</v>
+      </c>
+      <c r="F115" t="s">
+        <v>16</v>
+      </c>
+      <c r="G115" s="1">
+        <v>45803</v>
+      </c>
+      <c r="H115" s="1">
+        <v>45803</v>
+      </c>
+      <c r="I115" s="2">
+        <v>74</v>
+      </c>
+      <c r="J115" s="3">
+        <v>-350</v>
+      </c>
+      <c r="K115" s="3">
+        <v>-0.24</v>
+      </c>
+      <c r="L115" t="s">
+        <v>17</v>
+      </c>
+      <c r="M115" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A116">
         <v>211112523</v>
       </c>
-      <c r="B114" t="s">
-        <v>62</v>
-      </c>
-      <c r="C114" t="s">
-        <v>14</v>
-      </c>
-      <c r="D114" t="s">
-        <v>15</v>
-      </c>
-      <c r="E114">
+      <c r="B116" t="s">
+        <v>61</v>
+      </c>
+      <c r="C116" t="s">
+        <v>14</v>
+      </c>
+      <c r="D116" t="s">
+        <v>15</v>
+      </c>
+      <c r="E116">
         <v>7843</v>
       </c>
-      <c r="F114" t="s">
-        <v>16</v>
-      </c>
-      <c r="G114" s="1">
+      <c r="F116" t="s">
+        <v>16</v>
+      </c>
+      <c r="G116" s="1">
         <v>45792.648773148147</v>
       </c>
-      <c r="H114" s="1">
+      <c r="H116" s="1">
         <v>45792.648773148147</v>
       </c>
-      <c r="I114" s="2">
-        <v>78.351226851853426</v>
-      </c>
-      <c r="J114" s="3">
+      <c r="I116" s="2">
+        <v>85</v>
+      </c>
+      <c r="J116" s="3">
         <v>481.94</v>
       </c>
-      <c r="K114" s="3">
+      <c r="K116" s="3">
         <v>481.94</v>
       </c>
-      <c r="L114" t="s">
-        <v>17</v>
-      </c>
-      <c r="M114" t="s">
-        <v>37</v>
+      <c r="L116" t="s">
+        <v>17</v>
+      </c>
+      <c r="M116" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/RSilva.xlsx
+++ b/RSilva.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Paulo\Desktop\AnaliseDebitos\Comerciais\Comercias_streamlit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4F7C17E-B67C-4BB7-A4A3-E724D83CDA4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F125A6F-FEB3-44FD-88AB-603C56A20557}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{625309C2-95EA-4B09-BB51-191061F91C1F}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="701" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="677" uniqueCount="65">
   <si>
     <t>Tipo Conta</t>
   </si>
@@ -231,9 +231,6 @@
   </si>
   <si>
     <t>Aparencia Harmoniosa, Lda.</t>
-  </si>
-  <si>
-    <t>Nuno Gonçalves Pereira</t>
   </si>
 </sst>
 </file>
@@ -608,10 +605,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD349965-A8B5-4EE0-821C-041F97E8ED57}">
-  <dimension ref="A1:M116"/>
+  <dimension ref="A1:M112"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:M116"/>
+    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:M112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -688,7 +685,7 @@
         <v>45846.542997685181</v>
       </c>
       <c r="I2" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J2" s="3">
         <v>342.38</v>
@@ -729,7 +726,7 @@
         <v>45834.507268518515</v>
       </c>
       <c r="I3" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J3" s="3">
         <v>100.2</v>
@@ -770,7 +767,7 @@
         <v>45855.560266203705</v>
       </c>
       <c r="I4" s="2">
-        <v>-8</v>
+        <v>-7</v>
       </c>
       <c r="J4" s="3">
         <v>63.9</v>
@@ -811,7 +808,7 @@
         <v>45855.554108796292</v>
       </c>
       <c r="I5" s="2">
-        <v>-8</v>
+        <v>-7</v>
       </c>
       <c r="J5" s="3">
         <v>195.99</v>
@@ -852,7 +849,7 @@
         <v>45863.454097222224</v>
       </c>
       <c r="I6" s="2">
-        <v>-16</v>
+        <v>-15</v>
       </c>
       <c r="J6" s="3">
         <v>145.12</v>
@@ -893,7 +890,7 @@
         <v>45873.635324074072</v>
       </c>
       <c r="I7" s="2">
-        <v>-26</v>
+        <v>-25</v>
       </c>
       <c r="J7" s="3">
         <v>277.5</v>
@@ -934,7 +931,7 @@
         <v>45854.469178240739</v>
       </c>
       <c r="I8" s="2">
-        <v>-7</v>
+        <v>-6</v>
       </c>
       <c r="J8" s="3">
         <v>120.76</v>
@@ -975,7 +972,7 @@
         <v>45868.501041666663</v>
       </c>
       <c r="I9" s="2">
-        <v>-21</v>
+        <v>-20</v>
       </c>
       <c r="J9" s="3">
         <v>164.08</v>
@@ -1016,7 +1013,7 @@
         <v>45846.5465162037</v>
       </c>
       <c r="I10" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J10" s="3">
         <v>157.82</v>
@@ -1057,7 +1054,7 @@
         <v>45855.593657407408</v>
       </c>
       <c r="I11" s="2">
-        <v>-8</v>
+        <v>-7</v>
       </c>
       <c r="J11" s="3">
         <v>177.07</v>
@@ -1098,7 +1095,7 @@
         <v>45861.413842592592</v>
       </c>
       <c r="I12" s="2">
-        <v>-29</v>
+        <v>-28</v>
       </c>
       <c r="J12" s="3">
         <v>88.14</v>
@@ -1139,7 +1136,7 @@
         <v>45870.566944444443</v>
       </c>
       <c r="I13" s="2">
-        <v>-38</v>
+        <v>-37</v>
       </c>
       <c r="J13" s="3">
         <v>115.95</v>
@@ -1180,7 +1177,7 @@
         <v>45873.565613425926</v>
       </c>
       <c r="I14" s="2">
-        <v>-26</v>
+        <v>-25</v>
       </c>
       <c r="J14" s="3">
         <v>292.47000000000003</v>
@@ -1221,7 +1218,7 @@
         <v>45786</v>
       </c>
       <c r="I15" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J15" s="3">
         <v>-54.99</v>
@@ -1262,7 +1259,7 @@
         <v>45841.468414351853</v>
       </c>
       <c r="I16" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J16" s="3">
         <v>328.56</v>
@@ -1303,7 +1300,7 @@
         <v>45866</v>
       </c>
       <c r="I17" s="2">
-        <v>-19</v>
+        <v>-18</v>
       </c>
       <c r="J17" s="3">
         <v>-26.240000000000002</v>
@@ -1344,7 +1341,7 @@
         <v>45866.528368055551</v>
       </c>
       <c r="I18" s="2">
-        <v>-19</v>
+        <v>-18</v>
       </c>
       <c r="J18" s="3">
         <v>471.41</v>
@@ -1385,7 +1382,7 @@
         <v>45866</v>
       </c>
       <c r="I19" s="2">
-        <v>-19</v>
+        <v>-18</v>
       </c>
       <c r="J19" s="3">
         <v>-2.41</v>
@@ -1426,7 +1423,7 @@
         <v>45866.528148148143</v>
       </c>
       <c r="I20" s="2">
-        <v>-19</v>
+        <v>-18</v>
       </c>
       <c r="J20" s="3">
         <v>673.51</v>
@@ -1467,7 +1464,7 @@
         <v>45873.568761574075</v>
       </c>
       <c r="I21" s="2">
-        <v>-26</v>
+        <v>-25</v>
       </c>
       <c r="J21" s="3">
         <v>684.17</v>
@@ -1496,31 +1493,31 @@
         <v>15</v>
       </c>
       <c r="E22">
-        <v>8732</v>
+        <v>10215</v>
       </c>
       <c r="F22" t="s">
         <v>16</v>
       </c>
       <c r="G22" s="1">
-        <v>45840.431840277779</v>
+        <v>45875.482060185182</v>
       </c>
       <c r="H22" s="1">
-        <v>45810.431990740741</v>
+        <v>45845.482060185182</v>
       </c>
       <c r="I22" s="2">
-        <v>37</v>
+        <v>3</v>
       </c>
       <c r="J22" s="3">
-        <v>186.96</v>
+        <v>280.28000000000003</v>
       </c>
       <c r="K22" s="3">
-        <v>186.96</v>
+        <v>280.28000000000003</v>
       </c>
       <c r="L22" t="s">
         <v>17</v>
       </c>
       <c r="M22" t="s">
-        <v>28</v>
+        <v>63</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
@@ -1531,37 +1528,37 @@
         <v>30</v>
       </c>
       <c r="C23" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="D23" t="s">
         <v>15</v>
       </c>
       <c r="E23">
-        <v>8931</v>
+        <v>518</v>
       </c>
       <c r="F23" t="s">
         <v>16</v>
       </c>
       <c r="G23" s="1">
-        <v>45843.55400462963</v>
+        <v>45878</v>
       </c>
       <c r="H23" s="1">
-        <v>45813.554432870369</v>
+        <v>45848</v>
       </c>
       <c r="I23" s="2">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="J23" s="3">
-        <v>161.62</v>
+        <v>-4.63</v>
       </c>
       <c r="K23" s="3">
-        <v>161.62</v>
+        <v>-4.63</v>
       </c>
       <c r="L23" t="s">
         <v>17</v>
       </c>
       <c r="M23" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
@@ -1578,31 +1575,31 @@
         <v>15</v>
       </c>
       <c r="E24">
-        <v>9292</v>
+        <v>10408</v>
       </c>
       <c r="F24" t="s">
         <v>16</v>
       </c>
       <c r="G24" s="1">
-        <v>45854.444444444445</v>
+        <v>45878.421249999999</v>
       </c>
       <c r="H24" s="1">
-        <v>45824.447060185186</v>
+        <v>45848.421249999999</v>
       </c>
       <c r="I24" s="2">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="J24" s="3">
-        <v>338.69</v>
+        <v>167.72</v>
       </c>
       <c r="K24" s="3">
-        <v>338.69</v>
+        <v>167.72</v>
       </c>
       <c r="L24" t="s">
         <v>17</v>
       </c>
       <c r="M24" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
@@ -1619,31 +1616,31 @@
         <v>15</v>
       </c>
       <c r="E25">
-        <v>9512</v>
+        <v>10524</v>
       </c>
       <c r="F25" t="s">
         <v>16</v>
       </c>
       <c r="G25" s="1">
-        <v>45858.51866898148</v>
+        <v>45882.489189814813</v>
       </c>
       <c r="H25" s="1">
-        <v>45828.519467592589</v>
+        <v>45852.489189814813</v>
       </c>
       <c r="I25" s="2">
-        <v>19</v>
+        <v>-4</v>
       </c>
       <c r="J25" s="3">
-        <v>377.97</v>
+        <v>301.11</v>
       </c>
       <c r="K25" s="3">
-        <v>377.97</v>
+        <v>301.11</v>
       </c>
       <c r="L25" t="s">
         <v>17</v>
       </c>
       <c r="M25" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
@@ -1660,31 +1657,31 @@
         <v>15</v>
       </c>
       <c r="E26">
-        <v>9761</v>
+        <v>10704</v>
       </c>
       <c r="F26" t="s">
         <v>16</v>
       </c>
       <c r="G26" s="1">
-        <v>45864.419548611106</v>
+        <v>45885.498472222222</v>
       </c>
       <c r="H26" s="1">
-        <v>45834.420474537037</v>
+        <v>45855.498472222222</v>
       </c>
       <c r="I26" s="2">
-        <v>13</v>
+        <v>-7</v>
       </c>
       <c r="J26" s="3">
-        <v>179.99</v>
+        <v>266.19</v>
       </c>
       <c r="K26" s="3">
-        <v>179.99</v>
+        <v>266.19</v>
       </c>
       <c r="L26" t="s">
         <v>17</v>
       </c>
       <c r="M26" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
@@ -1701,31 +1698,31 @@
         <v>15</v>
       </c>
       <c r="E27">
-        <v>10215</v>
+        <v>10993</v>
       </c>
       <c r="F27" t="s">
         <v>16</v>
       </c>
       <c r="G27" s="1">
-        <v>45875.482060185182</v>
+        <v>45892.493587962963</v>
       </c>
       <c r="H27" s="1">
-        <v>45845.482060185182</v>
+        <v>45862.493599537032</v>
       </c>
       <c r="I27" s="2">
-        <v>2</v>
+        <v>-14</v>
       </c>
       <c r="J27" s="3">
-        <v>280.28000000000003</v>
+        <v>57.02</v>
       </c>
       <c r="K27" s="3">
-        <v>280.28000000000003</v>
+        <v>57.02</v>
       </c>
       <c r="L27" t="s">
         <v>17</v>
       </c>
       <c r="M27" t="s">
-        <v>63</v>
+        <v>18</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
@@ -1736,31 +1733,31 @@
         <v>30</v>
       </c>
       <c r="C28" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="D28" t="s">
         <v>15</v>
       </c>
       <c r="E28">
-        <v>518</v>
+        <v>11110</v>
       </c>
       <c r="F28" t="s">
         <v>16</v>
       </c>
       <c r="G28" s="1">
-        <v>45878</v>
+        <v>45926.528310185182</v>
       </c>
       <c r="H28" s="1">
-        <v>45848</v>
+        <v>45866.528310185182</v>
       </c>
       <c r="I28" s="2">
-        <v>-1</v>
+        <v>-48</v>
       </c>
       <c r="J28" s="3">
-        <v>-4.63</v>
+        <v>290.05</v>
       </c>
       <c r="K28" s="3">
-        <v>-4.63</v>
+        <v>290.05</v>
       </c>
       <c r="L28" t="s">
         <v>17</v>
@@ -1783,25 +1780,25 @@
         <v>15</v>
       </c>
       <c r="E29">
-        <v>10408</v>
+        <v>11283</v>
       </c>
       <c r="F29" t="s">
         <v>16</v>
       </c>
       <c r="G29" s="1">
-        <v>45878.421249999999</v>
+        <v>45929.501446759255</v>
       </c>
       <c r="H29" s="1">
-        <v>45848.421249999999</v>
+        <v>45869.501446759255</v>
       </c>
       <c r="I29" s="2">
-        <v>-1</v>
+        <v>-51</v>
       </c>
       <c r="J29" s="3">
-        <v>167.72</v>
+        <v>512.48</v>
       </c>
       <c r="K29" s="3">
-        <v>167.72</v>
+        <v>512.48</v>
       </c>
       <c r="L29" t="s">
         <v>17</v>
@@ -1824,25 +1821,25 @@
         <v>15</v>
       </c>
       <c r="E30">
-        <v>10524</v>
+        <v>11403</v>
       </c>
       <c r="F30" t="s">
         <v>16</v>
       </c>
       <c r="G30" s="1">
-        <v>45882.489189814813</v>
+        <v>45933.565578703703</v>
       </c>
       <c r="H30" s="1">
-        <v>45852.489189814813</v>
+        <v>45873.565578703703</v>
       </c>
       <c r="I30" s="2">
-        <v>-5</v>
+        <v>-55</v>
       </c>
       <c r="J30" s="3">
-        <v>301.11</v>
+        <v>369.45</v>
       </c>
       <c r="K30" s="3">
-        <v>301.11</v>
+        <v>369.45</v>
       </c>
       <c r="L30" t="s">
         <v>17</v>
@@ -1865,25 +1862,25 @@
         <v>15</v>
       </c>
       <c r="E31">
-        <v>10704</v>
+        <v>11585</v>
       </c>
       <c r="F31" t="s">
         <v>16</v>
       </c>
       <c r="G31" s="1">
-        <v>45885.498472222222</v>
+        <v>45936.517835648148</v>
       </c>
       <c r="H31" s="1">
-        <v>45855.498472222222</v>
+        <v>45876.518402777772</v>
       </c>
       <c r="I31" s="2">
-        <v>-8</v>
+        <v>-58</v>
       </c>
       <c r="J31" s="3">
-        <v>266.19</v>
+        <v>288.54000000000002</v>
       </c>
       <c r="K31" s="3">
-        <v>266.19</v>
+        <v>288.54000000000002</v>
       </c>
       <c r="L31" t="s">
         <v>17</v>
@@ -1894,10 +1891,10 @@
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>211111567</v>
+        <v>211111832</v>
       </c>
       <c r="B32" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="C32" t="s">
         <v>14</v>
@@ -1906,39 +1903,39 @@
         <v>15</v>
       </c>
       <c r="E32">
-        <v>10993</v>
+        <v>8724</v>
       </c>
       <c r="F32" t="s">
         <v>16</v>
       </c>
       <c r="G32" s="1">
-        <v>45892.493587962963</v>
+        <v>45840.417569444442</v>
       </c>
       <c r="H32" s="1">
-        <v>45862.493599537032</v>
+        <v>45810.426018518519</v>
       </c>
       <c r="I32" s="2">
-        <v>-15</v>
+        <v>38</v>
       </c>
       <c r="J32" s="3">
-        <v>57.02</v>
+        <v>126.35000000000001</v>
       </c>
       <c r="K32" s="3">
-        <v>57.02</v>
+        <v>126.35000000000001</v>
       </c>
       <c r="L32" t="s">
         <v>17</v>
       </c>
       <c r="M32" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>211111567</v>
+        <v>211111832</v>
       </c>
       <c r="B33" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="C33" t="s">
         <v>14</v>
@@ -1947,39 +1944,39 @@
         <v>15</v>
       </c>
       <c r="E33">
-        <v>11110</v>
+        <v>8939</v>
       </c>
       <c r="F33" t="s">
         <v>16</v>
       </c>
       <c r="G33" s="1">
-        <v>45926.528310185182</v>
+        <v>45843.550532407404</v>
       </c>
       <c r="H33" s="1">
-        <v>45866.528310185182</v>
+        <v>45813.574108796296</v>
       </c>
       <c r="I33" s="2">
-        <v>-49</v>
+        <v>35</v>
       </c>
       <c r="J33" s="3">
-        <v>290.05</v>
+        <v>391.52</v>
       </c>
       <c r="K33" s="3">
-        <v>290.05</v>
+        <v>391.52</v>
       </c>
       <c r="L33" t="s">
         <v>17</v>
       </c>
       <c r="M33" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>211111567</v>
+        <v>211111832</v>
       </c>
       <c r="B34" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="C34" t="s">
         <v>14</v>
@@ -1988,39 +1985,39 @@
         <v>15</v>
       </c>
       <c r="E34">
-        <v>11283</v>
+        <v>8968</v>
       </c>
       <c r="F34" t="s">
         <v>16</v>
       </c>
       <c r="G34" s="1">
-        <v>45929.501446759255</v>
+        <v>45847.378715277773</v>
       </c>
       <c r="H34" s="1">
-        <v>45869.501446759255</v>
+        <v>45817.381168981483</v>
       </c>
       <c r="I34" s="2">
-        <v>-52</v>
+        <v>31</v>
       </c>
       <c r="J34" s="3">
-        <v>512.48</v>
+        <v>59.06</v>
       </c>
       <c r="K34" s="3">
-        <v>512.48</v>
+        <v>59.06</v>
       </c>
       <c r="L34" t="s">
         <v>17</v>
       </c>
       <c r="M34" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>211111567</v>
+        <v>211111832</v>
       </c>
       <c r="B35" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="C35" t="s">
         <v>14</v>
@@ -2029,39 +2026,39 @@
         <v>15</v>
       </c>
       <c r="E35">
-        <v>11403</v>
+        <v>9148</v>
       </c>
       <c r="F35" t="s">
         <v>16</v>
       </c>
       <c r="G35" s="1">
-        <v>45933.565578703703</v>
+        <v>45850.450706018513</v>
       </c>
       <c r="H35" s="1">
-        <v>45873.565578703703</v>
+        <v>45820.452037037037</v>
       </c>
       <c r="I35" s="2">
-        <v>-56</v>
+        <v>28</v>
       </c>
       <c r="J35" s="3">
-        <v>369.45</v>
+        <v>314.43</v>
       </c>
       <c r="K35" s="3">
-        <v>369.45</v>
+        <v>314.43</v>
       </c>
       <c r="L35" t="s">
         <v>17</v>
       </c>
       <c r="M35" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>211111567</v>
+        <v>211111832</v>
       </c>
       <c r="B36" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="C36" t="s">
         <v>14</v>
@@ -2070,31 +2067,31 @@
         <v>15</v>
       </c>
       <c r="E36">
-        <v>11585</v>
+        <v>9510</v>
       </c>
       <c r="F36" t="s">
         <v>16</v>
       </c>
       <c r="G36" s="1">
-        <v>45936.517835648148</v>
+        <v>45858.516712962963</v>
       </c>
       <c r="H36" s="1">
-        <v>45876.518402777772</v>
+        <v>45828.517974537033</v>
       </c>
       <c r="I36" s="2">
-        <v>-59</v>
+        <v>20</v>
       </c>
       <c r="J36" s="3">
-        <v>288.54000000000002</v>
+        <v>394.83</v>
       </c>
       <c r="K36" s="3">
-        <v>288.54000000000002</v>
+        <v>394.83</v>
       </c>
       <c r="L36" t="s">
         <v>17</v>
       </c>
       <c r="M36" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
@@ -2111,31 +2108,31 @@
         <v>15</v>
       </c>
       <c r="E37">
-        <v>8724</v>
+        <v>9764</v>
       </c>
       <c r="F37" t="s">
         <v>16</v>
       </c>
       <c r="G37" s="1">
-        <v>45840.417569444442</v>
+        <v>45864.422581018516</v>
       </c>
       <c r="H37" s="1">
-        <v>45810.426018518519</v>
+        <v>45834.424537037034</v>
       </c>
       <c r="I37" s="2">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="J37" s="3">
-        <v>126.35000000000001</v>
+        <v>340.11</v>
       </c>
       <c r="K37" s="3">
-        <v>126.35000000000001</v>
+        <v>340.11</v>
       </c>
       <c r="L37" t="s">
         <v>17</v>
       </c>
       <c r="M37" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
@@ -2152,31 +2149,31 @@
         <v>15</v>
       </c>
       <c r="E38">
-        <v>8939</v>
+        <v>10015</v>
       </c>
       <c r="F38" t="s">
         <v>16</v>
       </c>
       <c r="G38" s="1">
-        <v>45843.550532407404</v>
+        <v>45870.643773148149</v>
       </c>
       <c r="H38" s="1">
-        <v>45813.574108796296</v>
+        <v>45840.645138888889</v>
       </c>
       <c r="I38" s="2">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="J38" s="3">
-        <v>391.52</v>
+        <v>163.52000000000001</v>
       </c>
       <c r="K38" s="3">
-        <v>391.52</v>
+        <v>163.52000000000001</v>
       </c>
       <c r="L38" t="s">
         <v>17</v>
       </c>
       <c r="M38" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
@@ -2193,25 +2190,25 @@
         <v>15</v>
       </c>
       <c r="E39">
-        <v>8968</v>
+        <v>10073</v>
       </c>
       <c r="F39" t="s">
         <v>16</v>
       </c>
       <c r="G39" s="1">
-        <v>45847.378715277773</v>
+        <v>45871.54855324074</v>
       </c>
       <c r="H39" s="1">
-        <v>45817.381168981483</v>
+        <v>45841.54855324074</v>
       </c>
       <c r="I39" s="2">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="J39" s="3">
-        <v>59.06</v>
+        <v>159.94</v>
       </c>
       <c r="K39" s="3">
-        <v>59.06</v>
+        <v>159.94</v>
       </c>
       <c r="L39" t="s">
         <v>17</v>
@@ -2234,31 +2231,31 @@
         <v>15</v>
       </c>
       <c r="E40">
-        <v>9148</v>
+        <v>10208</v>
       </c>
       <c r="F40" t="s">
         <v>16</v>
       </c>
       <c r="G40" s="1">
-        <v>45850.450706018513</v>
+        <v>45875.481840277775</v>
       </c>
       <c r="H40" s="1">
-        <v>45820.452037037037</v>
+        <v>45845.481840277775</v>
       </c>
       <c r="I40" s="2">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="J40" s="3">
-        <v>314.43</v>
+        <v>69.59</v>
       </c>
       <c r="K40" s="3">
-        <v>314.43</v>
+        <v>69.59</v>
       </c>
       <c r="L40" t="s">
         <v>17</v>
       </c>
       <c r="M40" t="s">
-        <v>24</v>
+        <v>63</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
@@ -2275,31 +2272,31 @@
         <v>15</v>
       </c>
       <c r="E41">
-        <v>9510</v>
+        <v>10415</v>
       </c>
       <c r="F41" t="s">
         <v>16</v>
       </c>
       <c r="G41" s="1">
-        <v>45858.516712962963</v>
+        <v>45878.428206018514</v>
       </c>
       <c r="H41" s="1">
-        <v>45828.517974537033</v>
+        <v>45848.428217592591</v>
       </c>
       <c r="I41" s="2">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="J41" s="3">
-        <v>394.83</v>
+        <v>362.03000000000003</v>
       </c>
       <c r="K41" s="3">
-        <v>394.83</v>
+        <v>362.03000000000003</v>
       </c>
       <c r="L41" t="s">
         <v>17</v>
       </c>
       <c r="M41" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
@@ -2316,31 +2313,31 @@
         <v>15</v>
       </c>
       <c r="E42">
-        <v>9764</v>
+        <v>10701</v>
       </c>
       <c r="F42" t="s">
         <v>16</v>
       </c>
       <c r="G42" s="1">
-        <v>45864.422581018516</v>
+        <v>45885.498379629629</v>
       </c>
       <c r="H42" s="1">
-        <v>45834.424537037034</v>
+        <v>45855.498391203699</v>
       </c>
       <c r="I42" s="2">
-        <v>13</v>
+        <v>-7</v>
       </c>
       <c r="J42" s="3">
-        <v>340.11</v>
+        <v>414.34000000000003</v>
       </c>
       <c r="K42" s="3">
-        <v>340.11</v>
+        <v>414.34000000000003</v>
       </c>
       <c r="L42" t="s">
         <v>17</v>
       </c>
       <c r="M42" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
@@ -2357,31 +2354,31 @@
         <v>15</v>
       </c>
       <c r="E43">
-        <v>10015</v>
+        <v>10827</v>
       </c>
       <c r="F43" t="s">
         <v>16</v>
       </c>
       <c r="G43" s="1">
-        <v>45870.643773148149</v>
+        <v>45889.495150462964</v>
       </c>
       <c r="H43" s="1">
-        <v>45840.645138888889</v>
+        <v>45859.495150462964</v>
       </c>
       <c r="I43" s="2">
-        <v>7</v>
+        <v>-11</v>
       </c>
       <c r="J43" s="3">
-        <v>163.52000000000001</v>
+        <v>55.44</v>
       </c>
       <c r="K43" s="3">
-        <v>163.52000000000001</v>
+        <v>55.44</v>
       </c>
       <c r="L43" t="s">
         <v>17</v>
       </c>
       <c r="M43" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
@@ -2398,31 +2395,31 @@
         <v>15</v>
       </c>
       <c r="E44">
-        <v>10073</v>
+        <v>10991</v>
       </c>
       <c r="F44" t="s">
         <v>16</v>
       </c>
       <c r="G44" s="1">
-        <v>45871.54855324074</v>
+        <v>45892.492847222224</v>
       </c>
       <c r="H44" s="1">
-        <v>45841.54855324074</v>
+        <v>45862.492905092593</v>
       </c>
       <c r="I44" s="2">
-        <v>6</v>
+        <v>-14</v>
       </c>
       <c r="J44" s="3">
-        <v>159.94</v>
+        <v>366.97</v>
       </c>
       <c r="K44" s="3">
-        <v>159.94</v>
+        <v>366.97</v>
       </c>
       <c r="L44" t="s">
         <v>17</v>
       </c>
       <c r="M44" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
@@ -2439,31 +2436,31 @@
         <v>15</v>
       </c>
       <c r="E45">
-        <v>10208</v>
+        <v>11106</v>
       </c>
       <c r="F45" t="s">
         <v>16</v>
       </c>
       <c r="G45" s="1">
-        <v>45875.481840277775</v>
+        <v>45926.528171296297</v>
       </c>
       <c r="H45" s="1">
-        <v>45845.481840277775</v>
+        <v>45866.528182870366</v>
       </c>
       <c r="I45" s="2">
-        <v>2</v>
+        <v>-48</v>
       </c>
       <c r="J45" s="3">
-        <v>69.59</v>
+        <v>159.31</v>
       </c>
       <c r="K45" s="3">
-        <v>69.59</v>
+        <v>159.31</v>
       </c>
       <c r="L45" t="s">
         <v>17</v>
       </c>
       <c r="M45" t="s">
-        <v>63</v>
+        <v>18</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
@@ -2480,25 +2477,25 @@
         <v>15</v>
       </c>
       <c r="E46">
-        <v>10415</v>
+        <v>11279</v>
       </c>
       <c r="F46" t="s">
         <v>16</v>
       </c>
       <c r="G46" s="1">
-        <v>45878.428206018514</v>
+        <v>45929.50131944444</v>
       </c>
       <c r="H46" s="1">
-        <v>45848.428217592591</v>
+        <v>45869.501331018517</v>
       </c>
       <c r="I46" s="2">
-        <v>-1</v>
+        <v>-51</v>
       </c>
       <c r="J46" s="3">
-        <v>362.03000000000003</v>
+        <v>420.68</v>
       </c>
       <c r="K46" s="3">
-        <v>362.03000000000003</v>
+        <v>420.68</v>
       </c>
       <c r="L46" t="s">
         <v>17</v>
@@ -2521,25 +2518,25 @@
         <v>15</v>
       </c>
       <c r="E47">
-        <v>10701</v>
+        <v>11401</v>
       </c>
       <c r="F47" t="s">
         <v>16</v>
       </c>
       <c r="G47" s="1">
-        <v>45885.498379629629</v>
+        <v>45933.565509259257</v>
       </c>
       <c r="H47" s="1">
-        <v>45855.498391203699</v>
+        <v>45873.565520833334</v>
       </c>
       <c r="I47" s="2">
-        <v>-8</v>
+        <v>-55</v>
       </c>
       <c r="J47" s="3">
-        <v>414.34000000000003</v>
+        <v>176.39000000000001</v>
       </c>
       <c r="K47" s="3">
-        <v>414.34000000000003</v>
+        <v>176.39000000000001</v>
       </c>
       <c r="L47" t="s">
         <v>17</v>
@@ -2562,25 +2559,25 @@
         <v>15</v>
       </c>
       <c r="E48">
-        <v>10827</v>
+        <v>11591</v>
       </c>
       <c r="F48" t="s">
         <v>16</v>
       </c>
       <c r="G48" s="1">
-        <v>45889.495150462964</v>
+        <v>45936.521041666667</v>
       </c>
       <c r="H48" s="1">
-        <v>45859.495150462964</v>
+        <v>45876.521238425921</v>
       </c>
       <c r="I48" s="2">
-        <v>-12</v>
+        <v>-58</v>
       </c>
       <c r="J48" s="3">
-        <v>55.44</v>
+        <v>460.85</v>
       </c>
       <c r="K48" s="3">
-        <v>55.44</v>
+        <v>460.85</v>
       </c>
       <c r="L48" t="s">
         <v>17</v>
@@ -2591,10 +2588,10 @@
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>211111832</v>
+        <v>211111909</v>
       </c>
       <c r="B49" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C49" t="s">
         <v>14</v>
@@ -2603,39 +2600,39 @@
         <v>15</v>
       </c>
       <c r="E49">
-        <v>10991</v>
+        <v>9955</v>
       </c>
       <c r="F49" t="s">
         <v>16</v>
       </c>
       <c r="G49" s="1">
-        <v>45892.492847222224</v>
+        <v>45870.409421296295</v>
       </c>
       <c r="H49" s="1">
-        <v>45862.492905092593</v>
+        <v>45840.411736111106</v>
       </c>
       <c r="I49" s="2">
-        <v>-15</v>
+        <v>8</v>
       </c>
       <c r="J49" s="3">
-        <v>366.97</v>
+        <v>112.11</v>
       </c>
       <c r="K49" s="3">
-        <v>366.97</v>
+        <v>112.11</v>
       </c>
       <c r="L49" t="s">
         <v>17</v>
       </c>
       <c r="M49" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>211111832</v>
+        <v>211111909</v>
       </c>
       <c r="B50" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C50" t="s">
         <v>14</v>
@@ -2644,39 +2641,39 @@
         <v>15</v>
       </c>
       <c r="E50">
-        <v>11106</v>
+        <v>10092</v>
       </c>
       <c r="F50" t="s">
         <v>16</v>
       </c>
       <c r="G50" s="1">
-        <v>45926.528171296297</v>
+        <v>45872.315787037034</v>
       </c>
       <c r="H50" s="1">
-        <v>45866.528182870366</v>
+        <v>45842.315787037034</v>
       </c>
       <c r="I50" s="2">
-        <v>-49</v>
+        <v>6</v>
       </c>
       <c r="J50" s="3">
-        <v>159.31</v>
+        <v>75.03</v>
       </c>
       <c r="K50" s="3">
-        <v>159.31</v>
+        <v>75.03</v>
       </c>
       <c r="L50" t="s">
         <v>17</v>
       </c>
       <c r="M50" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>211111832</v>
+        <v>211111909</v>
       </c>
       <c r="B51" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C51" t="s">
         <v>14</v>
@@ -2685,66 +2682,66 @@
         <v>15</v>
       </c>
       <c r="E51">
-        <v>11279</v>
+        <v>10093</v>
       </c>
       <c r="F51" t="s">
         <v>16</v>
       </c>
       <c r="G51" s="1">
-        <v>45929.50131944444</v>
+        <v>45872.31581018518</v>
       </c>
       <c r="H51" s="1">
-        <v>45869.501331018517</v>
+        <v>45842.31581018518</v>
       </c>
       <c r="I51" s="2">
-        <v>-52</v>
+        <v>6</v>
       </c>
       <c r="J51" s="3">
-        <v>420.68</v>
+        <v>114.44</v>
       </c>
       <c r="K51" s="3">
-        <v>420.68</v>
+        <v>114.44</v>
       </c>
       <c r="L51" t="s">
         <v>17</v>
       </c>
       <c r="M51" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>211111832</v>
+        <v>211111909</v>
       </c>
       <c r="B52" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C52" t="s">
-        <v>14</v>
-      </c>
-      <c r="D52" t="s">
-        <v>15</v>
+        <v>27</v>
+      </c>
+      <c r="D52">
+        <v>2025</v>
       </c>
       <c r="E52">
-        <v>11401</v>
+        <v>638</v>
       </c>
       <c r="F52" t="s">
         <v>16</v>
       </c>
       <c r="G52" s="1">
-        <v>45933.565509259257</v>
+        <v>45878</v>
       </c>
       <c r="H52" s="1">
-        <v>45873.565520833334</v>
+        <v>45848</v>
       </c>
       <c r="I52" s="2">
-        <v>-56</v>
+        <v>0</v>
       </c>
       <c r="J52" s="3">
-        <v>176.39000000000001</v>
+        <v>-73.5</v>
       </c>
       <c r="K52" s="3">
-        <v>176.39000000000001</v>
+        <v>-73.5</v>
       </c>
       <c r="L52" t="s">
         <v>17</v>
@@ -2755,10 +2752,10 @@
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>211111832</v>
+        <v>211111909</v>
       </c>
       <c r="B53" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C53" t="s">
         <v>14</v>
@@ -2767,25 +2764,25 @@
         <v>15</v>
       </c>
       <c r="E53">
-        <v>11591</v>
+        <v>10409</v>
       </c>
       <c r="F53" t="s">
         <v>16</v>
       </c>
       <c r="G53" s="1">
-        <v>45936.521041666667</v>
+        <v>45878.421273148146</v>
       </c>
       <c r="H53" s="1">
-        <v>45876.521238425921</v>
+        <v>45848.421273148146</v>
       </c>
       <c r="I53" s="2">
-        <v>-59</v>
+        <v>0</v>
       </c>
       <c r="J53" s="3">
-        <v>460.85</v>
+        <v>112.3</v>
       </c>
       <c r="K53" s="3">
-        <v>460.85</v>
+        <v>112.3</v>
       </c>
       <c r="L53" t="s">
         <v>17</v>
@@ -2808,31 +2805,31 @@
         <v>15</v>
       </c>
       <c r="E54">
-        <v>9955</v>
+        <v>10592</v>
       </c>
       <c r="F54" t="s">
         <v>16</v>
       </c>
       <c r="G54" s="1">
-        <v>45870.409421296295</v>
+        <v>45884.413032407407</v>
       </c>
       <c r="H54" s="1">
-        <v>45840.411736111106</v>
+        <v>45854.413043981476</v>
       </c>
       <c r="I54" s="2">
-        <v>7</v>
+        <v>-6</v>
       </c>
       <c r="J54" s="3">
-        <v>112.11</v>
+        <v>220.38</v>
       </c>
       <c r="K54" s="3">
-        <v>112.11</v>
+        <v>220.38</v>
       </c>
       <c r="L54" t="s">
         <v>17</v>
       </c>
       <c r="M54" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.25">
@@ -2849,31 +2846,31 @@
         <v>15</v>
       </c>
       <c r="E55">
-        <v>10092</v>
+        <v>10694</v>
       </c>
       <c r="F55" t="s">
         <v>16</v>
       </c>
       <c r="G55" s="1">
-        <v>45872.315787037034</v>
+        <v>45885.498206018514</v>
       </c>
       <c r="H55" s="1">
-        <v>45842.315787037034</v>
+        <v>45855.498217592591</v>
       </c>
       <c r="I55" s="2">
-        <v>5</v>
+        <v>-7</v>
       </c>
       <c r="J55" s="3">
-        <v>75.03</v>
+        <v>220.07</v>
       </c>
       <c r="K55" s="3">
-        <v>75.03</v>
+        <v>220.07</v>
       </c>
       <c r="L55" t="s">
         <v>17</v>
       </c>
       <c r="M55" t="s">
-        <v>63</v>
+        <v>18</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.25">
@@ -2890,31 +2887,31 @@
         <v>15</v>
       </c>
       <c r="E56">
-        <v>10093</v>
+        <v>10695</v>
       </c>
       <c r="F56" t="s">
         <v>16</v>
       </c>
       <c r="G56" s="1">
-        <v>45872.31581018518</v>
+        <v>45885.498240740737</v>
       </c>
       <c r="H56" s="1">
-        <v>45842.31581018518</v>
+        <v>45855.498240740737</v>
       </c>
       <c r="I56" s="2">
-        <v>5</v>
+        <v>-7</v>
       </c>
       <c r="J56" s="3">
-        <v>114.44</v>
+        <v>182.79</v>
       </c>
       <c r="K56" s="3">
-        <v>114.44</v>
+        <v>182.79</v>
       </c>
       <c r="L56" t="s">
         <v>17</v>
       </c>
       <c r="M56" t="s">
-        <v>63</v>
+        <v>18</v>
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.25">
@@ -2925,31 +2922,31 @@
         <v>38</v>
       </c>
       <c r="C57" t="s">
-        <v>27</v>
-      </c>
-      <c r="D57">
-        <v>2025</v>
+        <v>14</v>
+      </c>
+      <c r="D57" t="s">
+        <v>15</v>
       </c>
       <c r="E57">
-        <v>638</v>
+        <v>10823</v>
       </c>
       <c r="F57" t="s">
         <v>16</v>
       </c>
       <c r="G57" s="1">
-        <v>45878</v>
+        <v>45889.495046296295</v>
       </c>
       <c r="H57" s="1">
-        <v>45848</v>
+        <v>45859.495057870372</v>
       </c>
       <c r="I57" s="2">
-        <v>-1</v>
+        <v>-11</v>
       </c>
       <c r="J57" s="3">
-        <v>-73.5</v>
+        <v>99.84</v>
       </c>
       <c r="K57" s="3">
-        <v>-73.5</v>
+        <v>99.84</v>
       </c>
       <c r="L57" t="s">
         <v>17</v>
@@ -2972,25 +2969,25 @@
         <v>15</v>
       </c>
       <c r="E58">
-        <v>10409</v>
+        <v>11103</v>
       </c>
       <c r="F58" t="s">
         <v>16</v>
       </c>
       <c r="G58" s="1">
-        <v>45878.421273148146</v>
+        <v>45896.528101851851</v>
       </c>
       <c r="H58" s="1">
-        <v>45848.421273148146</v>
+        <v>45866.528113425928</v>
       </c>
       <c r="I58" s="2">
-        <v>-1</v>
+        <v>-18</v>
       </c>
       <c r="J58" s="3">
-        <v>112.3</v>
+        <v>74.12</v>
       </c>
       <c r="K58" s="3">
-        <v>112.3</v>
+        <v>74.12</v>
       </c>
       <c r="L58" t="s">
         <v>17</v>
@@ -3013,25 +3010,25 @@
         <v>15</v>
       </c>
       <c r="E59">
-        <v>10592</v>
+        <v>11193</v>
       </c>
       <c r="F59" t="s">
         <v>16</v>
       </c>
       <c r="G59" s="1">
-        <v>45884.413032407407</v>
+        <v>45898.482453703698</v>
       </c>
       <c r="H59" s="1">
-        <v>45854.413043981476</v>
+        <v>45868.482465277775</v>
       </c>
       <c r="I59" s="2">
-        <v>-7</v>
+        <v>-20</v>
       </c>
       <c r="J59" s="3">
-        <v>220.38</v>
+        <v>128.46</v>
       </c>
       <c r="K59" s="3">
-        <v>220.38</v>
+        <v>128.46</v>
       </c>
       <c r="L59" t="s">
         <v>17</v>
@@ -3054,25 +3051,25 @@
         <v>15</v>
       </c>
       <c r="E60">
-        <v>10694</v>
+        <v>11277</v>
       </c>
       <c r="F60" t="s">
         <v>16</v>
       </c>
       <c r="G60" s="1">
-        <v>45885.498206018514</v>
+        <v>45899.501284722217</v>
       </c>
       <c r="H60" s="1">
-        <v>45855.498217592591</v>
+        <v>45869.501284722217</v>
       </c>
       <c r="I60" s="2">
-        <v>-8</v>
+        <v>-21</v>
       </c>
       <c r="J60" s="3">
-        <v>220.07</v>
+        <v>37.800000000000004</v>
       </c>
       <c r="K60" s="3">
-        <v>220.07</v>
+        <v>37.800000000000004</v>
       </c>
       <c r="L60" t="s">
         <v>17</v>
@@ -3095,25 +3092,25 @@
         <v>15</v>
       </c>
       <c r="E61">
-        <v>10695</v>
+        <v>11278</v>
       </c>
       <c r="F61" t="s">
         <v>16</v>
       </c>
       <c r="G61" s="1">
-        <v>45885.498240740737</v>
+        <v>45899.501296296294</v>
       </c>
       <c r="H61" s="1">
-        <v>45855.498240740737</v>
+        <v>45869.501307870371</v>
       </c>
       <c r="I61" s="2">
-        <v>-8</v>
+        <v>-21</v>
       </c>
       <c r="J61" s="3">
-        <v>182.79</v>
+        <v>33.700000000000003</v>
       </c>
       <c r="K61" s="3">
-        <v>182.79</v>
+        <v>33.700000000000003</v>
       </c>
       <c r="L61" t="s">
         <v>17</v>
@@ -3136,25 +3133,25 @@
         <v>15</v>
       </c>
       <c r="E62">
-        <v>10823</v>
+        <v>11589</v>
       </c>
       <c r="F62" t="s">
         <v>16</v>
       </c>
       <c r="G62" s="1">
-        <v>45889.495046296295</v>
+        <v>45906.520150462959</v>
       </c>
       <c r="H62" s="1">
-        <v>45859.495057870372</v>
+        <v>45876.520451388889</v>
       </c>
       <c r="I62" s="2">
-        <v>-12</v>
+        <v>-28</v>
       </c>
       <c r="J62" s="3">
-        <v>99.84</v>
+        <v>69.11</v>
       </c>
       <c r="K62" s="3">
-        <v>99.84</v>
+        <v>69.11</v>
       </c>
       <c r="L62" t="s">
         <v>17</v>
@@ -3165,10 +3162,10 @@
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>211111909</v>
+        <v>211111932</v>
       </c>
       <c r="B63" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C63" t="s">
         <v>14</v>
@@ -3177,39 +3174,39 @@
         <v>15</v>
       </c>
       <c r="E63">
-        <v>11103</v>
+        <v>6876</v>
       </c>
       <c r="F63" t="s">
         <v>16</v>
       </c>
       <c r="G63" s="1">
-        <v>45896.528101851851</v>
+        <v>45806.316099537034</v>
       </c>
       <c r="H63" s="1">
-        <v>45866.528113425928</v>
+        <v>45776.318043981482</v>
       </c>
       <c r="I63" s="2">
-        <v>-19</v>
+        <v>72</v>
       </c>
       <c r="J63" s="3">
-        <v>74.12</v>
+        <v>337.18</v>
       </c>
       <c r="K63" s="3">
-        <v>74.12</v>
+        <v>337.18</v>
       </c>
       <c r="L63" t="s">
         <v>17</v>
       </c>
       <c r="M63" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>211111909</v>
+        <v>211111932</v>
       </c>
       <c r="B64" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C64" t="s">
         <v>14</v>
@@ -3218,39 +3215,39 @@
         <v>15</v>
       </c>
       <c r="E64">
-        <v>11193</v>
+        <v>7112</v>
       </c>
       <c r="F64" t="s">
         <v>16</v>
       </c>
       <c r="G64" s="1">
-        <v>45898.482453703698</v>
+        <v>45809.600486111107</v>
       </c>
       <c r="H64" s="1">
-        <v>45868.482465277775</v>
+        <v>45779.601805555554</v>
       </c>
       <c r="I64" s="2">
-        <v>-21</v>
+        <v>69</v>
       </c>
       <c r="J64" s="3">
-        <v>128.46</v>
+        <v>1342.49</v>
       </c>
       <c r="K64" s="3">
-        <v>128.46</v>
+        <v>1000</v>
       </c>
       <c r="L64" t="s">
         <v>17</v>
       </c>
       <c r="M64" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>211111909</v>
+        <v>211111949</v>
       </c>
       <c r="B65" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C65" t="s">
         <v>14</v>
@@ -3259,25 +3256,25 @@
         <v>15</v>
       </c>
       <c r="E65">
-        <v>11277</v>
+        <v>11459</v>
       </c>
       <c r="F65" t="s">
         <v>16</v>
       </c>
       <c r="G65" s="1">
-        <v>45899.501284722217</v>
+        <v>45904.540520833332</v>
       </c>
       <c r="H65" s="1">
-        <v>45869.501284722217</v>
+        <v>45874.540532407409</v>
       </c>
       <c r="I65" s="2">
-        <v>-22</v>
+        <v>-26</v>
       </c>
       <c r="J65" s="3">
-        <v>37.800000000000004</v>
+        <v>218.93</v>
       </c>
       <c r="K65" s="3">
-        <v>37.800000000000004</v>
+        <v>218.93</v>
       </c>
       <c r="L65" t="s">
         <v>17</v>
@@ -3288,10 +3285,10 @@
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>211111909</v>
+        <v>211111949</v>
       </c>
       <c r="B66" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C66" t="s">
         <v>14</v>
@@ -3300,25 +3297,25 @@
         <v>15</v>
       </c>
       <c r="E66">
-        <v>11278</v>
+        <v>11632</v>
       </c>
       <c r="F66" t="s">
         <v>16</v>
       </c>
       <c r="G66" s="1">
-        <v>45899.501296296294</v>
+        <v>45907.574791666666</v>
       </c>
       <c r="H66" s="1">
-        <v>45869.501307870371</v>
+        <v>45877.574791666666</v>
       </c>
       <c r="I66" s="2">
-        <v>-22</v>
+        <v>-29</v>
       </c>
       <c r="J66" s="3">
-        <v>33.700000000000003</v>
+        <v>118.7</v>
       </c>
       <c r="K66" s="3">
-        <v>33.700000000000003</v>
+        <v>118.7</v>
       </c>
       <c r="L66" t="s">
         <v>17</v>
@@ -3329,51 +3326,51 @@
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>211111909</v>
+        <v>211111992</v>
       </c>
       <c r="B67" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C67" t="s">
-        <v>14</v>
-      </c>
-      <c r="D67" t="s">
-        <v>15</v>
+        <v>27</v>
+      </c>
+      <c r="D67">
+        <v>2025</v>
       </c>
       <c r="E67">
-        <v>11589</v>
+        <v>628</v>
       </c>
       <c r="F67" t="s">
         <v>16</v>
       </c>
       <c r="G67" s="1">
-        <v>45906.520150462959</v>
+        <v>45876</v>
       </c>
       <c r="H67" s="1">
-        <v>45876.520451388889</v>
+        <v>45846</v>
       </c>
       <c r="I67" s="2">
-        <v>-29</v>
+        <v>2</v>
       </c>
       <c r="J67" s="3">
-        <v>69.11</v>
+        <v>-24.060000000000002</v>
       </c>
       <c r="K67" s="3">
-        <v>69.11</v>
+        <v>-24.060000000000002</v>
       </c>
       <c r="L67" t="s">
         <v>17</v>
       </c>
       <c r="M67" t="s">
-        <v>18</v>
+        <v>63</v>
       </c>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>211111932</v>
+        <v>211111992</v>
       </c>
       <c r="B68" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C68" t="s">
         <v>14</v>
@@ -3382,39 +3379,39 @@
         <v>15</v>
       </c>
       <c r="E68">
-        <v>6876</v>
+        <v>10284</v>
       </c>
       <c r="F68" t="s">
         <v>16</v>
       </c>
       <c r="G68" s="1">
-        <v>45806.316099537034</v>
+        <v>45876.526770833334</v>
       </c>
       <c r="H68" s="1">
-        <v>45776.318043981482</v>
+        <v>45846.52884259259</v>
       </c>
       <c r="I68" s="2">
-        <v>71</v>
+        <v>2</v>
       </c>
       <c r="J68" s="3">
-        <v>337.18</v>
+        <v>192.77</v>
       </c>
       <c r="K68" s="3">
-        <v>337.18</v>
+        <v>192.77</v>
       </c>
       <c r="L68" t="s">
         <v>17</v>
       </c>
       <c r="M68" t="s">
-        <v>36</v>
+        <v>63</v>
       </c>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>211111932</v>
+        <v>211111992</v>
       </c>
       <c r="B69" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C69" t="s">
         <v>14</v>
@@ -3423,39 +3420,39 @@
         <v>15</v>
       </c>
       <c r="E69">
-        <v>7112</v>
+        <v>10720</v>
       </c>
       <c r="F69" t="s">
         <v>16</v>
       </c>
       <c r="G69" s="1">
-        <v>45809.600486111107</v>
+        <v>45885.592870370368</v>
       </c>
       <c r="H69" s="1">
-        <v>45779.601805555554</v>
+        <v>45855.592870370368</v>
       </c>
       <c r="I69" s="2">
-        <v>68</v>
+        <v>-7</v>
       </c>
       <c r="J69" s="3">
-        <v>1342.49</v>
+        <v>57.06</v>
       </c>
       <c r="K69" s="3">
-        <v>1000</v>
+        <v>57.06</v>
       </c>
       <c r="L69" t="s">
         <v>17</v>
       </c>
       <c r="M69" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>211111949</v>
+        <v>211111992</v>
       </c>
       <c r="B70" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C70" t="s">
         <v>14</v>
@@ -3464,25 +3461,25 @@
         <v>15</v>
       </c>
       <c r="E70">
-        <v>11459</v>
+        <v>10722</v>
       </c>
       <c r="F70" t="s">
         <v>16</v>
       </c>
       <c r="G70" s="1">
-        <v>45904.540520833332</v>
+        <v>45885.593692129631</v>
       </c>
       <c r="H70" s="1">
-        <v>45874.540532407409</v>
+        <v>45855.593692129631</v>
       </c>
       <c r="I70" s="2">
-        <v>-27</v>
+        <v>-7</v>
       </c>
       <c r="J70" s="3">
-        <v>218.93</v>
+        <v>161.43</v>
       </c>
       <c r="K70" s="3">
-        <v>218.93</v>
+        <v>161.43</v>
       </c>
       <c r="L70" t="s">
         <v>17</v>
@@ -3499,37 +3496,37 @@
         <v>41</v>
       </c>
       <c r="C71" t="s">
-        <v>27</v>
-      </c>
-      <c r="D71">
-        <v>2025</v>
+        <v>14</v>
+      </c>
+      <c r="D71" t="s">
+        <v>15</v>
       </c>
       <c r="E71">
-        <v>628</v>
+        <v>11293</v>
       </c>
       <c r="F71" t="s">
         <v>16</v>
       </c>
       <c r="G71" s="1">
-        <v>45876</v>
+        <v>45899.506145833329</v>
       </c>
       <c r="H71" s="1">
-        <v>45846</v>
+        <v>45869.506157407406</v>
       </c>
       <c r="I71" s="2">
-        <v>1</v>
+        <v>-21</v>
       </c>
       <c r="J71" s="3">
-        <v>-24.060000000000002</v>
+        <v>237.28</v>
       </c>
       <c r="K71" s="3">
-        <v>-24.060000000000002</v>
+        <v>237.28</v>
       </c>
       <c r="L71" t="s">
         <v>17</v>
       </c>
       <c r="M71" t="s">
-        <v>63</v>
+        <v>18</v>
       </c>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.25">
@@ -3546,66 +3543,66 @@
         <v>15</v>
       </c>
       <c r="E72">
-        <v>10284</v>
+        <v>11599</v>
       </c>
       <c r="F72" t="s">
         <v>16</v>
       </c>
       <c r="G72" s="1">
-        <v>45876.526770833334</v>
+        <v>45906.63481481481</v>
       </c>
       <c r="H72" s="1">
-        <v>45846.52884259259</v>
+        <v>45876.635011574072</v>
       </c>
       <c r="I72" s="2">
-        <v>1</v>
+        <v>-28</v>
       </c>
       <c r="J72" s="3">
-        <v>192.77</v>
+        <v>278.55</v>
       </c>
       <c r="K72" s="3">
-        <v>192.77</v>
+        <v>278.55</v>
       </c>
       <c r="L72" t="s">
         <v>17</v>
       </c>
       <c r="M72" t="s">
-        <v>63</v>
+        <v>18</v>
       </c>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>211111992</v>
+        <v>211112011</v>
       </c>
       <c r="B73" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C73" t="s">
-        <v>14</v>
-      </c>
-      <c r="D73" t="s">
-        <v>15</v>
+        <v>27</v>
+      </c>
+      <c r="D73">
+        <v>2025</v>
       </c>
       <c r="E73">
-        <v>10720</v>
+        <v>635</v>
       </c>
       <c r="F73" t="s">
         <v>16</v>
       </c>
       <c r="G73" s="1">
-        <v>45885.592870370368</v>
+        <v>45878</v>
       </c>
       <c r="H73" s="1">
-        <v>45855.592870370368</v>
+        <v>45848</v>
       </c>
       <c r="I73" s="2">
-        <v>-8</v>
+        <v>0</v>
       </c>
       <c r="J73" s="3">
-        <v>57.06</v>
+        <v>-62.300000000000004</v>
       </c>
       <c r="K73" s="3">
-        <v>57.06</v>
+        <v>-0.69000000000000006</v>
       </c>
       <c r="L73" t="s">
         <v>17</v>
@@ -3616,10 +3613,10 @@
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>211111992</v>
+        <v>211112011</v>
       </c>
       <c r="B74" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C74" t="s">
         <v>14</v>
@@ -3628,25 +3625,25 @@
         <v>15</v>
       </c>
       <c r="E74">
-        <v>10722</v>
+        <v>11402</v>
       </c>
       <c r="F74" t="s">
         <v>16</v>
       </c>
       <c r="G74" s="1">
-        <v>45885.593692129631</v>
+        <v>45903.56554398148</v>
       </c>
       <c r="H74" s="1">
-        <v>45855.593692129631</v>
+        <v>45873.56554398148</v>
       </c>
       <c r="I74" s="2">
-        <v>-8</v>
+        <v>-25</v>
       </c>
       <c r="J74" s="3">
-        <v>161.43</v>
+        <v>479.16</v>
       </c>
       <c r="K74" s="3">
-        <v>161.43</v>
+        <v>479.16</v>
       </c>
       <c r="L74" t="s">
         <v>17</v>
@@ -3657,10 +3654,10 @@
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>211111992</v>
+        <v>211112011</v>
       </c>
       <c r="B75" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C75" t="s">
         <v>14</v>
@@ -3669,25 +3666,25 @@
         <v>15</v>
       </c>
       <c r="E75">
-        <v>11293</v>
+        <v>11586</v>
       </c>
       <c r="F75" t="s">
         <v>16</v>
       </c>
       <c r="G75" s="1">
-        <v>45899.506145833329</v>
+        <v>45906.518587962964</v>
       </c>
       <c r="H75" s="1">
-        <v>45869.506157407406</v>
+        <v>45876.519027777773</v>
       </c>
       <c r="I75" s="2">
-        <v>-22</v>
+        <v>-28</v>
       </c>
       <c r="J75" s="3">
-        <v>237.28</v>
+        <v>85.26</v>
       </c>
       <c r="K75" s="3">
-        <v>237.28</v>
+        <v>85.26</v>
       </c>
       <c r="L75" t="s">
         <v>17</v>
@@ -3698,10 +3695,10 @@
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>211111992</v>
+        <v>211112028</v>
       </c>
       <c r="B76" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C76" t="s">
         <v>14</v>
@@ -3710,25 +3707,25 @@
         <v>15</v>
       </c>
       <c r="E76">
-        <v>11599</v>
+        <v>10711</v>
       </c>
       <c r="F76" t="s">
         <v>16</v>
       </c>
       <c r="G76" s="1">
-        <v>45906.63481481481</v>
+        <v>45885.555312500001</v>
       </c>
       <c r="H76" s="1">
-        <v>45876.635011574072</v>
+        <v>45855.556076388886</v>
       </c>
       <c r="I76" s="2">
-        <v>-29</v>
+        <v>-7</v>
       </c>
       <c r="J76" s="3">
-        <v>278.55</v>
+        <v>281.88</v>
       </c>
       <c r="K76" s="3">
-        <v>278.55</v>
+        <v>281.88</v>
       </c>
       <c r="L76" t="s">
         <v>17</v>
@@ -3739,37 +3736,37 @@
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>211112011</v>
+        <v>211112028</v>
       </c>
       <c r="B77" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C77" t="s">
-        <v>27</v>
-      </c>
-      <c r="D77">
-        <v>2025</v>
+        <v>14</v>
+      </c>
+      <c r="D77" t="s">
+        <v>15</v>
       </c>
       <c r="E77">
-        <v>635</v>
+        <v>11418</v>
       </c>
       <c r="F77" t="s">
         <v>16</v>
       </c>
       <c r="G77" s="1">
-        <v>45878</v>
+        <v>45903.635358796295</v>
       </c>
       <c r="H77" s="1">
-        <v>45848</v>
+        <v>45873.635370370372</v>
       </c>
       <c r="I77" s="2">
-        <v>-1</v>
+        <v>-25</v>
       </c>
       <c r="J77" s="3">
-        <v>-62.300000000000004</v>
+        <v>174.49</v>
       </c>
       <c r="K77" s="3">
-        <v>-0.69000000000000006</v>
+        <v>174.49</v>
       </c>
       <c r="L77" t="s">
         <v>17</v>
@@ -3780,10 +3777,10 @@
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>211112011</v>
+        <v>211112064</v>
       </c>
       <c r="B78" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C78" t="s">
         <v>14</v>
@@ -3792,25 +3789,25 @@
         <v>15</v>
       </c>
       <c r="E78">
-        <v>11402</v>
+        <v>10647</v>
       </c>
       <c r="F78" t="s">
         <v>16</v>
       </c>
       <c r="G78" s="1">
-        <v>45903.56554398148</v>
+        <v>45884.469375000001</v>
       </c>
       <c r="H78" s="1">
-        <v>45873.56554398148</v>
+        <v>45854.469375000001</v>
       </c>
       <c r="I78" s="2">
-        <v>-26</v>
+        <v>-6</v>
       </c>
       <c r="J78" s="3">
-        <v>479.16</v>
+        <v>78.2</v>
       </c>
       <c r="K78" s="3">
-        <v>479.16</v>
+        <v>78.2</v>
       </c>
       <c r="L78" t="s">
         <v>17</v>
@@ -3821,37 +3818,37 @@
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>211112011</v>
+        <v>211112064</v>
       </c>
       <c r="B79" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C79" t="s">
-        <v>14</v>
+        <v>57</v>
       </c>
       <c r="D79" t="s">
         <v>15</v>
       </c>
       <c r="E79">
-        <v>11586</v>
+        <v>13</v>
       </c>
       <c r="F79" t="s">
         <v>16</v>
       </c>
       <c r="G79" s="1">
-        <v>45906.518587962964</v>
+        <v>45891</v>
       </c>
       <c r="H79" s="1">
-        <v>45876.519027777773</v>
+        <v>45861</v>
       </c>
       <c r="I79" s="2">
-        <v>-29</v>
+        <v>-13</v>
       </c>
       <c r="J79" s="3">
-        <v>85.26</v>
+        <v>-156.15</v>
       </c>
       <c r="K79" s="3">
-        <v>85.26</v>
+        <v>-156.15</v>
       </c>
       <c r="L79" t="s">
         <v>17</v>
@@ -3862,10 +3859,10 @@
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>211112028</v>
+        <v>211112064</v>
       </c>
       <c r="B80" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C80" t="s">
         <v>14</v>
@@ -3874,25 +3871,25 @@
         <v>15</v>
       </c>
       <c r="E80">
-        <v>10711</v>
+        <v>10933</v>
       </c>
       <c r="F80" t="s">
         <v>16</v>
       </c>
       <c r="G80" s="1">
-        <v>45885.555312500001</v>
+        <v>45891.550335648149</v>
       </c>
       <c r="H80" s="1">
-        <v>45855.556076388886</v>
+        <v>45861.550335648149</v>
       </c>
       <c r="I80" s="2">
-        <v>-8</v>
+        <v>-13</v>
       </c>
       <c r="J80" s="3">
-        <v>281.88</v>
+        <v>156.15</v>
       </c>
       <c r="K80" s="3">
-        <v>281.88</v>
+        <v>156.15</v>
       </c>
       <c r="L80" t="s">
         <v>17</v>
@@ -3903,10 +3900,10 @@
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>211112028</v>
+        <v>211112064</v>
       </c>
       <c r="B81" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C81" t="s">
         <v>14</v>
@@ -3915,25 +3912,25 @@
         <v>15</v>
       </c>
       <c r="E81">
-        <v>11418</v>
+        <v>10974</v>
       </c>
       <c r="F81" t="s">
         <v>16</v>
       </c>
       <c r="G81" s="1">
-        <v>45903.635358796295</v>
+        <v>45892.340671296297</v>
       </c>
       <c r="H81" s="1">
-        <v>45873.635370370372</v>
+        <v>45862.34233796296</v>
       </c>
       <c r="I81" s="2">
-        <v>-26</v>
+        <v>-14</v>
       </c>
       <c r="J81" s="3">
-        <v>174.49</v>
+        <v>116.54</v>
       </c>
       <c r="K81" s="3">
-        <v>174.49</v>
+        <v>116.54</v>
       </c>
       <c r="L81" t="s">
         <v>17</v>
@@ -3956,25 +3953,25 @@
         <v>15</v>
       </c>
       <c r="E82">
-        <v>10647</v>
+        <v>11132</v>
       </c>
       <c r="F82" t="s">
         <v>16</v>
       </c>
       <c r="G82" s="1">
-        <v>45884.469375000001</v>
+        <v>45896.624918981477</v>
       </c>
       <c r="H82" s="1">
-        <v>45854.469375000001</v>
+        <v>45866.626180555555</v>
       </c>
       <c r="I82" s="2">
-        <v>-7</v>
+        <v>-18</v>
       </c>
       <c r="J82" s="3">
-        <v>78.2</v>
+        <v>44.92</v>
       </c>
       <c r="K82" s="3">
-        <v>78.2</v>
+        <v>44.92</v>
       </c>
       <c r="L82" t="s">
         <v>17</v>
@@ -3991,31 +3988,31 @@
         <v>44</v>
       </c>
       <c r="C83" t="s">
-        <v>57</v>
+        <v>14</v>
       </c>
       <c r="D83" t="s">
         <v>15</v>
       </c>
       <c r="E83">
-        <v>13</v>
+        <v>11361</v>
       </c>
       <c r="F83" t="s">
         <v>16</v>
       </c>
       <c r="G83" s="1">
-        <v>45891</v>
+        <v>45900.567106481481</v>
       </c>
       <c r="H83" s="1">
-        <v>45861</v>
+        <v>45870.567106481481</v>
       </c>
       <c r="I83" s="2">
-        <v>-14</v>
+        <v>-22</v>
       </c>
       <c r="J83" s="3">
-        <v>-156.15</v>
+        <v>179.36</v>
       </c>
       <c r="K83" s="3">
-        <v>-156.15</v>
+        <v>179.36</v>
       </c>
       <c r="L83" t="s">
         <v>17</v>
@@ -4038,25 +4035,25 @@
         <v>15</v>
       </c>
       <c r="E84">
-        <v>10933</v>
+        <v>11643</v>
       </c>
       <c r="F84" t="s">
         <v>16</v>
       </c>
       <c r="G84" s="1">
-        <v>45891.550335648149</v>
+        <v>45907.581400462965</v>
       </c>
       <c r="H84" s="1">
-        <v>45861.550335648149</v>
+        <v>45877.581400462965</v>
       </c>
       <c r="I84" s="2">
-        <v>-14</v>
+        <v>-29</v>
       </c>
       <c r="J84" s="3">
-        <v>156.15</v>
+        <v>24.98</v>
       </c>
       <c r="K84" s="3">
-        <v>156.15</v>
+        <v>24.98</v>
       </c>
       <c r="L84" t="s">
         <v>17</v>
@@ -4067,10 +4064,10 @@
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>211112064</v>
+        <v>211112086</v>
       </c>
       <c r="B85" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C85" t="s">
         <v>14</v>
@@ -4079,25 +4076,25 @@
         <v>15</v>
       </c>
       <c r="E85">
-        <v>10974</v>
+        <v>10414</v>
       </c>
       <c r="F85" t="s">
         <v>16</v>
       </c>
       <c r="G85" s="1">
-        <v>45892.340671296297</v>
+        <v>45878.428182870368</v>
       </c>
       <c r="H85" s="1">
-        <v>45862.34233796296</v>
+        <v>45848.428182870368</v>
       </c>
       <c r="I85" s="2">
-        <v>-15</v>
+        <v>0</v>
       </c>
       <c r="J85" s="3">
-        <v>116.54</v>
+        <v>181.28</v>
       </c>
       <c r="K85" s="3">
-        <v>116.54</v>
+        <v>81.070000000000007</v>
       </c>
       <c r="L85" t="s">
         <v>17</v>
@@ -4108,10 +4105,10 @@
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>211112064</v>
+        <v>211112086</v>
       </c>
       <c r="B86" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C86" t="s">
         <v>14</v>
@@ -4120,25 +4117,25 @@
         <v>15</v>
       </c>
       <c r="E86">
-        <v>11132</v>
+        <v>10705</v>
       </c>
       <c r="F86" t="s">
         <v>16</v>
       </c>
       <c r="G86" s="1">
-        <v>45896.624918981477</v>
+        <v>45885.500740740739</v>
       </c>
       <c r="H86" s="1">
-        <v>45866.626180555555</v>
+        <v>45855.500740740739</v>
       </c>
       <c r="I86" s="2">
-        <v>-19</v>
+        <v>-7</v>
       </c>
       <c r="J86" s="3">
-        <v>44.92</v>
+        <v>236.3</v>
       </c>
       <c r="K86" s="3">
-        <v>44.92</v>
+        <v>236.3</v>
       </c>
       <c r="L86" t="s">
         <v>17</v>
@@ -4149,10 +4146,10 @@
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>211112064</v>
+        <v>211112086</v>
       </c>
       <c r="B87" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C87" t="s">
         <v>14</v>
@@ -4161,25 +4158,25 @@
         <v>15</v>
       </c>
       <c r="E87">
-        <v>11361</v>
+        <v>10990</v>
       </c>
       <c r="F87" t="s">
         <v>16</v>
       </c>
       <c r="G87" s="1">
-        <v>45900.567106481481</v>
+        <v>45892.49282407407</v>
       </c>
       <c r="H87" s="1">
-        <v>45870.567106481481</v>
+        <v>45862.49282407407</v>
       </c>
       <c r="I87" s="2">
-        <v>-23</v>
+        <v>-14</v>
       </c>
       <c r="J87" s="3">
-        <v>179.36</v>
+        <v>68.710000000000008</v>
       </c>
       <c r="K87" s="3">
-        <v>179.36</v>
+        <v>68.710000000000008</v>
       </c>
       <c r="L87" t="s">
         <v>17</v>
@@ -4202,25 +4199,25 @@
         <v>15</v>
       </c>
       <c r="E88">
-        <v>10414</v>
+        <v>11590</v>
       </c>
       <c r="F88" t="s">
         <v>16</v>
       </c>
       <c r="G88" s="1">
-        <v>45878.428182870368</v>
+        <v>45906.520590277774</v>
       </c>
       <c r="H88" s="1">
-        <v>45848.428182870368</v>
+        <v>45876.520879629628</v>
       </c>
       <c r="I88" s="2">
-        <v>-1</v>
+        <v>-28</v>
       </c>
       <c r="J88" s="3">
-        <v>181.28</v>
+        <v>122.73</v>
       </c>
       <c r="K88" s="3">
-        <v>81.070000000000007</v>
+        <v>122.73</v>
       </c>
       <c r="L88" t="s">
         <v>17</v>
@@ -4231,10 +4228,10 @@
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>211112086</v>
+        <v>211112115</v>
       </c>
       <c r="B89" t="s">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="C89" t="s">
         <v>14</v>
@@ -4243,25 +4240,25 @@
         <v>15</v>
       </c>
       <c r="E89">
-        <v>10705</v>
+        <v>11400</v>
       </c>
       <c r="F89" t="s">
         <v>16</v>
       </c>
       <c r="G89" s="1">
-        <v>45885.500740740739</v>
+        <v>45903.565439814811</v>
       </c>
       <c r="H89" s="1">
-        <v>45855.500740740739</v>
+        <v>45873.565462962964</v>
       </c>
       <c r="I89" s="2">
-        <v>-8</v>
+        <v>-25</v>
       </c>
       <c r="J89" s="3">
-        <v>236.3</v>
+        <v>104.63</v>
       </c>
       <c r="K89" s="3">
-        <v>236.3</v>
+        <v>104.63</v>
       </c>
       <c r="L89" t="s">
         <v>17</v>
@@ -4272,10 +4269,10 @@
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>211112086</v>
+        <v>211112115</v>
       </c>
       <c r="B90" t="s">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="C90" t="s">
         <v>14</v>
@@ -4284,25 +4281,25 @@
         <v>15</v>
       </c>
       <c r="E90">
-        <v>10990</v>
+        <v>11587</v>
       </c>
       <c r="F90" t="s">
         <v>16</v>
       </c>
       <c r="G90" s="1">
-        <v>45892.49282407407</v>
+        <v>45906.519178240742</v>
       </c>
       <c r="H90" s="1">
-        <v>45862.49282407407</v>
+        <v>45876.519560185181</v>
       </c>
       <c r="I90" s="2">
-        <v>-15</v>
+        <v>-28</v>
       </c>
       <c r="J90" s="3">
-        <v>68.710000000000008</v>
+        <v>257.05</v>
       </c>
       <c r="K90" s="3">
-        <v>68.710000000000008</v>
+        <v>257.05</v>
       </c>
       <c r="L90" t="s">
         <v>17</v>
@@ -4313,10 +4310,10 @@
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>211112086</v>
+        <v>211112132</v>
       </c>
       <c r="B91" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C91" t="s">
         <v>14</v>
@@ -4325,25 +4322,25 @@
         <v>15</v>
       </c>
       <c r="E91">
-        <v>11590</v>
+        <v>11593</v>
       </c>
       <c r="F91" t="s">
         <v>16</v>
       </c>
       <c r="G91" s="1">
-        <v>45906.520590277774</v>
+        <v>45906.522152777776</v>
       </c>
       <c r="H91" s="1">
-        <v>45876.520879629628</v>
+        <v>45876.52475694444</v>
       </c>
       <c r="I91" s="2">
-        <v>-29</v>
+        <v>-28</v>
       </c>
       <c r="J91" s="3">
-        <v>122.73</v>
+        <v>233.13</v>
       </c>
       <c r="K91" s="3">
-        <v>122.73</v>
+        <v>233.13</v>
       </c>
       <c r="L91" t="s">
         <v>17</v>
@@ -4354,10 +4351,10 @@
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>211112115</v>
+        <v>211112198</v>
       </c>
       <c r="B92" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="C92" t="s">
         <v>14</v>
@@ -4366,66 +4363,66 @@
         <v>15</v>
       </c>
       <c r="E92">
-        <v>11400</v>
+        <v>10217</v>
       </c>
       <c r="F92" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="G92" s="1">
-        <v>45903.565439814811</v>
+        <v>45875.486840277779</v>
       </c>
       <c r="H92" s="1">
-        <v>45873.565462962964</v>
+        <v>45845.486840277779</v>
       </c>
       <c r="I92" s="2">
-        <v>-26</v>
+        <v>3</v>
       </c>
       <c r="J92" s="3">
-        <v>104.63</v>
+        <v>187.19</v>
       </c>
       <c r="K92" s="3">
-        <v>104.63</v>
+        <v>187.19</v>
       </c>
       <c r="L92" t="s">
         <v>17</v>
       </c>
       <c r="M92" t="s">
-        <v>18</v>
+        <v>63</v>
       </c>
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>211112115</v>
+        <v>211112198</v>
       </c>
       <c r="B93" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="C93" t="s">
-        <v>14</v>
-      </c>
-      <c r="D93" t="s">
-        <v>15</v>
+        <v>27</v>
+      </c>
+      <c r="D93">
+        <v>2025</v>
       </c>
       <c r="E93">
-        <v>11587</v>
+        <v>702</v>
       </c>
       <c r="F93" t="s">
         <v>16</v>
       </c>
       <c r="G93" s="1">
-        <v>45906.519178240742</v>
+        <v>45896</v>
       </c>
       <c r="H93" s="1">
-        <v>45876.519560185181</v>
+        <v>45866</v>
       </c>
       <c r="I93" s="2">
-        <v>-29</v>
+        <v>-18</v>
       </c>
       <c r="J93" s="3">
-        <v>257.05</v>
+        <v>-2.41</v>
       </c>
       <c r="K93" s="3">
-        <v>257.05</v>
+        <v>-2.41</v>
       </c>
       <c r="L93" t="s">
         <v>17</v>
@@ -4436,10 +4433,10 @@
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>211112132</v>
+        <v>211112198</v>
       </c>
       <c r="B94" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C94" t="s">
         <v>14</v>
@@ -4448,25 +4445,25 @@
         <v>15</v>
       </c>
       <c r="E94">
-        <v>11593</v>
+        <v>11107</v>
       </c>
       <c r="F94" t="s">
         <v>16</v>
       </c>
       <c r="G94" s="1">
-        <v>45906.522152777776</v>
+        <v>45896.52820601852</v>
       </c>
       <c r="H94" s="1">
-        <v>45876.52475694444</v>
+        <v>45866.52820601852</v>
       </c>
       <c r="I94" s="2">
-        <v>-29</v>
+        <v>-18</v>
       </c>
       <c r="J94" s="3">
-        <v>233.13</v>
+        <v>587.35</v>
       </c>
       <c r="K94" s="3">
-        <v>233.13</v>
+        <v>60.03</v>
       </c>
       <c r="L94" t="s">
         <v>17</v>
@@ -4477,125 +4474,125 @@
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>211112198</v>
+        <v>211112291</v>
       </c>
       <c r="B95" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C95" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="D95" t="s">
-        <v>15</v>
-      </c>
-      <c r="E95">
-        <v>10217</v>
+        <v>32</v>
+      </c>
+      <c r="E95" t="s">
+        <v>49</v>
       </c>
       <c r="F95" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="G95" s="1">
-        <v>45875.486840277779</v>
+        <v>45324</v>
       </c>
       <c r="H95" s="1">
-        <v>45845.486840277779</v>
+        <v>45324</v>
       </c>
       <c r="I95" s="2">
-        <v>2</v>
+        <v>554</v>
       </c>
       <c r="J95" s="3">
-        <v>187.19</v>
+        <v>200.59</v>
       </c>
       <c r="K95" s="3">
-        <v>187.19</v>
+        <v>200.59</v>
       </c>
       <c r="L95" t="s">
         <v>17</v>
       </c>
       <c r="M95" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>211112198</v>
+        <v>211112291</v>
       </c>
       <c r="B96" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C96" t="s">
-        <v>27</v>
-      </c>
-      <c r="D96">
-        <v>2025</v>
-      </c>
-      <c r="E96">
-        <v>702</v>
+        <v>34</v>
+      </c>
+      <c r="D96" t="s">
+        <v>32</v>
+      </c>
+      <c r="E96" t="s">
+        <v>50</v>
       </c>
       <c r="F96" t="s">
         <v>16</v>
       </c>
       <c r="G96" s="1">
-        <v>45896</v>
+        <v>45324</v>
       </c>
       <c r="H96" s="1">
-        <v>45866</v>
+        <v>45324</v>
       </c>
       <c r="I96" s="2">
-        <v>-19</v>
+        <v>554</v>
       </c>
       <c r="J96" s="3">
-        <v>-2.41</v>
+        <v>76.36</v>
       </c>
       <c r="K96" s="3">
-        <v>-2.41</v>
+        <v>76.36</v>
       </c>
       <c r="L96" t="s">
         <v>17</v>
       </c>
       <c r="M96" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>211112198</v>
+        <v>211112291</v>
       </c>
       <c r="B97" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C97" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="D97" t="s">
-        <v>15</v>
-      </c>
-      <c r="E97">
-        <v>11107</v>
+        <v>32</v>
+      </c>
+      <c r="E97" t="s">
+        <v>51</v>
       </c>
       <c r="F97" t="s">
         <v>16</v>
       </c>
       <c r="G97" s="1">
-        <v>45896.52820601852</v>
+        <v>45331</v>
       </c>
       <c r="H97" s="1">
-        <v>45866.52820601852</v>
+        <v>45331</v>
       </c>
       <c r="I97" s="2">
-        <v>-19</v>
+        <v>547</v>
       </c>
       <c r="J97" s="3">
-        <v>587.35</v>
+        <v>209.18</v>
       </c>
       <c r="K97" s="3">
-        <v>60.03</v>
+        <v>209.18</v>
       </c>
       <c r="L97" t="s">
         <v>17</v>
       </c>
       <c r="M97" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.25">
@@ -4612,25 +4609,25 @@
         <v>32</v>
       </c>
       <c r="E98" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="F98" t="s">
         <v>16</v>
       </c>
       <c r="G98" s="1">
-        <v>45324</v>
+        <v>45366</v>
       </c>
       <c r="H98" s="1">
-        <v>45324</v>
+        <v>45366</v>
       </c>
       <c r="I98" s="2">
-        <v>553</v>
+        <v>512</v>
       </c>
       <c r="J98" s="3">
-        <v>200.59</v>
+        <v>872.94</v>
       </c>
       <c r="K98" s="3">
-        <v>200.59</v>
+        <v>872.94</v>
       </c>
       <c r="L98" t="s">
         <v>17</v>
@@ -4653,25 +4650,25 @@
         <v>32</v>
       </c>
       <c r="E99" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F99" t="s">
         <v>16</v>
       </c>
       <c r="G99" s="1">
-        <v>45324</v>
+        <v>45390</v>
       </c>
       <c r="H99" s="1">
-        <v>45324</v>
+        <v>45390</v>
       </c>
       <c r="I99" s="2">
-        <v>553</v>
+        <v>488</v>
       </c>
       <c r="J99" s="3">
-        <v>76.36</v>
+        <v>261.22000000000003</v>
       </c>
       <c r="K99" s="3">
-        <v>76.36</v>
+        <v>261.22000000000003</v>
       </c>
       <c r="L99" t="s">
         <v>17</v>
@@ -4688,31 +4685,31 @@
         <v>48</v>
       </c>
       <c r="C100" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="D100" t="s">
-        <v>32</v>
-      </c>
-      <c r="E100" t="s">
-        <v>51</v>
+        <v>54</v>
+      </c>
+      <c r="E100">
+        <v>1957</v>
       </c>
       <c r="F100" t="s">
         <v>16</v>
       </c>
       <c r="G100" s="1">
-        <v>45331</v>
+        <v>45529.645949074074</v>
       </c>
       <c r="H100" s="1">
-        <v>45331</v>
+        <v>45499.646979166668</v>
       </c>
       <c r="I100" s="2">
-        <v>546</v>
+        <v>349</v>
       </c>
       <c r="J100" s="3">
-        <v>209.18</v>
+        <v>68.7</v>
       </c>
       <c r="K100" s="3">
-        <v>209.18</v>
+        <v>68.7</v>
       </c>
       <c r="L100" t="s">
         <v>17</v>
@@ -4723,125 +4720,125 @@
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>211112291</v>
+        <v>211112314</v>
       </c>
       <c r="B101" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="C101" t="s">
-        <v>34</v>
-      </c>
-      <c r="D101" t="s">
-        <v>32</v>
-      </c>
-      <c r="E101" t="s">
-        <v>52</v>
+        <v>27</v>
+      </c>
+      <c r="D101">
+        <v>2025</v>
+      </c>
+      <c r="E101">
+        <v>345</v>
       </c>
       <c r="F101" t="s">
         <v>16</v>
       </c>
       <c r="G101" s="1">
-        <v>45366</v>
+        <v>45788</v>
       </c>
       <c r="H101" s="1">
-        <v>45366</v>
+        <v>45758</v>
       </c>
       <c r="I101" s="2">
-        <v>511</v>
+        <v>90</v>
       </c>
       <c r="J101" s="3">
-        <v>872.94</v>
+        <v>-16.809999999999999</v>
       </c>
       <c r="K101" s="3">
-        <v>872.94</v>
+        <v>-16.809999999999999</v>
       </c>
       <c r="L101" t="s">
         <v>17</v>
       </c>
       <c r="M101" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A102">
-        <v>211112291</v>
+        <v>211112314</v>
       </c>
       <c r="B102" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="C102" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="D102" t="s">
-        <v>32</v>
-      </c>
-      <c r="E102" t="s">
-        <v>53</v>
+        <v>15</v>
+      </c>
+      <c r="E102">
+        <v>8584</v>
       </c>
       <c r="F102" t="s">
         <v>16</v>
       </c>
       <c r="G102" s="1">
-        <v>45390</v>
+        <v>45836.412951388884</v>
       </c>
       <c r="H102" s="1">
-        <v>45390</v>
+        <v>45806.420115740737</v>
       </c>
       <c r="I102" s="2">
-        <v>487</v>
+        <v>42</v>
       </c>
       <c r="J102" s="3">
-        <v>261.22000000000003</v>
+        <v>417.92</v>
       </c>
       <c r="K102" s="3">
-        <v>261.22000000000003</v>
+        <v>417.92</v>
       </c>
       <c r="L102" t="s">
         <v>17</v>
       </c>
       <c r="M102" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A103">
-        <v>211112291</v>
+        <v>211112314</v>
       </c>
       <c r="B103" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="C103" t="s">
         <v>14</v>
       </c>
       <c r="D103" t="s">
-        <v>54</v>
+        <v>15</v>
       </c>
       <c r="E103">
-        <v>1957</v>
+        <v>9310</v>
       </c>
       <c r="F103" t="s">
         <v>16</v>
       </c>
       <c r="G103" s="1">
-        <v>45529.645949074074</v>
+        <v>45854.476550925923</v>
       </c>
       <c r="H103" s="1">
-        <v>45499.646979166668</v>
+        <v>45824.477476851847</v>
       </c>
       <c r="I103" s="2">
-        <v>348</v>
+        <v>24</v>
       </c>
       <c r="J103" s="3">
-        <v>68.7</v>
+        <v>276.85000000000002</v>
       </c>
       <c r="K103" s="3">
-        <v>68.7</v>
+        <v>276.85000000000002</v>
       </c>
       <c r="L103" t="s">
         <v>17</v>
       </c>
       <c r="M103" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.25">
@@ -4852,37 +4849,37 @@
         <v>55</v>
       </c>
       <c r="C104" t="s">
-        <v>27</v>
-      </c>
-      <c r="D104">
-        <v>2025</v>
+        <v>14</v>
+      </c>
+      <c r="D104" t="s">
+        <v>15</v>
       </c>
       <c r="E104">
-        <v>345</v>
+        <v>9605</v>
       </c>
       <c r="F104" t="s">
         <v>16</v>
       </c>
       <c r="G104" s="1">
-        <v>45788</v>
+        <v>45861.477291666662</v>
       </c>
       <c r="H104" s="1">
-        <v>45758</v>
+        <v>45831.482349537036</v>
       </c>
       <c r="I104" s="2">
-        <v>89</v>
+        <v>17</v>
       </c>
       <c r="J104" s="3">
-        <v>-16.809999999999999</v>
+        <v>179.56</v>
       </c>
       <c r="K104" s="3">
-        <v>-16.809999999999999</v>
+        <v>179.56</v>
       </c>
       <c r="L104" t="s">
         <v>17</v>
       </c>
       <c r="M104" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.25">
@@ -4899,244 +4896,244 @@
         <v>15</v>
       </c>
       <c r="E105">
-        <v>8584</v>
+        <v>9765</v>
       </c>
       <c r="F105" t="s">
         <v>16</v>
       </c>
       <c r="G105" s="1">
-        <v>45836.412951388884</v>
+        <v>45864.431539351848</v>
       </c>
       <c r="H105" s="1">
-        <v>45806.420115740737</v>
+        <v>45834.432766203703</v>
       </c>
       <c r="I105" s="2">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="J105" s="3">
-        <v>417.92</v>
+        <v>124.9</v>
       </c>
       <c r="K105" s="3">
-        <v>417.92</v>
+        <v>124.9</v>
       </c>
       <c r="L105" t="s">
         <v>17</v>
       </c>
       <c r="M105" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="106" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A106">
-        <v>211112314</v>
+        <v>211112327</v>
       </c>
       <c r="B106" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C106" t="s">
-        <v>14</v>
-      </c>
-      <c r="D106" t="s">
-        <v>15</v>
+        <v>27</v>
+      </c>
+      <c r="D106">
+        <v>2025</v>
       </c>
       <c r="E106">
-        <v>9310</v>
+        <v>75</v>
       </c>
       <c r="F106" t="s">
         <v>16</v>
       </c>
       <c r="G106" s="1">
-        <v>45854.476550925923</v>
+        <v>45721</v>
       </c>
       <c r="H106" s="1">
-        <v>45824.477476851847</v>
+        <v>45691</v>
       </c>
       <c r="I106" s="2">
-        <v>23</v>
+        <v>157</v>
       </c>
       <c r="J106" s="3">
-        <v>276.85000000000002</v>
+        <v>-52.050000000000004</v>
       </c>
       <c r="K106" s="3">
-        <v>276.85000000000002</v>
+        <v>-52.050000000000004</v>
       </c>
       <c r="L106" t="s">
         <v>17</v>
       </c>
       <c r="M106" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
     </row>
     <row r="107" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A107">
-        <v>211112314</v>
+        <v>211112327</v>
       </c>
       <c r="B107" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C107" t="s">
-        <v>14</v>
+        <v>57</v>
       </c>
       <c r="D107" t="s">
         <v>15</v>
       </c>
       <c r="E107">
-        <v>9605</v>
+        <v>4</v>
       </c>
       <c r="F107" t="s">
         <v>16</v>
       </c>
       <c r="G107" s="1">
-        <v>45861.477291666662</v>
+        <v>45723</v>
       </c>
       <c r="H107" s="1">
-        <v>45831.482349537036</v>
+        <v>45693</v>
       </c>
       <c r="I107" s="2">
-        <v>16</v>
+        <v>155</v>
       </c>
       <c r="J107" s="3">
-        <v>179.56</v>
+        <v>-26.51</v>
       </c>
       <c r="K107" s="3">
-        <v>179.56</v>
+        <v>-26.51</v>
       </c>
       <c r="L107" t="s">
         <v>17</v>
       </c>
       <c r="M107" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A108">
-        <v>211112314</v>
+        <v>211112401</v>
       </c>
       <c r="B108" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C108" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="D108" t="s">
-        <v>15</v>
-      </c>
-      <c r="E108">
-        <v>9765</v>
+        <v>32</v>
+      </c>
+      <c r="E108" t="s">
+        <v>33</v>
       </c>
       <c r="F108" t="s">
         <v>16</v>
       </c>
       <c r="G108" s="1">
-        <v>45864.431539351848</v>
+        <v>45755</v>
       </c>
       <c r="H108" s="1">
-        <v>45834.432766203703</v>
+        <v>45740</v>
       </c>
       <c r="I108" s="2">
-        <v>13</v>
+        <v>123</v>
       </c>
       <c r="J108" s="3">
-        <v>124.9</v>
+        <v>-489.09000000000003</v>
       </c>
       <c r="K108" s="3">
-        <v>124.9</v>
+        <v>-109.25</v>
       </c>
       <c r="L108" t="s">
         <v>17</v>
       </c>
       <c r="M108" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
     </row>
     <row r="109" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A109">
-        <v>211112327</v>
+        <v>211112477</v>
       </c>
       <c r="B109" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C109" t="s">
-        <v>27</v>
-      </c>
-      <c r="D109">
-        <v>2025</v>
+        <v>14</v>
+      </c>
+      <c r="D109" t="s">
+        <v>15</v>
       </c>
       <c r="E109">
-        <v>75</v>
+        <v>10892</v>
       </c>
       <c r="F109" t="s">
         <v>16</v>
       </c>
       <c r="G109" s="1">
-        <v>45721</v>
+        <v>45906.412418981483</v>
       </c>
       <c r="H109" s="1">
-        <v>45691</v>
+        <v>45861.413124999999</v>
       </c>
       <c r="I109" s="2">
-        <v>156</v>
+        <v>-28</v>
       </c>
       <c r="J109" s="3">
-        <v>-52.050000000000004</v>
+        <v>89.64</v>
       </c>
       <c r="K109" s="3">
-        <v>-52.050000000000004</v>
+        <v>89.64</v>
       </c>
       <c r="L109" t="s">
         <v>17</v>
       </c>
       <c r="M109" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
     </row>
     <row r="110" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A110">
-        <v>211112327</v>
+        <v>211112477</v>
       </c>
       <c r="B110" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C110" t="s">
-        <v>57</v>
+        <v>14</v>
       </c>
       <c r="D110" t="s">
         <v>15</v>
       </c>
       <c r="E110">
-        <v>4</v>
+        <v>11350</v>
       </c>
       <c r="F110" t="s">
         <v>16</v>
       </c>
       <c r="G110" s="1">
-        <v>45723</v>
+        <v>45915.566817129627</v>
       </c>
       <c r="H110" s="1">
-        <v>45693</v>
+        <v>45870.566817129627</v>
       </c>
       <c r="I110" s="2">
-        <v>154</v>
+        <v>-37</v>
       </c>
       <c r="J110" s="3">
-        <v>-26.51</v>
+        <v>113.84</v>
       </c>
       <c r="K110" s="3">
-        <v>-26.51</v>
+        <v>113.84</v>
       </c>
       <c r="L110" t="s">
         <v>17</v>
       </c>
       <c r="M110" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
     </row>
     <row r="111" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A111">
-        <v>211112401</v>
+        <v>211112505</v>
       </c>
       <c r="B111" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C111" t="s">
         <v>31</v>
@@ -5151,33 +5148,33 @@
         <v>16</v>
       </c>
       <c r="G111" s="1">
-        <v>45755</v>
+        <v>45803</v>
       </c>
       <c r="H111" s="1">
-        <v>45740</v>
+        <v>45803</v>
       </c>
       <c r="I111" s="2">
-        <v>122</v>
+        <v>75</v>
       </c>
       <c r="J111" s="3">
-        <v>-489.09000000000003</v>
+        <v>-350</v>
       </c>
       <c r="K111" s="3">
-        <v>-109.25</v>
+        <v>-0.24</v>
       </c>
       <c r="L111" t="s">
         <v>17</v>
       </c>
       <c r="M111" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A112">
-        <v>211112436</v>
+        <v>211112523</v>
       </c>
       <c r="B112" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C112" t="s">
         <v>14</v>
@@ -5186,194 +5183,30 @@
         <v>15</v>
       </c>
       <c r="E112">
-        <v>11601</v>
+        <v>7843</v>
       </c>
       <c r="F112" t="s">
         <v>16</v>
       </c>
       <c r="G112" s="1">
-        <v>45891.63612268518</v>
+        <v>45792.648773148147</v>
       </c>
       <c r="H112" s="1">
-        <v>45876.636307870365</v>
+        <v>45792.648773148147</v>
       </c>
       <c r="I112" s="2">
-        <v>-14</v>
+        <v>86</v>
       </c>
       <c r="J112" s="3">
-        <v>271.74</v>
+        <v>481.94</v>
       </c>
       <c r="K112" s="3">
-        <v>271.74</v>
+        <v>481.94</v>
       </c>
       <c r="L112" t="s">
         <v>17</v>
       </c>
       <c r="M112" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A113">
-        <v>211112477</v>
-      </c>
-      <c r="B113" t="s">
-        <v>59</v>
-      </c>
-      <c r="C113" t="s">
-        <v>14</v>
-      </c>
-      <c r="D113" t="s">
-        <v>15</v>
-      </c>
-      <c r="E113">
-        <v>10892</v>
-      </c>
-      <c r="F113" t="s">
-        <v>16</v>
-      </c>
-      <c r="G113" s="1">
-        <v>45906.412418981483</v>
-      </c>
-      <c r="H113" s="1">
-        <v>45861.413124999999</v>
-      </c>
-      <c r="I113" s="2">
-        <v>-29</v>
-      </c>
-      <c r="J113" s="3">
-        <v>89.64</v>
-      </c>
-      <c r="K113" s="3">
-        <v>89.64</v>
-      </c>
-      <c r="L113" t="s">
-        <v>17</v>
-      </c>
-      <c r="M113" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A114">
-        <v>211112477</v>
-      </c>
-      <c r="B114" t="s">
-        <v>59</v>
-      </c>
-      <c r="C114" t="s">
-        <v>14</v>
-      </c>
-      <c r="D114" t="s">
-        <v>15</v>
-      </c>
-      <c r="E114">
-        <v>11350</v>
-      </c>
-      <c r="F114" t="s">
-        <v>16</v>
-      </c>
-      <c r="G114" s="1">
-        <v>45915.566817129627</v>
-      </c>
-      <c r="H114" s="1">
-        <v>45870.566817129627</v>
-      </c>
-      <c r="I114" s="2">
-        <v>-38</v>
-      </c>
-      <c r="J114" s="3">
-        <v>113.84</v>
-      </c>
-      <c r="K114" s="3">
-        <v>113.84</v>
-      </c>
-      <c r="L114" t="s">
-        <v>17</v>
-      </c>
-      <c r="M114" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A115">
-        <v>211112505</v>
-      </c>
-      <c r="B115" t="s">
-        <v>60</v>
-      </c>
-      <c r="C115" t="s">
-        <v>31</v>
-      </c>
-      <c r="D115" t="s">
-        <v>32</v>
-      </c>
-      <c r="E115" t="s">
-        <v>33</v>
-      </c>
-      <c r="F115" t="s">
-        <v>16</v>
-      </c>
-      <c r="G115" s="1">
-        <v>45803</v>
-      </c>
-      <c r="H115" s="1">
-        <v>45803</v>
-      </c>
-      <c r="I115" s="2">
-        <v>74</v>
-      </c>
-      <c r="J115" s="3">
-        <v>-350</v>
-      </c>
-      <c r="K115" s="3">
-        <v>-0.24</v>
-      </c>
-      <c r="L115" t="s">
-        <v>17</v>
-      </c>
-      <c r="M115" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A116">
-        <v>211112523</v>
-      </c>
-      <c r="B116" t="s">
-        <v>61</v>
-      </c>
-      <c r="C116" t="s">
-        <v>14</v>
-      </c>
-      <c r="D116" t="s">
-        <v>15</v>
-      </c>
-      <c r="E116">
-        <v>7843</v>
-      </c>
-      <c r="F116" t="s">
-        <v>16</v>
-      </c>
-      <c r="G116" s="1">
-        <v>45792.648773148147</v>
-      </c>
-      <c r="H116" s="1">
-        <v>45792.648773148147</v>
-      </c>
-      <c r="I116" s="2">
-        <v>85</v>
-      </c>
-      <c r="J116" s="3">
-        <v>481.94</v>
-      </c>
-      <c r="K116" s="3">
-        <v>481.94</v>
-      </c>
-      <c r="L116" t="s">
-        <v>17</v>
-      </c>
-      <c r="M116" t="s">
         <v>36</v>
       </c>
     </row>

--- a/RSilva.xlsx
+++ b/RSilva.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Paulo\Desktop\AnaliseDebitos\Comerciais\Comercias_streamlit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F125A6F-FEB3-44FD-88AB-603C56A20557}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E6BB275-DD2B-4333-8202-6344069E5F2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{625309C2-95EA-4B09-BB51-191061F91C1F}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="677" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="65">
   <si>
     <t>Tipo Conta</t>
   </si>
@@ -101,9 +101,6 @@
     <t>Campos &amp; Doutor, Lda.</t>
   </si>
   <si>
-    <t>Martins &amp; Farias, Lda.</t>
-  </si>
-  <si>
     <t>Caxicarnes Talho, Lda</t>
   </si>
   <si>
@@ -231,6 +228,9 @@
   </si>
   <si>
     <t>Aparencia Harmoniosa, Lda.</t>
+  </si>
+  <si>
+    <t>91A120</t>
   </si>
 </sst>
 </file>
@@ -246,12 +246,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -266,11 +272,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -605,10 +615,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD349965-A8B5-4EE0-821C-041F97E8ED57}">
-  <dimension ref="A1:M112"/>
+  <dimension ref="A1:M117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:M112"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:M117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -669,35 +679,35 @@
       <c r="C2" t="s">
         <v>14</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E2">
-        <v>10286</v>
+        <v>11766</v>
       </c>
       <c r="F2" t="s">
         <v>16</v>
       </c>
       <c r="G2" s="1">
-        <v>45876.54274305555</v>
+        <v>45911.605497685181</v>
       </c>
       <c r="H2" s="1">
-        <v>45846.542997685181</v>
+        <v>45881.605497685181</v>
       </c>
       <c r="I2" s="2">
-        <v>2</v>
+        <v>-26</v>
       </c>
       <c r="J2" s="3">
-        <v>342.38</v>
+        <v>235.32</v>
       </c>
       <c r="K2" s="3">
-        <v>342.38</v>
+        <v>235.32</v>
       </c>
       <c r="L2" t="s">
         <v>17</v>
       </c>
       <c r="M2" t="s">
-        <v>63</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -710,7 +720,7 @@
       <c r="C3" t="s">
         <v>14</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E3">
@@ -726,7 +736,7 @@
         <v>45834.507268518515</v>
       </c>
       <c r="I3" s="2">
-        <v>14</v>
+        <v>20.49310185185459</v>
       </c>
       <c r="J3" s="3">
         <v>100.2</v>
@@ -738,7 +748,7 @@
         <v>17</v>
       </c>
       <c r="M3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
@@ -751,7 +761,7 @@
       <c r="C4" t="s">
         <v>14</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E4">
@@ -767,7 +777,7 @@
         <v>45855.560266203705</v>
       </c>
       <c r="I4" s="2">
-        <v>-7</v>
+        <v>0</v>
       </c>
       <c r="J4" s="3">
         <v>63.9</v>
@@ -792,7 +802,7 @@
       <c r="C5" t="s">
         <v>14</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E5">
@@ -808,7 +818,7 @@
         <v>45855.554108796292</v>
       </c>
       <c r="I5" s="2">
-        <v>-7</v>
+        <v>0</v>
       </c>
       <c r="J5" s="3">
         <v>195.99</v>
@@ -833,7 +843,7 @@
       <c r="C6" t="s">
         <v>14</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E6">
@@ -849,7 +859,7 @@
         <v>45863.454097222224</v>
       </c>
       <c r="I6" s="2">
-        <v>-15</v>
+        <v>-8</v>
       </c>
       <c r="J6" s="3">
         <v>145.12</v>
@@ -874,7 +884,7 @@
       <c r="C7" t="s">
         <v>14</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E7">
@@ -890,7 +900,7 @@
         <v>45873.635324074072</v>
       </c>
       <c r="I7" s="2">
-        <v>-25</v>
+        <v>-18</v>
       </c>
       <c r="J7" s="3">
         <v>277.5</v>
@@ -907,37 +917,37 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>211110629</v>
+        <v>211110545</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C8" t="s">
         <v>14</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E8">
-        <v>10639</v>
+        <v>11765</v>
       </c>
       <c r="F8" t="s">
         <v>16</v>
       </c>
       <c r="G8" s="1">
-        <v>45884.469178240739</v>
+        <v>45911.605474537035</v>
       </c>
       <c r="H8" s="1">
-        <v>45854.469178240739</v>
+        <v>45881.605486111112</v>
       </c>
       <c r="I8" s="2">
-        <v>-6</v>
+        <v>-26</v>
       </c>
       <c r="J8" s="3">
-        <v>120.76</v>
+        <v>98.01</v>
       </c>
       <c r="K8" s="3">
-        <v>120.76</v>
+        <v>98.01</v>
       </c>
       <c r="L8" t="s">
         <v>17</v>
@@ -948,7 +958,7 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>211110629</v>
+        <v>211111219</v>
       </c>
       <c r="B9" t="s">
         <v>21</v>
@@ -956,35 +966,35 @@
       <c r="C9" t="s">
         <v>14</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E9">
-        <v>11236</v>
+        <v>10289</v>
       </c>
       <c r="F9" t="s">
         <v>16</v>
       </c>
       <c r="G9" s="1">
-        <v>45898.501041666663</v>
+        <v>45876.546064814815</v>
       </c>
       <c r="H9" s="1">
-        <v>45868.501041666663</v>
+        <v>45846.5465162037</v>
       </c>
       <c r="I9" s="2">
-        <v>-20</v>
+        <v>8.4539351851854008</v>
       </c>
       <c r="J9" s="3">
-        <v>164.08</v>
+        <v>157.82</v>
       </c>
       <c r="K9" s="3">
-        <v>164.08</v>
+        <v>157.82</v>
       </c>
       <c r="L9" t="s">
         <v>17</v>
       </c>
       <c r="M9" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
@@ -992,45 +1002,45 @@
         <v>211111219</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C10" t="s">
         <v>14</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E10">
-        <v>10289</v>
+        <v>10721</v>
       </c>
       <c r="F10" t="s">
         <v>16</v>
       </c>
       <c r="G10" s="1">
-        <v>45876.546064814815</v>
+        <v>45885.593645833331</v>
       </c>
       <c r="H10" s="1">
-        <v>45846.5465162037</v>
+        <v>45855.593657407408</v>
       </c>
       <c r="I10" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J10" s="3">
-        <v>157.82</v>
+        <v>177.07</v>
       </c>
       <c r="K10" s="3">
-        <v>157.82</v>
+        <v>177.07</v>
       </c>
       <c r="L10" t="s">
         <v>17</v>
       </c>
       <c r="M10" t="s">
-        <v>63</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>211111219</v>
+        <v>211111233</v>
       </c>
       <c r="B11" t="s">
         <v>22</v>
@@ -1038,29 +1048,29 @@
       <c r="C11" t="s">
         <v>14</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E11">
-        <v>10721</v>
+        <v>10893</v>
       </c>
       <c r="F11" t="s">
         <v>16</v>
       </c>
       <c r="G11" s="1">
-        <v>45885.593645833331</v>
+        <v>45906.413287037038</v>
       </c>
       <c r="H11" s="1">
-        <v>45855.593657407408</v>
+        <v>45861.413842592592</v>
       </c>
       <c r="I11" s="2">
-        <v>-7</v>
+        <v>-21</v>
       </c>
       <c r="J11" s="3">
-        <v>177.07</v>
+        <v>88.14</v>
       </c>
       <c r="K11" s="3">
-        <v>177.07</v>
+        <v>88.14</v>
       </c>
       <c r="L11" t="s">
         <v>17</v>
@@ -1074,34 +1084,34 @@
         <v>211111233</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C12" t="s">
         <v>14</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E12">
-        <v>10893</v>
+        <v>11354</v>
       </c>
       <c r="F12" t="s">
         <v>16</v>
       </c>
       <c r="G12" s="1">
-        <v>45906.413287037038</v>
+        <v>45915.566932870366</v>
       </c>
       <c r="H12" s="1">
-        <v>45861.413842592592</v>
+        <v>45870.566944444443</v>
       </c>
       <c r="I12" s="2">
-        <v>-28</v>
+        <v>-30</v>
       </c>
       <c r="J12" s="3">
-        <v>88.14</v>
+        <v>115.95</v>
       </c>
       <c r="K12" s="3">
-        <v>88.14</v>
+        <v>115.95</v>
       </c>
       <c r="L12" t="s">
         <v>17</v>
@@ -1112,37 +1122,37 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>211111233</v>
+        <v>211111423</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
         <v>14</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E13">
-        <v>11354</v>
+        <v>11404</v>
       </c>
       <c r="F13" t="s">
         <v>16</v>
       </c>
       <c r="G13" s="1">
-        <v>45915.566932870366</v>
+        <v>45903.565601851849</v>
       </c>
       <c r="H13" s="1">
-        <v>45870.566944444443</v>
+        <v>45873.565613425926</v>
       </c>
       <c r="I13" s="2">
-        <v>-37</v>
+        <v>-18</v>
       </c>
       <c r="J13" s="3">
-        <v>115.95</v>
+        <v>292.47000000000003</v>
       </c>
       <c r="K13" s="3">
-        <v>115.95</v>
+        <v>292.47000000000003</v>
       </c>
       <c r="L13" t="s">
         <v>17</v>
@@ -1156,34 +1166,34 @@
         <v>211111423</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
         <v>14</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E14">
-        <v>11404</v>
+        <v>11714</v>
       </c>
       <c r="F14" t="s">
         <v>16</v>
       </c>
       <c r="G14" s="1">
-        <v>45903.565601851849</v>
+        <v>45910.507210648146</v>
       </c>
       <c r="H14" s="1">
-        <v>45873.565613425926</v>
+        <v>45880.507210648146</v>
       </c>
       <c r="I14" s="2">
         <v>-25</v>
       </c>
       <c r="J14" s="3">
-        <v>292.47000000000003</v>
+        <v>404.05</v>
       </c>
       <c r="K14" s="3">
-        <v>292.47000000000003</v>
+        <v>404.05</v>
       </c>
       <c r="L14" t="s">
         <v>17</v>
@@ -1197,12 +1207,12 @@
         <v>211111556</v>
       </c>
       <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
         <v>26</v>
       </c>
-      <c r="C15" t="s">
-        <v>27</v>
-      </c>
-      <c r="D15">
+      <c r="D15" s="4">
         <v>2025</v>
       </c>
       <c r="E15">
@@ -1218,7 +1228,7 @@
         <v>45786</v>
       </c>
       <c r="I15" s="2">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="J15" s="3">
         <v>-54.99</v>
@@ -1230,7 +1240,7 @@
         <v>17</v>
       </c>
       <c r="M15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
@@ -1238,12 +1248,12 @@
         <v>211111556</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
         <v>14</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E16">
@@ -1259,7 +1269,7 @@
         <v>45841.468414351853</v>
       </c>
       <c r="I16" s="2">
-        <v>7</v>
+        <v>13.531585648146574</v>
       </c>
       <c r="J16" s="3">
         <v>328.56</v>
@@ -1271,7 +1281,7 @@
         <v>17</v>
       </c>
       <c r="M16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
@@ -1279,12 +1289,12 @@
         <v>211111556</v>
       </c>
       <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
         <v>26</v>
       </c>
-      <c r="C17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17">
+      <c r="D17" s="4">
         <v>2025</v>
       </c>
       <c r="E17">
@@ -1300,7 +1310,7 @@
         <v>45866</v>
       </c>
       <c r="I17" s="2">
-        <v>-18</v>
+        <v>-11</v>
       </c>
       <c r="J17" s="3">
         <v>-26.240000000000002</v>
@@ -1320,12 +1330,12 @@
         <v>211111556</v>
       </c>
       <c r="B18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
         <v>14</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E18">
@@ -1341,7 +1351,7 @@
         <v>45866.528368055551</v>
       </c>
       <c r="I18" s="2">
-        <v>-18</v>
+        <v>-11</v>
       </c>
       <c r="J18" s="3">
         <v>471.41</v>
@@ -1361,12 +1371,12 @@
         <v>211111559</v>
       </c>
       <c r="B19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C19" t="s">
-        <v>27</v>
-      </c>
-      <c r="D19">
+        <v>26</v>
+      </c>
+      <c r="D19" s="4">
         <v>2025</v>
       </c>
       <c r="E19">
@@ -1382,7 +1392,7 @@
         <v>45866</v>
       </c>
       <c r="I19" s="2">
-        <v>-18</v>
+        <v>-11</v>
       </c>
       <c r="J19" s="3">
         <v>-2.41</v>
@@ -1402,12 +1412,12 @@
         <v>211111559</v>
       </c>
       <c r="B20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C20" t="s">
         <v>14</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E20">
@@ -1423,7 +1433,7 @@
         <v>45866.528148148143</v>
       </c>
       <c r="I20" s="2">
-        <v>-18</v>
+        <v>-11</v>
       </c>
       <c r="J20" s="3">
         <v>673.51</v>
@@ -1443,12 +1453,12 @@
         <v>211111559</v>
       </c>
       <c r="B21" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C21" t="s">
         <v>14</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E21">
@@ -1464,7 +1474,7 @@
         <v>45873.568761574075</v>
       </c>
       <c r="I21" s="2">
-        <v>-25</v>
+        <v>-18</v>
       </c>
       <c r="J21" s="3">
         <v>684.17</v>
@@ -1481,43 +1491,43 @@
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>211111567</v>
+        <v>211111559</v>
       </c>
       <c r="B22" t="s">
-        <v>30</v>
+        <v>61</v>
       </c>
       <c r="C22" t="s">
         <v>14</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E22">
-        <v>10215</v>
+        <v>11710</v>
       </c>
       <c r="F22" t="s">
         <v>16</v>
       </c>
       <c r="G22" s="1">
-        <v>45875.482060185182</v>
+        <v>45910.507071759261</v>
       </c>
       <c r="H22" s="1">
-        <v>45845.482060185182</v>
+        <v>45880.507071759261</v>
       </c>
       <c r="I22" s="2">
-        <v>3</v>
+        <v>-25</v>
       </c>
       <c r="J22" s="3">
-        <v>280.28000000000003</v>
+        <v>662.38</v>
       </c>
       <c r="K22" s="3">
-        <v>280.28000000000003</v>
+        <v>662.38</v>
       </c>
       <c r="L22" t="s">
         <v>17</v>
       </c>
       <c r="M22" t="s">
-        <v>63</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
@@ -1525,40 +1535,40 @@
         <v>211111567</v>
       </c>
       <c r="B23" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C23" t="s">
-        <v>27</v>
-      </c>
-      <c r="D23" t="s">
+        <v>14</v>
+      </c>
+      <c r="D23" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E23">
-        <v>518</v>
+        <v>10215</v>
       </c>
       <c r="F23" t="s">
         <v>16</v>
       </c>
       <c r="G23" s="1">
-        <v>45878</v>
+        <v>45875.482060185182</v>
       </c>
       <c r="H23" s="1">
-        <v>45848</v>
+        <v>45845.482060185182</v>
       </c>
       <c r="I23" s="2">
-        <v>0</v>
+        <v>9.5179398148175096</v>
       </c>
       <c r="J23" s="3">
-        <v>-4.63</v>
+        <v>280.28000000000003</v>
       </c>
       <c r="K23" s="3">
-        <v>-4.63</v>
+        <v>280.28000000000003</v>
       </c>
       <c r="L23" t="s">
         <v>17</v>
       </c>
       <c r="M23" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
@@ -1566,40 +1576,40 @@
         <v>211111567</v>
       </c>
       <c r="B24" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C24" t="s">
-        <v>14</v>
-      </c>
-      <c r="D24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E24">
-        <v>10408</v>
+        <v>518</v>
       </c>
       <c r="F24" t="s">
         <v>16</v>
       </c>
       <c r="G24" s="1">
-        <v>45878.421249999999</v>
+        <v>45878</v>
       </c>
       <c r="H24" s="1">
-        <v>45848.421249999999</v>
+        <v>45848</v>
       </c>
       <c r="I24" s="2">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J24" s="3">
-        <v>167.72</v>
+        <v>-4.63</v>
       </c>
       <c r="K24" s="3">
-        <v>167.72</v>
+        <v>-4.63</v>
       </c>
       <c r="L24" t="s">
         <v>17</v>
       </c>
       <c r="M24" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
@@ -1607,40 +1617,40 @@
         <v>211111567</v>
       </c>
       <c r="B25" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C25" t="s">
         <v>14</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D25" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E25">
-        <v>10524</v>
+        <v>10408</v>
       </c>
       <c r="F25" t="s">
         <v>16</v>
       </c>
       <c r="G25" s="1">
-        <v>45882.489189814813</v>
+        <v>45878.421249999999</v>
       </c>
       <c r="H25" s="1">
-        <v>45852.489189814813</v>
+        <v>45848.421249999999</v>
       </c>
       <c r="I25" s="2">
-        <v>-4</v>
+        <v>6.5787500000005821</v>
       </c>
       <c r="J25" s="3">
-        <v>301.11</v>
+        <v>167.72</v>
       </c>
       <c r="K25" s="3">
-        <v>301.11</v>
+        <v>167.72</v>
       </c>
       <c r="L25" t="s">
         <v>17</v>
       </c>
       <c r="M25" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
@@ -1648,40 +1658,40 @@
         <v>211111567</v>
       </c>
       <c r="B26" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C26" t="s">
         <v>14</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D26" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E26">
-        <v>10704</v>
+        <v>10524</v>
       </c>
       <c r="F26" t="s">
         <v>16</v>
       </c>
       <c r="G26" s="1">
-        <v>45885.498472222222</v>
+        <v>45882.489189814813</v>
       </c>
       <c r="H26" s="1">
-        <v>45855.498472222222</v>
+        <v>45852.489189814813</v>
       </c>
       <c r="I26" s="2">
-        <v>-7</v>
+        <v>2.510810185187438</v>
       </c>
       <c r="J26" s="3">
-        <v>266.19</v>
+        <v>301.11</v>
       </c>
       <c r="K26" s="3">
-        <v>266.19</v>
+        <v>301.11</v>
       </c>
       <c r="L26" t="s">
         <v>17</v>
       </c>
       <c r="M26" t="s">
-        <v>18</v>
+        <v>62</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
@@ -1689,34 +1699,34 @@
         <v>211111567</v>
       </c>
       <c r="B27" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C27" t="s">
         <v>14</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D27" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E27">
-        <v>10993</v>
+        <v>10704</v>
       </c>
       <c r="F27" t="s">
         <v>16</v>
       </c>
       <c r="G27" s="1">
-        <v>45892.493587962963</v>
+        <v>45885.498472222222</v>
       </c>
       <c r="H27" s="1">
-        <v>45862.493599537032</v>
+        <v>45855.498472222222</v>
       </c>
       <c r="I27" s="2">
-        <v>-14</v>
+        <v>0</v>
       </c>
       <c r="J27" s="3">
-        <v>57.02</v>
+        <v>266.19</v>
       </c>
       <c r="K27" s="3">
-        <v>57.02</v>
+        <v>266.19</v>
       </c>
       <c r="L27" t="s">
         <v>17</v>
@@ -1730,34 +1740,34 @@
         <v>211111567</v>
       </c>
       <c r="B28" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C28" t="s">
         <v>14</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D28" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E28">
-        <v>11110</v>
+        <v>10993</v>
       </c>
       <c r="F28" t="s">
         <v>16</v>
       </c>
       <c r="G28" s="1">
-        <v>45926.528310185182</v>
+        <v>45892.493587962963</v>
       </c>
       <c r="H28" s="1">
-        <v>45866.528310185182</v>
+        <v>45862.493599537032</v>
       </c>
       <c r="I28" s="2">
-        <v>-48</v>
+        <v>-7</v>
       </c>
       <c r="J28" s="3">
-        <v>290.05</v>
+        <v>57.02</v>
       </c>
       <c r="K28" s="3">
-        <v>290.05</v>
+        <v>57.02</v>
       </c>
       <c r="L28" t="s">
         <v>17</v>
@@ -1771,34 +1781,34 @@
         <v>211111567</v>
       </c>
       <c r="B29" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C29" t="s">
         <v>14</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D29" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E29">
-        <v>11283</v>
+        <v>11110</v>
       </c>
       <c r="F29" t="s">
         <v>16</v>
       </c>
       <c r="G29" s="1">
-        <v>45929.501446759255</v>
+        <v>45926.528310185182</v>
       </c>
       <c r="H29" s="1">
-        <v>45869.501446759255</v>
+        <v>45866.528310185182</v>
       </c>
       <c r="I29" s="2">
-        <v>-51</v>
+        <v>-41</v>
       </c>
       <c r="J29" s="3">
-        <v>512.48</v>
+        <v>290.05</v>
       </c>
       <c r="K29" s="3">
-        <v>512.48</v>
+        <v>290.05</v>
       </c>
       <c r="L29" t="s">
         <v>17</v>
@@ -1812,34 +1822,34 @@
         <v>211111567</v>
       </c>
       <c r="B30" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C30" t="s">
         <v>14</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D30" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E30">
-        <v>11403</v>
+        <v>11283</v>
       </c>
       <c r="F30" t="s">
         <v>16</v>
       </c>
       <c r="G30" s="1">
-        <v>45933.565578703703</v>
+        <v>45929.501446759255</v>
       </c>
       <c r="H30" s="1">
-        <v>45873.565578703703</v>
+        <v>45869.501446759255</v>
       </c>
       <c r="I30" s="2">
-        <v>-55</v>
+        <v>-44</v>
       </c>
       <c r="J30" s="3">
-        <v>369.45</v>
+        <v>512.48</v>
       </c>
       <c r="K30" s="3">
-        <v>369.45</v>
+        <v>512.48</v>
       </c>
       <c r="L30" t="s">
         <v>17</v>
@@ -1853,34 +1863,34 @@
         <v>211111567</v>
       </c>
       <c r="B31" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C31" t="s">
         <v>14</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D31" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E31">
-        <v>11585</v>
+        <v>11403</v>
       </c>
       <c r="F31" t="s">
         <v>16</v>
       </c>
       <c r="G31" s="1">
-        <v>45936.517835648148</v>
+        <v>45933.565578703703</v>
       </c>
       <c r="H31" s="1">
-        <v>45876.518402777772</v>
+        <v>45873.565578703703</v>
       </c>
       <c r="I31" s="2">
-        <v>-58</v>
+        <v>-48</v>
       </c>
       <c r="J31" s="3">
-        <v>288.54000000000002</v>
-      </c>
-      <c r="K31" s="3">
-        <v>288.54000000000002</v>
+        <v>369.45</v>
+      </c>
+      <c r="K31" s="5">
+        <v>369.45</v>
       </c>
       <c r="L31" t="s">
         <v>17</v>
@@ -1891,84 +1901,84 @@
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>211111832</v>
+        <v>211111567</v>
       </c>
       <c r="B32" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="C32" t="s">
         <v>14</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D32" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E32">
-        <v>8724</v>
+        <v>11585</v>
       </c>
       <c r="F32" t="s">
         <v>16</v>
       </c>
       <c r="G32" s="1">
-        <v>45840.417569444442</v>
+        <v>45936.517835648148</v>
       </c>
       <c r="H32" s="1">
-        <v>45810.426018518519</v>
+        <v>45876.518402777772</v>
       </c>
       <c r="I32" s="2">
-        <v>38</v>
+        <v>-51</v>
       </c>
       <c r="J32" s="3">
-        <v>126.35000000000001</v>
+        <v>288.54000000000002</v>
       </c>
       <c r="K32" s="3">
-        <v>126.35000000000001</v>
+        <v>288.54000000000002</v>
       </c>
       <c r="L32" t="s">
         <v>17</v>
       </c>
       <c r="M32" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>211111832</v>
+        <v>211111567</v>
       </c>
       <c r="B33" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="C33" t="s">
         <v>14</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D33" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E33">
-        <v>8939</v>
+        <v>11903</v>
       </c>
       <c r="F33" t="s">
         <v>16</v>
       </c>
       <c r="G33" s="1">
-        <v>45843.550532407404</v>
+        <v>45943.465833333328</v>
       </c>
       <c r="H33" s="1">
-        <v>45813.574108796296</v>
+        <v>45883.465833333328</v>
       </c>
       <c r="I33" s="2">
-        <v>35</v>
+        <v>-58</v>
       </c>
       <c r="J33" s="3">
-        <v>391.52</v>
-      </c>
-      <c r="K33" s="3">
-        <v>391.52</v>
+        <v>489.1</v>
+      </c>
+      <c r="K33" s="5">
+        <v>489.1</v>
       </c>
       <c r="L33" t="s">
         <v>17</v>
       </c>
       <c r="M33" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
@@ -1976,40 +1986,40 @@
         <v>211111832</v>
       </c>
       <c r="B34" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C34" t="s">
         <v>14</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D34" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E34">
-        <v>8968</v>
+        <v>8724</v>
       </c>
       <c r="F34" t="s">
         <v>16</v>
       </c>
       <c r="G34" s="1">
-        <v>45847.378715277773</v>
+        <v>45840.417569444442</v>
       </c>
       <c r="H34" s="1">
-        <v>45817.381168981483</v>
+        <v>45810.426018518519</v>
       </c>
       <c r="I34" s="2">
-        <v>31</v>
+        <v>44.582430555557949</v>
       </c>
       <c r="J34" s="3">
-        <v>59.06</v>
+        <v>126.35000000000001</v>
       </c>
       <c r="K34" s="3">
-        <v>59.06</v>
+        <v>126.35000000000001</v>
       </c>
       <c r="L34" t="s">
         <v>17</v>
       </c>
       <c r="M34" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
@@ -2017,40 +2027,40 @@
         <v>211111832</v>
       </c>
       <c r="B35" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C35" t="s">
         <v>14</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D35" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E35">
-        <v>9148</v>
+        <v>8939</v>
       </c>
       <c r="F35" t="s">
         <v>16</v>
       </c>
       <c r="G35" s="1">
-        <v>45850.450706018513</v>
+        <v>45843.550532407404</v>
       </c>
       <c r="H35" s="1">
-        <v>45820.452037037037</v>
+        <v>45813.574108796296</v>
       </c>
       <c r="I35" s="2">
-        <v>28</v>
+        <v>41.449467592596193</v>
       </c>
       <c r="J35" s="3">
-        <v>314.43</v>
+        <v>391.52</v>
       </c>
       <c r="K35" s="3">
-        <v>314.43</v>
+        <v>391.52</v>
       </c>
       <c r="L35" t="s">
         <v>17</v>
       </c>
       <c r="M35" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
@@ -2058,40 +2068,40 @@
         <v>211111832</v>
       </c>
       <c r="B36" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C36" t="s">
         <v>14</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D36" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E36">
-        <v>9510</v>
+        <v>8968</v>
       </c>
       <c r="F36" t="s">
         <v>16</v>
       </c>
       <c r="G36" s="1">
-        <v>45858.516712962963</v>
+        <v>45847.378715277773</v>
       </c>
       <c r="H36" s="1">
-        <v>45828.517974537033</v>
+        <v>45817.381168981483</v>
       </c>
       <c r="I36" s="2">
-        <v>20</v>
+        <v>37.621284722226846</v>
       </c>
       <c r="J36" s="3">
-        <v>394.83</v>
+        <v>59.06</v>
       </c>
       <c r="K36" s="3">
-        <v>394.83</v>
+        <v>59.06</v>
       </c>
       <c r="L36" t="s">
         <v>17</v>
       </c>
       <c r="M36" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
@@ -2099,40 +2109,40 @@
         <v>211111832</v>
       </c>
       <c r="B37" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C37" t="s">
         <v>14</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D37" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E37">
-        <v>9764</v>
+        <v>9148</v>
       </c>
       <c r="F37" t="s">
         <v>16</v>
       </c>
       <c r="G37" s="1">
-        <v>45864.422581018516</v>
+        <v>45850.450706018513</v>
       </c>
       <c r="H37" s="1">
-        <v>45834.424537037034</v>
+        <v>45820.452037037037</v>
       </c>
       <c r="I37" s="2">
-        <v>14</v>
+        <v>34.549293981486699</v>
       </c>
       <c r="J37" s="3">
-        <v>340.11</v>
+        <v>314.43</v>
       </c>
       <c r="K37" s="3">
-        <v>340.11</v>
+        <v>314.43</v>
       </c>
       <c r="L37" t="s">
         <v>17</v>
       </c>
       <c r="M37" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
@@ -2140,40 +2150,40 @@
         <v>211111832</v>
       </c>
       <c r="B38" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C38" t="s">
         <v>14</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D38" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E38">
-        <v>10015</v>
+        <v>9510</v>
       </c>
       <c r="F38" t="s">
         <v>16</v>
       </c>
       <c r="G38" s="1">
-        <v>45870.643773148149</v>
+        <v>45858.516712962963</v>
       </c>
       <c r="H38" s="1">
-        <v>45840.645138888889</v>
+        <v>45828.517974537033</v>
       </c>
       <c r="I38" s="2">
-        <v>8</v>
+        <v>26.483287037037371</v>
       </c>
       <c r="J38" s="3">
-        <v>163.52000000000001</v>
+        <v>394.83</v>
       </c>
       <c r="K38" s="3">
-        <v>163.52000000000001</v>
+        <v>394.83</v>
       </c>
       <c r="L38" t="s">
         <v>17</v>
       </c>
       <c r="M38" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
@@ -2181,40 +2191,40 @@
         <v>211111832</v>
       </c>
       <c r="B39" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C39" t="s">
         <v>14</v>
       </c>
-      <c r="D39" t="s">
+      <c r="D39" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E39">
-        <v>10073</v>
+        <v>9764</v>
       </c>
       <c r="F39" t="s">
         <v>16</v>
       </c>
       <c r="G39" s="1">
-        <v>45871.54855324074</v>
+        <v>45864.422581018516</v>
       </c>
       <c r="H39" s="1">
-        <v>45841.54855324074</v>
+        <v>45834.424537037034</v>
       </c>
       <c r="I39" s="2">
-        <v>7</v>
+        <v>20.577418981483788</v>
       </c>
       <c r="J39" s="3">
-        <v>159.94</v>
+        <v>340.11</v>
       </c>
       <c r="K39" s="3">
-        <v>159.94</v>
+        <v>340.11</v>
       </c>
       <c r="L39" t="s">
         <v>17</v>
       </c>
       <c r="M39" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
@@ -2222,40 +2232,40 @@
         <v>211111832</v>
       </c>
       <c r="B40" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C40" t="s">
         <v>14</v>
       </c>
-      <c r="D40" t="s">
+      <c r="D40" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E40">
-        <v>10208</v>
+        <v>10015</v>
       </c>
       <c r="F40" t="s">
         <v>16</v>
       </c>
       <c r="G40" s="1">
-        <v>45875.481840277775</v>
+        <v>45870.643773148149</v>
       </c>
       <c r="H40" s="1">
-        <v>45845.481840277775</v>
+        <v>45840.645138888889</v>
       </c>
       <c r="I40" s="2">
-        <v>3</v>
+        <v>14.356226851850806</v>
       </c>
       <c r="J40" s="3">
-        <v>69.59</v>
+        <v>163.52000000000001</v>
       </c>
       <c r="K40" s="3">
-        <v>69.59</v>
+        <v>163.52000000000001</v>
       </c>
       <c r="L40" t="s">
         <v>17</v>
       </c>
       <c r="M40" t="s">
-        <v>63</v>
+        <v>23</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
@@ -2263,40 +2273,40 @@
         <v>211111832</v>
       </c>
       <c r="B41" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C41" t="s">
         <v>14</v>
       </c>
-      <c r="D41" t="s">
+      <c r="D41" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E41">
-        <v>10415</v>
+        <v>10073</v>
       </c>
       <c r="F41" t="s">
         <v>16</v>
       </c>
       <c r="G41" s="1">
-        <v>45878.428206018514</v>
+        <v>45871.54855324074</v>
       </c>
       <c r="H41" s="1">
-        <v>45848.428217592591</v>
+        <v>45841.54855324074</v>
       </c>
       <c r="I41" s="2">
-        <v>0</v>
+        <v>13.451446759259852</v>
       </c>
       <c r="J41" s="3">
-        <v>362.03000000000003</v>
+        <v>159.94</v>
       </c>
       <c r="K41" s="3">
-        <v>362.03000000000003</v>
+        <v>159.94</v>
       </c>
       <c r="L41" t="s">
         <v>17</v>
       </c>
       <c r="M41" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
@@ -2304,40 +2314,40 @@
         <v>211111832</v>
       </c>
       <c r="B42" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C42" t="s">
         <v>14</v>
       </c>
-      <c r="D42" t="s">
+      <c r="D42" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E42">
-        <v>10701</v>
+        <v>10208</v>
       </c>
       <c r="F42" t="s">
         <v>16</v>
       </c>
       <c r="G42" s="1">
-        <v>45885.498379629629</v>
+        <v>45875.481840277775</v>
       </c>
       <c r="H42" s="1">
-        <v>45855.498391203699</v>
+        <v>45845.481840277775</v>
       </c>
       <c r="I42" s="2">
-        <v>-7</v>
+        <v>9.5181597222253913</v>
       </c>
       <c r="J42" s="3">
-        <v>414.34000000000003</v>
+        <v>69.59</v>
       </c>
       <c r="K42" s="3">
-        <v>414.34000000000003</v>
+        <v>69.59</v>
       </c>
       <c r="L42" t="s">
         <v>17</v>
       </c>
       <c r="M42" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
@@ -2345,40 +2355,40 @@
         <v>211111832</v>
       </c>
       <c r="B43" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C43" t="s">
         <v>14</v>
       </c>
-      <c r="D43" t="s">
+      <c r="D43" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E43">
-        <v>10827</v>
+        <v>10415</v>
       </c>
       <c r="F43" t="s">
         <v>16</v>
       </c>
       <c r="G43" s="1">
-        <v>45889.495150462964</v>
+        <v>45878.428206018514</v>
       </c>
       <c r="H43" s="1">
-        <v>45859.495150462964</v>
+        <v>45848.428217592591</v>
       </c>
       <c r="I43" s="2">
-        <v>-11</v>
+        <v>6.5717939814858255</v>
       </c>
       <c r="J43" s="3">
-        <v>55.44</v>
+        <v>362.03000000000003</v>
       </c>
       <c r="K43" s="3">
-        <v>55.44</v>
+        <v>362.03000000000003</v>
       </c>
       <c r="L43" t="s">
         <v>17</v>
       </c>
       <c r="M43" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
@@ -2386,34 +2396,34 @@
         <v>211111832</v>
       </c>
       <c r="B44" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C44" t="s">
         <v>14</v>
       </c>
-      <c r="D44" t="s">
+      <c r="D44" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E44">
-        <v>10991</v>
+        <v>10701</v>
       </c>
       <c r="F44" t="s">
         <v>16</v>
       </c>
       <c r="G44" s="1">
-        <v>45892.492847222224</v>
+        <v>45885.498379629629</v>
       </c>
       <c r="H44" s="1">
-        <v>45862.492905092593</v>
+        <v>45855.498391203699</v>
       </c>
       <c r="I44" s="2">
-        <v>-14</v>
+        <v>0</v>
       </c>
       <c r="J44" s="3">
-        <v>366.97</v>
+        <v>414.34000000000003</v>
       </c>
       <c r="K44" s="3">
-        <v>366.97</v>
+        <v>414.34000000000003</v>
       </c>
       <c r="L44" t="s">
         <v>17</v>
@@ -2427,34 +2437,34 @@
         <v>211111832</v>
       </c>
       <c r="B45" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C45" t="s">
         <v>14</v>
       </c>
-      <c r="D45" t="s">
+      <c r="D45" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E45">
-        <v>11106</v>
+        <v>10827</v>
       </c>
       <c r="F45" t="s">
         <v>16</v>
       </c>
       <c r="G45" s="1">
-        <v>45926.528171296297</v>
+        <v>45889.495150462964</v>
       </c>
       <c r="H45" s="1">
-        <v>45866.528182870366</v>
+        <v>45859.495150462964</v>
       </c>
       <c r="I45" s="2">
-        <v>-48</v>
+        <v>-4</v>
       </c>
       <c r="J45" s="3">
-        <v>159.31</v>
+        <v>55.44</v>
       </c>
       <c r="K45" s="3">
-        <v>159.31</v>
+        <v>55.44</v>
       </c>
       <c r="L45" t="s">
         <v>17</v>
@@ -2468,34 +2478,34 @@
         <v>211111832</v>
       </c>
       <c r="B46" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C46" t="s">
         <v>14</v>
       </c>
-      <c r="D46" t="s">
+      <c r="D46" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E46">
-        <v>11279</v>
+        <v>10991</v>
       </c>
       <c r="F46" t="s">
         <v>16</v>
       </c>
       <c r="G46" s="1">
-        <v>45929.50131944444</v>
+        <v>45892.492847222224</v>
       </c>
       <c r="H46" s="1">
-        <v>45869.501331018517</v>
+        <v>45862.492905092593</v>
       </c>
       <c r="I46" s="2">
-        <v>-51</v>
+        <v>-7</v>
       </c>
       <c r="J46" s="3">
-        <v>420.68</v>
+        <v>366.97</v>
       </c>
       <c r="K46" s="3">
-        <v>420.68</v>
+        <v>366.97</v>
       </c>
       <c r="L46" t="s">
         <v>17</v>
@@ -2509,34 +2519,34 @@
         <v>211111832</v>
       </c>
       <c r="B47" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C47" t="s">
         <v>14</v>
       </c>
-      <c r="D47" t="s">
+      <c r="D47" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E47">
-        <v>11401</v>
+        <v>11106</v>
       </c>
       <c r="F47" t="s">
         <v>16</v>
       </c>
       <c r="G47" s="1">
-        <v>45933.565509259257</v>
+        <v>45926.528171296297</v>
       </c>
       <c r="H47" s="1">
-        <v>45873.565520833334</v>
+        <v>45866.528182870366</v>
       </c>
       <c r="I47" s="2">
-        <v>-55</v>
+        <v>-41</v>
       </c>
       <c r="J47" s="3">
-        <v>176.39000000000001</v>
+        <v>159.31</v>
       </c>
       <c r="K47" s="3">
-        <v>176.39000000000001</v>
+        <v>159.31</v>
       </c>
       <c r="L47" t="s">
         <v>17</v>
@@ -2550,34 +2560,34 @@
         <v>211111832</v>
       </c>
       <c r="B48" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C48" t="s">
         <v>14</v>
       </c>
-      <c r="D48" t="s">
+      <c r="D48" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E48">
-        <v>11591</v>
+        <v>11279</v>
       </c>
       <c r="F48" t="s">
         <v>16</v>
       </c>
       <c r="G48" s="1">
-        <v>45936.521041666667</v>
+        <v>45929.50131944444</v>
       </c>
       <c r="H48" s="1">
-        <v>45876.521238425921</v>
+        <v>45869.501331018517</v>
       </c>
       <c r="I48" s="2">
-        <v>-58</v>
+        <v>-44</v>
       </c>
       <c r="J48" s="3">
-        <v>460.85</v>
-      </c>
-      <c r="K48" s="3">
-        <v>460.85</v>
+        <v>420.68</v>
+      </c>
+      <c r="K48" s="5">
+        <v>420.68</v>
       </c>
       <c r="L48" t="s">
         <v>17</v>
@@ -2588,125 +2598,125 @@
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>211111909</v>
+        <v>211111832</v>
       </c>
       <c r="B49" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C49" t="s">
         <v>14</v>
       </c>
-      <c r="D49" t="s">
+      <c r="D49" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E49">
-        <v>9955</v>
+        <v>11401</v>
       </c>
       <c r="F49" t="s">
         <v>16</v>
       </c>
       <c r="G49" s="1">
-        <v>45870.409421296295</v>
+        <v>45933.565509259257</v>
       </c>
       <c r="H49" s="1">
-        <v>45840.411736111106</v>
+        <v>45873.565520833334</v>
       </c>
       <c r="I49" s="2">
-        <v>8</v>
+        <v>-48</v>
       </c>
       <c r="J49" s="3">
-        <v>112.11</v>
+        <v>176.39000000000001</v>
       </c>
       <c r="K49" s="3">
-        <v>112.11</v>
+        <v>176.39000000000001</v>
       </c>
       <c r="L49" t="s">
         <v>17</v>
       </c>
       <c r="M49" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>211111909</v>
+        <v>211111832</v>
       </c>
       <c r="B50" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C50" t="s">
         <v>14</v>
       </c>
-      <c r="D50" t="s">
+      <c r="D50" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E50">
-        <v>10092</v>
+        <v>11591</v>
       </c>
       <c r="F50" t="s">
         <v>16</v>
       </c>
       <c r="G50" s="1">
-        <v>45872.315787037034</v>
+        <v>45936.521041666667</v>
       </c>
       <c r="H50" s="1">
-        <v>45842.315787037034</v>
+        <v>45876.521238425921</v>
       </c>
       <c r="I50" s="2">
-        <v>6</v>
+        <v>-51</v>
       </c>
       <c r="J50" s="3">
-        <v>75.03</v>
+        <v>460.85</v>
       </c>
       <c r="K50" s="3">
-        <v>75.03</v>
+        <v>460.85</v>
       </c>
       <c r="L50" t="s">
         <v>17</v>
       </c>
       <c r="M50" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>211111909</v>
+        <v>211111832</v>
       </c>
       <c r="B51" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C51" t="s">
         <v>14</v>
       </c>
-      <c r="D51" t="s">
+      <c r="D51" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E51">
-        <v>10093</v>
+        <v>11898</v>
       </c>
       <c r="F51" t="s">
         <v>16</v>
       </c>
       <c r="G51" s="1">
-        <v>45872.31581018518</v>
+        <v>45943.465717592589</v>
       </c>
       <c r="H51" s="1">
-        <v>45842.31581018518</v>
+        <v>45883.465717592589</v>
       </c>
       <c r="I51" s="2">
-        <v>6</v>
+        <v>-58</v>
       </c>
       <c r="J51" s="3">
-        <v>114.44</v>
+        <v>400.48</v>
       </c>
       <c r="K51" s="3">
-        <v>114.44</v>
+        <v>400.48</v>
       </c>
       <c r="L51" t="s">
         <v>17</v>
       </c>
       <c r="M51" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.25">
@@ -2714,40 +2724,40 @@
         <v>211111909</v>
       </c>
       <c r="B52" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C52" t="s">
-        <v>27</v>
-      </c>
-      <c r="D52">
-        <v>2025</v>
+        <v>14</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="E52">
-        <v>638</v>
+        <v>9955</v>
       </c>
       <c r="F52" t="s">
         <v>16</v>
       </c>
       <c r="G52" s="1">
-        <v>45878</v>
+        <v>45870.409421296295</v>
       </c>
       <c r="H52" s="1">
-        <v>45848</v>
+        <v>45840.411736111106</v>
       </c>
       <c r="I52" s="2">
-        <v>0</v>
+        <v>14.590578703704523</v>
       </c>
       <c r="J52" s="3">
-        <v>-73.5</v>
+        <v>112.11</v>
       </c>
       <c r="K52" s="3">
-        <v>-73.5</v>
+        <v>112.11</v>
       </c>
       <c r="L52" t="s">
         <v>17</v>
       </c>
       <c r="M52" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.25">
@@ -2755,40 +2765,40 @@
         <v>211111909</v>
       </c>
       <c r="B53" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C53" t="s">
         <v>14</v>
       </c>
-      <c r="D53" t="s">
+      <c r="D53" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E53">
-        <v>10409</v>
+        <v>10092</v>
       </c>
       <c r="F53" t="s">
         <v>16</v>
       </c>
       <c r="G53" s="1">
-        <v>45878.421273148146</v>
+        <v>45872.315787037034</v>
       </c>
       <c r="H53" s="1">
-        <v>45848.421273148146</v>
+        <v>45842.315787037034</v>
       </c>
       <c r="I53" s="2">
-        <v>0</v>
+        <v>12.68421296296583</v>
       </c>
       <c r="J53" s="3">
-        <v>112.3</v>
+        <v>75.03</v>
       </c>
       <c r="K53" s="3">
-        <v>112.3</v>
+        <v>75.03</v>
       </c>
       <c r="L53" t="s">
         <v>17</v>
       </c>
       <c r="M53" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.25">
@@ -2796,40 +2806,40 @@
         <v>211111909</v>
       </c>
       <c r="B54" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C54" t="s">
         <v>14</v>
       </c>
-      <c r="D54" t="s">
+      <c r="D54" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E54">
-        <v>10592</v>
+        <v>10093</v>
       </c>
       <c r="F54" t="s">
         <v>16</v>
       </c>
       <c r="G54" s="1">
-        <v>45884.413032407407</v>
+        <v>45872.31581018518</v>
       </c>
       <c r="H54" s="1">
-        <v>45854.413043981476</v>
+        <v>45842.31581018518</v>
       </c>
       <c r="I54" s="2">
-        <v>-6</v>
+        <v>12.684189814819547</v>
       </c>
       <c r="J54" s="3">
-        <v>220.38</v>
+        <v>114.44</v>
       </c>
       <c r="K54" s="3">
-        <v>220.38</v>
+        <v>114.44</v>
       </c>
       <c r="L54" t="s">
         <v>17</v>
       </c>
       <c r="M54" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.25">
@@ -2837,40 +2847,40 @@
         <v>211111909</v>
       </c>
       <c r="B55" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C55" t="s">
-        <v>14</v>
-      </c>
-      <c r="D55" t="s">
-        <v>15</v>
+        <v>26</v>
+      </c>
+      <c r="D55" s="4">
+        <v>2025</v>
       </c>
       <c r="E55">
-        <v>10694</v>
+        <v>638</v>
       </c>
       <c r="F55" t="s">
         <v>16</v>
       </c>
       <c r="G55" s="1">
-        <v>45885.498206018514</v>
+        <v>45878</v>
       </c>
       <c r="H55" s="1">
-        <v>45855.498217592591</v>
+        <v>45848</v>
       </c>
       <c r="I55" s="2">
-        <v>-7</v>
+        <v>7</v>
       </c>
       <c r="J55" s="3">
-        <v>220.07</v>
+        <v>-73.5</v>
       </c>
       <c r="K55" s="3">
-        <v>220.07</v>
+        <v>-73.5</v>
       </c>
       <c r="L55" t="s">
         <v>17</v>
       </c>
       <c r="M55" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.25">
@@ -2878,40 +2888,40 @@
         <v>211111909</v>
       </c>
       <c r="B56" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C56" t="s">
         <v>14</v>
       </c>
-      <c r="D56" t="s">
+      <c r="D56" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E56">
-        <v>10695</v>
+        <v>10409</v>
       </c>
       <c r="F56" t="s">
         <v>16</v>
       </c>
       <c r="G56" s="1">
-        <v>45885.498240740737</v>
+        <v>45878.421273148146</v>
       </c>
       <c r="H56" s="1">
-        <v>45855.498240740737</v>
+        <v>45848.421273148146</v>
       </c>
       <c r="I56" s="2">
-        <v>-7</v>
+        <v>6.5787268518542987</v>
       </c>
       <c r="J56" s="3">
-        <v>182.79</v>
+        <v>112.3</v>
       </c>
       <c r="K56" s="3">
-        <v>182.79</v>
+        <v>112.3</v>
       </c>
       <c r="L56" t="s">
         <v>17</v>
       </c>
       <c r="M56" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.25">
@@ -2919,34 +2929,34 @@
         <v>211111909</v>
       </c>
       <c r="B57" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C57" t="s">
         <v>14</v>
       </c>
-      <c r="D57" t="s">
+      <c r="D57" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E57">
-        <v>10823</v>
+        <v>10592</v>
       </c>
       <c r="F57" t="s">
         <v>16</v>
       </c>
       <c r="G57" s="1">
-        <v>45889.495046296295</v>
+        <v>45884.413032407407</v>
       </c>
       <c r="H57" s="1">
-        <v>45859.495057870372</v>
+        <v>45854.413043981476</v>
       </c>
       <c r="I57" s="2">
-        <v>-11</v>
+        <v>0.58696759259328246</v>
       </c>
       <c r="J57" s="3">
-        <v>99.84</v>
+        <v>220.38</v>
       </c>
       <c r="K57" s="3">
-        <v>99.84</v>
+        <v>220.38</v>
       </c>
       <c r="L57" t="s">
         <v>17</v>
@@ -2960,34 +2970,34 @@
         <v>211111909</v>
       </c>
       <c r="B58" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C58" t="s">
         <v>14</v>
       </c>
-      <c r="D58" t="s">
+      <c r="D58" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E58">
-        <v>11103</v>
+        <v>10694</v>
       </c>
       <c r="F58" t="s">
         <v>16</v>
       </c>
       <c r="G58" s="1">
-        <v>45896.528101851851</v>
+        <v>45885.498206018514</v>
       </c>
       <c r="H58" s="1">
-        <v>45866.528113425928</v>
+        <v>45855.498217592591</v>
       </c>
       <c r="I58" s="2">
-        <v>-18</v>
+        <v>0</v>
       </c>
       <c r="J58" s="3">
-        <v>74.12</v>
+        <v>220.07</v>
       </c>
       <c r="K58" s="3">
-        <v>74.12</v>
+        <v>220.07</v>
       </c>
       <c r="L58" t="s">
         <v>17</v>
@@ -3001,34 +3011,34 @@
         <v>211111909</v>
       </c>
       <c r="B59" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C59" t="s">
         <v>14</v>
       </c>
-      <c r="D59" t="s">
+      <c r="D59" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E59">
-        <v>11193</v>
+        <v>10695</v>
       </c>
       <c r="F59" t="s">
         <v>16</v>
       </c>
       <c r="G59" s="1">
-        <v>45898.482453703698</v>
+        <v>45885.498240740737</v>
       </c>
       <c r="H59" s="1">
-        <v>45868.482465277775</v>
+        <v>45855.498240740737</v>
       </c>
       <c r="I59" s="2">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="J59" s="3">
-        <v>128.46</v>
+        <v>182.79</v>
       </c>
       <c r="K59" s="3">
-        <v>128.46</v>
+        <v>182.79</v>
       </c>
       <c r="L59" t="s">
         <v>17</v>
@@ -3042,34 +3052,34 @@
         <v>211111909</v>
       </c>
       <c r="B60" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C60" t="s">
         <v>14</v>
       </c>
-      <c r="D60" t="s">
+      <c r="D60" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E60">
-        <v>11277</v>
+        <v>10823</v>
       </c>
       <c r="F60" t="s">
         <v>16</v>
       </c>
       <c r="G60" s="1">
-        <v>45899.501284722217</v>
+        <v>45889.495046296295</v>
       </c>
       <c r="H60" s="1">
-        <v>45869.501284722217</v>
+        <v>45859.495057870372</v>
       </c>
       <c r="I60" s="2">
-        <v>-21</v>
+        <v>-4</v>
       </c>
       <c r="J60" s="3">
-        <v>37.800000000000004</v>
+        <v>99.84</v>
       </c>
       <c r="K60" s="3">
-        <v>37.800000000000004</v>
+        <v>99.84</v>
       </c>
       <c r="L60" t="s">
         <v>17</v>
@@ -3083,34 +3093,34 @@
         <v>211111909</v>
       </c>
       <c r="B61" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C61" t="s">
         <v>14</v>
       </c>
-      <c r="D61" t="s">
+      <c r="D61" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E61">
-        <v>11278</v>
+        <v>11103</v>
       </c>
       <c r="F61" t="s">
         <v>16</v>
       </c>
       <c r="G61" s="1">
-        <v>45899.501296296294</v>
+        <v>45896.528101851851</v>
       </c>
       <c r="H61" s="1">
-        <v>45869.501307870371</v>
+        <v>45866.528113425928</v>
       </c>
       <c r="I61" s="2">
-        <v>-21</v>
+        <v>-11</v>
       </c>
       <c r="J61" s="3">
-        <v>33.700000000000003</v>
+        <v>74.12</v>
       </c>
       <c r="K61" s="3">
-        <v>33.700000000000003</v>
+        <v>74.12</v>
       </c>
       <c r="L61" t="s">
         <v>17</v>
@@ -3124,34 +3134,34 @@
         <v>211111909</v>
       </c>
       <c r="B62" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C62" t="s">
         <v>14</v>
       </c>
-      <c r="D62" t="s">
+      <c r="D62" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E62">
-        <v>11589</v>
+        <v>11193</v>
       </c>
       <c r="F62" t="s">
         <v>16</v>
       </c>
       <c r="G62" s="1">
-        <v>45906.520150462959</v>
+        <v>45898.482453703698</v>
       </c>
       <c r="H62" s="1">
-        <v>45876.520451388889</v>
+        <v>45868.482465277775</v>
       </c>
       <c r="I62" s="2">
-        <v>-28</v>
+        <v>-13</v>
       </c>
       <c r="J62" s="3">
-        <v>69.11</v>
+        <v>128.46</v>
       </c>
       <c r="K62" s="3">
-        <v>69.11</v>
+        <v>128.46</v>
       </c>
       <c r="L62" t="s">
         <v>17</v>
@@ -3162,119 +3172,119 @@
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>211111932</v>
+        <v>211111909</v>
       </c>
       <c r="B63" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C63" t="s">
         <v>14</v>
       </c>
-      <c r="D63" t="s">
+      <c r="D63" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E63">
-        <v>6876</v>
+        <v>11277</v>
       </c>
       <c r="F63" t="s">
         <v>16</v>
       </c>
       <c r="G63" s="1">
-        <v>45806.316099537034</v>
+        <v>45899.501284722217</v>
       </c>
       <c r="H63" s="1">
-        <v>45776.318043981482</v>
+        <v>45869.501284722217</v>
       </c>
       <c r="I63" s="2">
-        <v>72</v>
+        <v>-14</v>
       </c>
       <c r="J63" s="3">
-        <v>337.18</v>
+        <v>37.800000000000004</v>
       </c>
       <c r="K63" s="3">
-        <v>337.18</v>
+        <v>37.800000000000004</v>
       </c>
       <c r="L63" t="s">
         <v>17</v>
       </c>
       <c r="M63" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>211111932</v>
+        <v>211111909</v>
       </c>
       <c r="B64" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C64" t="s">
         <v>14</v>
       </c>
-      <c r="D64" t="s">
+      <c r="D64" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E64">
-        <v>7112</v>
+        <v>11278</v>
       </c>
       <c r="F64" t="s">
         <v>16</v>
       </c>
       <c r="G64" s="1">
-        <v>45809.600486111107</v>
+        <v>45899.501296296294</v>
       </c>
       <c r="H64" s="1">
-        <v>45779.601805555554</v>
+        <v>45869.501307870371</v>
       </c>
       <c r="I64" s="2">
-        <v>69</v>
+        <v>-14</v>
       </c>
       <c r="J64" s="3">
-        <v>1342.49</v>
+        <v>33.700000000000003</v>
       </c>
       <c r="K64" s="3">
-        <v>1000</v>
+        <v>33.700000000000003</v>
       </c>
       <c r="L64" t="s">
         <v>17</v>
       </c>
       <c r="M64" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>211111949</v>
+        <v>211111909</v>
       </c>
       <c r="B65" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C65" t="s">
         <v>14</v>
       </c>
-      <c r="D65" t="s">
+      <c r="D65" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E65">
-        <v>11459</v>
+        <v>11589</v>
       </c>
       <c r="F65" t="s">
         <v>16</v>
       </c>
       <c r="G65" s="1">
-        <v>45904.540520833332</v>
+        <v>45906.520150462959</v>
       </c>
       <c r="H65" s="1">
-        <v>45874.540532407409</v>
+        <v>45876.520451388889</v>
       </c>
       <c r="I65" s="2">
-        <v>-26</v>
+        <v>-21</v>
       </c>
       <c r="J65" s="3">
-        <v>218.93</v>
+        <v>69.11</v>
       </c>
       <c r="K65" s="3">
-        <v>218.93</v>
+        <v>69.11</v>
       </c>
       <c r="L65" t="s">
         <v>17</v>
@@ -3285,160 +3295,160 @@
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>211111949</v>
+        <v>211111932</v>
       </c>
       <c r="B66" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C66" t="s">
         <v>14</v>
       </c>
-      <c r="D66" t="s">
+      <c r="D66" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E66">
-        <v>11632</v>
+        <v>6876</v>
       </c>
       <c r="F66" t="s">
         <v>16</v>
       </c>
       <c r="G66" s="1">
-        <v>45907.574791666666</v>
+        <v>45806.316099537034</v>
       </c>
       <c r="H66" s="1">
-        <v>45877.574791666666</v>
+        <v>45776.318043981482</v>
       </c>
       <c r="I66" s="2">
-        <v>-29</v>
+        <v>78.683900462965539</v>
       </c>
       <c r="J66" s="3">
-        <v>118.7</v>
+        <v>337.18</v>
       </c>
       <c r="K66" s="3">
-        <v>118.7</v>
+        <v>337.18</v>
       </c>
       <c r="L66" t="s">
         <v>17</v>
       </c>
       <c r="M66" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>211111992</v>
+        <v>211111932</v>
       </c>
       <c r="B67" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C67" t="s">
-        <v>27</v>
-      </c>
-      <c r="D67">
-        <v>2025</v>
+        <v>14</v>
+      </c>
+      <c r="D67" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="E67">
-        <v>628</v>
+        <v>7112</v>
       </c>
       <c r="F67" t="s">
         <v>16</v>
       </c>
       <c r="G67" s="1">
-        <v>45876</v>
+        <v>45809.600486111107</v>
       </c>
       <c r="H67" s="1">
-        <v>45846</v>
+        <v>45779.601805555554</v>
       </c>
       <c r="I67" s="2">
-        <v>2</v>
+        <v>75.399513888893125</v>
       </c>
       <c r="J67" s="3">
-        <v>-24.060000000000002</v>
+        <v>1342.49</v>
       </c>
       <c r="K67" s="3">
-        <v>-24.060000000000002</v>
+        <v>1000</v>
       </c>
       <c r="L67" t="s">
         <v>17</v>
       </c>
       <c r="M67" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>211111992</v>
+        <v>211111949</v>
       </c>
       <c r="B68" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C68" t="s">
         <v>14</v>
       </c>
-      <c r="D68" t="s">
+      <c r="D68" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E68">
-        <v>10284</v>
+        <v>11459</v>
       </c>
       <c r="F68" t="s">
         <v>16</v>
       </c>
       <c r="G68" s="1">
-        <v>45876.526770833334</v>
+        <v>45904.540520833332</v>
       </c>
       <c r="H68" s="1">
-        <v>45846.52884259259</v>
+        <v>45874.540532407409</v>
       </c>
       <c r="I68" s="2">
-        <v>2</v>
+        <v>-19</v>
       </c>
       <c r="J68" s="3">
-        <v>192.77</v>
+        <v>218.93</v>
       </c>
       <c r="K68" s="3">
-        <v>192.77</v>
+        <v>218.93</v>
       </c>
       <c r="L68" t="s">
         <v>17</v>
       </c>
       <c r="M68" t="s">
-        <v>63</v>
+        <v>18</v>
       </c>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>211111992</v>
+        <v>211111949</v>
       </c>
       <c r="B69" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C69" t="s">
         <v>14</v>
       </c>
-      <c r="D69" t="s">
+      <c r="D69" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E69">
-        <v>10720</v>
+        <v>11744</v>
       </c>
       <c r="F69" t="s">
         <v>16</v>
       </c>
       <c r="G69" s="1">
-        <v>45885.592870370368</v>
+        <v>45911.439571759256</v>
       </c>
       <c r="H69" s="1">
-        <v>45855.592870370368</v>
+        <v>45881.439571759256</v>
       </c>
       <c r="I69" s="2">
-        <v>-7</v>
+        <v>-26</v>
       </c>
       <c r="J69" s="3">
-        <v>57.06</v>
+        <v>230.83</v>
       </c>
       <c r="K69" s="3">
-        <v>57.06</v>
+        <v>230.83</v>
       </c>
       <c r="L69" t="s">
         <v>17</v>
@@ -3449,37 +3459,37 @@
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>211111992</v>
+        <v>211111949</v>
       </c>
       <c r="B70" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C70" t="s">
         <v>14</v>
       </c>
-      <c r="D70" t="s">
+      <c r="D70" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E70">
-        <v>10722</v>
+        <v>11909</v>
       </c>
       <c r="F70" t="s">
         <v>16</v>
       </c>
       <c r="G70" s="1">
-        <v>45885.593692129631</v>
+        <v>45913.559398148143</v>
       </c>
       <c r="H70" s="1">
-        <v>45855.593692129631</v>
+        <v>45883.55940972222</v>
       </c>
       <c r="I70" s="2">
-        <v>-7</v>
+        <v>-28</v>
       </c>
       <c r="J70" s="3">
-        <v>161.43</v>
+        <v>377.03000000000003</v>
       </c>
       <c r="K70" s="3">
-        <v>161.43</v>
+        <v>377.03000000000003</v>
       </c>
       <c r="L70" t="s">
         <v>17</v>
@@ -3493,40 +3503,40 @@
         <v>211111992</v>
       </c>
       <c r="B71" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C71" t="s">
-        <v>14</v>
-      </c>
-      <c r="D71" t="s">
-        <v>15</v>
+        <v>26</v>
+      </c>
+      <c r="D71" s="4">
+        <v>2025</v>
       </c>
       <c r="E71">
-        <v>11293</v>
+        <v>628</v>
       </c>
       <c r="F71" t="s">
         <v>16</v>
       </c>
       <c r="G71" s="1">
-        <v>45899.506145833329</v>
+        <v>45876</v>
       </c>
       <c r="H71" s="1">
-        <v>45869.506157407406</v>
+        <v>45846</v>
       </c>
       <c r="I71" s="2">
-        <v>-21</v>
+        <v>9</v>
       </c>
       <c r="J71" s="3">
-        <v>237.28</v>
+        <v>-24.060000000000002</v>
       </c>
       <c r="K71" s="3">
-        <v>237.28</v>
+        <v>-24.060000000000002</v>
       </c>
       <c r="L71" t="s">
         <v>17</v>
       </c>
       <c r="M71" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.25">
@@ -3534,75 +3544,75 @@
         <v>211111992</v>
       </c>
       <c r="B72" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C72" t="s">
         <v>14</v>
       </c>
-      <c r="D72" t="s">
+      <c r="D72" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E72">
-        <v>11599</v>
+        <v>10284</v>
       </c>
       <c r="F72" t="s">
         <v>16</v>
       </c>
       <c r="G72" s="1">
-        <v>45906.63481481481</v>
+        <v>45876.526770833334</v>
       </c>
       <c r="H72" s="1">
-        <v>45876.635011574072</v>
+        <v>45846.52884259259</v>
       </c>
       <c r="I72" s="2">
-        <v>-28</v>
+        <v>8.4732291666659876</v>
       </c>
       <c r="J72" s="3">
-        <v>278.55</v>
+        <v>192.77</v>
       </c>
       <c r="K72" s="3">
-        <v>278.55</v>
+        <v>192.77</v>
       </c>
       <c r="L72" t="s">
         <v>17</v>
       </c>
       <c r="M72" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>211112011</v>
+        <v>211111992</v>
       </c>
       <c r="B73" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C73" t="s">
-        <v>27</v>
-      </c>
-      <c r="D73">
-        <v>2025</v>
+        <v>14</v>
+      </c>
+      <c r="D73" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="E73">
-        <v>635</v>
+        <v>10720</v>
       </c>
       <c r="F73" t="s">
         <v>16</v>
       </c>
       <c r="G73" s="1">
-        <v>45878</v>
+        <v>45885.592870370368</v>
       </c>
       <c r="H73" s="1">
-        <v>45848</v>
+        <v>45855.592870370368</v>
       </c>
       <c r="I73" s="2">
         <v>0</v>
       </c>
       <c r="J73" s="3">
-        <v>-62.300000000000004</v>
+        <v>57.06</v>
       </c>
       <c r="K73" s="3">
-        <v>-0.69000000000000006</v>
+        <v>57.06</v>
       </c>
       <c r="L73" t="s">
         <v>17</v>
@@ -3613,37 +3623,37 @@
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>211112011</v>
+        <v>211111992</v>
       </c>
       <c r="B74" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C74" t="s">
         <v>14</v>
       </c>
-      <c r="D74" t="s">
+      <c r="D74" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E74">
-        <v>11402</v>
+        <v>10722</v>
       </c>
       <c r="F74" t="s">
         <v>16</v>
       </c>
       <c r="G74" s="1">
-        <v>45903.56554398148</v>
+        <v>45885.593692129631</v>
       </c>
       <c r="H74" s="1">
-        <v>45873.56554398148</v>
+        <v>45855.593692129631</v>
       </c>
       <c r="I74" s="2">
-        <v>-25</v>
+        <v>0</v>
       </c>
       <c r="J74" s="3">
-        <v>479.16</v>
+        <v>161.43</v>
       </c>
       <c r="K74" s="3">
-        <v>479.16</v>
+        <v>161.43</v>
       </c>
       <c r="L74" t="s">
         <v>17</v>
@@ -3654,37 +3664,37 @@
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>211112011</v>
+        <v>211111992</v>
       </c>
       <c r="B75" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C75" t="s">
         <v>14</v>
       </c>
-      <c r="D75" t="s">
+      <c r="D75" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E75">
-        <v>11586</v>
+        <v>11293</v>
       </c>
       <c r="F75" t="s">
         <v>16</v>
       </c>
       <c r="G75" s="1">
-        <v>45906.518587962964</v>
+        <v>45899.506145833329</v>
       </c>
       <c r="H75" s="1">
-        <v>45876.519027777773</v>
+        <v>45869.506157407406</v>
       </c>
       <c r="I75" s="2">
-        <v>-28</v>
+        <v>-14</v>
       </c>
       <c r="J75" s="3">
-        <v>85.26</v>
+        <v>237.28</v>
       </c>
       <c r="K75" s="3">
-        <v>85.26</v>
+        <v>237.28</v>
       </c>
       <c r="L75" t="s">
         <v>17</v>
@@ -3695,37 +3705,37 @@
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>211112028</v>
+        <v>211111992</v>
       </c>
       <c r="B76" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C76" t="s">
         <v>14</v>
       </c>
-      <c r="D76" t="s">
+      <c r="D76" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E76">
-        <v>10711</v>
+        <v>11599</v>
       </c>
       <c r="F76" t="s">
         <v>16</v>
       </c>
       <c r="G76" s="1">
-        <v>45885.555312500001</v>
+        <v>45906.63481481481</v>
       </c>
       <c r="H76" s="1">
-        <v>45855.556076388886</v>
+        <v>45876.635011574072</v>
       </c>
       <c r="I76" s="2">
-        <v>-7</v>
+        <v>-21</v>
       </c>
       <c r="J76" s="3">
-        <v>281.88</v>
+        <v>278.55</v>
       </c>
       <c r="K76" s="3">
-        <v>281.88</v>
+        <v>278.55</v>
       </c>
       <c r="L76" t="s">
         <v>17</v>
@@ -3736,37 +3746,37 @@
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>211112028</v>
+        <v>211111992</v>
       </c>
       <c r="B77" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C77" t="s">
         <v>14</v>
       </c>
-      <c r="D77" t="s">
+      <c r="D77" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E77">
-        <v>11418</v>
+        <v>11768</v>
       </c>
       <c r="F77" t="s">
         <v>16</v>
       </c>
       <c r="G77" s="1">
-        <v>45903.635358796295</v>
+        <v>45911.605543981481</v>
       </c>
       <c r="H77" s="1">
-        <v>45873.635370370372</v>
+        <v>45881.605543981481</v>
       </c>
       <c r="I77" s="2">
-        <v>-25</v>
+        <v>-26</v>
       </c>
       <c r="J77" s="3">
-        <v>174.49</v>
+        <v>131.35</v>
       </c>
       <c r="K77" s="3">
-        <v>174.49</v>
+        <v>131.35</v>
       </c>
       <c r="L77" t="s">
         <v>17</v>
@@ -3777,78 +3787,78 @@
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>211112064</v>
+        <v>211112011</v>
       </c>
       <c r="B78" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C78" t="s">
-        <v>14</v>
-      </c>
-      <c r="D78" t="s">
-        <v>15</v>
+        <v>26</v>
+      </c>
+      <c r="D78" s="4">
+        <v>2025</v>
       </c>
       <c r="E78">
-        <v>10647</v>
+        <v>635</v>
       </c>
       <c r="F78" t="s">
         <v>16</v>
       </c>
       <c r="G78" s="1">
-        <v>45884.469375000001</v>
+        <v>45878</v>
       </c>
       <c r="H78" s="1">
-        <v>45854.469375000001</v>
+        <v>45848</v>
       </c>
       <c r="I78" s="2">
-        <v>-6</v>
+        <v>7</v>
       </c>
       <c r="J78" s="3">
-        <v>78.2</v>
+        <v>-62.300000000000004</v>
       </c>
       <c r="K78" s="3">
-        <v>78.2</v>
+        <v>-0.69000000000000006</v>
       </c>
       <c r="L78" t="s">
         <v>17</v>
       </c>
       <c r="M78" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>211112064</v>
+        <v>211112011</v>
       </c>
       <c r="B79" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C79" t="s">
-        <v>57</v>
-      </c>
-      <c r="D79" t="s">
+        <v>14</v>
+      </c>
+      <c r="D79" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E79">
-        <v>13</v>
+        <v>11713</v>
       </c>
       <c r="F79" t="s">
         <v>16</v>
       </c>
       <c r="G79" s="1">
-        <v>45891</v>
+        <v>45910.507164351853</v>
       </c>
       <c r="H79" s="1">
-        <v>45861</v>
+        <v>45880.507175925923</v>
       </c>
       <c r="I79" s="2">
-        <v>-13</v>
+        <v>-25</v>
       </c>
       <c r="J79" s="3">
-        <v>-156.15</v>
-      </c>
-      <c r="K79" s="3">
-        <v>-156.15</v>
+        <v>533.53</v>
+      </c>
+      <c r="K79" s="5">
+        <v>533.53</v>
       </c>
       <c r="L79" t="s">
         <v>17</v>
@@ -3859,37 +3869,37 @@
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>211112064</v>
+        <v>211112011</v>
       </c>
       <c r="B80" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C80" t="s">
         <v>14</v>
       </c>
-      <c r="D80" t="s">
+      <c r="D80" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E80">
-        <v>10933</v>
+        <v>11900</v>
       </c>
       <c r="F80" t="s">
         <v>16</v>
       </c>
       <c r="G80" s="1">
-        <v>45891.550335648149</v>
+        <v>45913.465752314813</v>
       </c>
       <c r="H80" s="1">
-        <v>45861.550335648149</v>
+        <v>45883.465763888889</v>
       </c>
       <c r="I80" s="2">
-        <v>-13</v>
+        <v>-28</v>
       </c>
       <c r="J80" s="3">
-        <v>156.15</v>
-      </c>
-      <c r="K80" s="3">
-        <v>156.15</v>
+        <v>209.46</v>
+      </c>
+      <c r="K80" s="5">
+        <v>209.46</v>
       </c>
       <c r="L80" t="s">
         <v>17</v>
@@ -3900,37 +3910,37 @@
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>211112064</v>
+        <v>211112028</v>
       </c>
       <c r="B81" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C81" t="s">
         <v>14</v>
       </c>
-      <c r="D81" t="s">
+      <c r="D81" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E81">
-        <v>10974</v>
+        <v>10711</v>
       </c>
       <c r="F81" t="s">
         <v>16</v>
       </c>
       <c r="G81" s="1">
-        <v>45892.340671296297</v>
+        <v>45885.555312500001</v>
       </c>
       <c r="H81" s="1">
-        <v>45862.34233796296</v>
+        <v>45855.556076388886</v>
       </c>
       <c r="I81" s="2">
-        <v>-14</v>
+        <v>0</v>
       </c>
       <c r="J81" s="3">
-        <v>116.54</v>
+        <v>281.88</v>
       </c>
       <c r="K81" s="3">
-        <v>116.54</v>
+        <v>281.88</v>
       </c>
       <c r="L81" t="s">
         <v>17</v>
@@ -3941,37 +3951,37 @@
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>211112064</v>
+        <v>211112028</v>
       </c>
       <c r="B82" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C82" t="s">
         <v>14</v>
       </c>
-      <c r="D82" t="s">
+      <c r="D82" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E82">
-        <v>11132</v>
+        <v>11418</v>
       </c>
       <c r="F82" t="s">
         <v>16</v>
       </c>
       <c r="G82" s="1">
-        <v>45896.624918981477</v>
+        <v>45903.635358796295</v>
       </c>
       <c r="H82" s="1">
-        <v>45866.626180555555</v>
+        <v>45873.635370370372</v>
       </c>
       <c r="I82" s="2">
         <v>-18</v>
       </c>
       <c r="J82" s="3">
-        <v>44.92</v>
+        <v>174.49</v>
       </c>
       <c r="K82" s="3">
-        <v>44.92</v>
+        <v>174.49</v>
       </c>
       <c r="L82" t="s">
         <v>17</v>
@@ -3985,34 +3995,34 @@
         <v>211112064</v>
       </c>
       <c r="B83" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C83" t="s">
         <v>14</v>
       </c>
-      <c r="D83" t="s">
+      <c r="D83" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E83">
-        <v>11361</v>
+        <v>10974</v>
       </c>
       <c r="F83" t="s">
         <v>16</v>
       </c>
       <c r="G83" s="1">
-        <v>45900.567106481481</v>
+        <v>45892.340671296297</v>
       </c>
       <c r="H83" s="1">
-        <v>45870.567106481481</v>
+        <v>45862.34233796296</v>
       </c>
       <c r="I83" s="2">
-        <v>-22</v>
+        <v>-7</v>
       </c>
       <c r="J83" s="3">
-        <v>179.36</v>
+        <v>116.54</v>
       </c>
       <c r="K83" s="3">
-        <v>179.36</v>
+        <v>116.54</v>
       </c>
       <c r="L83" t="s">
         <v>17</v>
@@ -4026,34 +4036,34 @@
         <v>211112064</v>
       </c>
       <c r="B84" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C84" t="s">
         <v>14</v>
       </c>
-      <c r="D84" t="s">
+      <c r="D84" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E84">
-        <v>11643</v>
+        <v>11132</v>
       </c>
       <c r="F84" t="s">
         <v>16</v>
       </c>
       <c r="G84" s="1">
-        <v>45907.581400462965</v>
+        <v>45896.624918981477</v>
       </c>
       <c r="H84" s="1">
-        <v>45877.581400462965</v>
+        <v>45866.626180555555</v>
       </c>
       <c r="I84" s="2">
-        <v>-29</v>
+        <v>-11</v>
       </c>
       <c r="J84" s="3">
-        <v>24.98</v>
-      </c>
-      <c r="K84" s="3">
-        <v>24.98</v>
+        <v>44.92</v>
+      </c>
+      <c r="K84" s="5">
+        <v>44.92</v>
       </c>
       <c r="L84" t="s">
         <v>17</v>
@@ -4064,37 +4074,37 @@
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>211112086</v>
+        <v>211112064</v>
       </c>
       <c r="B85" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C85" t="s">
         <v>14</v>
       </c>
-      <c r="D85" t="s">
+      <c r="D85" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E85">
-        <v>10414</v>
+        <v>11361</v>
       </c>
       <c r="F85" t="s">
         <v>16</v>
       </c>
       <c r="G85" s="1">
-        <v>45878.428182870368</v>
+        <v>45900.567106481481</v>
       </c>
       <c r="H85" s="1">
-        <v>45848.428182870368</v>
+        <v>45870.567106481481</v>
       </c>
       <c r="I85" s="2">
-        <v>0</v>
+        <v>-15</v>
       </c>
       <c r="J85" s="3">
-        <v>181.28</v>
+        <v>179.36</v>
       </c>
       <c r="K85" s="3">
-        <v>81.070000000000007</v>
+        <v>179.36</v>
       </c>
       <c r="L85" t="s">
         <v>17</v>
@@ -4105,37 +4115,37 @@
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>211112086</v>
+        <v>211112064</v>
       </c>
       <c r="B86" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C86" t="s">
         <v>14</v>
       </c>
-      <c r="D86" t="s">
+      <c r="D86" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E86">
-        <v>10705</v>
+        <v>11643</v>
       </c>
       <c r="F86" t="s">
         <v>16</v>
       </c>
       <c r="G86" s="1">
-        <v>45885.500740740739</v>
+        <v>45907.581400462965</v>
       </c>
       <c r="H86" s="1">
-        <v>45855.500740740739</v>
+        <v>45877.581400462965</v>
       </c>
       <c r="I86" s="2">
-        <v>-7</v>
+        <v>-22</v>
       </c>
       <c r="J86" s="3">
-        <v>236.3</v>
+        <v>24.98</v>
       </c>
       <c r="K86" s="3">
-        <v>236.3</v>
+        <v>24.98</v>
       </c>
       <c r="L86" t="s">
         <v>17</v>
@@ -4146,37 +4156,37 @@
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>211112086</v>
+        <v>211112064</v>
       </c>
       <c r="B87" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C87" t="s">
-        <v>14</v>
-      </c>
-      <c r="D87" t="s">
-        <v>15</v>
-      </c>
-      <c r="E87">
-        <v>10990</v>
+        <v>30</v>
+      </c>
+      <c r="D87" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E87" t="s">
+        <v>32</v>
       </c>
       <c r="F87" t="s">
         <v>16</v>
       </c>
       <c r="G87" s="1">
-        <v>45892.49282407407</v>
+        <v>45910</v>
       </c>
       <c r="H87" s="1">
-        <v>45862.49282407407</v>
+        <v>45880</v>
       </c>
       <c r="I87" s="2">
-        <v>-14</v>
+        <v>-25</v>
       </c>
       <c r="J87" s="3">
-        <v>68.710000000000008</v>
+        <v>-78.28</v>
       </c>
       <c r="K87" s="3">
-        <v>68.710000000000008</v>
+        <v>-0.08</v>
       </c>
       <c r="L87" t="s">
         <v>17</v>
@@ -4190,75 +4200,75 @@
         <v>211112086</v>
       </c>
       <c r="B88" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C88" t="s">
         <v>14</v>
       </c>
-      <c r="D88" t="s">
+      <c r="D88" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E88">
-        <v>11590</v>
+        <v>10414</v>
       </c>
       <c r="F88" t="s">
         <v>16</v>
       </c>
       <c r="G88" s="1">
-        <v>45906.520590277774</v>
+        <v>45878.428182870368</v>
       </c>
       <c r="H88" s="1">
-        <v>45876.520879629628</v>
+        <v>45848.428182870368</v>
       </c>
       <c r="I88" s="2">
-        <v>-28</v>
+        <v>6.5718171296321088</v>
       </c>
       <c r="J88" s="3">
-        <v>122.73</v>
+        <v>181.28</v>
       </c>
       <c r="K88" s="3">
-        <v>122.73</v>
+        <v>81.070000000000007</v>
       </c>
       <c r="L88" t="s">
         <v>17</v>
       </c>
       <c r="M88" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>211112115</v>
+        <v>211112086</v>
       </c>
       <c r="B89" t="s">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="C89" t="s">
         <v>14</v>
       </c>
-      <c r="D89" t="s">
+      <c r="D89" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E89">
-        <v>11400</v>
+        <v>10705</v>
       </c>
       <c r="F89" t="s">
         <v>16</v>
       </c>
       <c r="G89" s="1">
-        <v>45903.565439814811</v>
+        <v>45885.500740740739</v>
       </c>
       <c r="H89" s="1">
-        <v>45873.565462962964</v>
+        <v>45855.500740740739</v>
       </c>
       <c r="I89" s="2">
-        <v>-25</v>
+        <v>0</v>
       </c>
       <c r="J89" s="3">
-        <v>104.63</v>
+        <v>236.3</v>
       </c>
       <c r="K89" s="3">
-        <v>104.63</v>
+        <v>236.3</v>
       </c>
       <c r="L89" t="s">
         <v>17</v>
@@ -4269,37 +4279,37 @@
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>211112115</v>
+        <v>211112086</v>
       </c>
       <c r="B90" t="s">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="C90" t="s">
         <v>14</v>
       </c>
-      <c r="D90" t="s">
+      <c r="D90" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E90">
-        <v>11587</v>
+        <v>10990</v>
       </c>
       <c r="F90" t="s">
         <v>16</v>
       </c>
       <c r="G90" s="1">
-        <v>45906.519178240742</v>
+        <v>45892.49282407407</v>
       </c>
       <c r="H90" s="1">
-        <v>45876.519560185181</v>
+        <v>45862.49282407407</v>
       </c>
       <c r="I90" s="2">
-        <v>-28</v>
+        <v>-7</v>
       </c>
       <c r="J90" s="3">
-        <v>257.05</v>
+        <v>68.710000000000008</v>
       </c>
       <c r="K90" s="3">
-        <v>257.05</v>
+        <v>68.710000000000008</v>
       </c>
       <c r="L90" t="s">
         <v>17</v>
@@ -4310,37 +4320,37 @@
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>211112132</v>
+        <v>211112086</v>
       </c>
       <c r="B91" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C91" t="s">
         <v>14</v>
       </c>
-      <c r="D91" t="s">
+      <c r="D91" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E91">
-        <v>11593</v>
+        <v>11590</v>
       </c>
       <c r="F91" t="s">
         <v>16</v>
       </c>
       <c r="G91" s="1">
-        <v>45906.522152777776</v>
+        <v>45906.520590277774</v>
       </c>
       <c r="H91" s="1">
-        <v>45876.52475694444</v>
+        <v>45876.520879629628</v>
       </c>
       <c r="I91" s="2">
-        <v>-28</v>
+        <v>-21</v>
       </c>
       <c r="J91" s="3">
-        <v>233.13</v>
-      </c>
-      <c r="K91" s="3">
-        <v>233.13</v>
+        <v>122.73</v>
+      </c>
+      <c r="K91" s="5">
+        <v>122.73</v>
       </c>
       <c r="L91" t="s">
         <v>17</v>
@@ -4351,78 +4361,78 @@
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>211112198</v>
+        <v>211112086</v>
       </c>
       <c r="B92" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C92" t="s">
         <v>14</v>
       </c>
-      <c r="D92" t="s">
+      <c r="D92" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E92">
-        <v>10217</v>
+        <v>11892</v>
       </c>
       <c r="F92" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="G92" s="1">
-        <v>45875.486840277779</v>
+        <v>45913.465567129628</v>
       </c>
       <c r="H92" s="1">
-        <v>45845.486840277779</v>
+        <v>45883.465567129628</v>
       </c>
       <c r="I92" s="2">
-        <v>3</v>
+        <v>-28</v>
       </c>
       <c r="J92" s="3">
-        <v>187.19</v>
+        <v>262.53000000000003</v>
       </c>
       <c r="K92" s="3">
-        <v>187.19</v>
+        <v>262.53000000000003</v>
       </c>
       <c r="L92" t="s">
         <v>17</v>
       </c>
       <c r="M92" t="s">
-        <v>63</v>
+        <v>18</v>
       </c>
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>211112198</v>
+        <v>211112115</v>
       </c>
       <c r="B93" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="C93" t="s">
-        <v>27</v>
-      </c>
-      <c r="D93">
-        <v>2025</v>
+        <v>14</v>
+      </c>
+      <c r="D93" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="E93">
-        <v>702</v>
+        <v>11889</v>
       </c>
       <c r="F93" t="s">
         <v>16</v>
       </c>
       <c r="G93" s="1">
-        <v>45896</v>
+        <v>45913.465497685182</v>
       </c>
       <c r="H93" s="1">
-        <v>45866</v>
+        <v>45883.465509259258</v>
       </c>
       <c r="I93" s="2">
-        <v>-18</v>
+        <v>-28</v>
       </c>
       <c r="J93" s="3">
-        <v>-2.41</v>
+        <v>329.8</v>
       </c>
       <c r="K93" s="3">
-        <v>-2.41</v>
+        <v>329.8</v>
       </c>
       <c r="L93" t="s">
         <v>17</v>
@@ -4433,37 +4443,37 @@
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>211112198</v>
+        <v>211112132</v>
       </c>
       <c r="B94" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C94" t="s">
         <v>14</v>
       </c>
-      <c r="D94" t="s">
+      <c r="D94" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E94">
-        <v>11107</v>
+        <v>11593</v>
       </c>
       <c r="F94" t="s">
         <v>16</v>
       </c>
       <c r="G94" s="1">
-        <v>45896.52820601852</v>
+        <v>45906.522152777776</v>
       </c>
       <c r="H94" s="1">
-        <v>45866.52820601852</v>
+        <v>45876.52475694444</v>
       </c>
       <c r="I94" s="2">
-        <v>-18</v>
+        <v>-21</v>
       </c>
       <c r="J94" s="3">
-        <v>587.35</v>
+        <v>233.13</v>
       </c>
       <c r="K94" s="3">
-        <v>60.03</v>
+        <v>233.13</v>
       </c>
       <c r="L94" t="s">
         <v>17</v>
@@ -4474,207 +4484,207 @@
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>211112291</v>
+        <v>211112132</v>
       </c>
       <c r="B95" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C95" t="s">
-        <v>34</v>
-      </c>
-      <c r="D95" t="s">
-        <v>32</v>
-      </c>
-      <c r="E95" t="s">
-        <v>49</v>
+        <v>14</v>
+      </c>
+      <c r="D95" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E95">
+        <v>11712</v>
       </c>
       <c r="F95" t="s">
         <v>16</v>
       </c>
       <c r="G95" s="1">
-        <v>45324</v>
+        <v>45910.5071412037</v>
       </c>
       <c r="H95" s="1">
-        <v>45324</v>
+        <v>45880.5071412037</v>
       </c>
       <c r="I95" s="2">
-        <v>554</v>
+        <v>-25</v>
       </c>
       <c r="J95" s="3">
-        <v>200.59</v>
+        <v>256.36</v>
       </c>
       <c r="K95" s="3">
-        <v>200.59</v>
+        <v>256.36</v>
       </c>
       <c r="L95" t="s">
         <v>17</v>
       </c>
       <c r="M95" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>211112291</v>
+        <v>211112198</v>
       </c>
       <c r="B96" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C96" t="s">
-        <v>34</v>
-      </c>
-      <c r="D96" t="s">
-        <v>32</v>
-      </c>
-      <c r="E96" t="s">
-        <v>50</v>
+        <v>14</v>
+      </c>
+      <c r="D96" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E96">
+        <v>10217</v>
       </c>
       <c r="F96" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="G96" s="1">
-        <v>45324</v>
+        <v>45875.486840277779</v>
       </c>
       <c r="H96" s="1">
-        <v>45324</v>
+        <v>45845.486840277779</v>
       </c>
       <c r="I96" s="2">
-        <v>554</v>
+        <v>9.5131597222207347</v>
       </c>
       <c r="J96" s="3">
-        <v>76.36</v>
-      </c>
-      <c r="K96" s="3">
-        <v>76.36</v>
+        <v>187.19</v>
+      </c>
+      <c r="K96" s="5">
+        <v>187.19</v>
       </c>
       <c r="L96" t="s">
         <v>17</v>
       </c>
       <c r="M96" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>211112291</v>
+        <v>211112198</v>
       </c>
       <c r="B97" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C97" t="s">
-        <v>34</v>
-      </c>
-      <c r="D97" t="s">
-        <v>32</v>
-      </c>
-      <c r="E97" t="s">
-        <v>51</v>
+        <v>26</v>
+      </c>
+      <c r="D97" s="4">
+        <v>2025</v>
+      </c>
+      <c r="E97">
+        <v>702</v>
       </c>
       <c r="F97" t="s">
         <v>16</v>
       </c>
       <c r="G97" s="1">
-        <v>45331</v>
+        <v>45896</v>
       </c>
       <c r="H97" s="1">
-        <v>45331</v>
+        <v>45866</v>
       </c>
       <c r="I97" s="2">
-        <v>547</v>
+        <v>-11</v>
       </c>
       <c r="J97" s="3">
-        <v>209.18</v>
+        <v>-2.41</v>
       </c>
       <c r="K97" s="3">
-        <v>209.18</v>
+        <v>-2.41</v>
       </c>
       <c r="L97" t="s">
         <v>17</v>
       </c>
       <c r="M97" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>211112291</v>
+        <v>211112198</v>
       </c>
       <c r="B98" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C98" t="s">
-        <v>34</v>
-      </c>
-      <c r="D98" t="s">
-        <v>32</v>
-      </c>
-      <c r="E98" t="s">
-        <v>52</v>
+        <v>14</v>
+      </c>
+      <c r="D98" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E98">
+        <v>11107</v>
       </c>
       <c r="F98" t="s">
         <v>16</v>
       </c>
       <c r="G98" s="1">
-        <v>45366</v>
+        <v>45896.52820601852</v>
       </c>
       <c r="H98" s="1">
-        <v>45366</v>
+        <v>45866.52820601852</v>
       </c>
       <c r="I98" s="2">
-        <v>512</v>
+        <v>-11</v>
       </c>
       <c r="J98" s="3">
-        <v>872.94</v>
+        <v>587.35</v>
       </c>
       <c r="K98" s="3">
-        <v>872.94</v>
+        <v>60.03</v>
       </c>
       <c r="L98" t="s">
         <v>17</v>
       </c>
       <c r="M98" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>211112291</v>
+        <v>211112198</v>
       </c>
       <c r="B99" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C99" t="s">
-        <v>34</v>
-      </c>
-      <c r="D99" t="s">
-        <v>32</v>
-      </c>
-      <c r="E99" t="s">
-        <v>53</v>
+        <v>14</v>
+      </c>
+      <c r="D99" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E99">
+        <v>11711</v>
       </c>
       <c r="F99" t="s">
         <v>16</v>
       </c>
       <c r="G99" s="1">
-        <v>45390</v>
+        <v>45910.507094907407</v>
       </c>
       <c r="H99" s="1">
-        <v>45390</v>
+        <v>45880.507106481477</v>
       </c>
       <c r="I99" s="2">
-        <v>488</v>
+        <v>-25</v>
       </c>
       <c r="J99" s="3">
-        <v>261.22000000000003</v>
+        <v>503.96000000000004</v>
       </c>
       <c r="K99" s="3">
-        <v>261.22000000000003</v>
+        <v>503.96000000000004</v>
       </c>
       <c r="L99" t="s">
         <v>17</v>
       </c>
       <c r="M99" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.25">
@@ -4682,532 +4692,737 @@
         <v>211112291</v>
       </c>
       <c r="B100" t="s">
+        <v>47</v>
+      </c>
+      <c r="C100" t="s">
+        <v>33</v>
+      </c>
+      <c r="D100" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E100" t="s">
         <v>48</v>
       </c>
-      <c r="C100" t="s">
-        <v>14</v>
-      </c>
-      <c r="D100" t="s">
-        <v>54</v>
-      </c>
-      <c r="E100">
-        <v>1957</v>
-      </c>
       <c r="F100" t="s">
         <v>16</v>
       </c>
       <c r="G100" s="1">
-        <v>45529.645949074074</v>
+        <v>45324</v>
       </c>
       <c r="H100" s="1">
-        <v>45499.646979166668</v>
+        <v>45324</v>
       </c>
       <c r="I100" s="2">
-        <v>349</v>
+        <v>561</v>
       </c>
       <c r="J100" s="3">
-        <v>68.7</v>
-      </c>
-      <c r="K100" s="3">
-        <v>68.7</v>
+        <v>200.59</v>
+      </c>
+      <c r="K100" s="5">
+        <v>200.59</v>
       </c>
       <c r="L100" t="s">
         <v>17</v>
       </c>
       <c r="M100" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>211112314</v>
+        <v>211112291</v>
       </c>
       <c r="B101" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="C101" t="s">
-        <v>27</v>
-      </c>
-      <c r="D101">
-        <v>2025</v>
-      </c>
-      <c r="E101">
-        <v>345</v>
+        <v>33</v>
+      </c>
+      <c r="D101" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E101" t="s">
+        <v>49</v>
       </c>
       <c r="F101" t="s">
         <v>16</v>
       </c>
       <c r="G101" s="1">
-        <v>45788</v>
+        <v>45324</v>
       </c>
       <c r="H101" s="1">
-        <v>45758</v>
+        <v>45324</v>
       </c>
       <c r="I101" s="2">
-        <v>90</v>
+        <v>561</v>
       </c>
       <c r="J101" s="3">
-        <v>-16.809999999999999</v>
+        <v>76.36</v>
       </c>
       <c r="K101" s="3">
-        <v>-16.809999999999999</v>
+        <v>76.36</v>
       </c>
       <c r="L101" t="s">
         <v>17</v>
       </c>
       <c r="M101" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A102">
-        <v>211112314</v>
+        <v>211112291</v>
       </c>
       <c r="B102" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="C102" t="s">
-        <v>14</v>
-      </c>
-      <c r="D102" t="s">
-        <v>15</v>
-      </c>
-      <c r="E102">
-        <v>8584</v>
+        <v>33</v>
+      </c>
+      <c r="D102" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E102" t="s">
+        <v>50</v>
       </c>
       <c r="F102" t="s">
         <v>16</v>
       </c>
       <c r="G102" s="1">
-        <v>45836.412951388884</v>
+        <v>45331</v>
       </c>
       <c r="H102" s="1">
-        <v>45806.420115740737</v>
+        <v>45331</v>
       </c>
       <c r="I102" s="2">
-        <v>42</v>
+        <v>554</v>
       </c>
       <c r="J102" s="3">
-        <v>417.92</v>
+        <v>209.18</v>
       </c>
       <c r="K102" s="3">
-        <v>417.92</v>
+        <v>209.18</v>
       </c>
       <c r="L102" t="s">
         <v>17</v>
       </c>
       <c r="M102" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A103">
-        <v>211112314</v>
+        <v>211112291</v>
       </c>
       <c r="B103" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="C103" t="s">
-        <v>14</v>
-      </c>
-      <c r="D103" t="s">
-        <v>15</v>
-      </c>
-      <c r="E103">
-        <v>9310</v>
+        <v>33</v>
+      </c>
+      <c r="D103" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E103" t="s">
+        <v>51</v>
       </c>
       <c r="F103" t="s">
         <v>16</v>
       </c>
       <c r="G103" s="1">
-        <v>45854.476550925923</v>
+        <v>45366</v>
       </c>
       <c r="H103" s="1">
-        <v>45824.477476851847</v>
+        <v>45366</v>
       </c>
       <c r="I103" s="2">
-        <v>24</v>
+        <v>519</v>
       </c>
       <c r="J103" s="3">
-        <v>276.85000000000002</v>
+        <v>872.94</v>
       </c>
       <c r="K103" s="3">
-        <v>276.85000000000002</v>
+        <v>872.94</v>
       </c>
       <c r="L103" t="s">
         <v>17</v>
       </c>
       <c r="M103" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A104">
-        <v>211112314</v>
+        <v>211112291</v>
       </c>
       <c r="B104" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="C104" t="s">
-        <v>14</v>
-      </c>
-      <c r="D104" t="s">
-        <v>15</v>
-      </c>
-      <c r="E104">
-        <v>9605</v>
+        <v>33</v>
+      </c>
+      <c r="D104" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E104" t="s">
+        <v>52</v>
       </c>
       <c r="F104" t="s">
         <v>16</v>
       </c>
       <c r="G104" s="1">
-        <v>45861.477291666662</v>
+        <v>45390</v>
       </c>
       <c r="H104" s="1">
-        <v>45831.482349537036</v>
+        <v>45390</v>
       </c>
       <c r="I104" s="2">
-        <v>17</v>
+        <v>495</v>
       </c>
       <c r="J104" s="3">
-        <v>179.56</v>
+        <v>261.22000000000003</v>
       </c>
       <c r="K104" s="3">
-        <v>179.56</v>
+        <v>261.22000000000003</v>
       </c>
       <c r="L104" t="s">
         <v>17</v>
       </c>
       <c r="M104" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A105">
-        <v>211112314</v>
+        <v>211112291</v>
       </c>
       <c r="B105" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="C105" t="s">
         <v>14</v>
       </c>
-      <c r="D105" t="s">
-        <v>15</v>
+      <c r="D105" s="4" t="s">
+        <v>53</v>
       </c>
       <c r="E105">
-        <v>9765</v>
+        <v>1957</v>
       </c>
       <c r="F105" t="s">
         <v>16</v>
       </c>
       <c r="G105" s="1">
-        <v>45864.431539351848</v>
+        <v>45529.645949074074</v>
       </c>
       <c r="H105" s="1">
-        <v>45834.432766203703</v>
+        <v>45499.646979166668</v>
       </c>
       <c r="I105" s="2">
-        <v>14</v>
+        <v>355.35405092592555</v>
       </c>
       <c r="J105" s="3">
-        <v>124.9</v>
+        <v>68.7</v>
       </c>
       <c r="K105" s="3">
-        <v>124.9</v>
+        <v>68.7</v>
       </c>
       <c r="L105" t="s">
         <v>17</v>
       </c>
       <c r="M105" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
     </row>
     <row r="106" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A106">
-        <v>211112327</v>
+        <v>211112314</v>
       </c>
       <c r="B106" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C106" t="s">
-        <v>27</v>
-      </c>
-      <c r="D106">
+        <v>26</v>
+      </c>
+      <c r="D106" s="4">
         <v>2025</v>
       </c>
       <c r="E106">
-        <v>75</v>
+        <v>345</v>
       </c>
       <c r="F106" t="s">
         <v>16</v>
       </c>
       <c r="G106" s="1">
-        <v>45721</v>
+        <v>45788</v>
       </c>
       <c r="H106" s="1">
-        <v>45691</v>
+        <v>45758</v>
       </c>
       <c r="I106" s="2">
-        <v>157</v>
+        <v>97</v>
       </c>
       <c r="J106" s="3">
-        <v>-52.050000000000004</v>
+        <v>-16.809999999999999</v>
       </c>
       <c r="K106" s="3">
-        <v>-52.050000000000004</v>
+        <v>-16.809999999999999</v>
       </c>
       <c r="L106" t="s">
         <v>17</v>
       </c>
       <c r="M106" t="s">
-        <v>35</v>
+        <v>64</v>
       </c>
     </row>
     <row r="107" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A107">
-        <v>211112327</v>
+        <v>211112314</v>
       </c>
       <c r="B107" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C107" t="s">
-        <v>57</v>
-      </c>
-      <c r="D107" t="s">
+        <v>14</v>
+      </c>
+      <c r="D107" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E107">
-        <v>4</v>
+        <v>8584</v>
       </c>
       <c r="F107" t="s">
         <v>16</v>
       </c>
       <c r="G107" s="1">
-        <v>45723</v>
+        <v>45836.412951388884</v>
       </c>
       <c r="H107" s="1">
-        <v>45693</v>
+        <v>45806.420115740737</v>
       </c>
       <c r="I107" s="2">
-        <v>155</v>
+        <v>48.587048611116188</v>
       </c>
       <c r="J107" s="3">
-        <v>-26.51</v>
+        <v>417.92</v>
       </c>
       <c r="K107" s="3">
-        <v>-26.51</v>
+        <v>417.92</v>
       </c>
       <c r="L107" t="s">
         <v>17</v>
       </c>
       <c r="M107" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A108">
-        <v>211112401</v>
+        <v>211112314</v>
       </c>
       <c r="B108" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C108" t="s">
-        <v>31</v>
-      </c>
-      <c r="D108" t="s">
-        <v>32</v>
-      </c>
-      <c r="E108" t="s">
-        <v>33</v>
+        <v>14</v>
+      </c>
+      <c r="D108" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E108">
+        <v>9310</v>
       </c>
       <c r="F108" t="s">
         <v>16</v>
       </c>
       <c r="G108" s="1">
-        <v>45755</v>
+        <v>45854.476550925923</v>
       </c>
       <c r="H108" s="1">
-        <v>45740</v>
+        <v>45824.477476851847</v>
       </c>
       <c r="I108" s="2">
-        <v>123</v>
+        <v>30.52344907407678</v>
       </c>
       <c r="J108" s="3">
-        <v>-489.09000000000003</v>
+        <v>276.85000000000002</v>
       </c>
       <c r="K108" s="3">
-        <v>-109.25</v>
+        <v>276.85000000000002</v>
       </c>
       <c r="L108" t="s">
         <v>17</v>
       </c>
       <c r="M108" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
     </row>
     <row r="109" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A109">
-        <v>211112477</v>
+        <v>211112314</v>
       </c>
       <c r="B109" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C109" t="s">
         <v>14</v>
       </c>
-      <c r="D109" t="s">
+      <c r="D109" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E109">
-        <v>10892</v>
+        <v>9605</v>
       </c>
       <c r="F109" t="s">
         <v>16</v>
       </c>
       <c r="G109" s="1">
-        <v>45906.412418981483</v>
+        <v>45861.477291666662</v>
       </c>
       <c r="H109" s="1">
-        <v>45861.413124999999</v>
+        <v>45831.482349537036</v>
       </c>
       <c r="I109" s="2">
-        <v>-28</v>
+        <v>23.522708333337505</v>
       </c>
       <c r="J109" s="3">
-        <v>89.64</v>
+        <v>179.56</v>
       </c>
       <c r="K109" s="3">
-        <v>89.64</v>
+        <v>179.56</v>
       </c>
       <c r="L109" t="s">
         <v>17</v>
       </c>
       <c r="M109" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="110" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A110">
-        <v>211112477</v>
+        <v>211112314</v>
       </c>
       <c r="B110" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C110" t="s">
         <v>14</v>
       </c>
-      <c r="D110" t="s">
+      <c r="D110" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E110">
-        <v>11350</v>
+        <v>9765</v>
       </c>
       <c r="F110" t="s">
         <v>16</v>
       </c>
       <c r="G110" s="1">
-        <v>45915.566817129627</v>
+        <v>45864.431539351848</v>
       </c>
       <c r="H110" s="1">
-        <v>45870.566817129627</v>
+        <v>45834.432766203703</v>
       </c>
       <c r="I110" s="2">
-        <v>-37</v>
+        <v>20.568460648151813</v>
       </c>
       <c r="J110" s="3">
-        <v>113.84</v>
+        <v>124.9</v>
       </c>
       <c r="K110" s="3">
-        <v>113.84</v>
+        <v>124.9</v>
       </c>
       <c r="L110" t="s">
         <v>17</v>
       </c>
       <c r="M110" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="111" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A111">
-        <v>211112505</v>
+        <v>211112327</v>
       </c>
       <c r="B111" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C111" t="s">
-        <v>31</v>
-      </c>
-      <c r="D111" t="s">
-        <v>32</v>
-      </c>
-      <c r="E111" t="s">
-        <v>33</v>
+        <v>26</v>
+      </c>
+      <c r="D111" s="4">
+        <v>2025</v>
+      </c>
+      <c r="E111">
+        <v>75</v>
       </c>
       <c r="F111" t="s">
         <v>16</v>
       </c>
       <c r="G111" s="1">
-        <v>45803</v>
+        <v>45721</v>
       </c>
       <c r="H111" s="1">
-        <v>45803</v>
+        <v>45691</v>
       </c>
       <c r="I111" s="2">
-        <v>75</v>
+        <v>164</v>
       </c>
       <c r="J111" s="3">
-        <v>-350</v>
+        <v>-52.050000000000004</v>
       </c>
       <c r="K111" s="3">
-        <v>-0.24</v>
+        <v>-52.050000000000004</v>
       </c>
       <c r="L111" t="s">
         <v>17</v>
       </c>
       <c r="M111" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A112">
+        <v>211112327</v>
+      </c>
+      <c r="B112" t="s">
+        <v>55</v>
+      </c>
+      <c r="C112" t="s">
+        <v>56</v>
+      </c>
+      <c r="D112" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E112">
+        <v>4</v>
+      </c>
+      <c r="F112" t="s">
+        <v>16</v>
+      </c>
+      <c r="G112" s="1">
+        <v>45723</v>
+      </c>
+      <c r="H112" s="1">
+        <v>45693</v>
+      </c>
+      <c r="I112" s="2">
+        <v>162</v>
+      </c>
+      <c r="J112" s="3">
+        <v>-26.51</v>
+      </c>
+      <c r="K112" s="3">
+        <v>-26.51</v>
+      </c>
+      <c r="L112" t="s">
+        <v>17</v>
+      </c>
+      <c r="M112" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>211112401</v>
+      </c>
+      <c r="B113" t="s">
+        <v>57</v>
+      </c>
+      <c r="C113" t="s">
+        <v>30</v>
+      </c>
+      <c r="D113" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E113" t="s">
+        <v>32</v>
+      </c>
+      <c r="F113" t="s">
+        <v>16</v>
+      </c>
+      <c r="G113" s="1">
+        <v>45755</v>
+      </c>
+      <c r="H113" s="1">
+        <v>45740</v>
+      </c>
+      <c r="I113" s="2">
+        <v>130</v>
+      </c>
+      <c r="J113" s="3">
+        <v>-489.09000000000003</v>
+      </c>
+      <c r="K113" s="3">
+        <v>-109.25</v>
+      </c>
+      <c r="L113" t="s">
+        <v>17</v>
+      </c>
+      <c r="M113" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>211112477</v>
+      </c>
+      <c r="B114" t="s">
+        <v>58</v>
+      </c>
+      <c r="C114" t="s">
+        <v>14</v>
+      </c>
+      <c r="D114" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E114">
+        <v>10892</v>
+      </c>
+      <c r="F114" t="s">
+        <v>16</v>
+      </c>
+      <c r="G114" s="1">
+        <v>45906.412418981483</v>
+      </c>
+      <c r="H114" s="1">
+        <v>45861.413124999999</v>
+      </c>
+      <c r="I114" s="2">
+        <v>-21</v>
+      </c>
+      <c r="J114" s="3">
+        <v>89.64</v>
+      </c>
+      <c r="K114" s="3">
+        <v>89.64</v>
+      </c>
+      <c r="L114" t="s">
+        <v>17</v>
+      </c>
+      <c r="M114" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>211112477</v>
+      </c>
+      <c r="B115" t="s">
+        <v>58</v>
+      </c>
+      <c r="C115" t="s">
+        <v>14</v>
+      </c>
+      <c r="D115" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E115">
+        <v>11350</v>
+      </c>
+      <c r="F115" t="s">
+        <v>16</v>
+      </c>
+      <c r="G115" s="1">
+        <v>45915.566817129627</v>
+      </c>
+      <c r="H115" s="1">
+        <v>45870.566817129627</v>
+      </c>
+      <c r="I115" s="2">
+        <v>-30</v>
+      </c>
+      <c r="J115" s="3">
+        <v>113.84</v>
+      </c>
+      <c r="K115" s="3">
+        <v>113.84</v>
+      </c>
+      <c r="L115" t="s">
+        <v>17</v>
+      </c>
+      <c r="M115" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>211112505</v>
+      </c>
+      <c r="B116" t="s">
+        <v>59</v>
+      </c>
+      <c r="C116" t="s">
+        <v>30</v>
+      </c>
+      <c r="D116" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E116" t="s">
+        <v>32</v>
+      </c>
+      <c r="F116" t="s">
+        <v>16</v>
+      </c>
+      <c r="G116" s="1">
+        <v>45803</v>
+      </c>
+      <c r="H116" s="1">
+        <v>45803</v>
+      </c>
+      <c r="I116" s="2">
+        <v>82</v>
+      </c>
+      <c r="J116" s="3">
+        <v>-350</v>
+      </c>
+      <c r="K116" s="3">
+        <v>-0.24</v>
+      </c>
+      <c r="L116" t="s">
+        <v>17</v>
+      </c>
+      <c r="M116" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A117">
         <v>211112523</v>
       </c>
-      <c r="B112" t="s">
-        <v>61</v>
-      </c>
-      <c r="C112" t="s">
-        <v>14</v>
-      </c>
-      <c r="D112" t="s">
-        <v>15</v>
-      </c>
-      <c r="E112">
+      <c r="B117" t="s">
+        <v>60</v>
+      </c>
+      <c r="C117" t="s">
+        <v>14</v>
+      </c>
+      <c r="D117" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E117">
         <v>7843</v>
       </c>
-      <c r="F112" t="s">
-        <v>16</v>
-      </c>
-      <c r="G112" s="1">
+      <c r="F117" t="s">
+        <v>16</v>
+      </c>
+      <c r="G117" s="1">
         <v>45792.648773148147</v>
       </c>
-      <c r="H112" s="1">
+      <c r="H117" s="1">
         <v>45792.648773148147</v>
       </c>
-      <c r="I112" s="2">
-        <v>86</v>
-      </c>
-      <c r="J112" s="3">
+      <c r="I117" s="2">
+        <v>92.351226851853426</v>
+      </c>
+      <c r="J117" s="3">
         <v>481.94</v>
       </c>
-      <c r="K112" s="3">
+      <c r="K117" s="3">
         <v>481.94</v>
       </c>
-      <c r="L112" t="s">
-        <v>17</v>
-      </c>
-      <c r="M112" t="s">
-        <v>36</v>
+      <c r="L117" t="s">
+        <v>17</v>
+      </c>
+      <c r="M117" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/RSilva.xlsx
+++ b/RSilva.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Paulo\Desktop\AnaliseDebitos\Comerciais\Comercias_streamlit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E6BB275-DD2B-4333-8202-6344069E5F2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3F9D4ED-FD5E-415A-AA41-0E3BA8FDC943}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{625309C2-95EA-4B09-BB51-191061F91C1F}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="671" uniqueCount="58">
   <si>
     <t>Tipo Conta</t>
   </si>
@@ -137,9 +137,6 @@
     <t>Transferência</t>
   </si>
   <si>
-    <t>FAC</t>
-  </si>
-  <si>
     <t>M120</t>
   </si>
   <si>
@@ -179,27 +176,6 @@
     <t>O Chicheiro Unipessoal,Lda</t>
   </si>
   <si>
-    <t>Laurentino Campos Miranda</t>
-  </si>
-  <si>
-    <t>33-0262703</t>
-  </si>
-  <si>
-    <t>33-0262773</t>
-  </si>
-  <si>
-    <t>33-0263379</t>
-  </si>
-  <si>
-    <t>33-0265854</t>
-  </si>
-  <si>
-    <t>33-0267272</t>
-  </si>
-  <si>
-    <t>2024A</t>
-  </si>
-  <si>
     <t>Maria Do Rosário Moreira Magalhães</t>
   </si>
   <si>
@@ -231,6 +207,9 @@
   </si>
   <si>
     <t>91A120</t>
+  </si>
+  <si>
+    <t>Martins &amp; Farias, Lda.</t>
   </si>
 </sst>
 </file>
@@ -618,7 +597,7 @@
   <dimension ref="A1:M117"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:M117"/>
+      <selection activeCell="A2" sqref="A2:M112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -695,7 +674,7 @@
         <v>45881.605497685181</v>
       </c>
       <c r="I2" s="2">
-        <v>-26</v>
+        <v>-17</v>
       </c>
       <c r="J2" s="3">
         <v>235.32</v>
@@ -724,39 +703,39 @@
         <v>15</v>
       </c>
       <c r="E3">
-        <v>9790</v>
+        <v>12152</v>
       </c>
       <c r="F3" t="s">
         <v>16</v>
       </c>
       <c r="G3" s="1">
-        <v>45864.506898148145</v>
+        <v>45921.411134259259</v>
       </c>
       <c r="H3" s="1">
-        <v>45834.507268518515</v>
+        <v>45891.411145833328</v>
       </c>
       <c r="I3" s="2">
-        <v>20.49310185185459</v>
+        <v>-27</v>
       </c>
       <c r="J3" s="3">
-        <v>100.2</v>
+        <v>58.5</v>
       </c>
       <c r="K3" s="3">
-        <v>100.2</v>
+        <v>58.5</v>
       </c>
       <c r="L3" t="s">
         <v>17</v>
       </c>
       <c r="M3" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>211110244</v>
+        <v>211110545</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
         <v>14</v>
@@ -765,31 +744,31 @@
         <v>15</v>
       </c>
       <c r="E4">
-        <v>10715</v>
+        <v>10709</v>
       </c>
       <c r="F4" t="s">
         <v>16</v>
       </c>
       <c r="G4" s="1">
-        <v>45885.559814814813</v>
+        <v>45885.552534722221</v>
       </c>
       <c r="H4" s="1">
-        <v>45855.560266203705</v>
+        <v>45855.554108796292</v>
       </c>
       <c r="I4" s="2">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="J4" s="3">
-        <v>63.9</v>
+        <v>195.99</v>
       </c>
       <c r="K4" s="3">
-        <v>63.9</v>
+        <v>195.99</v>
       </c>
       <c r="L4" t="s">
         <v>17</v>
       </c>
       <c r="M4" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -806,31 +785,31 @@
         <v>15</v>
       </c>
       <c r="E5">
-        <v>10709</v>
+        <v>11019</v>
       </c>
       <c r="F5" t="s">
         <v>16</v>
       </c>
       <c r="G5" s="1">
-        <v>45885.552534722221</v>
+        <v>45893.454085648147</v>
       </c>
       <c r="H5" s="1">
-        <v>45855.554108796292</v>
+        <v>45863.454097222224</v>
       </c>
       <c r="I5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5" s="3">
-        <v>195.99</v>
+        <v>145.12</v>
       </c>
       <c r="K5" s="3">
-        <v>195.99</v>
+        <v>145.12</v>
       </c>
       <c r="L5" t="s">
         <v>17</v>
       </c>
       <c r="M5" t="s">
-        <v>18</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
@@ -847,25 +826,25 @@
         <v>15</v>
       </c>
       <c r="E6">
-        <v>11019</v>
+        <v>11416</v>
       </c>
       <c r="F6" t="s">
         <v>16</v>
       </c>
       <c r="G6" s="1">
-        <v>45893.454085648147</v>
+        <v>45903.635324074072</v>
       </c>
       <c r="H6" s="1">
-        <v>45863.454097222224</v>
+        <v>45873.635324074072</v>
       </c>
       <c r="I6" s="2">
-        <v>-8</v>
+        <v>-9</v>
       </c>
       <c r="J6" s="3">
-        <v>145.12</v>
+        <v>277.5</v>
       </c>
       <c r="K6" s="3">
-        <v>145.12</v>
+        <v>277.5</v>
       </c>
       <c r="L6" t="s">
         <v>17</v>
@@ -888,25 +867,25 @@
         <v>15</v>
       </c>
       <c r="E7">
-        <v>11416</v>
+        <v>11765</v>
       </c>
       <c r="F7" t="s">
         <v>16</v>
       </c>
       <c r="G7" s="1">
-        <v>45903.635324074072</v>
+        <v>45911.605474537035</v>
       </c>
       <c r="H7" s="1">
-        <v>45873.635324074072</v>
+        <v>45881.605486111112</v>
       </c>
       <c r="I7" s="2">
-        <v>-18</v>
+        <v>-17</v>
       </c>
       <c r="J7" s="3">
-        <v>277.5</v>
+        <v>98.01</v>
       </c>
       <c r="K7" s="3">
-        <v>277.5</v>
+        <v>98.01</v>
       </c>
       <c r="L7" t="s">
         <v>17</v>
@@ -929,25 +908,25 @@
         <v>15</v>
       </c>
       <c r="E8">
-        <v>11765</v>
+        <v>12025</v>
       </c>
       <c r="F8" t="s">
         <v>16</v>
       </c>
       <c r="G8" s="1">
-        <v>45911.605474537035</v>
+        <v>45918.579594907409</v>
       </c>
       <c r="H8" s="1">
-        <v>45881.605486111112</v>
+        <v>45888.580254629625</v>
       </c>
       <c r="I8" s="2">
-        <v>-26</v>
+        <v>-24</v>
       </c>
       <c r="J8" s="3">
-        <v>98.01</v>
+        <v>83.54</v>
       </c>
       <c r="K8" s="3">
-        <v>98.01</v>
+        <v>83.54</v>
       </c>
       <c r="L8" t="s">
         <v>17</v>
@@ -958,10 +937,10 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>211111219</v>
+        <v>211110545</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C9" t="s">
         <v>14</v>
@@ -970,39 +949,39 @@
         <v>15</v>
       </c>
       <c r="E9">
-        <v>10289</v>
+        <v>12153</v>
       </c>
       <c r="F9" t="s">
         <v>16</v>
       </c>
       <c r="G9" s="1">
-        <v>45876.546064814815</v>
+        <v>45921.411157407405</v>
       </c>
       <c r="H9" s="1">
-        <v>45846.5465162037</v>
+        <v>45891.411157407405</v>
       </c>
       <c r="I9" s="2">
-        <v>8.4539351851854008</v>
+        <v>-27</v>
       </c>
       <c r="J9" s="3">
-        <v>157.82</v>
+        <v>124.98</v>
       </c>
       <c r="K9" s="3">
-        <v>157.82</v>
+        <v>124.98</v>
       </c>
       <c r="L9" t="s">
         <v>17</v>
       </c>
       <c r="M9" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>211111219</v>
+        <v>211110629</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>57</v>
       </c>
       <c r="C10" t="s">
         <v>14</v>
@@ -1011,25 +990,25 @@
         <v>15</v>
       </c>
       <c r="E10">
-        <v>10721</v>
+        <v>11947</v>
       </c>
       <c r="F10" t="s">
         <v>16</v>
       </c>
       <c r="G10" s="1">
-        <v>45885.593645833331</v>
+        <v>45917.454479166663</v>
       </c>
       <c r="H10" s="1">
-        <v>45855.593657407408</v>
+        <v>45887.455300925925</v>
       </c>
       <c r="I10" s="2">
-        <v>0</v>
+        <v>-23</v>
       </c>
       <c r="J10" s="3">
-        <v>177.07</v>
+        <v>59.7</v>
       </c>
       <c r="K10" s="3">
-        <v>177.07</v>
+        <v>59.7</v>
       </c>
       <c r="L10" t="s">
         <v>17</v>
@@ -1040,10 +1019,10 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>211111233</v>
+        <v>211111219</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C11" t="s">
         <v>14</v>
@@ -1052,39 +1031,39 @@
         <v>15</v>
       </c>
       <c r="E11">
-        <v>10893</v>
+        <v>10289</v>
       </c>
       <c r="F11" t="s">
         <v>16</v>
       </c>
       <c r="G11" s="1">
-        <v>45906.413287037038</v>
+        <v>45876.546064814815</v>
       </c>
       <c r="H11" s="1">
-        <v>45861.413842592592</v>
+        <v>45846.5465162037</v>
       </c>
       <c r="I11" s="2">
-        <v>-21</v>
+        <v>18</v>
       </c>
       <c r="J11" s="3">
-        <v>88.14</v>
+        <v>157.82</v>
       </c>
       <c r="K11" s="3">
-        <v>88.14</v>
+        <v>157.82</v>
       </c>
       <c r="L11" t="s">
         <v>17</v>
       </c>
       <c r="M11" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>211111233</v>
+        <v>211111219</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C12" t="s">
         <v>14</v>
@@ -1093,39 +1072,39 @@
         <v>15</v>
       </c>
       <c r="E12">
-        <v>11354</v>
+        <v>10721</v>
       </c>
       <c r="F12" t="s">
         <v>16</v>
       </c>
       <c r="G12" s="1">
-        <v>45915.566932870366</v>
+        <v>45885.593645833331</v>
       </c>
       <c r="H12" s="1">
-        <v>45870.566944444443</v>
+        <v>45855.593657407408</v>
       </c>
       <c r="I12" s="2">
-        <v>-30</v>
+        <v>9</v>
       </c>
       <c r="J12" s="3">
-        <v>115.95</v>
+        <v>177.07</v>
       </c>
       <c r="K12" s="3">
-        <v>115.95</v>
+        <v>177.07</v>
       </c>
       <c r="L12" t="s">
         <v>17</v>
       </c>
       <c r="M12" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>211111423</v>
+        <v>211111233</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C13" t="s">
         <v>14</v>
@@ -1134,25 +1113,25 @@
         <v>15</v>
       </c>
       <c r="E13">
-        <v>11404</v>
+        <v>10893</v>
       </c>
       <c r="F13" t="s">
         <v>16</v>
       </c>
       <c r="G13" s="1">
-        <v>45903.565601851849</v>
+        <v>45906.413287037038</v>
       </c>
       <c r="H13" s="1">
-        <v>45873.565613425926</v>
+        <v>45861.413842592592</v>
       </c>
       <c r="I13" s="2">
-        <v>-18</v>
+        <v>-12</v>
       </c>
       <c r="J13" s="3">
-        <v>292.47000000000003</v>
+        <v>88.14</v>
       </c>
       <c r="K13" s="3">
-        <v>292.47000000000003</v>
+        <v>88.14</v>
       </c>
       <c r="L13" t="s">
         <v>17</v>
@@ -1163,10 +1142,10 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>211111423</v>
+        <v>211111233</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C14" t="s">
         <v>14</v>
@@ -1175,25 +1154,25 @@
         <v>15</v>
       </c>
       <c r="E14">
-        <v>11714</v>
+        <v>11354</v>
       </c>
       <c r="F14" t="s">
         <v>16</v>
       </c>
       <c r="G14" s="1">
-        <v>45910.507210648146</v>
+        <v>45915.566932870366</v>
       </c>
       <c r="H14" s="1">
-        <v>45880.507210648146</v>
+        <v>45870.566944444443</v>
       </c>
       <c r="I14" s="2">
-        <v>-25</v>
+        <v>-21</v>
       </c>
       <c r="J14" s="3">
-        <v>404.05</v>
+        <v>115.95</v>
       </c>
       <c r="K14" s="3">
-        <v>404.05</v>
+        <v>115.95</v>
       </c>
       <c r="L14" t="s">
         <v>17</v>
@@ -1204,51 +1183,51 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>211111556</v>
+        <v>211111423</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" s="4">
-        <v>2025</v>
+        <v>14</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="E15">
-        <v>438</v>
+        <v>11404</v>
       </c>
       <c r="F15" t="s">
         <v>16</v>
       </c>
       <c r="G15" s="1">
-        <v>45816</v>
+        <v>45903.565601851849</v>
       </c>
       <c r="H15" s="1">
-        <v>45786</v>
+        <v>45873.565613425926</v>
       </c>
       <c r="I15" s="2">
-        <v>69</v>
+        <v>-9</v>
       </c>
       <c r="J15" s="3">
-        <v>-54.99</v>
+        <v>292.47000000000003</v>
       </c>
       <c r="K15" s="3">
-        <v>-54.99</v>
+        <v>292.47000000000003</v>
       </c>
       <c r="L15" t="s">
         <v>17</v>
       </c>
       <c r="M15" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>211111556</v>
+        <v>211111423</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s">
         <v>14</v>
@@ -1257,66 +1236,66 @@
         <v>15</v>
       </c>
       <c r="E16">
-        <v>10029</v>
+        <v>11714</v>
       </c>
       <c r="F16" t="s">
         <v>16</v>
       </c>
       <c r="G16" s="1">
-        <v>45871.468414351853</v>
+        <v>45910.507210648146</v>
       </c>
       <c r="H16" s="1">
-        <v>45841.468414351853</v>
+        <v>45880.507210648146</v>
       </c>
       <c r="I16" s="2">
-        <v>13.531585648146574</v>
+        <v>-16</v>
       </c>
       <c r="J16" s="3">
-        <v>328.56</v>
+        <v>404.05</v>
       </c>
       <c r="K16" s="3">
-        <v>328.56</v>
+        <v>404.05</v>
       </c>
       <c r="L16" t="s">
         <v>17</v>
       </c>
       <c r="M16" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>211111556</v>
+        <v>211111423</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
-      </c>
-      <c r="D17" s="4">
-        <v>2025</v>
+        <v>14</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="E17">
-        <v>701</v>
+        <v>11970</v>
       </c>
       <c r="F17" t="s">
         <v>16</v>
       </c>
       <c r="G17" s="1">
-        <v>45896</v>
+        <v>45917.595486111109</v>
       </c>
       <c r="H17" s="1">
-        <v>45866</v>
+        <v>45887.595671296294</v>
       </c>
       <c r="I17" s="2">
-        <v>-11</v>
+        <v>-23</v>
       </c>
       <c r="J17" s="3">
-        <v>-26.240000000000002</v>
+        <v>289.48</v>
       </c>
       <c r="K17" s="3">
-        <v>-26.240000000000002</v>
+        <v>289.48</v>
       </c>
       <c r="L17" t="s">
         <v>17</v>
@@ -1333,113 +1312,113 @@
         <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>14</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>15</v>
+        <v>26</v>
+      </c>
+      <c r="D18" s="4">
+        <v>2025</v>
       </c>
       <c r="E18">
-        <v>11112</v>
+        <v>438</v>
       </c>
       <c r="F18" t="s">
         <v>16</v>
       </c>
       <c r="G18" s="1">
-        <v>45896.528356481482</v>
+        <v>45816</v>
       </c>
       <c r="H18" s="1">
-        <v>45866.528368055551</v>
+        <v>45786</v>
       </c>
       <c r="I18" s="2">
-        <v>-11</v>
+        <v>78</v>
       </c>
       <c r="J18" s="3">
-        <v>471.41</v>
+        <v>-54.99</v>
       </c>
       <c r="K18" s="3">
-        <v>471.41</v>
+        <v>-54.99</v>
       </c>
       <c r="L18" t="s">
         <v>17</v>
       </c>
       <c r="M18" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>211111559</v>
+        <v>211111556</v>
       </c>
       <c r="B19" t="s">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" s="4">
-        <v>2025</v>
+        <v>14</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="E19">
-        <v>703</v>
+        <v>10029</v>
       </c>
       <c r="F19" t="s">
         <v>16</v>
       </c>
       <c r="G19" s="1">
-        <v>45896</v>
+        <v>45871.468414351853</v>
       </c>
       <c r="H19" s="1">
-        <v>45866</v>
+        <v>45841.468414351853</v>
       </c>
       <c r="I19" s="2">
-        <v>-11</v>
+        <v>23</v>
       </c>
       <c r="J19" s="3">
-        <v>-2.41</v>
+        <v>328.56</v>
       </c>
       <c r="K19" s="3">
-        <v>-2.41</v>
+        <v>328.56</v>
       </c>
       <c r="L19" t="s">
         <v>17</v>
       </c>
       <c r="M19" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>211111559</v>
+        <v>211111556</v>
       </c>
       <c r="B20" t="s">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>14</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>15</v>
+        <v>26</v>
+      </c>
+      <c r="D20" s="4">
+        <v>2025</v>
       </c>
       <c r="E20">
-        <v>11105</v>
+        <v>701</v>
       </c>
       <c r="F20" t="s">
         <v>16</v>
       </c>
       <c r="G20" s="1">
-        <v>45896.528148148143</v>
+        <v>45896</v>
       </c>
       <c r="H20" s="1">
-        <v>45866.528148148143</v>
+        <v>45866</v>
       </c>
       <c r="I20" s="2">
-        <v>-11</v>
+        <v>-2</v>
       </c>
       <c r="J20" s="3">
-        <v>673.51</v>
+        <v>-26.240000000000002</v>
       </c>
       <c r="K20" s="3">
-        <v>673.51</v>
+        <v>-26.240000000000002</v>
       </c>
       <c r="L20" t="s">
         <v>17</v>
@@ -1450,10 +1429,10 @@
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>211111559</v>
+        <v>211111556</v>
       </c>
       <c r="B21" t="s">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="C21" t="s">
         <v>14</v>
@@ -1462,25 +1441,25 @@
         <v>15</v>
       </c>
       <c r="E21">
-        <v>11408</v>
+        <v>11112</v>
       </c>
       <c r="F21" t="s">
         <v>16</v>
       </c>
       <c r="G21" s="1">
-        <v>45903.568749999999</v>
+        <v>45896.528356481482</v>
       </c>
       <c r="H21" s="1">
-        <v>45873.568761574075</v>
+        <v>45866.528368055551</v>
       </c>
       <c r="I21" s="2">
-        <v>-18</v>
+        <v>-2</v>
       </c>
       <c r="J21" s="3">
-        <v>684.17</v>
+        <v>471.41</v>
       </c>
       <c r="K21" s="3">
-        <v>684.17</v>
+        <v>471.41</v>
       </c>
       <c r="L21" t="s">
         <v>17</v>
@@ -1494,34 +1473,34 @@
         <v>211111559</v>
       </c>
       <c r="B22" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="C22" t="s">
-        <v>14</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>15</v>
+        <v>26</v>
+      </c>
+      <c r="D22" s="4">
+        <v>2025</v>
       </c>
       <c r="E22">
-        <v>11710</v>
+        <v>703</v>
       </c>
       <c r="F22" t="s">
         <v>16</v>
       </c>
       <c r="G22" s="1">
-        <v>45910.507071759261</v>
+        <v>45896</v>
       </c>
       <c r="H22" s="1">
-        <v>45880.507071759261</v>
+        <v>45866</v>
       </c>
       <c r="I22" s="2">
-        <v>-25</v>
+        <v>-2</v>
       </c>
       <c r="J22" s="3">
-        <v>662.38</v>
+        <v>-2.41</v>
       </c>
       <c r="K22" s="3">
-        <v>662.38</v>
+        <v>-2.41</v>
       </c>
       <c r="L22" t="s">
         <v>17</v>
@@ -1532,10 +1511,10 @@
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>211111567</v>
+        <v>211111559</v>
       </c>
       <c r="B23" t="s">
-        <v>29</v>
+        <v>53</v>
       </c>
       <c r="C23" t="s">
         <v>14</v>
@@ -1544,121 +1523,121 @@
         <v>15</v>
       </c>
       <c r="E23">
-        <v>10215</v>
+        <v>11105</v>
       </c>
       <c r="F23" t="s">
         <v>16</v>
       </c>
       <c r="G23" s="1">
-        <v>45875.482060185182</v>
+        <v>45896.528148148143</v>
       </c>
       <c r="H23" s="1">
-        <v>45845.482060185182</v>
+        <v>45866.528148148143</v>
       </c>
       <c r="I23" s="2">
-        <v>9.5179398148175096</v>
+        <v>-2</v>
       </c>
       <c r="J23" s="3">
-        <v>280.28000000000003</v>
+        <v>673.51</v>
       </c>
       <c r="K23" s="3">
-        <v>280.28000000000003</v>
+        <v>673.51</v>
       </c>
       <c r="L23" t="s">
         <v>17</v>
       </c>
       <c r="M23" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>211111567</v>
+        <v>211111559</v>
       </c>
       <c r="B24" t="s">
-        <v>29</v>
+        <v>53</v>
       </c>
       <c r="C24" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="D24" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E24">
-        <v>518</v>
+        <v>11408</v>
       </c>
       <c r="F24" t="s">
         <v>16</v>
       </c>
       <c r="G24" s="1">
-        <v>45878</v>
+        <v>45903.568749999999</v>
       </c>
       <c r="H24" s="1">
-        <v>45848</v>
+        <v>45873.568761574075</v>
       </c>
       <c r="I24" s="2">
-        <v>7</v>
+        <v>-9</v>
       </c>
       <c r="J24" s="3">
-        <v>-4.63</v>
+        <v>684.17</v>
       </c>
       <c r="K24" s="3">
-        <v>-4.63</v>
+        <v>684.17</v>
       </c>
       <c r="L24" t="s">
         <v>17</v>
       </c>
       <c r="M24" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>211111567</v>
+        <v>211111559</v>
       </c>
       <c r="B25" t="s">
-        <v>29</v>
+        <v>53</v>
       </c>
       <c r="C25" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="D25" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E25">
-        <v>10408</v>
+        <v>543</v>
       </c>
       <c r="F25" t="s">
         <v>16</v>
       </c>
       <c r="G25" s="1">
-        <v>45878.421249999999</v>
+        <v>45905</v>
       </c>
       <c r="H25" s="1">
-        <v>45848.421249999999</v>
+        <v>45875</v>
       </c>
       <c r="I25" s="2">
-        <v>6.5787500000005821</v>
+        <v>-11</v>
       </c>
       <c r="J25" s="3">
-        <v>167.72</v>
+        <v>-2.86</v>
       </c>
       <c r="K25" s="3">
-        <v>167.72</v>
+        <v>-2.86</v>
       </c>
       <c r="L25" t="s">
         <v>17</v>
       </c>
       <c r="M25" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>211111567</v>
+        <v>211111559</v>
       </c>
       <c r="B26" t="s">
-        <v>29</v>
+        <v>53</v>
       </c>
       <c r="C26" t="s">
         <v>14</v>
@@ -1667,39 +1646,39 @@
         <v>15</v>
       </c>
       <c r="E26">
-        <v>10524</v>
+        <v>11710</v>
       </c>
       <c r="F26" t="s">
         <v>16</v>
       </c>
       <c r="G26" s="1">
-        <v>45882.489189814813</v>
+        <v>45910.507071759261</v>
       </c>
       <c r="H26" s="1">
-        <v>45852.489189814813</v>
+        <v>45880.507071759261</v>
       </c>
       <c r="I26" s="2">
-        <v>2.510810185187438</v>
+        <v>-16</v>
       </c>
       <c r="J26" s="3">
-        <v>301.11</v>
+        <v>662.38</v>
       </c>
       <c r="K26" s="3">
-        <v>301.11</v>
+        <v>662.38</v>
       </c>
       <c r="L26" t="s">
         <v>17</v>
       </c>
       <c r="M26" t="s">
-        <v>62</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>211111567</v>
+        <v>211111559</v>
       </c>
       <c r="B27" t="s">
-        <v>29</v>
+        <v>53</v>
       </c>
       <c r="C27" t="s">
         <v>14</v>
@@ -1708,25 +1687,25 @@
         <v>15</v>
       </c>
       <c r="E27">
-        <v>10704</v>
+        <v>11969</v>
       </c>
       <c r="F27" t="s">
         <v>16</v>
       </c>
       <c r="G27" s="1">
-        <v>45885.498472222222</v>
+        <v>45917.591666666667</v>
       </c>
       <c r="H27" s="1">
-        <v>45855.498472222222</v>
+        <v>45887.595266203702</v>
       </c>
       <c r="I27" s="2">
-        <v>0</v>
+        <v>-23</v>
       </c>
       <c r="J27" s="3">
-        <v>266.19</v>
+        <v>242.53</v>
       </c>
       <c r="K27" s="3">
-        <v>266.19</v>
+        <v>242.53</v>
       </c>
       <c r="L27" t="s">
         <v>17</v>
@@ -1749,31 +1728,31 @@
         <v>15</v>
       </c>
       <c r="E28">
-        <v>10993</v>
+        <v>10215</v>
       </c>
       <c r="F28" t="s">
         <v>16</v>
       </c>
       <c r="G28" s="1">
-        <v>45892.493587962963</v>
+        <v>45875.482060185182</v>
       </c>
       <c r="H28" s="1">
-        <v>45862.493599537032</v>
+        <v>45845.482060185182</v>
       </c>
       <c r="I28" s="2">
-        <v>-7</v>
+        <v>19</v>
       </c>
       <c r="J28" s="3">
-        <v>57.02</v>
+        <v>280.28000000000003</v>
       </c>
       <c r="K28" s="3">
-        <v>57.02</v>
+        <v>280.28000000000003</v>
       </c>
       <c r="L28" t="s">
         <v>17</v>
       </c>
       <c r="M28" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
@@ -1784,37 +1763,37 @@
         <v>29</v>
       </c>
       <c r="C29" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="D29" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E29">
-        <v>11110</v>
+        <v>518</v>
       </c>
       <c r="F29" t="s">
         <v>16</v>
       </c>
       <c r="G29" s="1">
-        <v>45926.528310185182</v>
+        <v>45878</v>
       </c>
       <c r="H29" s="1">
-        <v>45866.528310185182</v>
+        <v>45848</v>
       </c>
       <c r="I29" s="2">
-        <v>-41</v>
+        <v>16</v>
       </c>
       <c r="J29" s="3">
-        <v>290.05</v>
+        <v>-4.63</v>
       </c>
       <c r="K29" s="3">
-        <v>290.05</v>
+        <v>-4.63</v>
       </c>
       <c r="L29" t="s">
         <v>17</v>
       </c>
       <c r="M29" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
@@ -1831,31 +1810,31 @@
         <v>15</v>
       </c>
       <c r="E30">
-        <v>11283</v>
+        <v>10408</v>
       </c>
       <c r="F30" t="s">
         <v>16</v>
       </c>
       <c r="G30" s="1">
-        <v>45929.501446759255</v>
+        <v>45878.421249999999</v>
       </c>
       <c r="H30" s="1">
-        <v>45869.501446759255</v>
+        <v>45848.421249999999</v>
       </c>
       <c r="I30" s="2">
-        <v>-44</v>
+        <v>16</v>
       </c>
       <c r="J30" s="3">
-        <v>512.48</v>
+        <v>167.72</v>
       </c>
       <c r="K30" s="3">
-        <v>512.48</v>
+        <v>167.72</v>
       </c>
       <c r="L30" t="s">
         <v>17</v>
       </c>
       <c r="M30" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
@@ -1872,31 +1851,31 @@
         <v>15</v>
       </c>
       <c r="E31">
-        <v>11403</v>
+        <v>10524</v>
       </c>
       <c r="F31" t="s">
         <v>16</v>
       </c>
       <c r="G31" s="1">
-        <v>45933.565578703703</v>
+        <v>45882.489189814813</v>
       </c>
       <c r="H31" s="1">
-        <v>45873.565578703703</v>
+        <v>45852.489189814813</v>
       </c>
       <c r="I31" s="2">
-        <v>-48</v>
+        <v>12</v>
       </c>
       <c r="J31" s="3">
-        <v>369.45</v>
+        <v>301.11</v>
       </c>
       <c r="K31" s="5">
-        <v>369.45</v>
+        <v>301.11</v>
       </c>
       <c r="L31" t="s">
         <v>17</v>
       </c>
       <c r="M31" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
@@ -1913,31 +1892,31 @@
         <v>15</v>
       </c>
       <c r="E32">
-        <v>11585</v>
+        <v>10704</v>
       </c>
       <c r="F32" t="s">
         <v>16</v>
       </c>
       <c r="G32" s="1">
-        <v>45936.517835648148</v>
+        <v>45885.498472222222</v>
       </c>
       <c r="H32" s="1">
-        <v>45876.518402777772</v>
+        <v>45855.498472222222</v>
       </c>
       <c r="I32" s="2">
-        <v>-51</v>
+        <v>9</v>
       </c>
       <c r="J32" s="3">
-        <v>288.54000000000002</v>
+        <v>266.19</v>
       </c>
       <c r="K32" s="3">
-        <v>288.54000000000002</v>
+        <v>266.19</v>
       </c>
       <c r="L32" t="s">
         <v>17</v>
       </c>
       <c r="M32" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
@@ -1954,39 +1933,39 @@
         <v>15</v>
       </c>
       <c r="E33">
-        <v>11903</v>
+        <v>10993</v>
       </c>
       <c r="F33" t="s">
         <v>16</v>
       </c>
       <c r="G33" s="1">
-        <v>45943.465833333328</v>
+        <v>45892.493587962963</v>
       </c>
       <c r="H33" s="1">
-        <v>45883.465833333328</v>
+        <v>45862.493599537032</v>
       </c>
       <c r="I33" s="2">
-        <v>-58</v>
+        <v>2</v>
       </c>
       <c r="J33" s="3">
-        <v>489.1</v>
+        <v>57.02</v>
       </c>
       <c r="K33" s="5">
-        <v>489.1</v>
+        <v>57.02</v>
       </c>
       <c r="L33" t="s">
         <v>17</v>
       </c>
       <c r="M33" t="s">
-        <v>18</v>
+        <v>54</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>211111832</v>
+        <v>211111567</v>
       </c>
       <c r="B34" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C34" t="s">
         <v>14</v>
@@ -1995,39 +1974,39 @@
         <v>15</v>
       </c>
       <c r="E34">
-        <v>8724</v>
+        <v>11110</v>
       </c>
       <c r="F34" t="s">
         <v>16</v>
       </c>
       <c r="G34" s="1">
-        <v>45840.417569444442</v>
+        <v>45926.528310185182</v>
       </c>
       <c r="H34" s="1">
-        <v>45810.426018518519</v>
+        <v>45866.528310185182</v>
       </c>
       <c r="I34" s="2">
-        <v>44.582430555557949</v>
+        <v>-32</v>
       </c>
       <c r="J34" s="3">
-        <v>126.35000000000001</v>
+        <v>290.05</v>
       </c>
       <c r="K34" s="3">
-        <v>126.35000000000001</v>
+        <v>290.05</v>
       </c>
       <c r="L34" t="s">
         <v>17</v>
       </c>
       <c r="M34" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>211111832</v>
+        <v>211111567</v>
       </c>
       <c r="B35" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C35" t="s">
         <v>14</v>
@@ -2036,39 +2015,39 @@
         <v>15</v>
       </c>
       <c r="E35">
-        <v>8939</v>
+        <v>11283</v>
       </c>
       <c r="F35" t="s">
         <v>16</v>
       </c>
       <c r="G35" s="1">
-        <v>45843.550532407404</v>
+        <v>45929.501446759255</v>
       </c>
       <c r="H35" s="1">
-        <v>45813.574108796296</v>
+        <v>45869.501446759255</v>
       </c>
       <c r="I35" s="2">
-        <v>41.449467592596193</v>
+        <v>-35</v>
       </c>
       <c r="J35" s="3">
-        <v>391.52</v>
+        <v>512.48</v>
       </c>
       <c r="K35" s="3">
-        <v>391.52</v>
+        <v>512.48</v>
       </c>
       <c r="L35" t="s">
         <v>17</v>
       </c>
       <c r="M35" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>211111832</v>
+        <v>211111567</v>
       </c>
       <c r="B36" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C36" t="s">
         <v>14</v>
@@ -2077,39 +2056,39 @@
         <v>15</v>
       </c>
       <c r="E36">
-        <v>8968</v>
+        <v>11403</v>
       </c>
       <c r="F36" t="s">
         <v>16</v>
       </c>
       <c r="G36" s="1">
-        <v>45847.378715277773</v>
+        <v>45933.565578703703</v>
       </c>
       <c r="H36" s="1">
-        <v>45817.381168981483</v>
+        <v>45873.565578703703</v>
       </c>
       <c r="I36" s="2">
-        <v>37.621284722226846</v>
+        <v>-39</v>
       </c>
       <c r="J36" s="3">
-        <v>59.06</v>
+        <v>369.45</v>
       </c>
       <c r="K36" s="3">
-        <v>59.06</v>
+        <v>369.45</v>
       </c>
       <c r="L36" t="s">
         <v>17</v>
       </c>
       <c r="M36" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>211111832</v>
+        <v>211111567</v>
       </c>
       <c r="B37" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C37" t="s">
         <v>14</v>
@@ -2118,80 +2097,80 @@
         <v>15</v>
       </c>
       <c r="E37">
-        <v>9148</v>
+        <v>11585</v>
       </c>
       <c r="F37" t="s">
         <v>16</v>
       </c>
       <c r="G37" s="1">
-        <v>45850.450706018513</v>
+        <v>45936.517835648148</v>
       </c>
       <c r="H37" s="1">
-        <v>45820.452037037037</v>
+        <v>45876.518402777772</v>
       </c>
       <c r="I37" s="2">
-        <v>34.549293981486699</v>
+        <v>-42</v>
       </c>
       <c r="J37" s="3">
-        <v>314.43</v>
+        <v>288.54000000000002</v>
       </c>
       <c r="K37" s="3">
-        <v>314.43</v>
+        <v>288.54000000000002</v>
       </c>
       <c r="L37" t="s">
         <v>17</v>
       </c>
       <c r="M37" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>211111832</v>
+        <v>211111567</v>
       </c>
       <c r="B38" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C38" t="s">
-        <v>14</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>15</v>
+        <v>26</v>
+      </c>
+      <c r="D38" s="4">
+        <v>2025</v>
       </c>
       <c r="E38">
-        <v>9510</v>
+        <v>745</v>
       </c>
       <c r="F38" t="s">
         <v>16</v>
       </c>
       <c r="G38" s="1">
-        <v>45858.516712962963</v>
+        <v>45938</v>
       </c>
       <c r="H38" s="1">
-        <v>45828.517974537033</v>
+        <v>45878</v>
       </c>
       <c r="I38" s="2">
-        <v>26.483287037037371</v>
+        <v>-44</v>
       </c>
       <c r="J38" s="3">
-        <v>394.83</v>
+        <v>-5.3100000000000005</v>
       </c>
       <c r="K38" s="3">
-        <v>394.83</v>
+        <v>-5.3100000000000005</v>
       </c>
       <c r="L38" t="s">
         <v>17</v>
       </c>
       <c r="M38" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>211111832</v>
+        <v>211111567</v>
       </c>
       <c r="B39" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C39" t="s">
         <v>14</v>
@@ -2200,39 +2179,39 @@
         <v>15</v>
       </c>
       <c r="E39">
-        <v>9764</v>
+        <v>11903</v>
       </c>
       <c r="F39" t="s">
         <v>16</v>
       </c>
       <c r="G39" s="1">
-        <v>45864.422581018516</v>
+        <v>45943.465833333328</v>
       </c>
       <c r="H39" s="1">
-        <v>45834.424537037034</v>
+        <v>45883.465833333328</v>
       </c>
       <c r="I39" s="2">
-        <v>20.577418981483788</v>
+        <v>-49</v>
       </c>
       <c r="J39" s="3">
-        <v>340.11</v>
+        <v>489.1</v>
       </c>
       <c r="K39" s="3">
-        <v>340.11</v>
+        <v>489.1</v>
       </c>
       <c r="L39" t="s">
         <v>17</v>
       </c>
       <c r="M39" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>211111832</v>
+        <v>211111567</v>
       </c>
       <c r="B40" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C40" t="s">
         <v>14</v>
@@ -2241,31 +2220,31 @@
         <v>15</v>
       </c>
       <c r="E40">
-        <v>10015</v>
+        <v>12139</v>
       </c>
       <c r="F40" t="s">
         <v>16</v>
       </c>
       <c r="G40" s="1">
-        <v>45870.643773148149</v>
+        <v>45950.630543981482</v>
       </c>
       <c r="H40" s="1">
-        <v>45840.645138888889</v>
+        <v>45890.630543981482</v>
       </c>
       <c r="I40" s="2">
-        <v>14.356226851850806</v>
+        <v>-56</v>
       </c>
       <c r="J40" s="3">
-        <v>163.52000000000001</v>
+        <v>128.79</v>
       </c>
       <c r="K40" s="3">
-        <v>163.52000000000001</v>
+        <v>128.79</v>
       </c>
       <c r="L40" t="s">
         <v>17</v>
       </c>
       <c r="M40" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
@@ -2273,7 +2252,7 @@
         <v>211111832</v>
       </c>
       <c r="B41" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C41" t="s">
         <v>14</v>
@@ -2282,31 +2261,31 @@
         <v>15</v>
       </c>
       <c r="E41">
-        <v>10073</v>
+        <v>8724</v>
       </c>
       <c r="F41" t="s">
         <v>16</v>
       </c>
       <c r="G41" s="1">
-        <v>45871.54855324074</v>
+        <v>45840.417569444442</v>
       </c>
       <c r="H41" s="1">
-        <v>45841.54855324074</v>
+        <v>45810.426018518519</v>
       </c>
       <c r="I41" s="2">
-        <v>13.451446759259852</v>
+        <v>54</v>
       </c>
       <c r="J41" s="3">
-        <v>159.94</v>
+        <v>126.35000000000001</v>
       </c>
       <c r="K41" s="3">
-        <v>159.94</v>
+        <v>126.35000000000001</v>
       </c>
       <c r="L41" t="s">
         <v>17</v>
       </c>
       <c r="M41" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
@@ -2314,7 +2293,7 @@
         <v>211111832</v>
       </c>
       <c r="B42" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C42" t="s">
         <v>14</v>
@@ -2323,31 +2302,31 @@
         <v>15</v>
       </c>
       <c r="E42">
-        <v>10208</v>
+        <v>8939</v>
       </c>
       <c r="F42" t="s">
         <v>16</v>
       </c>
       <c r="G42" s="1">
-        <v>45875.481840277775</v>
+        <v>45843.550532407404</v>
       </c>
       <c r="H42" s="1">
-        <v>45845.481840277775</v>
+        <v>45813.574108796296</v>
       </c>
       <c r="I42" s="2">
-        <v>9.5181597222253913</v>
+        <v>51</v>
       </c>
       <c r="J42" s="3">
-        <v>69.59</v>
+        <v>391.52</v>
       </c>
       <c r="K42" s="3">
-        <v>69.59</v>
+        <v>391.52</v>
       </c>
       <c r="L42" t="s">
         <v>17</v>
       </c>
       <c r="M42" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
@@ -2355,7 +2334,7 @@
         <v>211111832</v>
       </c>
       <c r="B43" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C43" t="s">
         <v>14</v>
@@ -2364,31 +2343,31 @@
         <v>15</v>
       </c>
       <c r="E43">
-        <v>10415</v>
+        <v>8968</v>
       </c>
       <c r="F43" t="s">
         <v>16</v>
       </c>
       <c r="G43" s="1">
-        <v>45878.428206018514</v>
+        <v>45847.378715277773</v>
       </c>
       <c r="H43" s="1">
-        <v>45848.428217592591</v>
+        <v>45817.381168981483</v>
       </c>
       <c r="I43" s="2">
-        <v>6.5717939814858255</v>
+        <v>47</v>
       </c>
       <c r="J43" s="3">
-        <v>362.03000000000003</v>
+        <v>59.06</v>
       </c>
       <c r="K43" s="3">
-        <v>362.03000000000003</v>
+        <v>59.06</v>
       </c>
       <c r="L43" t="s">
         <v>17</v>
       </c>
       <c r="M43" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
@@ -2396,7 +2375,7 @@
         <v>211111832</v>
       </c>
       <c r="B44" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C44" t="s">
         <v>14</v>
@@ -2405,31 +2384,31 @@
         <v>15</v>
       </c>
       <c r="E44">
-        <v>10701</v>
+        <v>9148</v>
       </c>
       <c r="F44" t="s">
         <v>16</v>
       </c>
       <c r="G44" s="1">
-        <v>45885.498379629629</v>
+        <v>45850.450706018513</v>
       </c>
       <c r="H44" s="1">
-        <v>45855.498391203699</v>
+        <v>45820.452037037037</v>
       </c>
       <c r="I44" s="2">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="J44" s="3">
-        <v>414.34000000000003</v>
+        <v>314.43</v>
       </c>
       <c r="K44" s="3">
-        <v>414.34000000000003</v>
+        <v>314.43</v>
       </c>
       <c r="L44" t="s">
         <v>17</v>
       </c>
       <c r="M44" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
@@ -2437,40 +2416,40 @@
         <v>211111832</v>
       </c>
       <c r="B45" t="s">
+        <v>35</v>
+      </c>
+      <c r="C45" t="s">
+        <v>14</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E45">
+        <v>9510</v>
+      </c>
+      <c r="F45" t="s">
+        <v>16</v>
+      </c>
+      <c r="G45" s="1">
+        <v>45858.516712962963</v>
+      </c>
+      <c r="H45" s="1">
+        <v>45828.517974537033</v>
+      </c>
+      <c r="I45" s="2">
         <v>36</v>
       </c>
-      <c r="C45" t="s">
-        <v>14</v>
-      </c>
-      <c r="D45" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E45">
-        <v>10827</v>
-      </c>
-      <c r="F45" t="s">
-        <v>16</v>
-      </c>
-      <c r="G45" s="1">
-        <v>45889.495150462964</v>
-      </c>
-      <c r="H45" s="1">
-        <v>45859.495150462964</v>
-      </c>
-      <c r="I45" s="2">
-        <v>-4</v>
-      </c>
       <c r="J45" s="3">
-        <v>55.44</v>
+        <v>394.83</v>
       </c>
       <c r="K45" s="3">
-        <v>55.44</v>
+        <v>394.83</v>
       </c>
       <c r="L45" t="s">
         <v>17</v>
       </c>
       <c r="M45" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
@@ -2478,7 +2457,7 @@
         <v>211111832</v>
       </c>
       <c r="B46" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C46" t="s">
         <v>14</v>
@@ -2487,31 +2466,31 @@
         <v>15</v>
       </c>
       <c r="E46">
-        <v>10991</v>
+        <v>9764</v>
       </c>
       <c r="F46" t="s">
         <v>16</v>
       </c>
       <c r="G46" s="1">
-        <v>45892.492847222224</v>
+        <v>45864.422581018516</v>
       </c>
       <c r="H46" s="1">
-        <v>45862.492905092593</v>
+        <v>45834.424537037034</v>
       </c>
       <c r="I46" s="2">
-        <v>-7</v>
+        <v>30</v>
       </c>
       <c r="J46" s="3">
-        <v>366.97</v>
+        <v>340.11</v>
       </c>
       <c r="K46" s="3">
-        <v>366.97</v>
+        <v>340.11</v>
       </c>
       <c r="L46" t="s">
         <v>17</v>
       </c>
       <c r="M46" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
@@ -2519,7 +2498,7 @@
         <v>211111832</v>
       </c>
       <c r="B47" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C47" t="s">
         <v>14</v>
@@ -2528,31 +2507,31 @@
         <v>15</v>
       </c>
       <c r="E47">
-        <v>11106</v>
+        <v>10015</v>
       </c>
       <c r="F47" t="s">
         <v>16</v>
       </c>
       <c r="G47" s="1">
-        <v>45926.528171296297</v>
+        <v>45870.643773148149</v>
       </c>
       <c r="H47" s="1">
-        <v>45866.528182870366</v>
+        <v>45840.645138888889</v>
       </c>
       <c r="I47" s="2">
-        <v>-41</v>
+        <v>24</v>
       </c>
       <c r="J47" s="3">
-        <v>159.31</v>
+        <v>163.52000000000001</v>
       </c>
       <c r="K47" s="3">
-        <v>159.31</v>
+        <v>163.52000000000001</v>
       </c>
       <c r="L47" t="s">
         <v>17</v>
       </c>
       <c r="M47" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
@@ -2560,7 +2539,7 @@
         <v>211111832</v>
       </c>
       <c r="B48" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C48" t="s">
         <v>14</v>
@@ -2569,31 +2548,31 @@
         <v>15</v>
       </c>
       <c r="E48">
-        <v>11279</v>
+        <v>10073</v>
       </c>
       <c r="F48" t="s">
         <v>16</v>
       </c>
       <c r="G48" s="1">
-        <v>45929.50131944444</v>
+        <v>45871.54855324074</v>
       </c>
       <c r="H48" s="1">
-        <v>45869.501331018517</v>
+        <v>45841.54855324074</v>
       </c>
       <c r="I48" s="2">
-        <v>-44</v>
+        <v>23</v>
       </c>
       <c r="J48" s="3">
-        <v>420.68</v>
+        <v>159.94</v>
       </c>
       <c r="K48" s="5">
-        <v>420.68</v>
+        <v>159.94</v>
       </c>
       <c r="L48" t="s">
         <v>17</v>
       </c>
       <c r="M48" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
@@ -2601,7 +2580,7 @@
         <v>211111832</v>
       </c>
       <c r="B49" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C49" t="s">
         <v>14</v>
@@ -2610,31 +2589,31 @@
         <v>15</v>
       </c>
       <c r="E49">
-        <v>11401</v>
+        <v>10208</v>
       </c>
       <c r="F49" t="s">
         <v>16</v>
       </c>
       <c r="G49" s="1">
-        <v>45933.565509259257</v>
+        <v>45875.481840277775</v>
       </c>
       <c r="H49" s="1">
-        <v>45873.565520833334</v>
+        <v>45845.481840277775</v>
       </c>
       <c r="I49" s="2">
-        <v>-48</v>
+        <v>19</v>
       </c>
       <c r="J49" s="3">
-        <v>176.39000000000001</v>
+        <v>69.59</v>
       </c>
       <c r="K49" s="3">
-        <v>176.39000000000001</v>
+        <v>69.59</v>
       </c>
       <c r="L49" t="s">
         <v>17</v>
       </c>
       <c r="M49" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.25">
@@ -2642,7 +2621,7 @@
         <v>211111832</v>
       </c>
       <c r="B50" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C50" t="s">
         <v>14</v>
@@ -2651,31 +2630,31 @@
         <v>15</v>
       </c>
       <c r="E50">
-        <v>11591</v>
+        <v>10415</v>
       </c>
       <c r="F50" t="s">
         <v>16</v>
       </c>
       <c r="G50" s="1">
-        <v>45936.521041666667</v>
+        <v>45878.428206018514</v>
       </c>
       <c r="H50" s="1">
-        <v>45876.521238425921</v>
+        <v>45848.428217592591</v>
       </c>
       <c r="I50" s="2">
-        <v>-51</v>
+        <v>16</v>
       </c>
       <c r="J50" s="3">
-        <v>460.85</v>
+        <v>362.03000000000003</v>
       </c>
       <c r="K50" s="3">
-        <v>460.85</v>
+        <v>362.03000000000003</v>
       </c>
       <c r="L50" t="s">
         <v>17</v>
       </c>
       <c r="M50" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.25">
@@ -2683,7 +2662,7 @@
         <v>211111832</v>
       </c>
       <c r="B51" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C51" t="s">
         <v>14</v>
@@ -2692,39 +2671,39 @@
         <v>15</v>
       </c>
       <c r="E51">
-        <v>11898</v>
+        <v>10701</v>
       </c>
       <c r="F51" t="s">
         <v>16</v>
       </c>
       <c r="G51" s="1">
-        <v>45943.465717592589</v>
+        <v>45885.498379629629</v>
       </c>
       <c r="H51" s="1">
-        <v>45883.465717592589</v>
+        <v>45855.498391203699</v>
       </c>
       <c r="I51" s="2">
-        <v>-58</v>
+        <v>9</v>
       </c>
       <c r="J51" s="3">
-        <v>400.48</v>
+        <v>414.34000000000003</v>
       </c>
       <c r="K51" s="3">
-        <v>400.48</v>
+        <v>414.34000000000003</v>
       </c>
       <c r="L51" t="s">
         <v>17</v>
       </c>
       <c r="M51" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>211111909</v>
+        <v>211111832</v>
       </c>
       <c r="B52" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C52" t="s">
         <v>14</v>
@@ -2733,39 +2712,39 @@
         <v>15</v>
       </c>
       <c r="E52">
-        <v>9955</v>
+        <v>10827</v>
       </c>
       <c r="F52" t="s">
         <v>16</v>
       </c>
       <c r="G52" s="1">
-        <v>45870.409421296295</v>
+        <v>45889.495150462964</v>
       </c>
       <c r="H52" s="1">
-        <v>45840.411736111106</v>
+        <v>45859.495150462964</v>
       </c>
       <c r="I52" s="2">
-        <v>14.590578703704523</v>
+        <v>5</v>
       </c>
       <c r="J52" s="3">
-        <v>112.11</v>
+        <v>55.44</v>
       </c>
       <c r="K52" s="3">
-        <v>112.11</v>
+        <v>55.44</v>
       </c>
       <c r="L52" t="s">
         <v>17</v>
       </c>
       <c r="M52" t="s">
-        <v>23</v>
+        <v>54</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>211111909</v>
+        <v>211111832</v>
       </c>
       <c r="B53" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C53" t="s">
         <v>14</v>
@@ -2774,39 +2753,39 @@
         <v>15</v>
       </c>
       <c r="E53">
-        <v>10092</v>
+        <v>10991</v>
       </c>
       <c r="F53" t="s">
         <v>16</v>
       </c>
       <c r="G53" s="1">
-        <v>45872.315787037034</v>
+        <v>45892.492847222224</v>
       </c>
       <c r="H53" s="1">
-        <v>45842.315787037034</v>
+        <v>45862.492905092593</v>
       </c>
       <c r="I53" s="2">
-        <v>12.68421296296583</v>
+        <v>2</v>
       </c>
       <c r="J53" s="3">
-        <v>75.03</v>
+        <v>366.97</v>
       </c>
       <c r="K53" s="3">
-        <v>75.03</v>
+        <v>366.97</v>
       </c>
       <c r="L53" t="s">
         <v>17</v>
       </c>
       <c r="M53" t="s">
-        <v>23</v>
+        <v>54</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>211111909</v>
+        <v>211111832</v>
       </c>
       <c r="B54" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C54" t="s">
         <v>14</v>
@@ -2815,121 +2794,121 @@
         <v>15</v>
       </c>
       <c r="E54">
-        <v>10093</v>
+        <v>11106</v>
       </c>
       <c r="F54" t="s">
         <v>16</v>
       </c>
       <c r="G54" s="1">
-        <v>45872.31581018518</v>
+        <v>45926.528171296297</v>
       </c>
       <c r="H54" s="1">
-        <v>45842.31581018518</v>
+        <v>45866.528182870366</v>
       </c>
       <c r="I54" s="2">
-        <v>12.684189814819547</v>
+        <v>-32</v>
       </c>
       <c r="J54" s="3">
-        <v>114.44</v>
+        <v>159.31</v>
       </c>
       <c r="K54" s="3">
-        <v>114.44</v>
+        <v>159.31</v>
       </c>
       <c r="L54" t="s">
         <v>17</v>
       </c>
       <c r="M54" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>211111909</v>
+        <v>211111832</v>
       </c>
       <c r="B55" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C55" t="s">
-        <v>26</v>
-      </c>
-      <c r="D55" s="4">
-        <v>2025</v>
+        <v>14</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="E55">
-        <v>638</v>
+        <v>11279</v>
       </c>
       <c r="F55" t="s">
         <v>16</v>
       </c>
       <c r="G55" s="1">
-        <v>45878</v>
+        <v>45929.50131944444</v>
       </c>
       <c r="H55" s="1">
-        <v>45848</v>
+        <v>45869.501331018517</v>
       </c>
       <c r="I55" s="2">
-        <v>7</v>
+        <v>-35</v>
       </c>
       <c r="J55" s="3">
-        <v>-73.5</v>
+        <v>420.68</v>
       </c>
       <c r="K55" s="3">
-        <v>-73.5</v>
+        <v>420.68</v>
       </c>
       <c r="L55" t="s">
         <v>17</v>
       </c>
       <c r="M55" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>211111909</v>
+        <v>211111832</v>
       </c>
       <c r="B56" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C56" t="s">
-        <v>14</v>
-      </c>
-      <c r="D56" s="4" t="s">
-        <v>15</v>
+        <v>26</v>
+      </c>
+      <c r="D56" s="4">
+        <v>2025</v>
       </c>
       <c r="E56">
-        <v>10409</v>
+        <v>722</v>
       </c>
       <c r="F56" t="s">
         <v>16</v>
       </c>
       <c r="G56" s="1">
-        <v>45878.421273148146</v>
+        <v>45933</v>
       </c>
       <c r="H56" s="1">
-        <v>45848.421273148146</v>
+        <v>45873</v>
       </c>
       <c r="I56" s="2">
-        <v>6.5787268518542987</v>
+        <v>-39</v>
       </c>
       <c r="J56" s="3">
-        <v>112.3</v>
+        <v>-68.290000000000006</v>
       </c>
       <c r="K56" s="3">
-        <v>112.3</v>
+        <v>-68.290000000000006</v>
       </c>
       <c r="L56" t="s">
         <v>17</v>
       </c>
       <c r="M56" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>211111909</v>
+        <v>211111832</v>
       </c>
       <c r="B57" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C57" t="s">
         <v>14</v>
@@ -2938,25 +2917,25 @@
         <v>15</v>
       </c>
       <c r="E57">
-        <v>10592</v>
+        <v>11401</v>
       </c>
       <c r="F57" t="s">
         <v>16</v>
       </c>
       <c r="G57" s="1">
-        <v>45884.413032407407</v>
+        <v>45933.565509259257</v>
       </c>
       <c r="H57" s="1">
-        <v>45854.413043981476</v>
+        <v>45873.565520833334</v>
       </c>
       <c r="I57" s="2">
-        <v>0.58696759259328246</v>
+        <v>-39</v>
       </c>
       <c r="J57" s="3">
-        <v>220.38</v>
+        <v>176.39000000000001</v>
       </c>
       <c r="K57" s="3">
-        <v>220.38</v>
+        <v>176.39000000000001</v>
       </c>
       <c r="L57" t="s">
         <v>17</v>
@@ -2967,10 +2946,10 @@
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>211111909</v>
+        <v>211111832</v>
       </c>
       <c r="B58" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C58" t="s">
         <v>14</v>
@@ -2979,25 +2958,25 @@
         <v>15</v>
       </c>
       <c r="E58">
-        <v>10694</v>
+        <v>11591</v>
       </c>
       <c r="F58" t="s">
         <v>16</v>
       </c>
       <c r="G58" s="1">
-        <v>45885.498206018514</v>
+        <v>45936.521041666667</v>
       </c>
       <c r="H58" s="1">
-        <v>45855.498217592591</v>
+        <v>45876.521238425921</v>
       </c>
       <c r="I58" s="2">
-        <v>0</v>
+        <v>-42</v>
       </c>
       <c r="J58" s="3">
-        <v>220.07</v>
+        <v>460.85</v>
       </c>
       <c r="K58" s="3">
-        <v>220.07</v>
+        <v>460.85</v>
       </c>
       <c r="L58" t="s">
         <v>17</v>
@@ -3008,10 +2987,10 @@
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>211111909</v>
+        <v>211111832</v>
       </c>
       <c r="B59" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C59" t="s">
         <v>14</v>
@@ -3020,25 +2999,25 @@
         <v>15</v>
       </c>
       <c r="E59">
-        <v>10695</v>
+        <v>11898</v>
       </c>
       <c r="F59" t="s">
         <v>16</v>
       </c>
       <c r="G59" s="1">
-        <v>45885.498240740737</v>
+        <v>45943.465717592589</v>
       </c>
       <c r="H59" s="1">
-        <v>45855.498240740737</v>
+        <v>45883.465717592589</v>
       </c>
       <c r="I59" s="2">
-        <v>0</v>
+        <v>-49</v>
       </c>
       <c r="J59" s="3">
-        <v>182.79</v>
+        <v>400.48</v>
       </c>
       <c r="K59" s="3">
-        <v>182.79</v>
+        <v>400.48</v>
       </c>
       <c r="L59" t="s">
         <v>17</v>
@@ -3049,10 +3028,10 @@
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>211111909</v>
+        <v>211111832</v>
       </c>
       <c r="B60" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C60" t="s">
         <v>14</v>
@@ -3061,25 +3040,25 @@
         <v>15</v>
       </c>
       <c r="E60">
-        <v>10823</v>
+        <v>11966</v>
       </c>
       <c r="F60" t="s">
         <v>16</v>
       </c>
       <c r="G60" s="1">
-        <v>45889.495046296295</v>
+        <v>45947.58253472222</v>
       </c>
       <c r="H60" s="1">
-        <v>45859.495057870372</v>
+        <v>45887.583229166667</v>
       </c>
       <c r="I60" s="2">
-        <v>-4</v>
+        <v>-53</v>
       </c>
       <c r="J60" s="3">
-        <v>99.84</v>
+        <v>42.03</v>
       </c>
       <c r="K60" s="3">
-        <v>99.84</v>
+        <v>42.03</v>
       </c>
       <c r="L60" t="s">
         <v>17</v>
@@ -3090,10 +3069,10 @@
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>211111909</v>
+        <v>211111832</v>
       </c>
       <c r="B61" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C61" t="s">
         <v>14</v>
@@ -3102,25 +3081,25 @@
         <v>15</v>
       </c>
       <c r="E61">
-        <v>11103</v>
+        <v>12134</v>
       </c>
       <c r="F61" t="s">
         <v>16</v>
       </c>
       <c r="G61" s="1">
-        <v>45896.528101851851</v>
+        <v>45950.630381944444</v>
       </c>
       <c r="H61" s="1">
-        <v>45866.528113425928</v>
+        <v>45890.630393518513</v>
       </c>
       <c r="I61" s="2">
-        <v>-11</v>
+        <v>-56</v>
       </c>
       <c r="J61" s="3">
-        <v>74.12</v>
+        <v>323.86</v>
       </c>
       <c r="K61" s="3">
-        <v>74.12</v>
+        <v>323.86</v>
       </c>
       <c r="L61" t="s">
         <v>17</v>
@@ -3134,7 +3113,7 @@
         <v>211111909</v>
       </c>
       <c r="B62" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C62" t="s">
         <v>14</v>
@@ -3143,25 +3122,25 @@
         <v>15</v>
       </c>
       <c r="E62">
-        <v>11193</v>
+        <v>11589</v>
       </c>
       <c r="F62" t="s">
         <v>16</v>
       </c>
       <c r="G62" s="1">
-        <v>45898.482453703698</v>
+        <v>45906.520150462959</v>
       </c>
       <c r="H62" s="1">
-        <v>45868.482465277775</v>
+        <v>45876.520451388889</v>
       </c>
       <c r="I62" s="2">
-        <v>-13</v>
+        <v>-12</v>
       </c>
       <c r="J62" s="3">
-        <v>128.46</v>
+        <v>69.11</v>
       </c>
       <c r="K62" s="3">
-        <v>128.46</v>
+        <v>69.11</v>
       </c>
       <c r="L62" t="s">
         <v>17</v>
@@ -3175,7 +3154,7 @@
         <v>211111909</v>
       </c>
       <c r="B63" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C63" t="s">
         <v>14</v>
@@ -3184,25 +3163,25 @@
         <v>15</v>
       </c>
       <c r="E63">
-        <v>11277</v>
+        <v>11953</v>
       </c>
       <c r="F63" t="s">
         <v>16</v>
       </c>
       <c r="G63" s="1">
-        <v>45899.501284722217</v>
+        <v>45917.471018518518</v>
       </c>
       <c r="H63" s="1">
-        <v>45869.501284722217</v>
+        <v>45887.473657407405</v>
       </c>
       <c r="I63" s="2">
-        <v>-14</v>
+        <v>-23</v>
       </c>
       <c r="J63" s="3">
-        <v>37.800000000000004</v>
+        <v>81.93</v>
       </c>
       <c r="K63" s="3">
-        <v>37.800000000000004</v>
+        <v>81.93</v>
       </c>
       <c r="L63" t="s">
         <v>17</v>
@@ -3213,7 +3192,7 @@
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>211111909</v>
+        <v>211111932</v>
       </c>
       <c r="B64" t="s">
         <v>37</v>
@@ -3225,36 +3204,36 @@
         <v>15</v>
       </c>
       <c r="E64">
-        <v>11278</v>
+        <v>6876</v>
       </c>
       <c r="F64" t="s">
         <v>16</v>
       </c>
       <c r="G64" s="1">
-        <v>45899.501296296294</v>
+        <v>45806.316099537034</v>
       </c>
       <c r="H64" s="1">
-        <v>45869.501307870371</v>
+        <v>45776.318043981482</v>
       </c>
       <c r="I64" s="2">
-        <v>-14</v>
+        <v>88</v>
       </c>
       <c r="J64" s="3">
-        <v>33.700000000000003</v>
+        <v>337.18</v>
       </c>
       <c r="K64" s="3">
-        <v>33.700000000000003</v>
+        <v>137.18</v>
       </c>
       <c r="L64" t="s">
         <v>17</v>
       </c>
       <c r="M64" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>211111909</v>
+        <v>211111932</v>
       </c>
       <c r="B65" t="s">
         <v>37</v>
@@ -3266,36 +3245,36 @@
         <v>15</v>
       </c>
       <c r="E65">
-        <v>11589</v>
+        <v>7112</v>
       </c>
       <c r="F65" t="s">
         <v>16</v>
       </c>
       <c r="G65" s="1">
-        <v>45906.520150462959</v>
+        <v>45809.600486111107</v>
       </c>
       <c r="H65" s="1">
-        <v>45876.520451388889</v>
+        <v>45779.601805555554</v>
       </c>
       <c r="I65" s="2">
-        <v>-21</v>
+        <v>85</v>
       </c>
       <c r="J65" s="3">
-        <v>69.11</v>
+        <v>1342.49</v>
       </c>
       <c r="K65" s="3">
-        <v>69.11</v>
+        <v>1000</v>
       </c>
       <c r="L65" t="s">
         <v>17</v>
       </c>
       <c r="M65" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>211111932</v>
+        <v>211111949</v>
       </c>
       <c r="B66" t="s">
         <v>38</v>
@@ -3307,36 +3286,36 @@
         <v>15</v>
       </c>
       <c r="E66">
-        <v>6876</v>
+        <v>11459</v>
       </c>
       <c r="F66" t="s">
         <v>16</v>
       </c>
       <c r="G66" s="1">
-        <v>45806.316099537034</v>
+        <v>45904.540520833332</v>
       </c>
       <c r="H66" s="1">
-        <v>45776.318043981482</v>
+        <v>45874.540532407409</v>
       </c>
       <c r="I66" s="2">
-        <v>78.683900462965539</v>
+        <v>-10</v>
       </c>
       <c r="J66" s="3">
-        <v>337.18</v>
+        <v>218.93</v>
       </c>
       <c r="K66" s="3">
-        <v>337.18</v>
+        <v>218.93</v>
       </c>
       <c r="L66" t="s">
         <v>17</v>
       </c>
       <c r="M66" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>211111932</v>
+        <v>211111949</v>
       </c>
       <c r="B67" t="s">
         <v>38</v>
@@ -3348,31 +3327,31 @@
         <v>15</v>
       </c>
       <c r="E67">
-        <v>7112</v>
+        <v>11744</v>
       </c>
       <c r="F67" t="s">
         <v>16</v>
       </c>
       <c r="G67" s="1">
-        <v>45809.600486111107</v>
+        <v>45911.439571759256</v>
       </c>
       <c r="H67" s="1">
-        <v>45779.601805555554</v>
+        <v>45881.439571759256</v>
       </c>
       <c r="I67" s="2">
-        <v>75.399513888893125</v>
+        <v>-17</v>
       </c>
       <c r="J67" s="3">
-        <v>1342.49</v>
+        <v>230.83</v>
       </c>
       <c r="K67" s="3">
-        <v>1000</v>
+        <v>230.83</v>
       </c>
       <c r="L67" t="s">
         <v>17</v>
       </c>
       <c r="M67" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.25">
@@ -3380,7 +3359,7 @@
         <v>211111949</v>
       </c>
       <c r="B68" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C68" t="s">
         <v>14</v>
@@ -3389,25 +3368,25 @@
         <v>15</v>
       </c>
       <c r="E68">
-        <v>11459</v>
+        <v>11909</v>
       </c>
       <c r="F68" t="s">
         <v>16</v>
       </c>
       <c r="G68" s="1">
-        <v>45904.540520833332</v>
+        <v>45913.559398148143</v>
       </c>
       <c r="H68" s="1">
-        <v>45874.540532407409</v>
+        <v>45883.55940972222</v>
       </c>
       <c r="I68" s="2">
         <v>-19</v>
       </c>
       <c r="J68" s="3">
-        <v>218.93</v>
+        <v>377.03000000000003</v>
       </c>
       <c r="K68" s="3">
-        <v>218.93</v>
+        <v>377.03000000000003</v>
       </c>
       <c r="L68" t="s">
         <v>17</v>
@@ -3421,7 +3400,7 @@
         <v>211111949</v>
       </c>
       <c r="B69" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C69" t="s">
         <v>14</v>
@@ -3430,25 +3409,25 @@
         <v>15</v>
       </c>
       <c r="E69">
-        <v>11744</v>
+        <v>12009</v>
       </c>
       <c r="F69" t="s">
         <v>16</v>
       </c>
       <c r="G69" s="1">
-        <v>45911.439571759256</v>
+        <v>45918.531423611108</v>
       </c>
       <c r="H69" s="1">
-        <v>45881.439571759256</v>
+        <v>45888.531435185185</v>
       </c>
       <c r="I69" s="2">
-        <v>-26</v>
+        <v>-24</v>
       </c>
       <c r="J69" s="3">
-        <v>230.83</v>
+        <v>405.06</v>
       </c>
       <c r="K69" s="3">
-        <v>230.83</v>
+        <v>405.06</v>
       </c>
       <c r="L69" t="s">
         <v>17</v>
@@ -3462,7 +3441,7 @@
         <v>211111949</v>
       </c>
       <c r="B70" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C70" t="s">
         <v>14</v>
@@ -3471,25 +3450,25 @@
         <v>15</v>
       </c>
       <c r="E70">
-        <v>11909</v>
+        <v>12188</v>
       </c>
       <c r="F70" t="s">
         <v>16</v>
       </c>
       <c r="G70" s="1">
-        <v>45913.559398148143</v>
+        <v>45921.438807870371</v>
       </c>
       <c r="H70" s="1">
-        <v>45883.55940972222</v>
+        <v>45891.438807870371</v>
       </c>
       <c r="I70" s="2">
-        <v>-28</v>
+        <v>-27</v>
       </c>
       <c r="J70" s="3">
-        <v>377.03000000000003</v>
+        <v>187.02</v>
       </c>
       <c r="K70" s="3">
-        <v>377.03000000000003</v>
+        <v>187.02</v>
       </c>
       <c r="L70" t="s">
         <v>17</v>
@@ -3503,7 +3482,7 @@
         <v>211111992</v>
       </c>
       <c r="B71" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C71" t="s">
         <v>26</v>
@@ -3524,7 +3503,7 @@
         <v>45846</v>
       </c>
       <c r="I71" s="2">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="J71" s="3">
         <v>-24.060000000000002</v>
@@ -3544,7 +3523,7 @@
         <v>211111992</v>
       </c>
       <c r="B72" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C72" t="s">
         <v>14</v>
@@ -3565,7 +3544,7 @@
         <v>45846.52884259259</v>
       </c>
       <c r="I72" s="2">
-        <v>8.4732291666659876</v>
+        <v>18</v>
       </c>
       <c r="J72" s="3">
         <v>192.77</v>
@@ -3585,7 +3564,7 @@
         <v>211111992</v>
       </c>
       <c r="B73" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C73" t="s">
         <v>14</v>
@@ -3606,7 +3585,7 @@
         <v>45855.592870370368</v>
       </c>
       <c r="I73" s="2">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="J73" s="3">
         <v>57.06</v>
@@ -3618,7 +3597,7 @@
         <v>17</v>
       </c>
       <c r="M73" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.25">
@@ -3626,7 +3605,7 @@
         <v>211111992</v>
       </c>
       <c r="B74" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C74" t="s">
         <v>14</v>
@@ -3647,7 +3626,7 @@
         <v>45855.593692129631</v>
       </c>
       <c r="I74" s="2">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="J74" s="3">
         <v>161.43</v>
@@ -3659,7 +3638,7 @@
         <v>17</v>
       </c>
       <c r="M74" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.25">
@@ -3667,7 +3646,7 @@
         <v>211111992</v>
       </c>
       <c r="B75" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C75" t="s">
         <v>14</v>
@@ -3688,7 +3667,7 @@
         <v>45869.506157407406</v>
       </c>
       <c r="I75" s="2">
-        <v>-14</v>
+        <v>-5</v>
       </c>
       <c r="J75" s="3">
         <v>237.28</v>
@@ -3708,7 +3687,7 @@
         <v>211111992</v>
       </c>
       <c r="B76" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C76" t="s">
         <v>14</v>
@@ -3729,7 +3708,7 @@
         <v>45876.635011574072</v>
       </c>
       <c r="I76" s="2">
-        <v>-21</v>
+        <v>-12</v>
       </c>
       <c r="J76" s="3">
         <v>278.55</v>
@@ -3749,7 +3728,7 @@
         <v>211111992</v>
       </c>
       <c r="B77" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C77" t="s">
         <v>14</v>
@@ -3770,7 +3749,7 @@
         <v>45881.605543981481</v>
       </c>
       <c r="I77" s="2">
-        <v>-26</v>
+        <v>-17</v>
       </c>
       <c r="J77" s="3">
         <v>131.35</v>
@@ -3787,43 +3766,43 @@
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>211112011</v>
+        <v>211111992</v>
       </c>
       <c r="B78" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C78" t="s">
-        <v>26</v>
-      </c>
-      <c r="D78" s="4">
-        <v>2025</v>
+        <v>14</v>
+      </c>
+      <c r="D78" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="E78">
-        <v>635</v>
+        <v>12162</v>
       </c>
       <c r="F78" t="s">
         <v>16</v>
       </c>
       <c r="G78" s="1">
-        <v>45878</v>
+        <v>45921.411377314813</v>
       </c>
       <c r="H78" s="1">
-        <v>45848</v>
+        <v>45891.41138888889</v>
       </c>
       <c r="I78" s="2">
-        <v>7</v>
+        <v>-27</v>
       </c>
       <c r="J78" s="3">
-        <v>-62.300000000000004</v>
+        <v>198.99</v>
       </c>
       <c r="K78" s="3">
-        <v>-0.69000000000000006</v>
+        <v>198.99</v>
       </c>
       <c r="L78" t="s">
         <v>17</v>
       </c>
       <c r="M78" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.25">
@@ -3831,7 +3810,7 @@
         <v>211112011</v>
       </c>
       <c r="B79" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C79" t="s">
         <v>14</v>
@@ -3840,25 +3819,25 @@
         <v>15</v>
       </c>
       <c r="E79">
-        <v>11713</v>
+        <v>11965</v>
       </c>
       <c r="F79" t="s">
         <v>16</v>
       </c>
       <c r="G79" s="1">
-        <v>45910.507164351853</v>
+        <v>45917.574097222219</v>
       </c>
       <c r="H79" s="1">
-        <v>45880.507175925923</v>
+        <v>45887.582291666666</v>
       </c>
       <c r="I79" s="2">
-        <v>-25</v>
+        <v>-23</v>
       </c>
       <c r="J79" s="3">
-        <v>533.53</v>
+        <v>131.25</v>
       </c>
       <c r="K79" s="5">
-        <v>533.53</v>
+        <v>131.25</v>
       </c>
       <c r="L79" t="s">
         <v>17</v>
@@ -3872,7 +3851,7 @@
         <v>211112011</v>
       </c>
       <c r="B80" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C80" t="s">
         <v>14</v>
@@ -3881,25 +3860,25 @@
         <v>15</v>
       </c>
       <c r="E80">
-        <v>11900</v>
+        <v>12138</v>
       </c>
       <c r="F80" t="s">
         <v>16</v>
       </c>
       <c r="G80" s="1">
-        <v>45913.465752314813</v>
+        <v>45920.630497685182</v>
       </c>
       <c r="H80" s="1">
-        <v>45883.465763888889</v>
+        <v>45890.630509259259</v>
       </c>
       <c r="I80" s="2">
-        <v>-28</v>
+        <v>-26</v>
       </c>
       <c r="J80" s="3">
-        <v>209.46</v>
+        <v>263.38</v>
       </c>
       <c r="K80" s="5">
-        <v>209.46</v>
+        <v>263.38</v>
       </c>
       <c r="L80" t="s">
         <v>17</v>
@@ -3913,7 +3892,7 @@
         <v>211112028</v>
       </c>
       <c r="B81" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C81" t="s">
         <v>14</v>
@@ -3922,25 +3901,25 @@
         <v>15</v>
       </c>
       <c r="E81">
-        <v>10711</v>
+        <v>11418</v>
       </c>
       <c r="F81" t="s">
         <v>16</v>
       </c>
       <c r="G81" s="1">
-        <v>45885.555312500001</v>
+        <v>45903.635358796295</v>
       </c>
       <c r="H81" s="1">
-        <v>45855.556076388886</v>
+        <v>45873.635370370372</v>
       </c>
       <c r="I81" s="2">
-        <v>0</v>
+        <v>-9</v>
       </c>
       <c r="J81" s="3">
-        <v>281.88</v>
+        <v>174.49</v>
       </c>
       <c r="K81" s="3">
-        <v>281.88</v>
+        <v>174.49</v>
       </c>
       <c r="L81" t="s">
         <v>17</v>
@@ -3954,7 +3933,7 @@
         <v>211112028</v>
       </c>
       <c r="B82" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C82" t="s">
         <v>14</v>
@@ -3963,25 +3942,25 @@
         <v>15</v>
       </c>
       <c r="E82">
-        <v>11418</v>
+        <v>12160</v>
       </c>
       <c r="F82" t="s">
         <v>16</v>
       </c>
       <c r="G82" s="1">
-        <v>45903.635358796295</v>
+        <v>45921.41134259259</v>
       </c>
       <c r="H82" s="1">
-        <v>45873.635370370372</v>
+        <v>45891.41134259259</v>
       </c>
       <c r="I82" s="2">
-        <v>-18</v>
+        <v>-27</v>
       </c>
       <c r="J82" s="3">
-        <v>174.49</v>
+        <v>287.06</v>
       </c>
       <c r="K82" s="3">
-        <v>174.49</v>
+        <v>287.06</v>
       </c>
       <c r="L82" t="s">
         <v>17</v>
@@ -3995,7 +3974,7 @@
         <v>211112064</v>
       </c>
       <c r="B83" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C83" t="s">
         <v>14</v>
@@ -4004,25 +3983,25 @@
         <v>15</v>
       </c>
       <c r="E83">
-        <v>10974</v>
+        <v>11361</v>
       </c>
       <c r="F83" t="s">
         <v>16</v>
       </c>
       <c r="G83" s="1">
-        <v>45892.340671296297</v>
+        <v>45900.567106481481</v>
       </c>
       <c r="H83" s="1">
-        <v>45862.34233796296</v>
+        <v>45870.567106481481</v>
       </c>
       <c r="I83" s="2">
-        <v>-7</v>
+        <v>-6</v>
       </c>
       <c r="J83" s="3">
-        <v>116.54</v>
+        <v>179.36</v>
       </c>
       <c r="K83" s="3">
-        <v>116.54</v>
+        <v>179.36</v>
       </c>
       <c r="L83" t="s">
         <v>17</v>
@@ -4036,7 +4015,7 @@
         <v>211112064</v>
       </c>
       <c r="B84" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C84" t="s">
         <v>14</v>
@@ -4045,25 +4024,25 @@
         <v>15</v>
       </c>
       <c r="E84">
-        <v>11132</v>
+        <v>11643</v>
       </c>
       <c r="F84" t="s">
         <v>16</v>
       </c>
       <c r="G84" s="1">
-        <v>45896.624918981477</v>
+        <v>45907.581400462965</v>
       </c>
       <c r="H84" s="1">
-        <v>45866.626180555555</v>
+        <v>45877.581400462965</v>
       </c>
       <c r="I84" s="2">
-        <v>-11</v>
+        <v>-13</v>
       </c>
       <c r="J84" s="3">
-        <v>44.92</v>
+        <v>24.98</v>
       </c>
       <c r="K84" s="5">
-        <v>44.92</v>
+        <v>24.98</v>
       </c>
       <c r="L84" t="s">
         <v>17</v>
@@ -4077,34 +4056,34 @@
         <v>211112064</v>
       </c>
       <c r="B85" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C85" t="s">
-        <v>14</v>
-      </c>
-      <c r="D85" s="4" t="s">
-        <v>15</v>
+        <v>26</v>
+      </c>
+      <c r="D85" s="4">
+        <v>2025</v>
       </c>
       <c r="E85">
-        <v>11361</v>
+        <v>734</v>
       </c>
       <c r="F85" t="s">
         <v>16</v>
       </c>
       <c r="G85" s="1">
-        <v>45900.567106481481</v>
+        <v>45908</v>
       </c>
       <c r="H85" s="1">
-        <v>45870.567106481481</v>
+        <v>45878</v>
       </c>
       <c r="I85" s="2">
-        <v>-15</v>
+        <v>-14</v>
       </c>
       <c r="J85" s="3">
-        <v>179.36</v>
+        <v>-20.81</v>
       </c>
       <c r="K85" s="3">
-        <v>179.36</v>
+        <v>-20.81</v>
       </c>
       <c r="L85" t="s">
         <v>17</v>
@@ -4118,34 +4097,34 @@
         <v>211112064</v>
       </c>
       <c r="B86" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C86" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E86">
-        <v>11643</v>
+        <v>31</v>
+      </c>
+      <c r="E86" t="s">
+        <v>32</v>
       </c>
       <c r="F86" t="s">
         <v>16</v>
       </c>
       <c r="G86" s="1">
-        <v>45907.581400462965</v>
+        <v>45910</v>
       </c>
       <c r="H86" s="1">
-        <v>45877.581400462965</v>
+        <v>45880</v>
       </c>
       <c r="I86" s="2">
-        <v>-22</v>
+        <v>-16</v>
       </c>
       <c r="J86" s="3">
-        <v>24.98</v>
+        <v>-78.28</v>
       </c>
       <c r="K86" s="3">
-        <v>24.98</v>
+        <v>-0.08</v>
       </c>
       <c r="L86" t="s">
         <v>17</v>
@@ -4156,43 +4135,43 @@
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>211112064</v>
+        <v>211112086</v>
       </c>
       <c r="B87" t="s">
         <v>43</v>
       </c>
       <c r="C87" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="D87" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E87" t="s">
-        <v>32</v>
+        <v>15</v>
+      </c>
+      <c r="E87">
+        <v>10414</v>
       </c>
       <c r="F87" t="s">
         <v>16</v>
       </c>
       <c r="G87" s="1">
-        <v>45910</v>
+        <v>45878.428182870368</v>
       </c>
       <c r="H87" s="1">
-        <v>45880</v>
+        <v>45848.428182870368</v>
       </c>
       <c r="I87" s="2">
-        <v>-25</v>
+        <v>16</v>
       </c>
       <c r="J87" s="3">
-        <v>-78.28</v>
+        <v>181.28</v>
       </c>
       <c r="K87" s="3">
-        <v>-0.08</v>
+        <v>81.070000000000007</v>
       </c>
       <c r="L87" t="s">
         <v>17</v>
       </c>
       <c r="M87" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.25">
@@ -4200,7 +4179,7 @@
         <v>211112086</v>
       </c>
       <c r="B88" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C88" t="s">
         <v>14</v>
@@ -4209,25 +4188,25 @@
         <v>15</v>
       </c>
       <c r="E88">
-        <v>10414</v>
+        <v>10705</v>
       </c>
       <c r="F88" t="s">
         <v>16</v>
       </c>
       <c r="G88" s="1">
-        <v>45878.428182870368</v>
+        <v>45885.500740740739</v>
       </c>
       <c r="H88" s="1">
-        <v>45848.428182870368</v>
+        <v>45855.500740740739</v>
       </c>
       <c r="I88" s="2">
-        <v>6.5718171296321088</v>
+        <v>9</v>
       </c>
       <c r="J88" s="3">
-        <v>181.28</v>
+        <v>236.3</v>
       </c>
       <c r="K88" s="3">
-        <v>81.070000000000007</v>
+        <v>236.3</v>
       </c>
       <c r="L88" t="s">
         <v>17</v>
@@ -4241,7 +4220,7 @@
         <v>211112086</v>
       </c>
       <c r="B89" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C89" t="s">
         <v>14</v>
@@ -4250,31 +4229,31 @@
         <v>15</v>
       </c>
       <c r="E89">
-        <v>10705</v>
+        <v>10990</v>
       </c>
       <c r="F89" t="s">
         <v>16</v>
       </c>
       <c r="G89" s="1">
-        <v>45885.500740740739</v>
+        <v>45892.49282407407</v>
       </c>
       <c r="H89" s="1">
-        <v>45855.500740740739</v>
+        <v>45862.49282407407</v>
       </c>
       <c r="I89" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J89" s="3">
-        <v>236.3</v>
+        <v>68.710000000000008</v>
       </c>
       <c r="K89" s="3">
-        <v>236.3</v>
+        <v>68.710000000000008</v>
       </c>
       <c r="L89" t="s">
         <v>17</v>
       </c>
       <c r="M89" t="s">
-        <v>18</v>
+        <v>54</v>
       </c>
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.25">
@@ -4282,7 +4261,7 @@
         <v>211112086</v>
       </c>
       <c r="B90" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C90" t="s">
         <v>14</v>
@@ -4291,25 +4270,25 @@
         <v>15</v>
       </c>
       <c r="E90">
-        <v>10990</v>
+        <v>11590</v>
       </c>
       <c r="F90" t="s">
         <v>16</v>
       </c>
       <c r="G90" s="1">
-        <v>45892.49282407407</v>
+        <v>45906.520590277774</v>
       </c>
       <c r="H90" s="1">
-        <v>45862.49282407407</v>
+        <v>45876.520879629628</v>
       </c>
       <c r="I90" s="2">
-        <v>-7</v>
+        <v>-12</v>
       </c>
       <c r="J90" s="3">
-        <v>68.710000000000008</v>
+        <v>122.73</v>
       </c>
       <c r="K90" s="3">
-        <v>68.710000000000008</v>
+        <v>122.73</v>
       </c>
       <c r="L90" t="s">
         <v>17</v>
@@ -4323,7 +4302,7 @@
         <v>211112086</v>
       </c>
       <c r="B91" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C91" t="s">
         <v>14</v>
@@ -4332,25 +4311,25 @@
         <v>15</v>
       </c>
       <c r="E91">
-        <v>11590</v>
+        <v>11892</v>
       </c>
       <c r="F91" t="s">
         <v>16</v>
       </c>
       <c r="G91" s="1">
-        <v>45906.520590277774</v>
+        <v>45913.465567129628</v>
       </c>
       <c r="H91" s="1">
-        <v>45876.520879629628</v>
+        <v>45883.465567129628</v>
       </c>
       <c r="I91" s="2">
-        <v>-21</v>
+        <v>-19</v>
       </c>
       <c r="J91" s="3">
-        <v>122.73</v>
+        <v>262.53000000000003</v>
       </c>
       <c r="K91" s="5">
-        <v>122.73</v>
+        <v>262.53000000000003</v>
       </c>
       <c r="L91" t="s">
         <v>17</v>
@@ -4364,7 +4343,7 @@
         <v>211112086</v>
       </c>
       <c r="B92" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C92" t="s">
         <v>14</v>
@@ -4373,25 +4352,25 @@
         <v>15</v>
       </c>
       <c r="E92">
-        <v>11892</v>
+        <v>12133</v>
       </c>
       <c r="F92" t="s">
         <v>16</v>
       </c>
       <c r="G92" s="1">
-        <v>45913.465567129628</v>
+        <v>45920.630358796298</v>
       </c>
       <c r="H92" s="1">
-        <v>45883.465567129628</v>
+        <v>45890.630358796298</v>
       </c>
       <c r="I92" s="2">
-        <v>-28</v>
+        <v>-26</v>
       </c>
       <c r="J92" s="3">
-        <v>262.53000000000003</v>
+        <v>81.66</v>
       </c>
       <c r="K92" s="3">
-        <v>262.53000000000003</v>
+        <v>81.66</v>
       </c>
       <c r="L92" t="s">
         <v>17</v>
@@ -4405,7 +4384,7 @@
         <v>211112115</v>
       </c>
       <c r="B93" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="C93" t="s">
         <v>14</v>
@@ -4414,25 +4393,25 @@
         <v>15</v>
       </c>
       <c r="E93">
-        <v>11889</v>
+        <v>12130</v>
       </c>
       <c r="F93" t="s">
         <v>16</v>
       </c>
       <c r="G93" s="1">
-        <v>45913.465497685182</v>
+        <v>45920.630289351851</v>
       </c>
       <c r="H93" s="1">
-        <v>45883.465509259258</v>
+        <v>45890.630289351851</v>
       </c>
       <c r="I93" s="2">
-        <v>-28</v>
+        <v>-26</v>
       </c>
       <c r="J93" s="3">
-        <v>329.8</v>
+        <v>257.45999999999998</v>
       </c>
       <c r="K93" s="3">
-        <v>329.8</v>
+        <v>257.45999999999998</v>
       </c>
       <c r="L93" t="s">
         <v>17</v>
@@ -4446,7 +4425,7 @@
         <v>211112132</v>
       </c>
       <c r="B94" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C94" t="s">
         <v>14</v>
@@ -4467,7 +4446,7 @@
         <v>45876.52475694444</v>
       </c>
       <c r="I94" s="2">
-        <v>-21</v>
+        <v>-12</v>
       </c>
       <c r="J94" s="3">
         <v>233.13</v>
@@ -4487,34 +4466,34 @@
         <v>211112132</v>
       </c>
       <c r="B95" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C95" t="s">
-        <v>14</v>
-      </c>
-      <c r="D95" s="4" t="s">
-        <v>15</v>
+        <v>26</v>
+      </c>
+      <c r="D95" s="4">
+        <v>2025</v>
       </c>
       <c r="E95">
-        <v>11712</v>
+        <v>746</v>
       </c>
       <c r="F95" t="s">
         <v>16</v>
       </c>
       <c r="G95" s="1">
-        <v>45910.5071412037</v>
+        <v>45908</v>
       </c>
       <c r="H95" s="1">
-        <v>45880.5071412037</v>
+        <v>45878</v>
       </c>
       <c r="I95" s="2">
-        <v>-25</v>
+        <v>-14</v>
       </c>
       <c r="J95" s="3">
-        <v>256.36</v>
+        <v>-6.32</v>
       </c>
       <c r="K95" s="3">
-        <v>256.36</v>
+        <v>-6.32</v>
       </c>
       <c r="L95" t="s">
         <v>17</v>
@@ -4525,10 +4504,10 @@
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>211112198</v>
+        <v>211112132</v>
       </c>
       <c r="B96" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C96" t="s">
         <v>14</v>
@@ -4537,66 +4516,66 @@
         <v>15</v>
       </c>
       <c r="E96">
-        <v>10217</v>
+        <v>11712</v>
       </c>
       <c r="F96" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="G96" s="1">
-        <v>45875.486840277779</v>
+        <v>45910.5071412037</v>
       </c>
       <c r="H96" s="1">
-        <v>45845.486840277779</v>
+        <v>45880.5071412037</v>
       </c>
       <c r="I96" s="2">
-        <v>9.5131597222207347</v>
+        <v>-16</v>
       </c>
       <c r="J96" s="3">
-        <v>187.19</v>
+        <v>256.36</v>
       </c>
       <c r="K96" s="5">
-        <v>187.19</v>
+        <v>256.36</v>
       </c>
       <c r="L96" t="s">
         <v>17</v>
       </c>
       <c r="M96" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>211112198</v>
+        <v>211112132</v>
       </c>
       <c r="B97" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C97" t="s">
-        <v>26</v>
-      </c>
-      <c r="D97" s="4">
-        <v>2025</v>
+        <v>14</v>
+      </c>
+      <c r="D97" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="E97">
-        <v>702</v>
+        <v>11954</v>
       </c>
       <c r="F97" t="s">
         <v>16</v>
       </c>
       <c r="G97" s="1">
-        <v>45896</v>
+        <v>45917.483252314814</v>
       </c>
       <c r="H97" s="1">
-        <v>45866</v>
+        <v>45887.48369212963</v>
       </c>
       <c r="I97" s="2">
-        <v>-11</v>
+        <v>-23</v>
       </c>
       <c r="J97" s="3">
-        <v>-2.41</v>
+        <v>117.23</v>
       </c>
       <c r="K97" s="3">
-        <v>-2.41</v>
+        <v>117.23</v>
       </c>
       <c r="L97" t="s">
         <v>17</v>
@@ -4607,10 +4586,10 @@
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>211112198</v>
+        <v>211112132</v>
       </c>
       <c r="B98" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C98" t="s">
         <v>14</v>
@@ -4619,25 +4598,25 @@
         <v>15</v>
       </c>
       <c r="E98">
-        <v>11107</v>
+        <v>12136</v>
       </c>
       <c r="F98" t="s">
         <v>16</v>
       </c>
       <c r="G98" s="1">
-        <v>45896.52820601852</v>
+        <v>45920.630439814813</v>
       </c>
       <c r="H98" s="1">
-        <v>45866.52820601852</v>
+        <v>45890.63045138889</v>
       </c>
       <c r="I98" s="2">
-        <v>-11</v>
+        <v>-26</v>
       </c>
       <c r="J98" s="3">
-        <v>587.35</v>
+        <v>190.9</v>
       </c>
       <c r="K98" s="3">
-        <v>60.03</v>
+        <v>190.9</v>
       </c>
       <c r="L98" t="s">
         <v>17</v>
@@ -4651,7 +4630,7 @@
         <v>211112198</v>
       </c>
       <c r="B99" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C99" t="s">
         <v>14</v>
@@ -4660,285 +4639,285 @@
         <v>15</v>
       </c>
       <c r="E99">
-        <v>11711</v>
+        <v>10217</v>
       </c>
       <c r="F99" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="G99" s="1">
-        <v>45910.507094907407</v>
+        <v>45875.486840277779</v>
       </c>
       <c r="H99" s="1">
-        <v>45880.507106481477</v>
+        <v>45845.486840277779</v>
       </c>
       <c r="I99" s="2">
-        <v>-25</v>
+        <v>19</v>
       </c>
       <c r="J99" s="3">
-        <v>503.96000000000004</v>
+        <v>187.19</v>
       </c>
       <c r="K99" s="3">
-        <v>503.96000000000004</v>
+        <v>187.19</v>
       </c>
       <c r="L99" t="s">
         <v>17</v>
       </c>
       <c r="M99" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>211112291</v>
+        <v>211112198</v>
       </c>
       <c r="B100" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C100" t="s">
-        <v>33</v>
-      </c>
-      <c r="D100" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E100" t="s">
-        <v>48</v>
+        <v>26</v>
+      </c>
+      <c r="D100" s="4">
+        <v>2025</v>
+      </c>
+      <c r="E100">
+        <v>702</v>
       </c>
       <c r="F100" t="s">
         <v>16</v>
       </c>
       <c r="G100" s="1">
-        <v>45324</v>
+        <v>45896</v>
       </c>
       <c r="H100" s="1">
-        <v>45324</v>
+        <v>45866</v>
       </c>
       <c r="I100" s="2">
-        <v>561</v>
+        <v>-2</v>
       </c>
       <c r="J100" s="3">
-        <v>200.59</v>
+        <v>-2.41</v>
       </c>
       <c r="K100" s="5">
-        <v>200.59</v>
+        <v>-2.41</v>
       </c>
       <c r="L100" t="s">
         <v>17</v>
       </c>
       <c r="M100" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>211112291</v>
+        <v>211112198</v>
       </c>
       <c r="B101" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C101" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="D101" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E101" t="s">
-        <v>49</v>
+        <v>15</v>
+      </c>
+      <c r="E101">
+        <v>11107</v>
       </c>
       <c r="F101" t="s">
         <v>16</v>
       </c>
       <c r="G101" s="1">
-        <v>45324</v>
+        <v>45896.52820601852</v>
       </c>
       <c r="H101" s="1">
-        <v>45324</v>
+        <v>45866.52820601852</v>
       </c>
       <c r="I101" s="2">
-        <v>561</v>
+        <v>-2</v>
       </c>
       <c r="J101" s="3">
-        <v>76.36</v>
+        <v>587.35</v>
       </c>
       <c r="K101" s="3">
-        <v>76.36</v>
+        <v>60.03</v>
       </c>
       <c r="L101" t="s">
         <v>17</v>
       </c>
       <c r="M101" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A102">
-        <v>211112291</v>
+        <v>211112198</v>
       </c>
       <c r="B102" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C102" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="D102" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E102" t="s">
-        <v>50</v>
+        <v>15</v>
+      </c>
+      <c r="E102">
+        <v>11711</v>
       </c>
       <c r="F102" t="s">
         <v>16</v>
       </c>
       <c r="G102" s="1">
-        <v>45331</v>
+        <v>45910.507094907407</v>
       </c>
       <c r="H102" s="1">
-        <v>45331</v>
+        <v>45880.507106481477</v>
       </c>
       <c r="I102" s="2">
-        <v>554</v>
+        <v>-16</v>
       </c>
       <c r="J102" s="3">
-        <v>209.18</v>
+        <v>503.96000000000004</v>
       </c>
       <c r="K102" s="3">
-        <v>209.18</v>
+        <v>503.96000000000004</v>
       </c>
       <c r="L102" t="s">
         <v>17</v>
       </c>
       <c r="M102" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A103">
-        <v>211112291</v>
+        <v>211112198</v>
       </c>
       <c r="B103" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C103" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="D103" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E103" t="s">
-        <v>51</v>
+        <v>15</v>
+      </c>
+      <c r="E103">
+        <v>12135</v>
       </c>
       <c r="F103" t="s">
         <v>16</v>
       </c>
       <c r="G103" s="1">
-        <v>45366</v>
+        <v>45920.630416666667</v>
       </c>
       <c r="H103" s="1">
-        <v>45366</v>
+        <v>45890.630416666667</v>
       </c>
       <c r="I103" s="2">
-        <v>519</v>
+        <v>-26</v>
       </c>
       <c r="J103" s="3">
-        <v>872.94</v>
+        <v>192.65</v>
       </c>
       <c r="K103" s="3">
-        <v>872.94</v>
+        <v>192.65</v>
       </c>
       <c r="L103" t="s">
         <v>17</v>
       </c>
       <c r="M103" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A104">
-        <v>211112291</v>
+        <v>211112314</v>
       </c>
       <c r="B104" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C104" t="s">
-        <v>33</v>
-      </c>
-      <c r="D104" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E104" t="s">
-        <v>52</v>
+        <v>26</v>
+      </c>
+      <c r="D104" s="4">
+        <v>2025</v>
+      </c>
+      <c r="E104">
+        <v>345</v>
       </c>
       <c r="F104" t="s">
         <v>16</v>
       </c>
       <c r="G104" s="1">
-        <v>45390</v>
+        <v>45788</v>
       </c>
       <c r="H104" s="1">
-        <v>45390</v>
+        <v>45758</v>
       </c>
       <c r="I104" s="2">
-        <v>495</v>
+        <v>106</v>
       </c>
       <c r="J104" s="3">
-        <v>261.22000000000003</v>
+        <v>-16.809999999999999</v>
       </c>
       <c r="K104" s="3">
-        <v>261.22000000000003</v>
+        <v>-16.809999999999999</v>
       </c>
       <c r="L104" t="s">
         <v>17</v>
       </c>
       <c r="M104" t="s">
-        <v>34</v>
+        <v>56</v>
       </c>
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A105">
-        <v>211112291</v>
+        <v>211112314</v>
       </c>
       <c r="B105" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C105" t="s">
         <v>14</v>
       </c>
       <c r="D105" s="4" t="s">
-        <v>53</v>
+        <v>15</v>
       </c>
       <c r="E105">
-        <v>1957</v>
+        <v>8584</v>
       </c>
       <c r="F105" t="s">
         <v>16</v>
       </c>
       <c r="G105" s="1">
-        <v>45529.645949074074</v>
+        <v>45836.412951388884</v>
       </c>
       <c r="H105" s="1">
-        <v>45499.646979166668</v>
+        <v>45806.420115740737</v>
       </c>
       <c r="I105" s="2">
-        <v>355.35405092592555</v>
+        <v>58</v>
       </c>
       <c r="J105" s="3">
-        <v>68.7</v>
+        <v>417.92</v>
       </c>
       <c r="K105" s="3">
-        <v>68.7</v>
+        <v>417.92</v>
       </c>
       <c r="L105" t="s">
         <v>17</v>
       </c>
       <c r="M105" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="106" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A106">
-        <v>211112314</v>
+        <v>211112327</v>
       </c>
       <c r="B106" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="C106" t="s">
         <v>26</v>
@@ -4947,121 +4926,121 @@
         <v>2025</v>
       </c>
       <c r="E106">
-        <v>345</v>
+        <v>75</v>
       </c>
       <c r="F106" t="s">
         <v>16</v>
       </c>
       <c r="G106" s="1">
-        <v>45788</v>
+        <v>45721</v>
       </c>
       <c r="H106" s="1">
-        <v>45758</v>
+        <v>45691</v>
       </c>
       <c r="I106" s="2">
-        <v>97</v>
+        <v>173</v>
       </c>
       <c r="J106" s="3">
-        <v>-16.809999999999999</v>
+        <v>-52.050000000000004</v>
       </c>
       <c r="K106" s="3">
-        <v>-16.809999999999999</v>
+        <v>-52.050000000000004</v>
       </c>
       <c r="L106" t="s">
         <v>17</v>
       </c>
       <c r="M106" t="s">
-        <v>64</v>
+        <v>33</v>
       </c>
     </row>
     <row r="107" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A107">
-        <v>211112314</v>
+        <v>211112327</v>
       </c>
       <c r="B107" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="C107" t="s">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="D107" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E107">
-        <v>8584</v>
+        <v>4</v>
       </c>
       <c r="F107" t="s">
         <v>16</v>
       </c>
       <c r="G107" s="1">
-        <v>45836.412951388884</v>
+        <v>45723</v>
       </c>
       <c r="H107" s="1">
-        <v>45806.420115740737</v>
+        <v>45693</v>
       </c>
       <c r="I107" s="2">
-        <v>48.587048611116188</v>
+        <v>171</v>
       </c>
       <c r="J107" s="3">
-        <v>417.92</v>
+        <v>-26.51</v>
       </c>
       <c r="K107" s="3">
-        <v>417.92</v>
+        <v>-26.51</v>
       </c>
       <c r="L107" t="s">
         <v>17</v>
       </c>
       <c r="M107" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A108">
-        <v>211112314</v>
+        <v>211112401</v>
       </c>
       <c r="B108" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C108" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="D108" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E108">
-        <v>9310</v>
+        <v>31</v>
+      </c>
+      <c r="E108" t="s">
+        <v>32</v>
       </c>
       <c r="F108" t="s">
         <v>16</v>
       </c>
       <c r="G108" s="1">
-        <v>45854.476550925923</v>
+        <v>45755</v>
       </c>
       <c r="H108" s="1">
-        <v>45824.477476851847</v>
+        <v>45740</v>
       </c>
       <c r="I108" s="2">
-        <v>30.52344907407678</v>
+        <v>139</v>
       </c>
       <c r="J108" s="3">
-        <v>276.85000000000002</v>
+        <v>-489.09000000000003</v>
       </c>
       <c r="K108" s="3">
-        <v>276.85000000000002</v>
+        <v>-109.25</v>
       </c>
       <c r="L108" t="s">
         <v>17</v>
       </c>
       <c r="M108" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
     </row>
     <row r="109" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A109">
-        <v>211112314</v>
+        <v>211112477</v>
       </c>
       <c r="B109" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C109" t="s">
         <v>14</v>
@@ -5070,39 +5049,39 @@
         <v>15</v>
       </c>
       <c r="E109">
-        <v>9605</v>
+        <v>10892</v>
       </c>
       <c r="F109" t="s">
         <v>16</v>
       </c>
       <c r="G109" s="1">
-        <v>45861.477291666662</v>
+        <v>45906.412418981483</v>
       </c>
       <c r="H109" s="1">
-        <v>45831.482349537036</v>
+        <v>45861.413124999999</v>
       </c>
       <c r="I109" s="2">
-        <v>23.522708333337505</v>
+        <v>-12</v>
       </c>
       <c r="J109" s="3">
-        <v>179.56</v>
+        <v>89.64</v>
       </c>
       <c r="K109" s="3">
-        <v>179.56</v>
+        <v>89.64</v>
       </c>
       <c r="L109" t="s">
         <v>17</v>
       </c>
       <c r="M109" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="110" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A110">
-        <v>211112314</v>
+        <v>211112477</v>
       </c>
       <c r="B110" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C110" t="s">
         <v>14</v>
@@ -5111,319 +5090,129 @@
         <v>15</v>
       </c>
       <c r="E110">
-        <v>9765</v>
+        <v>11350</v>
       </c>
       <c r="F110" t="s">
         <v>16</v>
       </c>
       <c r="G110" s="1">
-        <v>45864.431539351848</v>
+        <v>45915.566817129627</v>
       </c>
       <c r="H110" s="1">
-        <v>45834.432766203703</v>
+        <v>45870.566817129627</v>
       </c>
       <c r="I110" s="2">
-        <v>20.568460648151813</v>
+        <v>-21</v>
       </c>
       <c r="J110" s="3">
-        <v>124.9</v>
+        <v>113.84</v>
       </c>
       <c r="K110" s="3">
-        <v>124.9</v>
+        <v>113.84</v>
       </c>
       <c r="L110" t="s">
         <v>17</v>
       </c>
       <c r="M110" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="111" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A111">
-        <v>211112327</v>
+        <v>211112505</v>
       </c>
       <c r="B111" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C111" t="s">
-        <v>26</v>
-      </c>
-      <c r="D111" s="4">
-        <v>2025</v>
-      </c>
-      <c r="E111">
-        <v>75</v>
+        <v>30</v>
+      </c>
+      <c r="D111" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E111" t="s">
+        <v>32</v>
       </c>
       <c r="F111" t="s">
         <v>16</v>
       </c>
       <c r="G111" s="1">
-        <v>45721</v>
+        <v>45803</v>
       </c>
       <c r="H111" s="1">
-        <v>45691</v>
+        <v>45803</v>
       </c>
       <c r="I111" s="2">
-        <v>164</v>
+        <v>91</v>
       </c>
       <c r="J111" s="3">
-        <v>-52.050000000000004</v>
+        <v>-350</v>
       </c>
       <c r="K111" s="3">
-        <v>-52.050000000000004</v>
+        <v>-0.24</v>
       </c>
       <c r="L111" t="s">
         <v>17</v>
       </c>
       <c r="M111" t="s">
-        <v>34</v>
+        <v>56</v>
       </c>
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A112">
-        <v>211112327</v>
+        <v>211112523</v>
       </c>
       <c r="B112" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C112" t="s">
+        <v>14</v>
+      </c>
+      <c r="D112" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E112">
+        <v>7843</v>
+      </c>
+      <c r="F112" t="s">
+        <v>16</v>
+      </c>
+      <c r="G112" s="1">
+        <v>45792.648773148147</v>
+      </c>
+      <c r="H112" s="1">
+        <v>45792.648773148147</v>
+      </c>
+      <c r="I112" s="2">
+        <v>102</v>
+      </c>
+      <c r="J112" s="3">
+        <v>481.94</v>
+      </c>
+      <c r="K112" s="3">
+        <v>481.94</v>
+      </c>
+      <c r="L112" t="s">
+        <v>17</v>
+      </c>
+      <c r="M112" t="s">
         <v>56</v>
       </c>
-      <c r="D112" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E112">
-        <v>4</v>
-      </c>
-      <c r="F112" t="s">
-        <v>16</v>
-      </c>
-      <c r="G112" s="1">
-        <v>45723</v>
-      </c>
-      <c r="H112" s="1">
-        <v>45693</v>
-      </c>
-      <c r="I112" s="2">
-        <v>162</v>
-      </c>
-      <c r="J112" s="3">
-        <v>-26.51</v>
-      </c>
-      <c r="K112" s="3">
-        <v>-26.51</v>
-      </c>
-      <c r="L112" t="s">
-        <v>17</v>
-      </c>
-      <c r="M112" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A113">
-        <v>211112401</v>
-      </c>
-      <c r="B113" t="s">
-        <v>57</v>
-      </c>
-      <c r="C113" t="s">
-        <v>30</v>
-      </c>
-      <c r="D113" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E113" t="s">
-        <v>32</v>
-      </c>
-      <c r="F113" t="s">
-        <v>16</v>
-      </c>
-      <c r="G113" s="1">
-        <v>45755</v>
-      </c>
-      <c r="H113" s="1">
-        <v>45740</v>
-      </c>
-      <c r="I113" s="2">
-        <v>130</v>
-      </c>
-      <c r="J113" s="3">
-        <v>-489.09000000000003</v>
-      </c>
-      <c r="K113" s="3">
-        <v>-109.25</v>
-      </c>
-      <c r="L113" t="s">
-        <v>17</v>
-      </c>
-      <c r="M113" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A114">
-        <v>211112477</v>
-      </c>
-      <c r="B114" t="s">
-        <v>58</v>
-      </c>
-      <c r="C114" t="s">
-        <v>14</v>
-      </c>
-      <c r="D114" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E114">
-        <v>10892</v>
-      </c>
-      <c r="F114" t="s">
-        <v>16</v>
-      </c>
-      <c r="G114" s="1">
-        <v>45906.412418981483</v>
-      </c>
-      <c r="H114" s="1">
-        <v>45861.413124999999</v>
-      </c>
-      <c r="I114" s="2">
-        <v>-21</v>
-      </c>
-      <c r="J114" s="3">
-        <v>89.64</v>
-      </c>
-      <c r="K114" s="3">
-        <v>89.64</v>
-      </c>
-      <c r="L114" t="s">
-        <v>17</v>
-      </c>
-      <c r="M114" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A115">
-        <v>211112477</v>
-      </c>
-      <c r="B115" t="s">
-        <v>58</v>
-      </c>
-      <c r="C115" t="s">
-        <v>14</v>
-      </c>
-      <c r="D115" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E115">
-        <v>11350</v>
-      </c>
-      <c r="F115" t="s">
-        <v>16</v>
-      </c>
-      <c r="G115" s="1">
-        <v>45915.566817129627</v>
-      </c>
-      <c r="H115" s="1">
-        <v>45870.566817129627</v>
-      </c>
-      <c r="I115" s="2">
-        <v>-30</v>
-      </c>
-      <c r="J115" s="3">
-        <v>113.84</v>
-      </c>
-      <c r="K115" s="3">
-        <v>113.84</v>
-      </c>
-      <c r="L115" t="s">
-        <v>17</v>
-      </c>
-      <c r="M115" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A116">
-        <v>211112505</v>
-      </c>
-      <c r="B116" t="s">
-        <v>59</v>
-      </c>
-      <c r="C116" t="s">
-        <v>30</v>
-      </c>
-      <c r="D116" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E116" t="s">
-        <v>32</v>
-      </c>
-      <c r="F116" t="s">
-        <v>16</v>
-      </c>
-      <c r="G116" s="1">
-        <v>45803</v>
-      </c>
-      <c r="H116" s="1">
-        <v>45803</v>
-      </c>
-      <c r="I116" s="2">
-        <v>82</v>
-      </c>
-      <c r="J116" s="3">
-        <v>-350</v>
-      </c>
-      <c r="K116" s="3">
-        <v>-0.24</v>
-      </c>
-      <c r="L116" t="s">
-        <v>17</v>
-      </c>
-      <c r="M116" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A117">
-        <v>211112523</v>
-      </c>
-      <c r="B117" t="s">
-        <v>60</v>
-      </c>
-      <c r="C117" t="s">
-        <v>14</v>
-      </c>
-      <c r="D117" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E117">
-        <v>7843</v>
-      </c>
-      <c r="F117" t="s">
-        <v>16</v>
-      </c>
-      <c r="G117" s="1">
-        <v>45792.648773148147</v>
-      </c>
-      <c r="H117" s="1">
-        <v>45792.648773148147</v>
-      </c>
-      <c r="I117" s="2">
-        <v>92.351226851853426</v>
-      </c>
-      <c r="J117" s="3">
-        <v>481.94</v>
-      </c>
-      <c r="K117" s="3">
-        <v>481.94</v>
-      </c>
-      <c r="L117" t="s">
-        <v>17</v>
-      </c>
-      <c r="M117" t="s">
-        <v>64</v>
-      </c>
+    </row>
+    <row r="113" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D113" s="4"/>
+    </row>
+    <row r="114" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D114" s="4"/>
+    </row>
+    <row r="115" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D115" s="4"/>
+    </row>
+    <row r="116" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D116" s="4"/>
+    </row>
+    <row r="117" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D117" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/RSilva.xlsx
+++ b/RSilva.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Paulo\Desktop\AnaliseDebitos\Comerciais\Comercias_streamlit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3F9D4ED-FD5E-415A-AA41-0E3BA8FDC943}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{514EE742-C53E-4F82-AD95-0864BF81DBE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{625309C2-95EA-4B09-BB51-191061F91C1F}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="671" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="58">
   <si>
     <t>Tipo Conta</t>
   </si>
@@ -119,9 +119,6 @@
     <t>NC</t>
   </si>
   <si>
-    <t>31A60</t>
-  </si>
-  <si>
     <t>RPR</t>
   </si>
   <si>
@@ -203,13 +200,16 @@
     <t>1A5</t>
   </si>
   <si>
-    <t>Aparencia Harmoniosa, Lda.</t>
-  </si>
-  <si>
     <t>91A120</t>
   </si>
   <si>
     <t>Martins &amp; Farias, Lda.</t>
+  </si>
+  <si>
+    <t>Talho Albino Amor - Unipessoal,Lda</t>
+  </si>
+  <si>
+    <t>Frescura Abundante Unip.,Lda</t>
   </si>
 </sst>
 </file>
@@ -594,10 +594,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD349965-A8B5-4EE0-821C-041F97E8ED57}">
-  <dimension ref="A1:M117"/>
+  <dimension ref="A1:M119"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:M112"/>
+    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:M119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -674,7 +674,7 @@
         <v>45881.605497685181</v>
       </c>
       <c r="I2" s="2">
-        <v>-17</v>
+        <v>-12</v>
       </c>
       <c r="J2" s="3">
         <v>235.32</v>
@@ -691,10 +691,10 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>211110244</v>
+        <v>211110152</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s">
         <v>14</v>
@@ -703,25 +703,25 @@
         <v>15</v>
       </c>
       <c r="E3">
-        <v>12152</v>
+        <v>12387</v>
       </c>
       <c r="F3" t="s">
         <v>16</v>
       </c>
       <c r="G3" s="1">
-        <v>45921.411134259259</v>
+        <v>45927.460127314815</v>
       </c>
       <c r="H3" s="1">
-        <v>45891.411145833328</v>
+        <v>45897.460127314815</v>
       </c>
       <c r="I3" s="2">
-        <v>-27</v>
+        <v>-28</v>
       </c>
       <c r="J3" s="3">
-        <v>58.5</v>
+        <v>337.08</v>
       </c>
       <c r="K3" s="3">
-        <v>58.5</v>
+        <v>337.08</v>
       </c>
       <c r="L3" t="s">
         <v>17</v>
@@ -732,10 +732,10 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>211110545</v>
+        <v>211110244</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s">
         <v>14</v>
@@ -744,39 +744,39 @@
         <v>15</v>
       </c>
       <c r="E4">
-        <v>10709</v>
+        <v>12152</v>
       </c>
       <c r="F4" t="s">
         <v>16</v>
       </c>
       <c r="G4" s="1">
-        <v>45885.552534722221</v>
+        <v>45921.411134259259</v>
       </c>
       <c r="H4" s="1">
-        <v>45855.554108796292</v>
+        <v>45891.411145833328</v>
       </c>
       <c r="I4" s="2">
-        <v>9</v>
+        <v>-22</v>
       </c>
       <c r="J4" s="3">
-        <v>195.99</v>
+        <v>58.5</v>
       </c>
       <c r="K4" s="3">
-        <v>195.99</v>
+        <v>58.5</v>
       </c>
       <c r="L4" t="s">
         <v>17</v>
       </c>
       <c r="M4" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>211110545</v>
+        <v>211110244</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" t="s">
         <v>14</v>
@@ -785,31 +785,31 @@
         <v>15</v>
       </c>
       <c r="E5">
-        <v>11019</v>
+        <v>12438</v>
       </c>
       <c r="F5" t="s">
         <v>16</v>
       </c>
       <c r="G5" s="1">
-        <v>45893.454085648147</v>
+        <v>45928.512511574074</v>
       </c>
       <c r="H5" s="1">
-        <v>45863.454097222224</v>
+        <v>45898.512511574074</v>
       </c>
       <c r="I5" s="2">
-        <v>1</v>
+        <v>-29</v>
       </c>
       <c r="J5" s="3">
-        <v>145.12</v>
+        <v>64.92</v>
       </c>
       <c r="K5" s="3">
-        <v>145.12</v>
+        <v>64.92</v>
       </c>
       <c r="L5" t="s">
         <v>17</v>
       </c>
       <c r="M5" t="s">
-        <v>54</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
@@ -826,31 +826,31 @@
         <v>15</v>
       </c>
       <c r="E6">
-        <v>11416</v>
+        <v>10709</v>
       </c>
       <c r="F6" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="G6" s="1">
-        <v>45903.635324074072</v>
+        <v>45885.552534722221</v>
       </c>
       <c r="H6" s="1">
-        <v>45873.635324074072</v>
+        <v>45855.554108796292</v>
       </c>
       <c r="I6" s="2">
-        <v>-9</v>
+        <v>14</v>
       </c>
       <c r="J6" s="3">
-        <v>277.5</v>
+        <v>195.99</v>
       </c>
       <c r="K6" s="3">
-        <v>277.5</v>
+        <v>195.99</v>
       </c>
       <c r="L6" t="s">
         <v>17</v>
       </c>
       <c r="M6" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
@@ -867,31 +867,31 @@
         <v>15</v>
       </c>
       <c r="E7">
-        <v>11765</v>
+        <v>11019</v>
       </c>
       <c r="F7" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="G7" s="1">
-        <v>45911.605474537035</v>
+        <v>45893.454085648147</v>
       </c>
       <c r="H7" s="1">
-        <v>45881.605486111112</v>
+        <v>45863.454097222224</v>
       </c>
       <c r="I7" s="2">
-        <v>-17</v>
+        <v>6</v>
       </c>
       <c r="J7" s="3">
-        <v>98.01</v>
+        <v>145.12</v>
       </c>
       <c r="K7" s="3">
-        <v>98.01</v>
+        <v>145.12</v>
       </c>
       <c r="L7" t="s">
         <v>17</v>
       </c>
       <c r="M7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
@@ -908,25 +908,25 @@
         <v>15</v>
       </c>
       <c r="E8">
-        <v>12025</v>
+        <v>11416</v>
       </c>
       <c r="F8" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="G8" s="1">
-        <v>45918.579594907409</v>
+        <v>45903.635324074072</v>
       </c>
       <c r="H8" s="1">
-        <v>45888.580254629625</v>
+        <v>45873.635324074072</v>
       </c>
       <c r="I8" s="2">
-        <v>-24</v>
+        <v>-4</v>
       </c>
       <c r="J8" s="3">
-        <v>83.54</v>
+        <v>277.5</v>
       </c>
       <c r="K8" s="3">
-        <v>83.54</v>
+        <v>277.5</v>
       </c>
       <c r="L8" t="s">
         <v>17</v>
@@ -949,25 +949,25 @@
         <v>15</v>
       </c>
       <c r="E9">
-        <v>12153</v>
+        <v>11765</v>
       </c>
       <c r="F9" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="G9" s="1">
-        <v>45921.411157407405</v>
+        <v>45911.605474537035</v>
       </c>
       <c r="H9" s="1">
-        <v>45891.411157407405</v>
+        <v>45881.605486111112</v>
       </c>
       <c r="I9" s="2">
-        <v>-27</v>
+        <v>-12</v>
       </c>
       <c r="J9" s="3">
-        <v>124.98</v>
+        <v>98.01</v>
       </c>
       <c r="K9" s="3">
-        <v>124.98</v>
+        <v>98.01</v>
       </c>
       <c r="L9" t="s">
         <v>17</v>
@@ -978,37 +978,37 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>211110629</v>
+        <v>211110545</v>
       </c>
       <c r="B10" t="s">
-        <v>57</v>
+        <v>20</v>
       </c>
       <c r="C10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>15</v>
+        <v>26</v>
+      </c>
+      <c r="D10" s="4">
+        <v>2025</v>
       </c>
       <c r="E10">
-        <v>11947</v>
+        <v>756</v>
       </c>
       <c r="F10" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="G10" s="1">
-        <v>45917.454479166663</v>
+        <v>45912</v>
       </c>
       <c r="H10" s="1">
-        <v>45887.455300925925</v>
+        <v>45882</v>
       </c>
       <c r="I10" s="2">
-        <v>-23</v>
+        <v>-13</v>
       </c>
       <c r="J10" s="3">
-        <v>59.7</v>
+        <v>-138.58000000000001</v>
       </c>
       <c r="K10" s="3">
-        <v>59.7</v>
+        <v>-138.58000000000001</v>
       </c>
       <c r="L10" t="s">
         <v>17</v>
@@ -1019,10 +1019,10 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>211111219</v>
+        <v>211110545</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C11" t="s">
         <v>14</v>
@@ -1031,39 +1031,39 @@
         <v>15</v>
       </c>
       <c r="E11">
-        <v>10289</v>
+        <v>12025</v>
       </c>
       <c r="F11" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="G11" s="1">
-        <v>45876.546064814815</v>
+        <v>45918.579594907409</v>
       </c>
       <c r="H11" s="1">
-        <v>45846.5465162037</v>
+        <v>45888.580254629625</v>
       </c>
       <c r="I11" s="2">
-        <v>18</v>
+        <v>-19</v>
       </c>
       <c r="J11" s="3">
-        <v>157.82</v>
+        <v>83.54</v>
       </c>
       <c r="K11" s="3">
-        <v>157.82</v>
+        <v>83.54</v>
       </c>
       <c r="L11" t="s">
         <v>17</v>
       </c>
       <c r="M11" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>211111219</v>
+        <v>211110545</v>
       </c>
       <c r="B12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C12" t="s">
         <v>14</v>
@@ -1072,39 +1072,39 @@
         <v>15</v>
       </c>
       <c r="E12">
-        <v>10721</v>
+        <v>12153</v>
       </c>
       <c r="F12" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="G12" s="1">
-        <v>45885.593645833331</v>
+        <v>45921.411157407405</v>
       </c>
       <c r="H12" s="1">
-        <v>45855.593657407408</v>
+        <v>45891.411157407405</v>
       </c>
       <c r="I12" s="2">
-        <v>9</v>
+        <v>-22</v>
       </c>
       <c r="J12" s="3">
-        <v>177.07</v>
+        <v>124.98</v>
       </c>
       <c r="K12" s="3">
-        <v>177.07</v>
+        <v>124.98</v>
       </c>
       <c r="L12" t="s">
         <v>17</v>
       </c>
       <c r="M12" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>211111233</v>
+        <v>211110545</v>
       </c>
       <c r="B13" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C13" t="s">
         <v>14</v>
@@ -1113,25 +1113,25 @@
         <v>15</v>
       </c>
       <c r="E13">
-        <v>10893</v>
+        <v>12269</v>
       </c>
       <c r="F13" t="s">
         <v>16</v>
       </c>
       <c r="G13" s="1">
-        <v>45906.413287037038</v>
+        <v>45925.455138888887</v>
       </c>
       <c r="H13" s="1">
-        <v>45861.413842592592</v>
+        <v>45895.45612268518</v>
       </c>
       <c r="I13" s="2">
-        <v>-12</v>
+        <v>-26</v>
       </c>
       <c r="J13" s="3">
-        <v>88.14</v>
+        <v>62.47</v>
       </c>
       <c r="K13" s="3">
-        <v>88.14</v>
+        <v>62.47</v>
       </c>
       <c r="L13" t="s">
         <v>17</v>
@@ -1142,10 +1142,10 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>211111233</v>
+        <v>211110545</v>
       </c>
       <c r="B14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C14" t="s">
         <v>14</v>
@@ -1154,25 +1154,25 @@
         <v>15</v>
       </c>
       <c r="E14">
-        <v>11354</v>
+        <v>12295</v>
       </c>
       <c r="F14" t="s">
         <v>16</v>
       </c>
       <c r="G14" s="1">
-        <v>45915.566932870366</v>
+        <v>45925.579837962963</v>
       </c>
       <c r="H14" s="1">
-        <v>45870.566944444443</v>
+        <v>45895.579837962963</v>
       </c>
       <c r="I14" s="2">
-        <v>-21</v>
+        <v>-26</v>
       </c>
       <c r="J14" s="3">
-        <v>115.95</v>
+        <v>226.17000000000002</v>
       </c>
       <c r="K14" s="3">
-        <v>115.95</v>
+        <v>226.17000000000002</v>
       </c>
       <c r="L14" t="s">
         <v>17</v>
@@ -1183,10 +1183,10 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>211111423</v>
+        <v>211110545</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C15" t="s">
         <v>14</v>
@@ -1195,25 +1195,25 @@
         <v>15</v>
       </c>
       <c r="E15">
-        <v>11404</v>
+        <v>12439</v>
       </c>
       <c r="F15" t="s">
         <v>16</v>
       </c>
       <c r="G15" s="1">
-        <v>45903.565601851849</v>
+        <v>45928.512523148143</v>
       </c>
       <c r="H15" s="1">
-        <v>45873.565613425926</v>
+        <v>45898.51253472222</v>
       </c>
       <c r="I15" s="2">
-        <v>-9</v>
+        <v>-29</v>
       </c>
       <c r="J15" s="3">
-        <v>292.47000000000003</v>
+        <v>151.22999999999999</v>
       </c>
       <c r="K15" s="3">
-        <v>292.47000000000003</v>
+        <v>151.22999999999999</v>
       </c>
       <c r="L15" t="s">
         <v>17</v>
@@ -1224,10 +1224,10 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>211111423</v>
+        <v>211110545</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C16" t="s">
         <v>14</v>
@@ -1236,25 +1236,25 @@
         <v>15</v>
       </c>
       <c r="E16">
-        <v>11714</v>
+        <v>12441</v>
       </c>
       <c r="F16" t="s">
         <v>16</v>
       </c>
       <c r="G16" s="1">
-        <v>45910.507210648146</v>
+        <v>45928.512777777774</v>
       </c>
       <c r="H16" s="1">
-        <v>45880.507210648146</v>
+        <v>45898.512777777774</v>
       </c>
       <c r="I16" s="2">
-        <v>-16</v>
+        <v>-29</v>
       </c>
       <c r="J16" s="3">
-        <v>404.05</v>
+        <v>78.900000000000006</v>
       </c>
       <c r="K16" s="3">
-        <v>404.05</v>
+        <v>78.900000000000006</v>
       </c>
       <c r="L16" t="s">
         <v>17</v>
@@ -1265,10 +1265,10 @@
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>211111423</v>
+        <v>211110629</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>55</v>
       </c>
       <c r="C17" t="s">
         <v>14</v>
@@ -1277,25 +1277,25 @@
         <v>15</v>
       </c>
       <c r="E17">
-        <v>11970</v>
+        <v>11947</v>
       </c>
       <c r="F17" t="s">
         <v>16</v>
       </c>
       <c r="G17" s="1">
-        <v>45917.595486111109</v>
+        <v>45917.454479166663</v>
       </c>
       <c r="H17" s="1">
-        <v>45887.595671296294</v>
+        <v>45887.455300925925</v>
       </c>
       <c r="I17" s="2">
-        <v>-23</v>
+        <v>-18</v>
       </c>
       <c r="J17" s="3">
-        <v>289.48</v>
+        <v>59.7</v>
       </c>
       <c r="K17" s="3">
-        <v>289.48</v>
+        <v>59.7</v>
       </c>
       <c r="L17" t="s">
         <v>17</v>
@@ -1306,51 +1306,51 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>211111556</v>
+        <v>211111219</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
-      </c>
-      <c r="D18" s="4">
-        <v>2025</v>
+        <v>14</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="E18">
-        <v>438</v>
+        <v>10289</v>
       </c>
       <c r="F18" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="G18" s="1">
-        <v>45816</v>
+        <v>45876.546064814815</v>
       </c>
       <c r="H18" s="1">
-        <v>45786</v>
+        <v>45846.5465162037</v>
       </c>
       <c r="I18" s="2">
-        <v>78</v>
+        <v>23</v>
       </c>
       <c r="J18" s="3">
-        <v>-54.99</v>
+        <v>157.82</v>
       </c>
       <c r="K18" s="3">
-        <v>-54.99</v>
+        <v>157.82</v>
       </c>
       <c r="L18" t="s">
         <v>17</v>
       </c>
       <c r="M18" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>211111556</v>
+        <v>211111219</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C19" t="s">
         <v>14</v>
@@ -1359,25 +1359,25 @@
         <v>15</v>
       </c>
       <c r="E19">
-        <v>10029</v>
+        <v>10721</v>
       </c>
       <c r="F19" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="G19" s="1">
-        <v>45871.468414351853</v>
+        <v>45885.593645833331</v>
       </c>
       <c r="H19" s="1">
-        <v>45841.468414351853</v>
+        <v>45855.593657407408</v>
       </c>
       <c r="I19" s="2">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="J19" s="3">
-        <v>328.56</v>
+        <v>177.07</v>
       </c>
       <c r="K19" s="3">
-        <v>328.56</v>
+        <v>177.07</v>
       </c>
       <c r="L19" t="s">
         <v>17</v>
@@ -1388,37 +1388,37 @@
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>211111556</v>
+        <v>211111233</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
-      </c>
-      <c r="D20" s="4">
-        <v>2025</v>
+        <v>14</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="E20">
-        <v>701</v>
+        <v>10893</v>
       </c>
       <c r="F20" t="s">
         <v>16</v>
       </c>
       <c r="G20" s="1">
-        <v>45896</v>
+        <v>45906.413287037038</v>
       </c>
       <c r="H20" s="1">
-        <v>45866</v>
+        <v>45861.413842592592</v>
       </c>
       <c r="I20" s="2">
-        <v>-2</v>
+        <v>-7</v>
       </c>
       <c r="J20" s="3">
-        <v>-26.240000000000002</v>
+        <v>88.14</v>
       </c>
       <c r="K20" s="3">
-        <v>-26.240000000000002</v>
+        <v>88.14</v>
       </c>
       <c r="L20" t="s">
         <v>17</v>
@@ -1429,10 +1429,10 @@
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>211111556</v>
+        <v>211111233</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C21" t="s">
         <v>14</v>
@@ -1441,25 +1441,25 @@
         <v>15</v>
       </c>
       <c r="E21">
-        <v>11112</v>
+        <v>11354</v>
       </c>
       <c r="F21" t="s">
         <v>16</v>
       </c>
       <c r="G21" s="1">
-        <v>45896.528356481482</v>
+        <v>45915.566932870366</v>
       </c>
       <c r="H21" s="1">
-        <v>45866.528368055551</v>
+        <v>45870.566944444443</v>
       </c>
       <c r="I21" s="2">
-        <v>-2</v>
+        <v>-16</v>
       </c>
       <c r="J21" s="3">
-        <v>471.41</v>
+        <v>115.95</v>
       </c>
       <c r="K21" s="3">
-        <v>471.41</v>
+        <v>115.95</v>
       </c>
       <c r="L21" t="s">
         <v>17</v>
@@ -1470,37 +1470,37 @@
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>211111559</v>
+        <v>211111423</v>
       </c>
       <c r="B22" t="s">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="C22" t="s">
-        <v>26</v>
-      </c>
-      <c r="D22" s="4">
-        <v>2025</v>
+        <v>14</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="E22">
-        <v>703</v>
+        <v>11404</v>
       </c>
       <c r="F22" t="s">
         <v>16</v>
       </c>
       <c r="G22" s="1">
-        <v>45896</v>
+        <v>45903.565601851849</v>
       </c>
       <c r="H22" s="1">
-        <v>45866</v>
+        <v>45873.565613425926</v>
       </c>
       <c r="I22" s="2">
-        <v>-2</v>
+        <v>-4</v>
       </c>
       <c r="J22" s="3">
-        <v>-2.41</v>
+        <v>292.47000000000003</v>
       </c>
       <c r="K22" s="3">
-        <v>-2.41</v>
+        <v>292.47000000000003</v>
       </c>
       <c r="L22" t="s">
         <v>17</v>
@@ -1511,37 +1511,37 @@
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>211111559</v>
+        <v>211111423</v>
       </c>
       <c r="B23" t="s">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="C23" t="s">
-        <v>14</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>15</v>
+        <v>26</v>
+      </c>
+      <c r="D23" s="4">
+        <v>2025</v>
       </c>
       <c r="E23">
-        <v>11105</v>
+        <v>748</v>
       </c>
       <c r="F23" t="s">
         <v>16</v>
       </c>
       <c r="G23" s="1">
-        <v>45896.528148148143</v>
+        <v>45908</v>
       </c>
       <c r="H23" s="1">
-        <v>45866.528148148143</v>
+        <v>45878</v>
       </c>
       <c r="I23" s="2">
-        <v>-2</v>
+        <v>-9</v>
       </c>
       <c r="J23" s="3">
-        <v>673.51</v>
+        <v>-45.9</v>
       </c>
       <c r="K23" s="3">
-        <v>673.51</v>
+        <v>-45.9</v>
       </c>
       <c r="L23" t="s">
         <v>17</v>
@@ -1552,10 +1552,10 @@
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>211111559</v>
+        <v>211111423</v>
       </c>
       <c r="B24" t="s">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="C24" t="s">
         <v>14</v>
@@ -1564,25 +1564,25 @@
         <v>15</v>
       </c>
       <c r="E24">
-        <v>11408</v>
+        <v>11714</v>
       </c>
       <c r="F24" t="s">
         <v>16</v>
       </c>
       <c r="G24" s="1">
-        <v>45903.568749999999</v>
+        <v>45910.507210648146</v>
       </c>
       <c r="H24" s="1">
-        <v>45873.568761574075</v>
+        <v>45880.507210648146</v>
       </c>
       <c r="I24" s="2">
-        <v>-9</v>
+        <v>-11</v>
       </c>
       <c r="J24" s="3">
-        <v>684.17</v>
+        <v>404.05</v>
       </c>
       <c r="K24" s="3">
-        <v>684.17</v>
+        <v>404.05</v>
       </c>
       <c r="L24" t="s">
         <v>17</v>
@@ -1593,37 +1593,37 @@
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>211111559</v>
+        <v>211111423</v>
       </c>
       <c r="B25" t="s">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="C25" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="D25" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E25">
-        <v>543</v>
+        <v>11970</v>
       </c>
       <c r="F25" t="s">
         <v>16</v>
       </c>
       <c r="G25" s="1">
-        <v>45905</v>
+        <v>45917.595486111109</v>
       </c>
       <c r="H25" s="1">
-        <v>45875</v>
+        <v>45887.595671296294</v>
       </c>
       <c r="I25" s="2">
-        <v>-11</v>
+        <v>-18</v>
       </c>
       <c r="J25" s="3">
-        <v>-2.86</v>
+        <v>289.48</v>
       </c>
       <c r="K25" s="3">
-        <v>-2.86</v>
+        <v>289.48</v>
       </c>
       <c r="L25" t="s">
         <v>17</v>
@@ -1634,10 +1634,10 @@
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>211111559</v>
+        <v>211111423</v>
       </c>
       <c r="B26" t="s">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="C26" t="s">
         <v>14</v>
@@ -1646,25 +1646,25 @@
         <v>15</v>
       </c>
       <c r="E26">
-        <v>11710</v>
+        <v>12236</v>
       </c>
       <c r="F26" t="s">
         <v>16</v>
       </c>
       <c r="G26" s="1">
-        <v>45910.507071759261</v>
+        <v>45924.554791666662</v>
       </c>
       <c r="H26" s="1">
-        <v>45880.507071759261</v>
+        <v>45894.554791666662</v>
       </c>
       <c r="I26" s="2">
-        <v>-16</v>
+        <v>-25</v>
       </c>
       <c r="J26" s="3">
-        <v>662.38</v>
+        <v>229.02</v>
       </c>
       <c r="K26" s="3">
-        <v>662.38</v>
+        <v>229.02</v>
       </c>
       <c r="L26" t="s">
         <v>17</v>
@@ -1675,10 +1675,10 @@
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>211111559</v>
+        <v>211111423</v>
       </c>
       <c r="B27" t="s">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="C27" t="s">
         <v>14</v>
@@ -1687,25 +1687,25 @@
         <v>15</v>
       </c>
       <c r="E27">
-        <v>11969</v>
+        <v>12382</v>
       </c>
       <c r="F27" t="s">
         <v>16</v>
       </c>
       <c r="G27" s="1">
-        <v>45917.591666666667</v>
+        <v>45927.434490740736</v>
       </c>
       <c r="H27" s="1">
-        <v>45887.595266203702</v>
+        <v>45897.434490740736</v>
       </c>
       <c r="I27" s="2">
-        <v>-23</v>
+        <v>-28</v>
       </c>
       <c r="J27" s="3">
-        <v>242.53</v>
+        <v>35.07</v>
       </c>
       <c r="K27" s="3">
-        <v>242.53</v>
+        <v>35.07</v>
       </c>
       <c r="L27" t="s">
         <v>17</v>
@@ -1716,92 +1716,92 @@
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>211111567</v>
+        <v>211111556</v>
       </c>
       <c r="B28" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C28" t="s">
-        <v>14</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>15</v>
+        <v>26</v>
+      </c>
+      <c r="D28" s="4">
+        <v>2025</v>
       </c>
       <c r="E28">
-        <v>10215</v>
+        <v>438</v>
       </c>
       <c r="F28" t="s">
         <v>16</v>
       </c>
       <c r="G28" s="1">
-        <v>45875.482060185182</v>
+        <v>45816</v>
       </c>
       <c r="H28" s="1">
-        <v>45845.482060185182</v>
+        <v>45786</v>
       </c>
       <c r="I28" s="2">
-        <v>19</v>
+        <v>83</v>
       </c>
       <c r="J28" s="3">
-        <v>280.28000000000003</v>
+        <v>-54.99</v>
       </c>
       <c r="K28" s="3">
-        <v>280.28000000000003</v>
+        <v>-12.11</v>
       </c>
       <c r="L28" t="s">
         <v>17</v>
       </c>
       <c r="M28" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>211111567</v>
+        <v>211111556</v>
       </c>
       <c r="B29" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C29" t="s">
         <v>26</v>
       </c>
-      <c r="D29" s="4" t="s">
-        <v>15</v>
+      <c r="D29" s="4">
+        <v>2025</v>
       </c>
       <c r="E29">
-        <v>518</v>
+        <v>701</v>
       </c>
       <c r="F29" t="s">
         <v>16</v>
       </c>
       <c r="G29" s="1">
-        <v>45878</v>
+        <v>45896</v>
       </c>
       <c r="H29" s="1">
-        <v>45848</v>
+        <v>45866</v>
       </c>
       <c r="I29" s="2">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="J29" s="3">
-        <v>-4.63</v>
+        <v>-26.240000000000002</v>
       </c>
       <c r="K29" s="3">
-        <v>-4.63</v>
+        <v>-26.240000000000002</v>
       </c>
       <c r="L29" t="s">
         <v>17</v>
       </c>
       <c r="M29" t="s">
-        <v>23</v>
+        <v>53</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>211111567</v>
+        <v>211111556</v>
       </c>
       <c r="B30" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C30" t="s">
         <v>14</v>
@@ -1810,39 +1810,39 @@
         <v>15</v>
       </c>
       <c r="E30">
-        <v>10408</v>
+        <v>11112</v>
       </c>
       <c r="F30" t="s">
         <v>16</v>
       </c>
       <c r="G30" s="1">
-        <v>45878.421249999999</v>
+        <v>45896.528356481482</v>
       </c>
       <c r="H30" s="1">
-        <v>45848.421249999999</v>
+        <v>45866.528368055551</v>
       </c>
       <c r="I30" s="2">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="J30" s="3">
-        <v>167.72</v>
+        <v>471.41</v>
       </c>
       <c r="K30" s="3">
-        <v>167.72</v>
+        <v>471.41</v>
       </c>
       <c r="L30" t="s">
         <v>17</v>
       </c>
       <c r="M30" t="s">
-        <v>23</v>
+        <v>53</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>211111567</v>
+        <v>211111556</v>
       </c>
       <c r="B31" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C31" t="s">
         <v>14</v>
@@ -1851,80 +1851,80 @@
         <v>15</v>
       </c>
       <c r="E31">
-        <v>10524</v>
+        <v>12383</v>
       </c>
       <c r="F31" t="s">
         <v>16</v>
       </c>
       <c r="G31" s="1">
-        <v>45882.489189814813</v>
+        <v>45927.434513888889</v>
       </c>
       <c r="H31" s="1">
-        <v>45852.489189814813</v>
+        <v>45897.434513888889</v>
       </c>
       <c r="I31" s="2">
-        <v>12</v>
+        <v>-28</v>
       </c>
       <c r="J31" s="3">
-        <v>301.11</v>
+        <v>570.03</v>
       </c>
       <c r="K31" s="5">
-        <v>301.11</v>
+        <v>570.03</v>
       </c>
       <c r="L31" t="s">
         <v>17</v>
       </c>
       <c r="M31" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>211111567</v>
+        <v>211111559</v>
       </c>
       <c r="B32" t="s">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="C32" t="s">
-        <v>14</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>15</v>
+        <v>26</v>
+      </c>
+      <c r="D32" s="4">
+        <v>2025</v>
       </c>
       <c r="E32">
-        <v>10704</v>
+        <v>703</v>
       </c>
       <c r="F32" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="G32" s="1">
-        <v>45885.498472222222</v>
+        <v>45896</v>
       </c>
       <c r="H32" s="1">
-        <v>45855.498472222222</v>
+        <v>45866</v>
       </c>
       <c r="I32" s="2">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="J32" s="3">
-        <v>266.19</v>
+        <v>-2.41</v>
       </c>
       <c r="K32" s="3">
-        <v>266.19</v>
+        <v>-2.41</v>
       </c>
       <c r="L32" t="s">
         <v>17</v>
       </c>
       <c r="M32" t="s">
-        <v>23</v>
+        <v>53</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>211111567</v>
+        <v>211111559</v>
       </c>
       <c r="B33" t="s">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="C33" t="s">
         <v>14</v>
@@ -1933,39 +1933,39 @@
         <v>15</v>
       </c>
       <c r="E33">
-        <v>10993</v>
+        <v>11105</v>
       </c>
       <c r="F33" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="G33" s="1">
-        <v>45892.493587962963</v>
+        <v>45896.528148148143</v>
       </c>
       <c r="H33" s="1">
-        <v>45862.493599537032</v>
+        <v>45866.528148148143</v>
       </c>
       <c r="I33" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J33" s="3">
-        <v>57.02</v>
+        <v>673.51</v>
       </c>
       <c r="K33" s="5">
-        <v>57.02</v>
+        <v>673.51</v>
       </c>
       <c r="L33" t="s">
         <v>17</v>
       </c>
       <c r="M33" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>211111567</v>
+        <v>211111559</v>
       </c>
       <c r="B34" t="s">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="C34" t="s">
         <v>14</v>
@@ -1974,25 +1974,25 @@
         <v>15</v>
       </c>
       <c r="E34">
-        <v>11110</v>
+        <v>11408</v>
       </c>
       <c r="F34" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="G34" s="1">
-        <v>45926.528310185182</v>
+        <v>45903.568749999999</v>
       </c>
       <c r="H34" s="1">
-        <v>45866.528310185182</v>
+        <v>45873.568761574075</v>
       </c>
       <c r="I34" s="2">
-        <v>-32</v>
+        <v>-4</v>
       </c>
       <c r="J34" s="3">
-        <v>290.05</v>
+        <v>684.17</v>
       </c>
       <c r="K34" s="3">
-        <v>290.05</v>
+        <v>684.17</v>
       </c>
       <c r="L34" t="s">
         <v>17</v>
@@ -2003,37 +2003,37 @@
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>211111567</v>
+        <v>211111559</v>
       </c>
       <c r="B35" t="s">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="C35" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="D35" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E35">
-        <v>11283</v>
+        <v>543</v>
       </c>
       <c r="F35" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="G35" s="1">
-        <v>45929.501446759255</v>
+        <v>45905</v>
       </c>
       <c r="H35" s="1">
-        <v>45869.501446759255</v>
+        <v>45875</v>
       </c>
       <c r="I35" s="2">
-        <v>-35</v>
+        <v>-6</v>
       </c>
       <c r="J35" s="3">
-        <v>512.48</v>
+        <v>-2.86</v>
       </c>
       <c r="K35" s="3">
-        <v>512.48</v>
+        <v>-2.86</v>
       </c>
       <c r="L35" t="s">
         <v>17</v>
@@ -2044,10 +2044,10 @@
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>211111567</v>
+        <v>211111559</v>
       </c>
       <c r="B36" t="s">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="C36" t="s">
         <v>14</v>
@@ -2056,25 +2056,25 @@
         <v>15</v>
       </c>
       <c r="E36">
-        <v>11403</v>
+        <v>11710</v>
       </c>
       <c r="F36" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="G36" s="1">
-        <v>45933.565578703703</v>
+        <v>45910.507071759261</v>
       </c>
       <c r="H36" s="1">
-        <v>45873.565578703703</v>
+        <v>45880.507071759261</v>
       </c>
       <c r="I36" s="2">
-        <v>-39</v>
+        <v>-11</v>
       </c>
       <c r="J36" s="3">
-        <v>369.45</v>
+        <v>662.38</v>
       </c>
       <c r="K36" s="3">
-        <v>369.45</v>
+        <v>662.38</v>
       </c>
       <c r="L36" t="s">
         <v>17</v>
@@ -2085,10 +2085,10 @@
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>211111567</v>
+        <v>211111559</v>
       </c>
       <c r="B37" t="s">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="C37" t="s">
         <v>14</v>
@@ -2097,25 +2097,25 @@
         <v>15</v>
       </c>
       <c r="E37">
-        <v>11585</v>
+        <v>11969</v>
       </c>
       <c r="F37" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="G37" s="1">
-        <v>45936.517835648148</v>
+        <v>45917.591666666667</v>
       </c>
       <c r="H37" s="1">
-        <v>45876.518402777772</v>
+        <v>45887.595266203702</v>
       </c>
       <c r="I37" s="2">
-        <v>-42</v>
+        <v>-18</v>
       </c>
       <c r="J37" s="3">
-        <v>288.54000000000002</v>
+        <v>242.53</v>
       </c>
       <c r="K37" s="3">
-        <v>288.54000000000002</v>
+        <v>242.53</v>
       </c>
       <c r="L37" t="s">
         <v>17</v>
@@ -2126,37 +2126,37 @@
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>211111567</v>
+        <v>211111559</v>
       </c>
       <c r="B38" t="s">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="C38" t="s">
-        <v>26</v>
-      </c>
-      <c r="D38" s="4">
-        <v>2025</v>
+        <v>14</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="E38">
-        <v>745</v>
+        <v>12234</v>
       </c>
       <c r="F38" t="s">
         <v>16</v>
       </c>
       <c r="G38" s="1">
-        <v>45938</v>
+        <v>45924.554733796293</v>
       </c>
       <c r="H38" s="1">
-        <v>45878</v>
+        <v>45894.554733796293</v>
       </c>
       <c r="I38" s="2">
-        <v>-44</v>
+        <v>-25</v>
       </c>
       <c r="J38" s="3">
-        <v>-5.3100000000000005</v>
+        <v>496.26</v>
       </c>
       <c r="K38" s="3">
-        <v>-5.3100000000000005</v>
+        <v>496.26</v>
       </c>
       <c r="L38" t="s">
         <v>17</v>
@@ -2170,7 +2170,7 @@
         <v>211111567</v>
       </c>
       <c r="B39" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C39" t="s">
         <v>14</v>
@@ -2179,25 +2179,25 @@
         <v>15</v>
       </c>
       <c r="E39">
-        <v>11903</v>
+        <v>11403</v>
       </c>
       <c r="F39" t="s">
         <v>16</v>
       </c>
       <c r="G39" s="1">
-        <v>45943.465833333328</v>
+        <v>45933.565578703703</v>
       </c>
       <c r="H39" s="1">
-        <v>45883.465833333328</v>
+        <v>45873.565578703703</v>
       </c>
       <c r="I39" s="2">
-        <v>-49</v>
+        <v>-34</v>
       </c>
       <c r="J39" s="3">
-        <v>489.1</v>
+        <v>369.45</v>
       </c>
       <c r="K39" s="3">
-        <v>489.1</v>
+        <v>369.45</v>
       </c>
       <c r="L39" t="s">
         <v>17</v>
@@ -2211,7 +2211,7 @@
         <v>211111567</v>
       </c>
       <c r="B40" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C40" t="s">
         <v>14</v>
@@ -2220,25 +2220,25 @@
         <v>15</v>
       </c>
       <c r="E40">
-        <v>12139</v>
+        <v>11585</v>
       </c>
       <c r="F40" t="s">
         <v>16</v>
       </c>
       <c r="G40" s="1">
-        <v>45950.630543981482</v>
+        <v>45936.517835648148</v>
       </c>
       <c r="H40" s="1">
-        <v>45890.630543981482</v>
+        <v>45876.518402777772</v>
       </c>
       <c r="I40" s="2">
-        <v>-56</v>
+        <v>-37</v>
       </c>
       <c r="J40" s="3">
-        <v>128.79</v>
+        <v>288.54000000000002</v>
       </c>
       <c r="K40" s="3">
-        <v>128.79</v>
+        <v>288.54000000000002</v>
       </c>
       <c r="L40" t="s">
         <v>17</v>
@@ -2249,51 +2249,51 @@
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>211111832</v>
+        <v>211111567</v>
       </c>
       <c r="B41" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C41" t="s">
-        <v>14</v>
-      </c>
-      <c r="D41" s="4" t="s">
-        <v>15</v>
+        <v>26</v>
+      </c>
+      <c r="D41" s="4">
+        <v>2025</v>
       </c>
       <c r="E41">
-        <v>8724</v>
+        <v>745</v>
       </c>
       <c r="F41" t="s">
         <v>16</v>
       </c>
       <c r="G41" s="1">
-        <v>45840.417569444442</v>
+        <v>45938</v>
       </c>
       <c r="H41" s="1">
-        <v>45810.426018518519</v>
+        <v>45878</v>
       </c>
       <c r="I41" s="2">
-        <v>54</v>
+        <v>-39</v>
       </c>
       <c r="J41" s="3">
-        <v>126.35000000000001</v>
+        <v>-5.3100000000000005</v>
       </c>
       <c r="K41" s="3">
-        <v>126.35000000000001</v>
+        <v>-5.3100000000000005</v>
       </c>
       <c r="L41" t="s">
         <v>17</v>
       </c>
       <c r="M41" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>211111832</v>
+        <v>211111567</v>
       </c>
       <c r="B42" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C42" t="s">
         <v>14</v>
@@ -2302,39 +2302,39 @@
         <v>15</v>
       </c>
       <c r="E42">
-        <v>8939</v>
+        <v>11903</v>
       </c>
       <c r="F42" t="s">
         <v>16</v>
       </c>
       <c r="G42" s="1">
-        <v>45843.550532407404</v>
+        <v>45943.465833333328</v>
       </c>
       <c r="H42" s="1">
-        <v>45813.574108796296</v>
+        <v>45883.465833333328</v>
       </c>
       <c r="I42" s="2">
-        <v>51</v>
+        <v>-44</v>
       </c>
       <c r="J42" s="3">
-        <v>391.52</v>
+        <v>489.1</v>
       </c>
       <c r="K42" s="3">
-        <v>391.52</v>
+        <v>489.1</v>
       </c>
       <c r="L42" t="s">
         <v>17</v>
       </c>
       <c r="M42" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>211111832</v>
+        <v>211111567</v>
       </c>
       <c r="B43" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C43" t="s">
         <v>14</v>
@@ -2343,39 +2343,39 @@
         <v>15</v>
       </c>
       <c r="E43">
-        <v>8968</v>
+        <v>12139</v>
       </c>
       <c r="F43" t="s">
         <v>16</v>
       </c>
       <c r="G43" s="1">
-        <v>45847.378715277773</v>
+        <v>45950.630543981482</v>
       </c>
       <c r="H43" s="1">
-        <v>45817.381168981483</v>
+        <v>45890.630543981482</v>
       </c>
       <c r="I43" s="2">
-        <v>47</v>
+        <v>-51</v>
       </c>
       <c r="J43" s="3">
-        <v>59.06</v>
+        <v>128.79</v>
       </c>
       <c r="K43" s="3">
-        <v>59.06</v>
+        <v>128.79</v>
       </c>
       <c r="L43" t="s">
         <v>17</v>
       </c>
       <c r="M43" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>211111832</v>
+        <v>211111567</v>
       </c>
       <c r="B44" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C44" t="s">
         <v>14</v>
@@ -2384,39 +2384,39 @@
         <v>15</v>
       </c>
       <c r="E44">
-        <v>9148</v>
+        <v>12380</v>
       </c>
       <c r="F44" t="s">
         <v>16</v>
       </c>
       <c r="G44" s="1">
-        <v>45850.450706018513</v>
+        <v>45957.434432870366</v>
       </c>
       <c r="H44" s="1">
-        <v>45820.452037037037</v>
+        <v>45897.434432870366</v>
       </c>
       <c r="I44" s="2">
-        <v>44</v>
+        <v>-58</v>
       </c>
       <c r="J44" s="3">
-        <v>314.43</v>
+        <v>97.75</v>
       </c>
       <c r="K44" s="3">
-        <v>314.43</v>
+        <v>97.75</v>
       </c>
       <c r="L44" t="s">
         <v>17</v>
       </c>
       <c r="M44" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>211111832</v>
+        <v>211111594</v>
       </c>
       <c r="B45" t="s">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="C45" t="s">
         <v>14</v>
@@ -2425,31 +2425,31 @@
         <v>15</v>
       </c>
       <c r="E45">
-        <v>9510</v>
+        <v>12381</v>
       </c>
       <c r="F45" t="s">
         <v>16</v>
       </c>
       <c r="G45" s="1">
-        <v>45858.516712962963</v>
+        <v>45927.43445601852</v>
       </c>
       <c r="H45" s="1">
-        <v>45828.517974537033</v>
+        <v>45897.434467592589</v>
       </c>
       <c r="I45" s="2">
-        <v>36</v>
+        <v>-28</v>
       </c>
       <c r="J45" s="3">
-        <v>394.83</v>
+        <v>242.84</v>
       </c>
       <c r="K45" s="3">
-        <v>394.83</v>
+        <v>242.84</v>
       </c>
       <c r="L45" t="s">
         <v>17</v>
       </c>
       <c r="M45" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
@@ -2457,7 +2457,7 @@
         <v>211111832</v>
       </c>
       <c r="B46" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C46" t="s">
         <v>14</v>
@@ -2466,25 +2466,25 @@
         <v>15</v>
       </c>
       <c r="E46">
-        <v>9764</v>
+        <v>10015</v>
       </c>
       <c r="F46" t="s">
         <v>16</v>
       </c>
       <c r="G46" s="1">
-        <v>45864.422581018516</v>
+        <v>45870.643773148149</v>
       </c>
       <c r="H46" s="1">
-        <v>45834.424537037034</v>
+        <v>45840.645138888889</v>
       </c>
       <c r="I46" s="2">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J46" s="3">
-        <v>340.11</v>
+        <v>163.52000000000001</v>
       </c>
       <c r="K46" s="3">
-        <v>340.11</v>
+        <v>163.52000000000001</v>
       </c>
       <c r="L46" t="s">
         <v>17</v>
@@ -2498,7 +2498,7 @@
         <v>211111832</v>
       </c>
       <c r="B47" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C47" t="s">
         <v>14</v>
@@ -2507,25 +2507,25 @@
         <v>15</v>
       </c>
       <c r="E47">
-        <v>10015</v>
+        <v>10073</v>
       </c>
       <c r="F47" t="s">
         <v>16</v>
       </c>
       <c r="G47" s="1">
-        <v>45870.643773148149</v>
+        <v>45871.54855324074</v>
       </c>
       <c r="H47" s="1">
-        <v>45840.645138888889</v>
+        <v>45841.54855324074</v>
       </c>
       <c r="I47" s="2">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J47" s="3">
-        <v>163.52000000000001</v>
+        <v>159.94</v>
       </c>
       <c r="K47" s="3">
-        <v>163.52000000000001</v>
+        <v>159.94</v>
       </c>
       <c r="L47" t="s">
         <v>17</v>
@@ -2539,7 +2539,7 @@
         <v>211111832</v>
       </c>
       <c r="B48" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C48" t="s">
         <v>14</v>
@@ -2548,25 +2548,25 @@
         <v>15</v>
       </c>
       <c r="E48">
-        <v>10073</v>
+        <v>10208</v>
       </c>
       <c r="F48" t="s">
         <v>16</v>
       </c>
       <c r="G48" s="1">
-        <v>45871.54855324074</v>
+        <v>45875.481840277775</v>
       </c>
       <c r="H48" s="1">
-        <v>45841.54855324074</v>
+        <v>45845.481840277775</v>
       </c>
       <c r="I48" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J48" s="3">
-        <v>159.94</v>
+        <v>69.59</v>
       </c>
       <c r="K48" s="5">
-        <v>159.94</v>
+        <v>69.59</v>
       </c>
       <c r="L48" t="s">
         <v>17</v>
@@ -2580,7 +2580,7 @@
         <v>211111832</v>
       </c>
       <c r="B49" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C49" t="s">
         <v>14</v>
@@ -2589,25 +2589,25 @@
         <v>15</v>
       </c>
       <c r="E49">
-        <v>10208</v>
+        <v>10415</v>
       </c>
       <c r="F49" t="s">
         <v>16</v>
       </c>
       <c r="G49" s="1">
-        <v>45875.481840277775</v>
+        <v>45878.428206018514</v>
       </c>
       <c r="H49" s="1">
-        <v>45845.481840277775</v>
+        <v>45848.428217592591</v>
       </c>
       <c r="I49" s="2">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J49" s="3">
-        <v>69.59</v>
+        <v>362.03000000000003</v>
       </c>
       <c r="K49" s="3">
-        <v>69.59</v>
+        <v>362.03000000000003</v>
       </c>
       <c r="L49" t="s">
         <v>17</v>
@@ -2621,7 +2621,7 @@
         <v>211111832</v>
       </c>
       <c r="B50" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C50" t="s">
         <v>14</v>
@@ -2630,25 +2630,25 @@
         <v>15</v>
       </c>
       <c r="E50">
-        <v>10415</v>
+        <v>10701</v>
       </c>
       <c r="F50" t="s">
         <v>16</v>
       </c>
       <c r="G50" s="1">
-        <v>45878.428206018514</v>
+        <v>45885.498379629629</v>
       </c>
       <c r="H50" s="1">
-        <v>45848.428217592591</v>
+        <v>45855.498391203699</v>
       </c>
       <c r="I50" s="2">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J50" s="3">
-        <v>362.03000000000003</v>
+        <v>414.34000000000003</v>
       </c>
       <c r="K50" s="3">
-        <v>362.03000000000003</v>
+        <v>414.34000000000003</v>
       </c>
       <c r="L50" t="s">
         <v>17</v>
@@ -2662,7 +2662,7 @@
         <v>211111832</v>
       </c>
       <c r="B51" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C51" t="s">
         <v>14</v>
@@ -2671,25 +2671,25 @@
         <v>15</v>
       </c>
       <c r="E51">
-        <v>10701</v>
+        <v>10827</v>
       </c>
       <c r="F51" t="s">
         <v>16</v>
       </c>
       <c r="G51" s="1">
-        <v>45885.498379629629</v>
+        <v>45889.495150462964</v>
       </c>
       <c r="H51" s="1">
-        <v>45855.498391203699</v>
+        <v>45859.495150462964</v>
       </c>
       <c r="I51" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J51" s="3">
-        <v>414.34000000000003</v>
+        <v>55.44</v>
       </c>
       <c r="K51" s="3">
-        <v>414.34000000000003</v>
+        <v>55.44</v>
       </c>
       <c r="L51" t="s">
         <v>17</v>
@@ -2703,7 +2703,7 @@
         <v>211111832</v>
       </c>
       <c r="B52" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C52" t="s">
         <v>14</v>
@@ -2712,31 +2712,31 @@
         <v>15</v>
       </c>
       <c r="E52">
-        <v>10827</v>
+        <v>10991</v>
       </c>
       <c r="F52" t="s">
         <v>16</v>
       </c>
       <c r="G52" s="1">
-        <v>45889.495150462964</v>
+        <v>45892.492847222224</v>
       </c>
       <c r="H52" s="1">
-        <v>45859.495150462964</v>
+        <v>45862.492905092593</v>
       </c>
       <c r="I52" s="2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J52" s="3">
-        <v>55.44</v>
+        <v>366.97</v>
       </c>
       <c r="K52" s="3">
-        <v>55.44</v>
+        <v>366.97</v>
       </c>
       <c r="L52" t="s">
         <v>17</v>
       </c>
       <c r="M52" t="s">
-        <v>54</v>
+        <v>23</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.25">
@@ -2744,7 +2744,7 @@
         <v>211111832</v>
       </c>
       <c r="B53" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C53" t="s">
         <v>14</v>
@@ -2753,31 +2753,31 @@
         <v>15</v>
       </c>
       <c r="E53">
-        <v>10991</v>
+        <v>11106</v>
       </c>
       <c r="F53" t="s">
         <v>16</v>
       </c>
       <c r="G53" s="1">
-        <v>45892.492847222224</v>
+        <v>45926.528171296297</v>
       </c>
       <c r="H53" s="1">
-        <v>45862.492905092593</v>
+        <v>45866.528182870366</v>
       </c>
       <c r="I53" s="2">
-        <v>2</v>
+        <v>-27</v>
       </c>
       <c r="J53" s="3">
-        <v>366.97</v>
+        <v>159.31</v>
       </c>
       <c r="K53" s="3">
-        <v>366.97</v>
+        <v>159.31</v>
       </c>
       <c r="L53" t="s">
         <v>17</v>
       </c>
       <c r="M53" t="s">
-        <v>54</v>
+        <v>18</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.25">
@@ -2785,7 +2785,7 @@
         <v>211111832</v>
       </c>
       <c r="B54" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C54" t="s">
         <v>14</v>
@@ -2794,25 +2794,25 @@
         <v>15</v>
       </c>
       <c r="E54">
-        <v>11106</v>
+        <v>11279</v>
       </c>
       <c r="F54" t="s">
         <v>16</v>
       </c>
       <c r="G54" s="1">
-        <v>45926.528171296297</v>
+        <v>45929.50131944444</v>
       </c>
       <c r="H54" s="1">
-        <v>45866.528182870366</v>
+        <v>45869.501331018517</v>
       </c>
       <c r="I54" s="2">
-        <v>-32</v>
+        <v>-30</v>
       </c>
       <c r="J54" s="3">
-        <v>159.31</v>
+        <v>420.68</v>
       </c>
       <c r="K54" s="3">
-        <v>159.31</v>
+        <v>420.68</v>
       </c>
       <c r="L54" t="s">
         <v>17</v>
@@ -2826,34 +2826,34 @@
         <v>211111832</v>
       </c>
       <c r="B55" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C55" t="s">
-        <v>14</v>
-      </c>
-      <c r="D55" s="4" t="s">
-        <v>15</v>
+        <v>26</v>
+      </c>
+      <c r="D55" s="4">
+        <v>2025</v>
       </c>
       <c r="E55">
-        <v>11279</v>
+        <v>722</v>
       </c>
       <c r="F55" t="s">
         <v>16</v>
       </c>
       <c r="G55" s="1">
-        <v>45929.50131944444</v>
+        <v>45933</v>
       </c>
       <c r="H55" s="1">
-        <v>45869.501331018517</v>
+        <v>45873</v>
       </c>
       <c r="I55" s="2">
-        <v>-35</v>
+        <v>-34</v>
       </c>
       <c r="J55" s="3">
-        <v>420.68</v>
+        <v>-68.290000000000006</v>
       </c>
       <c r="K55" s="3">
-        <v>420.68</v>
+        <v>-68.290000000000006</v>
       </c>
       <c r="L55" t="s">
         <v>17</v>
@@ -2867,34 +2867,34 @@
         <v>211111832</v>
       </c>
       <c r="B56" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C56" t="s">
-        <v>26</v>
-      </c>
-      <c r="D56" s="4">
-        <v>2025</v>
+        <v>14</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="E56">
-        <v>722</v>
+        <v>11401</v>
       </c>
       <c r="F56" t="s">
         <v>16</v>
       </c>
       <c r="G56" s="1">
-        <v>45933</v>
+        <v>45933.565509259257</v>
       </c>
       <c r="H56" s="1">
-        <v>45873</v>
+        <v>45873.565520833334</v>
       </c>
       <c r="I56" s="2">
-        <v>-39</v>
+        <v>-34</v>
       </c>
       <c r="J56" s="3">
-        <v>-68.290000000000006</v>
+        <v>176.39000000000001</v>
       </c>
       <c r="K56" s="3">
-        <v>-68.290000000000006</v>
+        <v>176.39000000000001</v>
       </c>
       <c r="L56" t="s">
         <v>17</v>
@@ -2908,7 +2908,7 @@
         <v>211111832</v>
       </c>
       <c r="B57" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C57" t="s">
         <v>14</v>
@@ -2917,25 +2917,25 @@
         <v>15</v>
       </c>
       <c r="E57">
-        <v>11401</v>
+        <v>11591</v>
       </c>
       <c r="F57" t="s">
         <v>16</v>
       </c>
       <c r="G57" s="1">
-        <v>45933.565509259257</v>
+        <v>45936.521041666667</v>
       </c>
       <c r="H57" s="1">
-        <v>45873.565520833334</v>
+        <v>45876.521238425921</v>
       </c>
       <c r="I57" s="2">
-        <v>-39</v>
+        <v>-37</v>
       </c>
       <c r="J57" s="3">
-        <v>176.39000000000001</v>
+        <v>460.85</v>
       </c>
       <c r="K57" s="3">
-        <v>176.39000000000001</v>
+        <v>460.85</v>
       </c>
       <c r="L57" t="s">
         <v>17</v>
@@ -2949,7 +2949,7 @@
         <v>211111832</v>
       </c>
       <c r="B58" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C58" t="s">
         <v>14</v>
@@ -2958,25 +2958,25 @@
         <v>15</v>
       </c>
       <c r="E58">
-        <v>11591</v>
+        <v>11898</v>
       </c>
       <c r="F58" t="s">
         <v>16</v>
       </c>
       <c r="G58" s="1">
-        <v>45936.521041666667</v>
+        <v>45943.465717592589</v>
       </c>
       <c r="H58" s="1">
-        <v>45876.521238425921</v>
+        <v>45883.465717592589</v>
       </c>
       <c r="I58" s="2">
-        <v>-42</v>
+        <v>-44</v>
       </c>
       <c r="J58" s="3">
-        <v>460.85</v>
+        <v>400.48</v>
       </c>
       <c r="K58" s="3">
-        <v>460.85</v>
+        <v>400.48</v>
       </c>
       <c r="L58" t="s">
         <v>17</v>
@@ -2990,7 +2990,7 @@
         <v>211111832</v>
       </c>
       <c r="B59" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C59" t="s">
         <v>14</v>
@@ -2999,25 +2999,25 @@
         <v>15</v>
       </c>
       <c r="E59">
-        <v>11898</v>
+        <v>11966</v>
       </c>
       <c r="F59" t="s">
         <v>16</v>
       </c>
       <c r="G59" s="1">
-        <v>45943.465717592589</v>
+        <v>45947.58253472222</v>
       </c>
       <c r="H59" s="1">
-        <v>45883.465717592589</v>
+        <v>45887.583229166667</v>
       </c>
       <c r="I59" s="2">
-        <v>-49</v>
+        <v>-48</v>
       </c>
       <c r="J59" s="3">
-        <v>400.48</v>
+        <v>42.03</v>
       </c>
       <c r="K59" s="3">
-        <v>400.48</v>
+        <v>42.03</v>
       </c>
       <c r="L59" t="s">
         <v>17</v>
@@ -3031,7 +3031,7 @@
         <v>211111832</v>
       </c>
       <c r="B60" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C60" t="s">
         <v>14</v>
@@ -3040,25 +3040,25 @@
         <v>15</v>
       </c>
       <c r="E60">
-        <v>11966</v>
+        <v>12134</v>
       </c>
       <c r="F60" t="s">
         <v>16</v>
       </c>
       <c r="G60" s="1">
-        <v>45947.58253472222</v>
+        <v>45950.630381944444</v>
       </c>
       <c r="H60" s="1">
-        <v>45887.583229166667</v>
+        <v>45890.630393518513</v>
       </c>
       <c r="I60" s="2">
-        <v>-53</v>
+        <v>-51</v>
       </c>
       <c r="J60" s="3">
-        <v>42.03</v>
+        <v>323.86</v>
       </c>
       <c r="K60" s="3">
-        <v>42.03</v>
+        <v>323.86</v>
       </c>
       <c r="L60" t="s">
         <v>17</v>
@@ -3072,7 +3072,7 @@
         <v>211111832</v>
       </c>
       <c r="B61" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C61" t="s">
         <v>14</v>
@@ -3081,25 +3081,25 @@
         <v>15</v>
       </c>
       <c r="E61">
-        <v>12134</v>
+        <v>12235</v>
       </c>
       <c r="F61" t="s">
         <v>16</v>
       </c>
       <c r="G61" s="1">
-        <v>45950.630381944444</v>
+        <v>45954.554768518516</v>
       </c>
       <c r="H61" s="1">
-        <v>45890.630393518513</v>
+        <v>45894.554768518516</v>
       </c>
       <c r="I61" s="2">
-        <v>-56</v>
+        <v>-55</v>
       </c>
       <c r="J61" s="3">
-        <v>323.86</v>
+        <v>235.01</v>
       </c>
       <c r="K61" s="3">
-        <v>323.86</v>
+        <v>235.01</v>
       </c>
       <c r="L61" t="s">
         <v>17</v>
@@ -3110,10 +3110,10 @@
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>211111909</v>
+        <v>211111832</v>
       </c>
       <c r="B62" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C62" t="s">
         <v>14</v>
@@ -3122,25 +3122,25 @@
         <v>15</v>
       </c>
       <c r="E62">
-        <v>11589</v>
+        <v>12375</v>
       </c>
       <c r="F62" t="s">
         <v>16</v>
       </c>
       <c r="G62" s="1">
-        <v>45906.520150462959</v>
+        <v>45957.434317129628</v>
       </c>
       <c r="H62" s="1">
-        <v>45876.520451388889</v>
+        <v>45897.434317129628</v>
       </c>
       <c r="I62" s="2">
-        <v>-12</v>
+        <v>-58</v>
       </c>
       <c r="J62" s="3">
-        <v>69.11</v>
+        <v>153.30000000000001</v>
       </c>
       <c r="K62" s="3">
-        <v>69.11</v>
+        <v>153.30000000000001</v>
       </c>
       <c r="L62" t="s">
         <v>17</v>
@@ -3154,7 +3154,7 @@
         <v>211111909</v>
       </c>
       <c r="B63" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C63" t="s">
         <v>14</v>
@@ -3163,25 +3163,25 @@
         <v>15</v>
       </c>
       <c r="E63">
-        <v>11953</v>
+        <v>11589</v>
       </c>
       <c r="F63" t="s">
         <v>16</v>
       </c>
       <c r="G63" s="1">
-        <v>45917.471018518518</v>
+        <v>45906.520150462959</v>
       </c>
       <c r="H63" s="1">
-        <v>45887.473657407405</v>
+        <v>45876.520451388889</v>
       </c>
       <c r="I63" s="2">
-        <v>-23</v>
+        <v>-7</v>
       </c>
       <c r="J63" s="3">
-        <v>81.93</v>
+        <v>69.11</v>
       </c>
       <c r="K63" s="3">
-        <v>81.93</v>
+        <v>69.11</v>
       </c>
       <c r="L63" t="s">
         <v>17</v>
@@ -3192,10 +3192,10 @@
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>211111932</v>
+        <v>211111909</v>
       </c>
       <c r="B64" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C64" t="s">
         <v>14</v>
@@ -3204,39 +3204,39 @@
         <v>15</v>
       </c>
       <c r="E64">
-        <v>6876</v>
+        <v>11953</v>
       </c>
       <c r="F64" t="s">
         <v>16</v>
       </c>
       <c r="G64" s="1">
-        <v>45806.316099537034</v>
+        <v>45917.471018518518</v>
       </c>
       <c r="H64" s="1">
-        <v>45776.318043981482</v>
+        <v>45887.473657407405</v>
       </c>
       <c r="I64" s="2">
-        <v>88</v>
+        <v>-18</v>
       </c>
       <c r="J64" s="3">
-        <v>337.18</v>
+        <v>81.93</v>
       </c>
       <c r="K64" s="3">
-        <v>137.18</v>
+        <v>81.93</v>
       </c>
       <c r="L64" t="s">
         <v>17</v>
       </c>
       <c r="M64" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>211111932</v>
+        <v>211111909</v>
       </c>
       <c r="B65" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C65" t="s">
         <v>14</v>
@@ -3245,39 +3245,39 @@
         <v>15</v>
       </c>
       <c r="E65">
-        <v>7112</v>
+        <v>12233</v>
       </c>
       <c r="F65" t="s">
         <v>16</v>
       </c>
       <c r="G65" s="1">
-        <v>45809.600486111107</v>
+        <v>45924.554710648146</v>
       </c>
       <c r="H65" s="1">
-        <v>45779.601805555554</v>
+        <v>45894.554710648146</v>
       </c>
       <c r="I65" s="2">
-        <v>85</v>
+        <v>-25</v>
       </c>
       <c r="J65" s="3">
-        <v>1342.49</v>
+        <v>72.180000000000007</v>
       </c>
       <c r="K65" s="3">
-        <v>1000</v>
+        <v>72.180000000000007</v>
       </c>
       <c r="L65" t="s">
         <v>17</v>
       </c>
       <c r="M65" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>211111949</v>
+        <v>211111909</v>
       </c>
       <c r="B66" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C66" t="s">
         <v>14</v>
@@ -3286,25 +3286,25 @@
         <v>15</v>
       </c>
       <c r="E66">
-        <v>11459</v>
+        <v>12372</v>
       </c>
       <c r="F66" t="s">
         <v>16</v>
       </c>
       <c r="G66" s="1">
-        <v>45904.540520833332</v>
+        <v>45927.434236111112</v>
       </c>
       <c r="H66" s="1">
-        <v>45874.540532407409</v>
+        <v>45897.434247685182</v>
       </c>
       <c r="I66" s="2">
-        <v>-10</v>
+        <v>-28</v>
       </c>
       <c r="J66" s="3">
-        <v>218.93</v>
+        <v>110.01</v>
       </c>
       <c r="K66" s="3">
-        <v>218.93</v>
+        <v>110.01</v>
       </c>
       <c r="L66" t="s">
         <v>17</v>
@@ -3315,10 +3315,10 @@
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>211111949</v>
+        <v>211111932</v>
       </c>
       <c r="B67" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C67" t="s">
         <v>14</v>
@@ -3327,39 +3327,39 @@
         <v>15</v>
       </c>
       <c r="E67">
-        <v>11744</v>
+        <v>6876</v>
       </c>
       <c r="F67" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="G67" s="1">
-        <v>45911.439571759256</v>
+        <v>45806.316099537034</v>
       </c>
       <c r="H67" s="1">
-        <v>45881.439571759256</v>
+        <v>45776.318043981482</v>
       </c>
       <c r="I67" s="2">
-        <v>-17</v>
+        <v>93</v>
       </c>
       <c r="J67" s="3">
-        <v>230.83</v>
+        <v>337.18</v>
       </c>
       <c r="K67" s="3">
-        <v>230.83</v>
+        <v>137.18</v>
       </c>
       <c r="L67" t="s">
         <v>17</v>
       </c>
       <c r="M67" t="s">
-        <v>18</v>
+        <v>54</v>
       </c>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>211111949</v>
+        <v>211111932</v>
       </c>
       <c r="B68" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C68" t="s">
         <v>14</v>
@@ -3368,31 +3368,31 @@
         <v>15</v>
       </c>
       <c r="E68">
-        <v>11909</v>
+        <v>7112</v>
       </c>
       <c r="F68" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="G68" s="1">
-        <v>45913.559398148143</v>
+        <v>45809.600486111107</v>
       </c>
       <c r="H68" s="1">
-        <v>45883.55940972222</v>
+        <v>45779.601805555554</v>
       </c>
       <c r="I68" s="2">
-        <v>-19</v>
+        <v>90</v>
       </c>
       <c r="J68" s="3">
-        <v>377.03000000000003</v>
+        <v>1342.49</v>
       </c>
       <c r="K68" s="3">
-        <v>377.03000000000003</v>
+        <v>1000</v>
       </c>
       <c r="L68" t="s">
         <v>17</v>
       </c>
       <c r="M68" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.25">
@@ -3400,7 +3400,7 @@
         <v>211111949</v>
       </c>
       <c r="B69" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C69" t="s">
         <v>14</v>
@@ -3409,25 +3409,25 @@
         <v>15</v>
       </c>
       <c r="E69">
-        <v>12009</v>
+        <v>11459</v>
       </c>
       <c r="F69" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="G69" s="1">
-        <v>45918.531423611108</v>
+        <v>45904.540520833332</v>
       </c>
       <c r="H69" s="1">
-        <v>45888.531435185185</v>
+        <v>45874.540532407409</v>
       </c>
       <c r="I69" s="2">
-        <v>-24</v>
+        <v>-5</v>
       </c>
       <c r="J69" s="3">
-        <v>405.06</v>
+        <v>218.93</v>
       </c>
       <c r="K69" s="3">
-        <v>405.06</v>
+        <v>218.93</v>
       </c>
       <c r="L69" t="s">
         <v>17</v>
@@ -3441,7 +3441,7 @@
         <v>211111949</v>
       </c>
       <c r="B70" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C70" t="s">
         <v>14</v>
@@ -3450,25 +3450,25 @@
         <v>15</v>
       </c>
       <c r="E70">
-        <v>12188</v>
+        <v>11744</v>
       </c>
       <c r="F70" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="G70" s="1">
-        <v>45921.438807870371</v>
+        <v>45911.439571759256</v>
       </c>
       <c r="H70" s="1">
-        <v>45891.438807870371</v>
+        <v>45881.439571759256</v>
       </c>
       <c r="I70" s="2">
-        <v>-27</v>
+        <v>-12</v>
       </c>
       <c r="J70" s="3">
-        <v>187.02</v>
+        <v>230.83</v>
       </c>
       <c r="K70" s="3">
-        <v>187.02</v>
+        <v>230.83</v>
       </c>
       <c r="L70" t="s">
         <v>17</v>
@@ -3479,51 +3479,51 @@
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>211111992</v>
+        <v>211111949</v>
       </c>
       <c r="B71" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C71" t="s">
-        <v>26</v>
-      </c>
-      <c r="D71" s="4">
-        <v>2025</v>
+        <v>14</v>
+      </c>
+      <c r="D71" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="E71">
-        <v>628</v>
+        <v>11909</v>
       </c>
       <c r="F71" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="G71" s="1">
-        <v>45876</v>
+        <v>45913.559398148143</v>
       </c>
       <c r="H71" s="1">
-        <v>45846</v>
+        <v>45883.55940972222</v>
       </c>
       <c r="I71" s="2">
-        <v>18</v>
+        <v>-14</v>
       </c>
       <c r="J71" s="3">
-        <v>-24.060000000000002</v>
+        <v>377.03000000000003</v>
       </c>
       <c r="K71" s="3">
-        <v>-24.060000000000002</v>
+        <v>377.03000000000003</v>
       </c>
       <c r="L71" t="s">
         <v>17</v>
       </c>
       <c r="M71" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>211111992</v>
+        <v>211111949</v>
       </c>
       <c r="B72" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C72" t="s">
         <v>14</v>
@@ -3532,39 +3532,39 @@
         <v>15</v>
       </c>
       <c r="E72">
-        <v>10284</v>
+        <v>12009</v>
       </c>
       <c r="F72" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="G72" s="1">
-        <v>45876.526770833334</v>
+        <v>45918.531423611108</v>
       </c>
       <c r="H72" s="1">
-        <v>45846.52884259259</v>
+        <v>45888.531435185185</v>
       </c>
       <c r="I72" s="2">
-        <v>18</v>
+        <v>-19</v>
       </c>
       <c r="J72" s="3">
-        <v>192.77</v>
+        <v>405.06</v>
       </c>
       <c r="K72" s="3">
-        <v>192.77</v>
+        <v>405.06</v>
       </c>
       <c r="L72" t="s">
         <v>17</v>
       </c>
       <c r="M72" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>211111992</v>
+        <v>211111949</v>
       </c>
       <c r="B73" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C73" t="s">
         <v>14</v>
@@ -3573,39 +3573,39 @@
         <v>15</v>
       </c>
       <c r="E73">
-        <v>10720</v>
+        <v>12188</v>
       </c>
       <c r="F73" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="G73" s="1">
-        <v>45885.592870370368</v>
+        <v>45921.438807870371</v>
       </c>
       <c r="H73" s="1">
-        <v>45855.592870370368</v>
+        <v>45891.438807870371</v>
       </c>
       <c r="I73" s="2">
-        <v>9</v>
+        <v>-22</v>
       </c>
       <c r="J73" s="3">
-        <v>57.06</v>
+        <v>187.02</v>
       </c>
       <c r="K73" s="3">
-        <v>57.06</v>
+        <v>187.02</v>
       </c>
       <c r="L73" t="s">
         <v>17</v>
       </c>
       <c r="M73" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>211111992</v>
+        <v>211111949</v>
       </c>
       <c r="B74" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C74" t="s">
         <v>14</v>
@@ -3614,31 +3614,31 @@
         <v>15</v>
       </c>
       <c r="E74">
-        <v>10722</v>
+        <v>12292</v>
       </c>
       <c r="F74" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="G74" s="1">
-        <v>45885.593692129631</v>
+        <v>45925.524317129624</v>
       </c>
       <c r="H74" s="1">
-        <v>45855.593692129631</v>
+        <v>45895.524328703701</v>
       </c>
       <c r="I74" s="2">
-        <v>9</v>
+        <v>-26</v>
       </c>
       <c r="J74" s="3">
-        <v>161.43</v>
+        <v>285.05</v>
       </c>
       <c r="K74" s="3">
-        <v>161.43</v>
+        <v>285.05</v>
       </c>
       <c r="L74" t="s">
         <v>17</v>
       </c>
       <c r="M74" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.25">
@@ -3646,40 +3646,40 @@
         <v>211111992</v>
       </c>
       <c r="B75" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C75" t="s">
-        <v>14</v>
-      </c>
-      <c r="D75" s="4" t="s">
-        <v>15</v>
+        <v>26</v>
+      </c>
+      <c r="D75" s="4">
+        <v>2025</v>
       </c>
       <c r="E75">
-        <v>11293</v>
+        <v>628</v>
       </c>
       <c r="F75" t="s">
         <v>16</v>
       </c>
       <c r="G75" s="1">
-        <v>45899.506145833329</v>
+        <v>45876</v>
       </c>
       <c r="H75" s="1">
-        <v>45869.506157407406</v>
+        <v>45846</v>
       </c>
       <c r="I75" s="2">
-        <v>-5</v>
+        <v>23</v>
       </c>
       <c r="J75" s="3">
-        <v>237.28</v>
+        <v>-24.060000000000002</v>
       </c>
       <c r="K75" s="3">
-        <v>237.28</v>
+        <v>-24.060000000000002</v>
       </c>
       <c r="L75" t="s">
         <v>17</v>
       </c>
       <c r="M75" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.25">
@@ -3687,7 +3687,7 @@
         <v>211111992</v>
       </c>
       <c r="B76" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C76" t="s">
         <v>14</v>
@@ -3696,31 +3696,31 @@
         <v>15</v>
       </c>
       <c r="E76">
-        <v>11599</v>
+        <v>10284</v>
       </c>
       <c r="F76" t="s">
         <v>16</v>
       </c>
       <c r="G76" s="1">
-        <v>45906.63481481481</v>
+        <v>45876.526770833334</v>
       </c>
       <c r="H76" s="1">
-        <v>45876.635011574072</v>
+        <v>45846.52884259259</v>
       </c>
       <c r="I76" s="2">
-        <v>-12</v>
+        <v>23</v>
       </c>
       <c r="J76" s="3">
-        <v>278.55</v>
+        <v>192.77</v>
       </c>
       <c r="K76" s="3">
-        <v>278.55</v>
+        <v>192.77</v>
       </c>
       <c r="L76" t="s">
         <v>17</v>
       </c>
       <c r="M76" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.25">
@@ -3728,7 +3728,7 @@
         <v>211111992</v>
       </c>
       <c r="B77" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C77" t="s">
         <v>14</v>
@@ -3737,31 +3737,31 @@
         <v>15</v>
       </c>
       <c r="E77">
-        <v>11768</v>
+        <v>10720</v>
       </c>
       <c r="F77" t="s">
         <v>16</v>
       </c>
       <c r="G77" s="1">
-        <v>45911.605543981481</v>
+        <v>45885.592870370368</v>
       </c>
       <c r="H77" s="1">
-        <v>45881.605543981481</v>
+        <v>45855.592870370368</v>
       </c>
       <c r="I77" s="2">
-        <v>-17</v>
+        <v>14</v>
       </c>
       <c r="J77" s="3">
-        <v>131.35</v>
+        <v>57.06</v>
       </c>
       <c r="K77" s="3">
-        <v>131.35</v>
+        <v>57.06</v>
       </c>
       <c r="L77" t="s">
         <v>17</v>
       </c>
       <c r="M77" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.25">
@@ -3769,7 +3769,7 @@
         <v>211111992</v>
       </c>
       <c r="B78" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C78" t="s">
         <v>14</v>
@@ -3778,39 +3778,39 @@
         <v>15</v>
       </c>
       <c r="E78">
-        <v>12162</v>
+        <v>10722</v>
       </c>
       <c r="F78" t="s">
         <v>16</v>
       </c>
       <c r="G78" s="1">
-        <v>45921.411377314813</v>
+        <v>45885.593692129631</v>
       </c>
       <c r="H78" s="1">
-        <v>45891.41138888889</v>
+        <v>45855.593692129631</v>
       </c>
       <c r="I78" s="2">
-        <v>-27</v>
+        <v>14</v>
       </c>
       <c r="J78" s="3">
-        <v>198.99</v>
+        <v>161.43</v>
       </c>
       <c r="K78" s="3">
-        <v>198.99</v>
+        <v>161.43</v>
       </c>
       <c r="L78" t="s">
         <v>17</v>
       </c>
       <c r="M78" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>211112011</v>
+        <v>211111992</v>
       </c>
       <c r="B79" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C79" t="s">
         <v>14</v>
@@ -3819,25 +3819,25 @@
         <v>15</v>
       </c>
       <c r="E79">
-        <v>11965</v>
+        <v>11293</v>
       </c>
       <c r="F79" t="s">
         <v>16</v>
       </c>
       <c r="G79" s="1">
-        <v>45917.574097222219</v>
+        <v>45899.506145833329</v>
       </c>
       <c r="H79" s="1">
-        <v>45887.582291666666</v>
+        <v>45869.506157407406</v>
       </c>
       <c r="I79" s="2">
-        <v>-23</v>
+        <v>0</v>
       </c>
       <c r="J79" s="3">
-        <v>131.25</v>
+        <v>237.28</v>
       </c>
       <c r="K79" s="5">
-        <v>131.25</v>
+        <v>237.28</v>
       </c>
       <c r="L79" t="s">
         <v>17</v>
@@ -3848,10 +3848,10 @@
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>211112011</v>
+        <v>211111992</v>
       </c>
       <c r="B80" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C80" t="s">
         <v>14</v>
@@ -3860,25 +3860,25 @@
         <v>15</v>
       </c>
       <c r="E80">
-        <v>12138</v>
+        <v>11599</v>
       </c>
       <c r="F80" t="s">
         <v>16</v>
       </c>
       <c r="G80" s="1">
-        <v>45920.630497685182</v>
+        <v>45906.63481481481</v>
       </c>
       <c r="H80" s="1">
-        <v>45890.630509259259</v>
+        <v>45876.635011574072</v>
       </c>
       <c r="I80" s="2">
-        <v>-26</v>
+        <v>-7</v>
       </c>
       <c r="J80" s="3">
-        <v>263.38</v>
+        <v>278.55</v>
       </c>
       <c r="K80" s="5">
-        <v>263.38</v>
+        <v>278.55</v>
       </c>
       <c r="L80" t="s">
         <v>17</v>
@@ -3889,10 +3889,10 @@
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>211112028</v>
+        <v>211111992</v>
       </c>
       <c r="B81" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C81" t="s">
         <v>14</v>
@@ -3901,25 +3901,25 @@
         <v>15</v>
       </c>
       <c r="E81">
-        <v>11418</v>
+        <v>11768</v>
       </c>
       <c r="F81" t="s">
         <v>16</v>
       </c>
       <c r="G81" s="1">
-        <v>45903.635358796295</v>
+        <v>45911.605543981481</v>
       </c>
       <c r="H81" s="1">
-        <v>45873.635370370372</v>
+        <v>45881.605543981481</v>
       </c>
       <c r="I81" s="2">
-        <v>-9</v>
+        <v>-12</v>
       </c>
       <c r="J81" s="3">
-        <v>174.49</v>
+        <v>131.35</v>
       </c>
       <c r="K81" s="3">
-        <v>174.49</v>
+        <v>131.35</v>
       </c>
       <c r="L81" t="s">
         <v>17</v>
@@ -3930,10 +3930,10 @@
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>211112028</v>
+        <v>211111992</v>
       </c>
       <c r="B82" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C82" t="s">
         <v>14</v>
@@ -3942,25 +3942,25 @@
         <v>15</v>
       </c>
       <c r="E82">
-        <v>12160</v>
+        <v>12162</v>
       </c>
       <c r="F82" t="s">
         <v>16</v>
       </c>
       <c r="G82" s="1">
-        <v>45921.41134259259</v>
+        <v>45921.411377314813</v>
       </c>
       <c r="H82" s="1">
-        <v>45891.41134259259</v>
+        <v>45891.41138888889</v>
       </c>
       <c r="I82" s="2">
-        <v>-27</v>
+        <v>-22</v>
       </c>
       <c r="J82" s="3">
-        <v>287.06</v>
+        <v>198.99</v>
       </c>
       <c r="K82" s="3">
-        <v>287.06</v>
+        <v>198.99</v>
       </c>
       <c r="L82" t="s">
         <v>17</v>
@@ -3971,10 +3971,10 @@
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>211112064</v>
+        <v>211112011</v>
       </c>
       <c r="B83" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C83" t="s">
         <v>14</v>
@@ -3983,25 +3983,25 @@
         <v>15</v>
       </c>
       <c r="E83">
-        <v>11361</v>
+        <v>12378</v>
       </c>
       <c r="F83" t="s">
         <v>16</v>
       </c>
       <c r="G83" s="1">
-        <v>45900.567106481481</v>
+        <v>45927.434386574074</v>
       </c>
       <c r="H83" s="1">
-        <v>45870.567106481481</v>
+        <v>45897.434386574074</v>
       </c>
       <c r="I83" s="2">
-        <v>-6</v>
+        <v>-28</v>
       </c>
       <c r="J83" s="3">
-        <v>179.36</v>
+        <v>201.62</v>
       </c>
       <c r="K83" s="3">
-        <v>179.36</v>
+        <v>201.62</v>
       </c>
       <c r="L83" t="s">
         <v>17</v>
@@ -4012,10 +4012,10 @@
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>211112064</v>
+        <v>211112028</v>
       </c>
       <c r="B84" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C84" t="s">
         <v>14</v>
@@ -4024,25 +4024,25 @@
         <v>15</v>
       </c>
       <c r="E84">
-        <v>11643</v>
+        <v>11418</v>
       </c>
       <c r="F84" t="s">
         <v>16</v>
       </c>
       <c r="G84" s="1">
-        <v>45907.581400462965</v>
+        <v>45903.635358796295</v>
       </c>
       <c r="H84" s="1">
-        <v>45877.581400462965</v>
+        <v>45873.635370370372</v>
       </c>
       <c r="I84" s="2">
-        <v>-13</v>
+        <v>-4</v>
       </c>
       <c r="J84" s="3">
-        <v>24.98</v>
+        <v>174.49</v>
       </c>
       <c r="K84" s="5">
-        <v>24.98</v>
+        <v>174.49</v>
       </c>
       <c r="L84" t="s">
         <v>17</v>
@@ -4053,37 +4053,37 @@
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>211112064</v>
+        <v>211112028</v>
       </c>
       <c r="B85" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C85" t="s">
-        <v>26</v>
-      </c>
-      <c r="D85" s="4">
-        <v>2025</v>
+        <v>14</v>
+      </c>
+      <c r="D85" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="E85">
-        <v>734</v>
+        <v>12160</v>
       </c>
       <c r="F85" t="s">
         <v>16</v>
       </c>
       <c r="G85" s="1">
-        <v>45908</v>
+        <v>45921.41134259259</v>
       </c>
       <c r="H85" s="1">
-        <v>45878</v>
+        <v>45891.41134259259</v>
       </c>
       <c r="I85" s="2">
-        <v>-14</v>
+        <v>-22</v>
       </c>
       <c r="J85" s="3">
-        <v>-20.81</v>
+        <v>287.06</v>
       </c>
       <c r="K85" s="3">
-        <v>-20.81</v>
+        <v>287.06</v>
       </c>
       <c r="L85" t="s">
         <v>17</v>
@@ -4094,37 +4094,37 @@
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>211112064</v>
+        <v>211112028</v>
       </c>
       <c r="B86" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C86" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E86" t="s">
-        <v>32</v>
+        <v>15</v>
+      </c>
+      <c r="E86">
+        <v>12388</v>
       </c>
       <c r="F86" t="s">
         <v>16</v>
       </c>
       <c r="G86" s="1">
-        <v>45910</v>
+        <v>45927.460138888884</v>
       </c>
       <c r="H86" s="1">
-        <v>45880</v>
+        <v>45897.460150462961</v>
       </c>
       <c r="I86" s="2">
-        <v>-16</v>
+        <v>-28</v>
       </c>
       <c r="J86" s="3">
-        <v>-78.28</v>
+        <v>289.98</v>
       </c>
       <c r="K86" s="3">
-        <v>-0.08</v>
+        <v>289.98</v>
       </c>
       <c r="L86" t="s">
         <v>17</v>
@@ -4135,10 +4135,10 @@
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>211112086</v>
+        <v>211112064</v>
       </c>
       <c r="B87" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C87" t="s">
         <v>14</v>
@@ -4147,39 +4147,39 @@
         <v>15</v>
       </c>
       <c r="E87">
-        <v>10414</v>
+        <v>11361</v>
       </c>
       <c r="F87" t="s">
         <v>16</v>
       </c>
       <c r="G87" s="1">
-        <v>45878.428182870368</v>
+        <v>45900.567106481481</v>
       </c>
       <c r="H87" s="1">
-        <v>45848.428182870368</v>
+        <v>45870.567106481481</v>
       </c>
       <c r="I87" s="2">
-        <v>16</v>
+        <v>-1</v>
       </c>
       <c r="J87" s="3">
-        <v>181.28</v>
+        <v>179.36</v>
       </c>
       <c r="K87" s="3">
-        <v>81.070000000000007</v>
+        <v>179.36</v>
       </c>
       <c r="L87" t="s">
         <v>17</v>
       </c>
       <c r="M87" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>211112086</v>
+        <v>211112064</v>
       </c>
       <c r="B88" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C88" t="s">
         <v>14</v>
@@ -4188,107 +4188,107 @@
         <v>15</v>
       </c>
       <c r="E88">
-        <v>10705</v>
+        <v>11643</v>
       </c>
       <c r="F88" t="s">
         <v>16</v>
       </c>
       <c r="G88" s="1">
-        <v>45885.500740740739</v>
+        <v>45907.581400462965</v>
       </c>
       <c r="H88" s="1">
-        <v>45855.500740740739</v>
+        <v>45877.581400462965</v>
       </c>
       <c r="I88" s="2">
-        <v>9</v>
+        <v>-8</v>
       </c>
       <c r="J88" s="3">
-        <v>236.3</v>
+        <v>24.98</v>
       </c>
       <c r="K88" s="3">
-        <v>236.3</v>
+        <v>24.98</v>
       </c>
       <c r="L88" t="s">
         <v>17</v>
       </c>
       <c r="M88" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>211112086</v>
+        <v>211112064</v>
       </c>
       <c r="B89" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C89" t="s">
-        <v>14</v>
-      </c>
-      <c r="D89" s="4" t="s">
-        <v>15</v>
+        <v>26</v>
+      </c>
+      <c r="D89" s="4">
+        <v>2025</v>
       </c>
       <c r="E89">
-        <v>10990</v>
+        <v>734</v>
       </c>
       <c r="F89" t="s">
         <v>16</v>
       </c>
       <c r="G89" s="1">
-        <v>45892.49282407407</v>
+        <v>45908</v>
       </c>
       <c r="H89" s="1">
-        <v>45862.49282407407</v>
+        <v>45878</v>
       </c>
       <c r="I89" s="2">
-        <v>2</v>
+        <v>-9</v>
       </c>
       <c r="J89" s="3">
-        <v>68.710000000000008</v>
+        <v>-20.81</v>
       </c>
       <c r="K89" s="3">
-        <v>68.710000000000008</v>
+        <v>-20.81</v>
       </c>
       <c r="L89" t="s">
         <v>17</v>
       </c>
       <c r="M89" t="s">
-        <v>54</v>
+        <v>18</v>
       </c>
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>211112086</v>
+        <v>211112064</v>
       </c>
       <c r="B90" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C90" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="D90" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E90">
-        <v>11590</v>
+        <v>30</v>
+      </c>
+      <c r="E90" t="s">
+        <v>31</v>
       </c>
       <c r="F90" t="s">
         <v>16</v>
       </c>
       <c r="G90" s="1">
-        <v>45906.520590277774</v>
+        <v>45910</v>
       </c>
       <c r="H90" s="1">
-        <v>45876.520879629628</v>
+        <v>45880</v>
       </c>
       <c r="I90" s="2">
-        <v>-12</v>
+        <v>-11</v>
       </c>
       <c r="J90" s="3">
-        <v>122.73</v>
+        <v>-78.28</v>
       </c>
       <c r="K90" s="3">
-        <v>122.73</v>
+        <v>-0.08</v>
       </c>
       <c r="L90" t="s">
         <v>17</v>
@@ -4302,7 +4302,7 @@
         <v>211112086</v>
       </c>
       <c r="B91" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C91" t="s">
         <v>14</v>
@@ -4311,31 +4311,31 @@
         <v>15</v>
       </c>
       <c r="E91">
-        <v>11892</v>
+        <v>10414</v>
       </c>
       <c r="F91" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="G91" s="1">
-        <v>45913.465567129628</v>
+        <v>45878.428182870368</v>
       </c>
       <c r="H91" s="1">
-        <v>45883.465567129628</v>
+        <v>45848.428182870368</v>
       </c>
       <c r="I91" s="2">
-        <v>-19</v>
+        <v>21</v>
       </c>
       <c r="J91" s="3">
-        <v>262.53000000000003</v>
+        <v>181.28</v>
       </c>
       <c r="K91" s="5">
-        <v>262.53000000000003</v>
+        <v>81.070000000000007</v>
       </c>
       <c r="L91" t="s">
         <v>17</v>
       </c>
       <c r="M91" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.25">
@@ -4343,7 +4343,7 @@
         <v>211112086</v>
       </c>
       <c r="B92" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C92" t="s">
         <v>14</v>
@@ -4352,39 +4352,39 @@
         <v>15</v>
       </c>
       <c r="E92">
-        <v>12133</v>
+        <v>10705</v>
       </c>
       <c r="F92" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="G92" s="1">
-        <v>45920.630358796298</v>
+        <v>45885.500740740739</v>
       </c>
       <c r="H92" s="1">
-        <v>45890.630358796298</v>
+        <v>45855.500740740739</v>
       </c>
       <c r="I92" s="2">
-        <v>-26</v>
+        <v>14</v>
       </c>
       <c r="J92" s="3">
-        <v>81.66</v>
+        <v>236.3</v>
       </c>
       <c r="K92" s="3">
-        <v>81.66</v>
+        <v>236.3</v>
       </c>
       <c r="L92" t="s">
         <v>17</v>
       </c>
       <c r="M92" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>211112115</v>
+        <v>211112086</v>
       </c>
       <c r="B93" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="C93" t="s">
         <v>14</v>
@@ -4393,39 +4393,39 @@
         <v>15</v>
       </c>
       <c r="E93">
-        <v>12130</v>
+        <v>10990</v>
       </c>
       <c r="F93" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="G93" s="1">
-        <v>45920.630289351851</v>
+        <v>45892.49282407407</v>
       </c>
       <c r="H93" s="1">
-        <v>45890.630289351851</v>
+        <v>45862.49282407407</v>
       </c>
       <c r="I93" s="2">
-        <v>-26</v>
+        <v>7</v>
       </c>
       <c r="J93" s="3">
-        <v>257.45999999999998</v>
+        <v>68.710000000000008</v>
       </c>
       <c r="K93" s="3">
-        <v>257.45999999999998</v>
+        <v>68.710000000000008</v>
       </c>
       <c r="L93" t="s">
         <v>17</v>
       </c>
       <c r="M93" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>211112132</v>
+        <v>211112086</v>
       </c>
       <c r="B94" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C94" t="s">
         <v>14</v>
@@ -4434,25 +4434,25 @@
         <v>15</v>
       </c>
       <c r="E94">
-        <v>11593</v>
+        <v>11590</v>
       </c>
       <c r="F94" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="G94" s="1">
-        <v>45906.522152777776</v>
+        <v>45906.520590277774</v>
       </c>
       <c r="H94" s="1">
-        <v>45876.52475694444</v>
+        <v>45876.520879629628</v>
       </c>
       <c r="I94" s="2">
-        <v>-12</v>
+        <v>-7</v>
       </c>
       <c r="J94" s="3">
-        <v>233.13</v>
+        <v>122.73</v>
       </c>
       <c r="K94" s="3">
-        <v>233.13</v>
+        <v>122.73</v>
       </c>
       <c r="L94" t="s">
         <v>17</v>
@@ -4463,37 +4463,37 @@
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>211112132</v>
+        <v>211112086</v>
       </c>
       <c r="B95" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C95" t="s">
-        <v>26</v>
-      </c>
-      <c r="D95" s="4">
-        <v>2025</v>
+        <v>14</v>
+      </c>
+      <c r="D95" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="E95">
-        <v>746</v>
+        <v>11892</v>
       </c>
       <c r="F95" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="G95" s="1">
-        <v>45908</v>
+        <v>45913.465567129628</v>
       </c>
       <c r="H95" s="1">
-        <v>45878</v>
+        <v>45883.465567129628</v>
       </c>
       <c r="I95" s="2">
         <v>-14</v>
       </c>
       <c r="J95" s="3">
-        <v>-6.32</v>
+        <v>262.53000000000003</v>
       </c>
       <c r="K95" s="3">
-        <v>-6.32</v>
+        <v>262.53000000000003</v>
       </c>
       <c r="L95" t="s">
         <v>17</v>
@@ -4504,10 +4504,10 @@
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>211112132</v>
+        <v>211112086</v>
       </c>
       <c r="B96" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C96" t="s">
         <v>14</v>
@@ -4516,25 +4516,25 @@
         <v>15</v>
       </c>
       <c r="E96">
-        <v>11712</v>
+        <v>12133</v>
       </c>
       <c r="F96" t="s">
         <v>16</v>
       </c>
       <c r="G96" s="1">
-        <v>45910.5071412037</v>
+        <v>45920.630358796298</v>
       </c>
       <c r="H96" s="1">
-        <v>45880.5071412037</v>
+        <v>45890.630358796298</v>
       </c>
       <c r="I96" s="2">
-        <v>-16</v>
+        <v>-21</v>
       </c>
       <c r="J96" s="3">
-        <v>256.36</v>
+        <v>81.66</v>
       </c>
       <c r="K96" s="5">
-        <v>256.36</v>
+        <v>81.66</v>
       </c>
       <c r="L96" t="s">
         <v>17</v>
@@ -4548,7 +4548,7 @@
         <v>211112132</v>
       </c>
       <c r="B97" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C97" t="s">
         <v>14</v>
@@ -4557,25 +4557,25 @@
         <v>15</v>
       </c>
       <c r="E97">
-        <v>11954</v>
+        <v>11593</v>
       </c>
       <c r="F97" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="G97" s="1">
-        <v>45917.483252314814</v>
+        <v>45906.522152777776</v>
       </c>
       <c r="H97" s="1">
-        <v>45887.48369212963</v>
+        <v>45876.52475694444</v>
       </c>
       <c r="I97" s="2">
-        <v>-23</v>
+        <v>-7</v>
       </c>
       <c r="J97" s="3">
-        <v>117.23</v>
+        <v>233.13</v>
       </c>
       <c r="K97" s="3">
-        <v>117.23</v>
+        <v>233.13</v>
       </c>
       <c r="L97" t="s">
         <v>17</v>
@@ -4589,34 +4589,34 @@
         <v>211112132</v>
       </c>
       <c r="B98" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C98" t="s">
-        <v>14</v>
-      </c>
-      <c r="D98" s="4" t="s">
-        <v>15</v>
+        <v>26</v>
+      </c>
+      <c r="D98" s="4">
+        <v>2025</v>
       </c>
       <c r="E98">
-        <v>12136</v>
+        <v>746</v>
       </c>
       <c r="F98" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="G98" s="1">
-        <v>45920.630439814813</v>
+        <v>45908</v>
       </c>
       <c r="H98" s="1">
-        <v>45890.63045138889</v>
+        <v>45878</v>
       </c>
       <c r="I98" s="2">
-        <v>-26</v>
+        <v>-9</v>
       </c>
       <c r="J98" s="3">
-        <v>190.9</v>
+        <v>-6.32</v>
       </c>
       <c r="K98" s="3">
-        <v>190.9</v>
+        <v>-6.32</v>
       </c>
       <c r="L98" t="s">
         <v>17</v>
@@ -4627,10 +4627,10 @@
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>211112198</v>
+        <v>211112132</v>
       </c>
       <c r="B99" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C99" t="s">
         <v>14</v>
@@ -4639,66 +4639,66 @@
         <v>15</v>
       </c>
       <c r="E99">
-        <v>10217</v>
+        <v>11712</v>
       </c>
       <c r="F99" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G99" s="1">
-        <v>45875.486840277779</v>
+        <v>45910.5071412037</v>
       </c>
       <c r="H99" s="1">
-        <v>45845.486840277779</v>
+        <v>45880.5071412037</v>
       </c>
       <c r="I99" s="2">
-        <v>19</v>
+        <v>-11</v>
       </c>
       <c r="J99" s="3">
-        <v>187.19</v>
+        <v>256.36</v>
       </c>
       <c r="K99" s="3">
-        <v>187.19</v>
+        <v>256.36</v>
       </c>
       <c r="L99" t="s">
         <v>17</v>
       </c>
       <c r="M99" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>211112198</v>
+        <v>211112132</v>
       </c>
       <c r="B100" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C100" t="s">
-        <v>26</v>
-      </c>
-      <c r="D100" s="4">
-        <v>2025</v>
+        <v>14</v>
+      </c>
+      <c r="D100" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="E100">
-        <v>702</v>
+        <v>11954</v>
       </c>
       <c r="F100" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="G100" s="1">
-        <v>45896</v>
+        <v>45917.483252314814</v>
       </c>
       <c r="H100" s="1">
-        <v>45866</v>
+        <v>45887.48369212963</v>
       </c>
       <c r="I100" s="2">
-        <v>-2</v>
+        <v>-18</v>
       </c>
       <c r="J100" s="3">
-        <v>-2.41</v>
+        <v>117.23</v>
       </c>
       <c r="K100" s="5">
-        <v>-2.41</v>
+        <v>117.23</v>
       </c>
       <c r="L100" t="s">
         <v>17</v>
@@ -4709,10 +4709,10 @@
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>211112198</v>
+        <v>211112132</v>
       </c>
       <c r="B101" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C101" t="s">
         <v>14</v>
@@ -4721,25 +4721,25 @@
         <v>15</v>
       </c>
       <c r="E101">
-        <v>11107</v>
+        <v>12136</v>
       </c>
       <c r="F101" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="G101" s="1">
-        <v>45896.52820601852</v>
+        <v>45920.630439814813</v>
       </c>
       <c r="H101" s="1">
-        <v>45866.52820601852</v>
+        <v>45890.63045138889</v>
       </c>
       <c r="I101" s="2">
-        <v>-2</v>
+        <v>-21</v>
       </c>
       <c r="J101" s="3">
-        <v>587.35</v>
+        <v>190.9</v>
       </c>
       <c r="K101" s="3">
-        <v>60.03</v>
+        <v>190.9</v>
       </c>
       <c r="L101" t="s">
         <v>17</v>
@@ -4750,10 +4750,10 @@
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A102">
-        <v>211112198</v>
+        <v>211112132</v>
       </c>
       <c r="B102" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C102" t="s">
         <v>14</v>
@@ -4762,25 +4762,25 @@
         <v>15</v>
       </c>
       <c r="E102">
-        <v>11711</v>
+        <v>12377</v>
       </c>
       <c r="F102" t="s">
         <v>16</v>
       </c>
       <c r="G102" s="1">
-        <v>45910.507094907407</v>
+        <v>45927.434351851851</v>
       </c>
       <c r="H102" s="1">
-        <v>45880.507106481477</v>
+        <v>45897.434363425928</v>
       </c>
       <c r="I102" s="2">
-        <v>-16</v>
+        <v>-28</v>
       </c>
       <c r="J102" s="3">
-        <v>503.96000000000004</v>
+        <v>114.67</v>
       </c>
       <c r="K102" s="3">
-        <v>503.96000000000004</v>
+        <v>114.67</v>
       </c>
       <c r="L102" t="s">
         <v>17</v>
@@ -4791,10 +4791,10 @@
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A103">
-        <v>211112198</v>
+        <v>211112158</v>
       </c>
       <c r="B103" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="C103" t="s">
         <v>14</v>
@@ -4803,25 +4803,25 @@
         <v>15</v>
       </c>
       <c r="E103">
-        <v>12135</v>
+        <v>12386</v>
       </c>
       <c r="F103" t="s">
         <v>16</v>
       </c>
       <c r="G103" s="1">
-        <v>45920.630416666667</v>
+        <v>45927.460104166668</v>
       </c>
       <c r="H103" s="1">
-        <v>45890.630416666667</v>
+        <v>45897.460104166668</v>
       </c>
       <c r="I103" s="2">
-        <v>-26</v>
+        <v>-28</v>
       </c>
       <c r="J103" s="3">
-        <v>192.65</v>
+        <v>51.07</v>
       </c>
       <c r="K103" s="3">
-        <v>192.65</v>
+        <v>51.07</v>
       </c>
       <c r="L103" t="s">
         <v>17</v>
@@ -4832,51 +4832,51 @@
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A104">
-        <v>211112314</v>
+        <v>211112158</v>
       </c>
       <c r="B104" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="C104" t="s">
-        <v>26</v>
-      </c>
-      <c r="D104" s="4">
-        <v>2025</v>
+        <v>14</v>
+      </c>
+      <c r="D104" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="E104">
-        <v>345</v>
+        <v>12440</v>
       </c>
       <c r="F104" t="s">
         <v>16</v>
       </c>
       <c r="G104" s="1">
-        <v>45788</v>
+        <v>45928.512546296297</v>
       </c>
       <c r="H104" s="1">
-        <v>45758</v>
+        <v>45898.512557870366</v>
       </c>
       <c r="I104" s="2">
-        <v>106</v>
+        <v>-29</v>
       </c>
       <c r="J104" s="3">
-        <v>-16.809999999999999</v>
+        <v>36.200000000000003</v>
       </c>
       <c r="K104" s="3">
-        <v>-16.809999999999999</v>
+        <v>36.200000000000003</v>
       </c>
       <c r="L104" t="s">
         <v>17</v>
       </c>
       <c r="M104" t="s">
-        <v>56</v>
+        <v>18</v>
       </c>
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A105">
-        <v>211112314</v>
+        <v>211112198</v>
       </c>
       <c r="B105" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C105" t="s">
         <v>14</v>
@@ -4885,39 +4885,39 @@
         <v>15</v>
       </c>
       <c r="E105">
-        <v>8584</v>
+        <v>10217</v>
       </c>
       <c r="F105" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="G105" s="1">
-        <v>45836.412951388884</v>
+        <v>45875.486840277779</v>
       </c>
       <c r="H105" s="1">
-        <v>45806.420115740737</v>
+        <v>45845.486840277779</v>
       </c>
       <c r="I105" s="2">
-        <v>58</v>
+        <v>24</v>
       </c>
       <c r="J105" s="3">
-        <v>417.92</v>
+        <v>187.19</v>
       </c>
       <c r="K105" s="3">
-        <v>417.92</v>
+        <v>187.19</v>
       </c>
       <c r="L105" t="s">
         <v>17</v>
       </c>
       <c r="M105" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="106" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A106">
-        <v>211112327</v>
+        <v>211112198</v>
       </c>
       <c r="B106" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C106" t="s">
         <v>26</v>
@@ -4926,121 +4926,121 @@
         <v>2025</v>
       </c>
       <c r="E106">
-        <v>75</v>
+        <v>702</v>
       </c>
       <c r="F106" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="G106" s="1">
-        <v>45721</v>
+        <v>45896</v>
       </c>
       <c r="H106" s="1">
-        <v>45691</v>
+        <v>45866</v>
       </c>
       <c r="I106" s="2">
-        <v>173</v>
+        <v>3</v>
       </c>
       <c r="J106" s="3">
-        <v>-52.050000000000004</v>
+        <v>-2.41</v>
       </c>
       <c r="K106" s="3">
-        <v>-52.050000000000004</v>
+        <v>-2.41</v>
       </c>
       <c r="L106" t="s">
         <v>17</v>
       </c>
       <c r="M106" t="s">
-        <v>33</v>
+        <v>53</v>
       </c>
     </row>
     <row r="107" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A107">
-        <v>211112327</v>
+        <v>211112198</v>
       </c>
       <c r="B107" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C107" t="s">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="D107" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E107">
-        <v>4</v>
+        <v>11107</v>
       </c>
       <c r="F107" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="G107" s="1">
-        <v>45723</v>
+        <v>45896.52820601852</v>
       </c>
       <c r="H107" s="1">
-        <v>45693</v>
+        <v>45866.52820601852</v>
       </c>
       <c r="I107" s="2">
-        <v>171</v>
+        <v>3</v>
       </c>
       <c r="J107" s="3">
-        <v>-26.51</v>
+        <v>587.35</v>
       </c>
       <c r="K107" s="3">
-        <v>-26.51</v>
+        <v>60.03</v>
       </c>
       <c r="L107" t="s">
         <v>17</v>
       </c>
       <c r="M107" t="s">
-        <v>33</v>
+        <v>53</v>
       </c>
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A108">
-        <v>211112401</v>
+        <v>211112198</v>
       </c>
       <c r="B108" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C108" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="D108" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E108" t="s">
-        <v>32</v>
+        <v>15</v>
+      </c>
+      <c r="E108">
+        <v>11711</v>
       </c>
       <c r="F108" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="G108" s="1">
-        <v>45755</v>
+        <v>45910.507094907407</v>
       </c>
       <c r="H108" s="1">
-        <v>45740</v>
+        <v>45880.507106481477</v>
       </c>
       <c r="I108" s="2">
-        <v>139</v>
+        <v>-11</v>
       </c>
       <c r="J108" s="3">
-        <v>-489.09000000000003</v>
+        <v>503.96000000000004</v>
       </c>
       <c r="K108" s="3">
-        <v>-109.25</v>
+        <v>503.96000000000004</v>
       </c>
       <c r="L108" t="s">
         <v>17</v>
       </c>
       <c r="M108" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
     </row>
     <row r="109" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A109">
-        <v>211112477</v>
+        <v>211112198</v>
       </c>
       <c r="B109" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C109" t="s">
         <v>14</v>
@@ -5049,25 +5049,25 @@
         <v>15</v>
       </c>
       <c r="E109">
-        <v>10892</v>
+        <v>12135</v>
       </c>
       <c r="F109" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="G109" s="1">
-        <v>45906.412418981483</v>
+        <v>45920.630416666667</v>
       </c>
       <c r="H109" s="1">
-        <v>45861.413124999999</v>
+        <v>45890.630416666667</v>
       </c>
       <c r="I109" s="2">
-        <v>-12</v>
+        <v>-21</v>
       </c>
       <c r="J109" s="3">
-        <v>89.64</v>
+        <v>192.65</v>
       </c>
       <c r="K109" s="3">
-        <v>89.64</v>
+        <v>192.65</v>
       </c>
       <c r="L109" t="s">
         <v>17</v>
@@ -5078,10 +5078,10 @@
     </row>
     <row r="110" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A110">
-        <v>211112477</v>
+        <v>211112198</v>
       </c>
       <c r="B110" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C110" t="s">
         <v>14</v>
@@ -5090,25 +5090,25 @@
         <v>15</v>
       </c>
       <c r="E110">
-        <v>11350</v>
+        <v>12376</v>
       </c>
       <c r="F110" t="s">
         <v>16</v>
       </c>
       <c r="G110" s="1">
-        <v>45915.566817129627</v>
+        <v>45927.434340277774</v>
       </c>
       <c r="H110" s="1">
-        <v>45870.566817129627</v>
+        <v>45897.434340277774</v>
       </c>
       <c r="I110" s="2">
-        <v>-21</v>
+        <v>-28</v>
       </c>
       <c r="J110" s="3">
-        <v>113.84</v>
+        <v>149.32</v>
       </c>
       <c r="K110" s="3">
-        <v>113.84</v>
+        <v>149.32</v>
       </c>
       <c r="L110" t="s">
         <v>17</v>
@@ -5119,100 +5119,372 @@
     </row>
     <row r="111" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A111">
-        <v>211112505</v>
+        <v>211112314</v>
       </c>
       <c r="B111" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C111" t="s">
-        <v>30</v>
-      </c>
-      <c r="D111" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E111" t="s">
-        <v>32</v>
+        <v>26</v>
+      </c>
+      <c r="D111" s="4">
+        <v>2025</v>
+      </c>
+      <c r="E111">
+        <v>345</v>
       </c>
       <c r="F111" t="s">
         <v>16</v>
       </c>
       <c r="G111" s="1">
-        <v>45803</v>
+        <v>45788</v>
       </c>
       <c r="H111" s="1">
-        <v>45803</v>
+        <v>45758</v>
       </c>
       <c r="I111" s="2">
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="J111" s="3">
-        <v>-350</v>
+        <v>-16.809999999999999</v>
       </c>
       <c r="K111" s="3">
-        <v>-0.24</v>
+        <v>-16.809999999999999</v>
       </c>
       <c r="L111" t="s">
         <v>17</v>
       </c>
       <c r="M111" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A112">
+        <v>211112314</v>
+      </c>
+      <c r="B112" t="s">
+        <v>45</v>
+      </c>
+      <c r="C112" t="s">
+        <v>14</v>
+      </c>
+      <c r="D112" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E112">
+        <v>8584</v>
+      </c>
+      <c r="F112" t="s">
+        <v>16</v>
+      </c>
+      <c r="G112" s="1">
+        <v>45836.412951388884</v>
+      </c>
+      <c r="H112" s="1">
+        <v>45806.420115740737</v>
+      </c>
+      <c r="I112" s="2">
+        <v>63</v>
+      </c>
+      <c r="J112" s="3">
+        <v>417.92</v>
+      </c>
+      <c r="K112" s="3">
+        <v>417.92</v>
+      </c>
+      <c r="L112" t="s">
+        <v>17</v>
+      </c>
+      <c r="M112" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>211112327</v>
+      </c>
+      <c r="B113" t="s">
+        <v>46</v>
+      </c>
+      <c r="C113" t="s">
+        <v>26</v>
+      </c>
+      <c r="D113" s="4">
+        <v>2025</v>
+      </c>
+      <c r="E113">
+        <v>75</v>
+      </c>
+      <c r="F113" t="s">
+        <v>16</v>
+      </c>
+      <c r="G113" s="1">
+        <v>45721</v>
+      </c>
+      <c r="H113" s="1">
+        <v>45691</v>
+      </c>
+      <c r="I113" s="2">
+        <v>178</v>
+      </c>
+      <c r="J113" s="3">
+        <v>-52.050000000000004</v>
+      </c>
+      <c r="K113" s="3">
+        <v>-52.050000000000004</v>
+      </c>
+      <c r="L113" t="s">
+        <v>17</v>
+      </c>
+      <c r="M113" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>211112327</v>
+      </c>
+      <c r="B114" t="s">
+        <v>46</v>
+      </c>
+      <c r="C114" t="s">
+        <v>47</v>
+      </c>
+      <c r="D114" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E114">
+        <v>4</v>
+      </c>
+      <c r="F114" t="s">
+        <v>16</v>
+      </c>
+      <c r="G114" s="1">
+        <v>45723</v>
+      </c>
+      <c r="H114" s="1">
+        <v>45693</v>
+      </c>
+      <c r="I114" s="2">
+        <v>176</v>
+      </c>
+      <c r="J114" s="3">
+        <v>-26.51</v>
+      </c>
+      <c r="K114" s="3">
+        <v>-26.51</v>
+      </c>
+      <c r="L114" t="s">
+        <v>17</v>
+      </c>
+      <c r="M114" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>211112401</v>
+      </c>
+      <c r="B115" t="s">
+        <v>48</v>
+      </c>
+      <c r="C115" t="s">
+        <v>29</v>
+      </c>
+      <c r="D115" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E115" t="s">
+        <v>31</v>
+      </c>
+      <c r="F115" t="s">
+        <v>16</v>
+      </c>
+      <c r="G115" s="1">
+        <v>45755</v>
+      </c>
+      <c r="H115" s="1">
+        <v>45740</v>
+      </c>
+      <c r="I115" s="2">
+        <v>144</v>
+      </c>
+      <c r="J115" s="3">
+        <v>-489.09000000000003</v>
+      </c>
+      <c r="K115" s="3">
+        <v>-109.25</v>
+      </c>
+      <c r="L115" t="s">
+        <v>17</v>
+      </c>
+      <c r="M115" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>211112477</v>
+      </c>
+      <c r="B116" t="s">
+        <v>49</v>
+      </c>
+      <c r="C116" t="s">
+        <v>14</v>
+      </c>
+      <c r="D116" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E116">
+        <v>10892</v>
+      </c>
+      <c r="F116" t="s">
+        <v>16</v>
+      </c>
+      <c r="G116" s="1">
+        <v>45906.412418981483</v>
+      </c>
+      <c r="H116" s="1">
+        <v>45861.413124999999</v>
+      </c>
+      <c r="I116" s="2">
+        <v>-7</v>
+      </c>
+      <c r="J116" s="3">
+        <v>89.64</v>
+      </c>
+      <c r="K116" s="3">
+        <v>89.64</v>
+      </c>
+      <c r="L116" t="s">
+        <v>17</v>
+      </c>
+      <c r="M116" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>211112477</v>
+      </c>
+      <c r="B117" t="s">
+        <v>49</v>
+      </c>
+      <c r="C117" t="s">
+        <v>14</v>
+      </c>
+      <c r="D117" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E117">
+        <v>11350</v>
+      </c>
+      <c r="F117" t="s">
+        <v>16</v>
+      </c>
+      <c r="G117" s="1">
+        <v>45915.566817129627</v>
+      </c>
+      <c r="H117" s="1">
+        <v>45870.566817129627</v>
+      </c>
+      <c r="I117" s="2">
+        <v>-16</v>
+      </c>
+      <c r="J117" s="3">
+        <v>113.84</v>
+      </c>
+      <c r="K117" s="3">
+        <v>113.84</v>
+      </c>
+      <c r="L117" t="s">
+        <v>17</v>
+      </c>
+      <c r="M117" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>211112505</v>
+      </c>
+      <c r="B118" t="s">
+        <v>50</v>
+      </c>
+      <c r="C118" t="s">
+        <v>29</v>
+      </c>
+      <c r="D118" t="s">
+        <v>30</v>
+      </c>
+      <c r="E118" t="s">
+        <v>31</v>
+      </c>
+      <c r="F118" t="s">
+        <v>16</v>
+      </c>
+      <c r="G118" s="1">
+        <v>45803</v>
+      </c>
+      <c r="H118" s="1">
+        <v>45803</v>
+      </c>
+      <c r="I118" s="2">
+        <v>96</v>
+      </c>
+      <c r="J118" s="3">
+        <v>-350</v>
+      </c>
+      <c r="K118" s="3">
+        <v>-0.24</v>
+      </c>
+      <c r="L118" t="s">
+        <v>17</v>
+      </c>
+      <c r="M118" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A119">
         <v>211112523</v>
       </c>
-      <c r="B112" t="s">
-        <v>52</v>
-      </c>
-      <c r="C112" t="s">
-        <v>14</v>
-      </c>
-      <c r="D112" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E112">
+      <c r="B119" t="s">
+        <v>51</v>
+      </c>
+      <c r="C119" t="s">
+        <v>14</v>
+      </c>
+      <c r="D119" t="s">
+        <v>15</v>
+      </c>
+      <c r="E119">
         <v>7843</v>
       </c>
-      <c r="F112" t="s">
-        <v>16</v>
-      </c>
-      <c r="G112" s="1">
+      <c r="F119" t="s">
+        <v>16</v>
+      </c>
+      <c r="G119" s="1">
         <v>45792.648773148147</v>
       </c>
-      <c r="H112" s="1">
+      <c r="H119" s="1">
         <v>45792.648773148147</v>
       </c>
-      <c r="I112" s="2">
-        <v>102</v>
-      </c>
-      <c r="J112" s="3">
+      <c r="I119" s="2">
+        <v>107</v>
+      </c>
+      <c r="J119" s="3">
         <v>481.94</v>
       </c>
-      <c r="K112" s="3">
+      <c r="K119" s="3">
         <v>481.94</v>
       </c>
-      <c r="L112" t="s">
-        <v>17</v>
-      </c>
-      <c r="M112" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="113" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D113" s="4"/>
-    </row>
-    <row r="114" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D114" s="4"/>
-    </row>
-    <row r="115" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D115" s="4"/>
-    </row>
-    <row r="116" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D116" s="4"/>
-    </row>
-    <row r="117" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D117" s="4"/>
+      <c r="L119" t="s">
+        <v>17</v>
+      </c>
+      <c r="M119" t="s">
+        <v>54</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
